--- a/Recycling/SW2/SW2_Min.xlsx
+++ b/Recycling/SW2/SW2_Min.xlsx
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.184556174242834E-06</v>
+        <v>5.501794890868645</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.184531151058477E-09</v>
+        <v>0.02550631033311414</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2539626770730404</v>
+        <v>1032856.227977121</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.54493993759285E-06</v>
+        <v>2.684808337712616</v>
       </c>
       <c r="C7">
-        <v>0.05717447275274824</v>
+        <v>232526.333965996</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -900,22 +900,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.502128596088869E-06</v>
+        <v>11.29944837522842</v>
       </c>
       <c r="C8">
-        <v>0.2903089784940856</v>
+        <v>1180675.20759775</v>
       </c>
       <c r="D8">
-        <v>2.547644939394266E-07</v>
+        <v>0.4401435912694914</v>
       </c>
       <c r="E8">
-        <v>4.947624920846779E-10</v>
+        <v>0.00204050482664913</v>
       </c>
       <c r="F8">
-        <v>0.01015850708292163</v>
+        <v>41314.24911908486</v>
       </c>
       <c r="G8">
-        <v>0.005717601769268582</v>
+        <v>23252.90187743337</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1224.983866919273</v>
+        <v>1412029920.368284</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47.68246698093095</v>
+        <v>117372767.0411422</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12942.98221450765</v>
+        <v>9502311825.747368</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>642.2544958488467</v>
+        <v>806407455.9945788</v>
       </c>
       <c r="C7">
-        <v>2913.846209574504</v>
+        <v>2139250045.83669</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2703.031504209818</v>
+        <v>3393895679.783669</v>
       </c>
       <c r="C8">
-        <v>14795.3391760797</v>
+        <v>10862251379.84195</v>
       </c>
       <c r="D8">
-        <v>97.99870935354177</v>
+        <v>112962393.6294627</v>
       </c>
       <c r="E8">
-        <v>3.814597358474474</v>
+        <v>9389821.363291375</v>
       </c>
       <c r="F8">
-        <v>517.7192885803064</v>
+        <v>380092473.0298951</v>
       </c>
       <c r="G8">
-        <v>355.6100705423349</v>
+        <v>294565750.1831268</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1208.057472707287</v>
+        <v>1393132721.07297</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47.47751343525798</v>
+        <v>117983920.7271553</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12710.56467719901</v>
+        <v>9379282671.444843</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>633.8606907999681</v>
+        <v>797925772.3480059</v>
       </c>
       <c r="C7">
-        <v>2861.522181858053</v>
+        <v>2111552562.444513</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2667.704823534228</v>
+        <v>3358199147.87364</v>
       </c>
       <c r="C8">
-        <v>14529.65880675214</v>
+        <v>10721614698.41224</v>
       </c>
       <c r="D8">
-        <v>96.6445978165829</v>
+        <v>111450617.6858375</v>
       </c>
       <c r="E8">
-        <v>3.798201074820637</v>
+        <v>9438713.658172417</v>
       </c>
       <c r="F8">
-        <v>508.4225870879607</v>
+        <v>375171306.857794</v>
       </c>
       <c r="G8">
-        <v>349.538287265802</v>
+        <v>290947833.4792518</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.439286205800349E-05</v>
+        <v>59.4187894324281</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.01203386481527E-08</v>
+        <v>0.330433168115618</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.5345958958752476</v>
+        <v>2174180.501125189</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.66992972210442E-05</v>
+        <v>29.05384483924471</v>
       </c>
       <c r="C7">
-        <v>0.1203532693650875</v>
+        <v>489472.0171239469</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.028168238353488E-05</v>
+        <v>122.2777861836641</v>
       </c>
       <c r="C8">
-        <v>0.6111054987581434</v>
+        <v>2485342.049540147</v>
       </c>
       <c r="D8">
-        <v>2.751428964640278E-06</v>
+        <v>4.753503154594245</v>
       </c>
       <c r="E8">
-        <v>6.409627091852212E-09</v>
+        <v>0.02643465344924942</v>
       </c>
       <c r="F8">
-        <v>0.02138383583500992</v>
+        <v>86967.22004500766</v>
       </c>
       <c r="G8">
-        <v>0.01203699686623085</v>
+        <v>48950.1070968786</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0002891325996984446</v>
+        <v>499.5196105098353</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.902246548658833E-07</v>
+        <v>3.259053077360215</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.067365250435764</v>
+        <v>4340932.530498859</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0001405105582724796</v>
+        <v>244.7582748334827</v>
       </c>
       <c r="C7">
-        <v>0.2402953305249599</v>
+        <v>977271.6666360592</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1772,22 +1772,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0005913613188221389</v>
+        <v>1030.104626852862</v>
       </c>
       <c r="C8">
-        <v>1.22012304762787</v>
+        <v>4962192.488931865</v>
       </c>
       <c r="D8">
-        <v>2.313060797587556E-05</v>
+        <v>39.9615688407868</v>
       </c>
       <c r="E8">
-        <v>6.321797238927064E-08</v>
+        <v>0.2607242461888171</v>
       </c>
       <c r="F8">
-        <v>0.04269461001743061</v>
+        <v>173637.3012199545</v>
       </c>
       <c r="G8">
-        <v>0.02404358410832323</v>
+        <v>97751.64249108925</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.001984458853067223</v>
+        <v>3428.448104401928</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.227792386882544E-06</v>
+        <v>25.68472879028916</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.052455028287436</v>
+        <v>8346484.436353494</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0009652443361236831</v>
+        <v>1683.407668958394</v>
       </c>
       <c r="C7">
-        <v>0.4620680307969484</v>
+        <v>1879039.28438384</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1990,22 +1990,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.004062386276259638</v>
+        <v>7084.892348801647</v>
       </c>
       <c r="C8">
-        <v>2.346195628170229</v>
+        <v>9541005.783450959</v>
       </c>
       <c r="D8">
-        <v>0.0001587567082453778</v>
+        <v>274.2758483521541</v>
       </c>
       <c r="E8">
-        <v>4.982233909506033E-07</v>
+        <v>2.054778303223132</v>
       </c>
       <c r="F8">
-        <v>0.08209820113149752</v>
+        <v>333859.37745414</v>
       </c>
       <c r="G8">
-        <v>0.0463033275133072</v>
+        <v>188072.2692052798</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01151884556373062</v>
+        <v>19900.52057609129</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.07143312367363E-05</v>
+        <v>167.9144857006121</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.841734683727247</v>
+        <v>15601188.76149057</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.005607620899914399</v>
+        <v>9791.321409123606</v>
       </c>
       <c r="C7">
-        <v>0.8648875398918543</v>
+        <v>3512286.734549524</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02360057586845035</v>
+        <v>41208.35339848514</v>
       </c>
       <c r="C8">
-        <v>4.391551091412521</v>
+        <v>17833979.48407645</v>
       </c>
       <c r="D8">
-        <v>0.000921507645098449</v>
+        <v>1592.041646087303</v>
       </c>
       <c r="E8">
-        <v>3.257146498938902E-06</v>
+        <v>13.43315885604897</v>
       </c>
       <c r="F8">
-        <v>0.15366938734909</v>
+        <v>624047.5504596232</v>
       </c>
       <c r="G8">
-        <v>0.08704951607917685</v>
+        <v>352207.8055958647</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05807973338778703</v>
+        <v>100341.3860306342</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002273637571793051</v>
+        <v>937.6960690262891</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.024564483204293</v>
+        <v>28389903.24854472</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02829783531789425</v>
+        <v>49465.70833310296</v>
       </c>
       <c r="C7">
-        <v>1.581436198711113</v>
+        <v>6391402.738561652</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2426,22 +2426,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1190959983302494</v>
+        <v>208184.4017700722</v>
       </c>
       <c r="C8">
-        <v>8.029897002929944</v>
+        <v>32452972.64393131</v>
       </c>
       <c r="D8">
-        <v>0.00464637867102296</v>
+        <v>8027.310882450731</v>
       </c>
       <c r="E8">
-        <v>1.81891005743444E-05</v>
+        <v>75.0156855221031</v>
       </c>
       <c r="F8">
-        <v>0.280982579328172</v>
+        <v>1135596.12994179</v>
       </c>
       <c r="G8">
-        <v>0.1609734034029006</v>
+        <v>644086.8446894754</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2597125353282342</v>
+        <v>448692.0694067029</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001110043385163779</v>
+        <v>4578.052947550538</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.48741732996774</v>
+        <v>50014599.06089731</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.126637008672977</v>
+        <v>221601.2620740928</v>
       </c>
       <c r="C7">
-        <v>2.811285146750516</v>
+        <v>11259758.18259501</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2644,22 +2644,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5329722504932209</v>
+        <v>932644.6083763994</v>
       </c>
       <c r="C8">
-        <v>14.27457534655636</v>
+        <v>57172523.65781466</v>
       </c>
       <c r="D8">
-        <v>0.02077700282625873</v>
+        <v>35895.36555253621</v>
       </c>
       <c r="E8">
-        <v>8.88034708131023E-05</v>
+        <v>366.2442358040429</v>
       </c>
       <c r="F8">
-        <v>0.4994966931987099</v>
+        <v>2000583.962435894</v>
       </c>
       <c r="G8">
-        <v>0.2937922155423492</v>
+        <v>1148135.94446691</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.046647502973498</v>
+        <v>1808239.380711094</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004826576002985168</v>
+        <v>19905.81701048082</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>21.43441740162406</v>
+        <v>84803436.84946331</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5107239350023794</v>
+        <v>894600.1180610134</v>
       </c>
       <c r="C7">
-        <v>4.825518173868239</v>
+        <v>19091749.4073138</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2862,22 +2862,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.149463951110026</v>
+        <v>3765068.704723937</v>
       </c>
       <c r="C8">
-        <v>24.50204058406461</v>
+        <v>96940225.26575759</v>
       </c>
       <c r="D8">
-        <v>0.08373180023787978</v>
+        <v>144659.1504568874</v>
       </c>
       <c r="E8">
-        <v>0.0003861260802388132</v>
+        <v>1592.465360838465</v>
       </c>
       <c r="F8">
-        <v>0.857376696064963</v>
+        <v>3392137.473978536</v>
       </c>
       <c r="G8">
-        <v>0.5336242108870617</v>
+        <v>1998634.952537481</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.846576547040987</v>
+        <v>6645533.64235332</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01896398419136513</v>
+        <v>78211.46898884955</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>35.38557222777015</v>
+        <v>138043287.6168081</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.878280007435347</v>
+        <v>3293133.575891518</v>
       </c>
       <c r="C7">
-        <v>7.966333708929932</v>
+        <v>31077606.6684675</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.905043976554851</v>
+        <v>13859683.13299413</v>
       </c>
       <c r="C8">
-        <v>40.44983871357665</v>
+        <v>157799588.0255863</v>
       </c>
       <c r="D8">
-        <v>0.3077261237632788</v>
+        <v>531642.6913882653</v>
       </c>
       <c r="E8">
-        <v>0.00151711873530921</v>
+        <v>6256.917519107961</v>
       </c>
       <c r="F8">
-        <v>1.415422889110807</v>
+        <v>5521731.504672327</v>
       </c>
       <c r="G8">
-        <v>0.9844613716365278</v>
+        <v>3437074.024435902</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.9717571002378</v>
+        <v>22410641.5427558</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06803116165833872</v>
+        <v>280574.8548950874</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>56.1610546572151</v>
+        <v>215847291.8277043</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.338417233786354</v>
+        <v>11123203.2665938</v>
       </c>
       <c r="C7">
-        <v>12.64350622804729</v>
+        <v>48593577.7949304</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3298,22 +3298,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.67624996086158</v>
+        <v>46813792.7436302</v>
       </c>
       <c r="C8">
-        <v>64.19863972373203</v>
+        <v>246738644.9198349</v>
       </c>
       <c r="D8">
-        <v>1.037740568019023</v>
+        <v>1792851.323420463</v>
       </c>
       <c r="E8">
-        <v>0.005442492932667095</v>
+        <v>22445.98839160698</v>
       </c>
       <c r="F8">
-        <v>2.246442186288606</v>
+        <v>8633891.673108181</v>
       </c>
       <c r="G8">
-        <v>1.898192346183364</v>
+        <v>5971678.106152418</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>39.96293938037778</v>
+        <v>69041927.0250034</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2237273608401546</v>
+        <v>922698.8244855966</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85.83913261167625</v>
+        <v>324928333.5715852</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.54214809306438</v>
+        <v>34329726.91807266</v>
       </c>
       <c r="C7">
-        <v>19.32491500400402</v>
+        <v>73150930.55599472</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3734,22 +3734,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>82.24627822289105</v>
+        <v>144482185.7849777</v>
       </c>
       <c r="C8">
-        <v>98.12414639237345</v>
+        <v>371431005.8868333</v>
       </c>
       <c r="D8">
-        <v>3.19703515043022</v>
+        <v>5523354.16200027</v>
       </c>
       <c r="E8">
-        <v>0.01789818886721236</v>
+        <v>73815.9059588477</v>
       </c>
       <c r="F8">
-        <v>3.433565304467053</v>
+        <v>12997133.34286342</v>
       </c>
       <c r="G8">
-        <v>3.88670630970684</v>
+        <v>10748065.74740674</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>109.4388277778244</v>
+        <v>189071865.0943432</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6686065003211709</v>
+        <v>2757474.387773727</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>126.6844379501592</v>
+        <v>472253984.5789018</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>53.57554961225019</v>
+        <v>94256471.42174019</v>
       </c>
       <c r="C7">
-        <v>28.52039531657424</v>
+        <v>106318270.4044251</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3952,22 +3952,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>225.4813308326777</v>
+        <v>396693543.4089631</v>
       </c>
       <c r="C8">
-        <v>144.8150972271832</v>
+        <v>539841418.5618007</v>
       </c>
       <c r="D8">
-        <v>8.755106222225946</v>
+        <v>15125749.20754745</v>
       </c>
       <c r="E8">
-        <v>0.05348852002569364</v>
+        <v>220597.951021898</v>
       </c>
       <c r="F8">
-        <v>5.067377518006372</v>
+        <v>18890159.38315609</v>
       </c>
       <c r="G8">
-        <v>8.209594492882442</v>
+        <v>20057474.18261653</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>247.8211324321403</v>
+        <v>428147877.9082971</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.751826181955896</v>
+        <v>7224902.347285944</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>181.0570752282424</v>
+        <v>664569294.6145569</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>121.5721089329021</v>
+        <v>214479548.1831859</v>
       </c>
       <c r="C7">
-        <v>40.76127615930042</v>
+        <v>149614106.5497007</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>511.6558040509237</v>
+        <v>902671728.2556494</v>
       </c>
       <c r="C8">
-        <v>206.9693671701245</v>
+        <v>759680262.0040096</v>
       </c>
       <c r="D8">
-        <v>19.82569059457122</v>
+        <v>34251830.23266375</v>
       </c>
       <c r="E8">
-        <v>0.1401460945564716</v>
+        <v>577992.1877828753</v>
       </c>
       <c r="F8">
-        <v>7.242283009129704</v>
+        <v>26582771.7845823</v>
       </c>
       <c r="G8">
-        <v>16.23333850922025</v>
+        <v>36409365.47328864</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>411.1122015205053</v>
+        <v>710257369.3655385</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.691019718119908</v>
+        <v>15222556.13480319</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>251.3022037096611</v>
+        <v>907764586.9470049</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>202.50795092586</v>
+        <v>359229333.6024352</v>
       </c>
       <c r="C7">
-        <v>56.57552190068977</v>
+        <v>204364524.112275</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>852.2873327373353</v>
+        <v>1511874517.40658</v>
       </c>
       <c r="C8">
-        <v>287.2677469504</v>
+        <v>1037680863.136822</v>
       </c>
       <c r="D8">
-        <v>32.88897612164041</v>
+        <v>56820589.54924305</v>
       </c>
       <c r="E8">
-        <v>0.2952815774495925</v>
+        <v>1217804.490784255</v>
       </c>
       <c r="F8">
-        <v>10.05208814838645</v>
+        <v>36310583.47788023</v>
       </c>
       <c r="G8">
-        <v>25.90834728265498</v>
+        <v>56359385.77147101</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>484.4001115917949</v>
+        <v>836872320.2897455</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.360952171384768</v>
+        <v>22109771.05774884</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>339.5934182098441</v>
+        <v>1206056878.920593</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>239.6800667486069</v>
+        <v>427687181.281363</v>
       </c>
       <c r="C7">
-        <v>76.45247270277926</v>
+        <v>271518897.8035468</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4606,22 +4606,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1008.732170097677</v>
+        <v>1799990396.987886</v>
       </c>
       <c r="C8">
-        <v>388.1949091104467</v>
+        <v>1378663764.929932</v>
       </c>
       <c r="D8">
-        <v>38.75200892734357</v>
+        <v>66949785.6231796</v>
       </c>
       <c r="E8">
-        <v>0.4288761737107812</v>
+        <v>1768781.684619906</v>
       </c>
       <c r="F8">
-        <v>13.58373672839378</v>
+        <v>48242275.15682375</v>
       </c>
       <c r="G8">
-        <v>31.61325394513861</v>
+        <v>69920607.90849097</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>506.5635454114718</v>
+        <v>875158759.6523921</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.589906621013382</v>
+        <v>18930121.98974949</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>447.7506028173974</v>
+        <v>1561021074.748688</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>249.5702892398128</v>
+        <v>442815615.4305516</v>
       </c>
       <c r="C7">
-        <v>100.8018380332606</v>
+        <v>351431784.9115125</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,22 +4824,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1050.356764631719</v>
+        <v>1863660849.088925</v>
       </c>
       <c r="C8">
-        <v>511.8311935522923</v>
+        <v>1784429266.697704</v>
       </c>
       <c r="D8">
-        <v>40.52508363291772</v>
+        <v>70012700.77219133</v>
       </c>
       <c r="E8">
-        <v>0.3671925296810704</v>
+        <v>1514409.759179959</v>
       </c>
       <c r="F8">
-        <v>17.91002411269591</v>
+        <v>62440842.98994759</v>
       </c>
       <c r="G8">
-        <v>35.03721272730733</v>
+        <v>79424740.03420639</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>552.6369382160882</v>
+        <v>954738557.9056116</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.697829755599683</v>
+        <v>11128153.49150795</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>577.280582641669</v>
+        <v>1970710302.992736</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>269.8238436220906</v>
+        <v>472997419.9149445</v>
       </c>
       <c r="C7">
-        <v>129.9628485702416</v>
+        <v>443664887.3787582</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5042,22 +5042,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1135.597110820605</v>
+        <v>1990685835.138092</v>
       </c>
       <c r="C8">
-        <v>659.899077229266</v>
+        <v>2252751867.177117</v>
       </c>
       <c r="D8">
-        <v>44.21095505728703</v>
+        <v>76379084.6324489</v>
       </c>
       <c r="E8">
-        <v>0.2158263804479745</v>
+        <v>890252.2793206354</v>
       </c>
       <c r="F8">
-        <v>23.09122330566678</v>
+        <v>78828412.11970951</v>
       </c>
       <c r="G8">
-        <v>39.97866921923321</v>
+        <v>91666230.72937025</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>604.4340388333958</v>
+        <v>1044149570.76688</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.054869381438332</v>
+        <v>12606114.16848731</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>729.931045840381</v>
+        <v>2429181628.352571</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>295.2239867666206</v>
+        <v>517754983.9363004</v>
       </c>
       <c r="C7">
-        <v>164.3289603526397</v>
+        <v>546880275.5681154</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5260,22 +5260,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1242.497704860607</v>
+        <v>2179055253.154413</v>
       </c>
       <c r="C8">
-        <v>834.3963716688021</v>
+        <v>2776838097.752501</v>
       </c>
       <c r="D8">
-        <v>48.35472310667164</v>
+        <v>83531965.66135038</v>
       </c>
       <c r="E8">
-        <v>0.2443895505150664</v>
+        <v>1008489.133478985</v>
       </c>
       <c r="F8">
-        <v>29.19724183361527</v>
+        <v>97167265.13410291</v>
       </c>
       <c r="G8">
-        <v>45.95529471192602</v>
+        <v>106463525.9504416</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>664.8856840736465</v>
+        <v>1148308345.964386</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.18097903671207</v>
+        <v>21394741.91216999</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>908.3825362958682</v>
+        <v>2926317808.553961</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>326.678222593377</v>
+        <v>577378136.7453201</v>
       </c>
       <c r="C7">
-        <v>204.5036426970071</v>
+        <v>658800260.4923372</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1374.877923185427</v>
+        <v>2429988896.226996</v>
       </c>
       <c r="C8">
-        <v>1038.387251360072</v>
+        <v>3345122769.776216</v>
       </c>
       <c r="D8">
-        <v>53.1908547258917</v>
+        <v>91864667.67715085</v>
       </c>
       <c r="E8">
-        <v>0.4144783229369655</v>
+        <v>1711579.352973599</v>
       </c>
       <c r="F8">
-        <v>36.33530145183476</v>
+        <v>117052712.3421585</v>
       </c>
       <c r="G8">
-        <v>53.1181865290384</v>
+        <v>123617839.7237657</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>717.1719005728869</v>
+        <v>1237694113.667708</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.493347151797909</v>
+        <v>30999622.57688005</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1117.601060093641</v>
+        <v>3448540300.706538</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>354.3851429445929</v>
+        <v>630729094.3882282</v>
       </c>
       <c r="C7">
-        <v>251.6048897231819</v>
+        <v>776367912.5291072</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5696,22 +5696,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1491.486960690078</v>
+        <v>2654524995.577998</v>
       </c>
       <c r="C8">
-        <v>1277.548440814314</v>
+        <v>3942084024.046849</v>
       </c>
       <c r="D8">
-        <v>57.37375204583093</v>
+        <v>99015529.09341657</v>
       </c>
       <c r="E8">
-        <v>0.5994677721438324</v>
+        <v>2479969.806150403</v>
       </c>
       <c r="F8">
-        <v>44.70404240374567</v>
+        <v>137941612.0282616</v>
       </c>
       <c r="G8">
-        <v>60.59900326677747</v>
+        <v>140709700.6917335</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.527107290404589E-06</v>
+        <v>22.47852815770361</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.244314514316874E-06</v>
+        <v>5.060578233331831</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.318128671494084E-06</v>
+        <v>25.69558103073807</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.210842916161838E-07</v>
+        <v>0.8991411263081454</v>
       </c>
       <c r="G8">
-        <v>1.244314514316873E-07</v>
+        <v>0.5060578233331829</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>765.9254465442934</v>
+        <v>1319004509.341686</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.56780155285024</v>
+        <v>43890839.0615005</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1367.683698657645</v>
+        <v>3981264292.145545</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>381.1924780897677</v>
+        <v>683658910.4472294</v>
       </c>
       <c r="C7">
-        <v>307.9058516176763</v>
+        <v>896299761.1152872</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6132,22 +6132,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1604.309948944211</v>
+        <v>2877288652.732969</v>
       </c>
       <c r="C8">
-        <v>1563.422082474428</v>
+        <v>4551049717.574608</v>
       </c>
       <c r="D8">
-        <v>61.27403572354344</v>
+        <v>105520360.7473349</v>
       </c>
       <c r="E8">
-        <v>0.8454241242280187</v>
+        <v>3511267.124920038</v>
       </c>
       <c r="F8">
-        <v>54.70734794630584</v>
+        <v>159250571.685822</v>
       </c>
       <c r="G8">
-        <v>68.9098329707444</v>
+        <v>157995867.1562516</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>810.4498286391542</v>
+        <v>1387916115.228109</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.61227493139584</v>
+        <v>57030374.81463779</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1677.126778901918</v>
+        <v>4512549099.834234</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>405.9250475184672</v>
+        <v>730862080.7717545</v>
       </c>
       <c r="C7">
-        <v>377.5705959173449</v>
+        <v>1015907607.083968</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6350,22 +6350,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1708.40095146413</v>
+        <v>3075950798.829961</v>
       </c>
       <c r="C8">
-        <v>1917.151636608643</v>
+        <v>5158370256.116463</v>
       </c>
       <c r="D8">
-        <v>64.8359862911323</v>
+        <v>111033289.2182487</v>
       </c>
       <c r="E8">
-        <v>1.088981994511667</v>
+        <v>4562429.985171021</v>
       </c>
       <c r="F8">
-        <v>67.08507115607676</v>
+        <v>180501963.9933695</v>
       </c>
       <c r="G8">
-        <v>78.34956434358118</v>
+        <v>174676968.7855722</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>794.8707923319971</v>
+        <v>1342821364.068074</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.9096350548847</v>
+        <v>63723694.94610398</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2076.110869818465</v>
+        <v>5037781021.818923</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>399.7729210586828</v>
+        <v>716165319.9089047</v>
       </c>
       <c r="C7">
-        <v>467.3936569190504</v>
+        <v>1134152770.343727</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6568,22 +6568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1682.508736234555</v>
+        <v>3014097113.291152</v>
       </c>
       <c r="C8">
-        <v>2373.237015784503</v>
+        <v>5758771639.89935</v>
       </c>
       <c r="D8">
-        <v>63.58966338655974</v>
+        <v>107425709.1254459</v>
       </c>
       <c r="E8">
-        <v>1.192770804390776</v>
+        <v>5097895.595688315</v>
       </c>
       <c r="F8">
-        <v>83.04443479273867</v>
+        <v>201511240.8727571</v>
       </c>
       <c r="G8">
-        <v>86.71665779777329</v>
+        <v>185031809.0252632</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>800.5208500267364</v>
+        <v>1323126956.925863</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.05806944147574</v>
+        <v>79140981.08747768</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2609.777673187196</v>
+        <v>5565305007.772314</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>405.8362180142027</v>
+        <v>722976723.8729494</v>
       </c>
       <c r="C7">
-        <v>587.5377602176482</v>
+        <v>1252913944.658483</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6786,22 +6786,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1708.027098186212</v>
+        <v>3042764004.098009</v>
       </c>
       <c r="C8">
-        <v>2983.280453378378</v>
+        <v>6361793120.292758</v>
       </c>
       <c r="D8">
-        <v>64.04166800213888</v>
+        <v>105850156.554069</v>
       </c>
       <c r="E8">
-        <v>1.444645555318059</v>
+        <v>6331278.486998212</v>
       </c>
       <c r="F8">
-        <v>104.3911069274879</v>
+        <v>222612200.3108928</v>
       </c>
       <c r="G8">
-        <v>99.33739782318506</v>
+        <v>197589066.8531432</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>813.4624259795863</v>
+        <v>1316179283.20187</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.71493609216629</v>
+        <v>127084437.6957174</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3341.243406876975</v>
+        <v>6122467337.904808</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>423.3725647365684</v>
+        <v>770387738.456206</v>
       </c>
       <c r="C7">
-        <v>752.2122239711837</v>
+        <v>1378347582.506993</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7004,22 +7004,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1781.831638233304</v>
+        <v>3242300896.238744</v>
       </c>
       <c r="C8">
-        <v>3819.431152364094</v>
+        <v>6998694687.012457</v>
       </c>
       <c r="D8">
-        <v>65.07699407836688</v>
+        <v>105294342.6561495</v>
       </c>
       <c r="E8">
-        <v>2.297194887373303</v>
+        <v>10166755.01565739</v>
       </c>
       <c r="F8">
-        <v>133.6497362750791</v>
+        <v>244898693.5161925</v>
       </c>
       <c r="G8">
-        <v>117.5584788707752</v>
+        <v>214873532.0963199</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>816.6640998692088</v>
+        <v>1293391474.703964</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43.08123923131529</v>
+        <v>191856856.1979688</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4353.868755176954</v>
+        <v>6761046214.854099</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>440.1316918864252</v>
+        <v>827966896.0660527</v>
       </c>
       <c r="C7">
-        <v>980.1839915253122</v>
+        <v>1522110481.139997</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7222,22 +7222,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1852.365124510031</v>
+        <v>3484632056.25589</v>
       </c>
       <c r="C8">
-        <v>4976.980103455189</v>
+        <v>7728664868.425105</v>
       </c>
       <c r="D8">
-        <v>65.33312798953668</v>
+        <v>103471317.9763171</v>
       </c>
       <c r="E8">
-        <v>3.446499138505222</v>
+        <v>15348548.49583749</v>
       </c>
       <c r="F8">
-        <v>174.1547502070783</v>
+        <v>270441848.5941642</v>
       </c>
       <c r="G8">
-        <v>142.0315683411737</v>
+        <v>235007737.7206049</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>847.6978437500055</v>
+        <v>1295614300.797525</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58.18291627158199</v>
+        <v>256959836.8037045</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5752.21467644945</v>
+        <v>7560733040.325249</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>471.1145850586349</v>
+        <v>897978189.5684539</v>
       </c>
       <c r="C7">
-        <v>1294.992811845462</v>
+        <v>1702143520.406166</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7440,22 +7440,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1982.761621346326</v>
+        <v>3779285862.824196</v>
       </c>
       <c r="C8">
-        <v>6575.452684799244</v>
+        <v>8642800237.028652</v>
       </c>
       <c r="D8">
-        <v>67.81582750000041</v>
+        <v>103649144.063802</v>
       </c>
       <c r="E8">
-        <v>4.654633301726557</v>
+        <v>20556786.94429635</v>
       </c>
       <c r="F8">
-        <v>230.0885870579782</v>
+        <v>302429321.6130102</v>
       </c>
       <c r="G8">
-        <v>176.6107396904096</v>
+        <v>260012170.9974619</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>854.7691576071654</v>
+        <v>1257894224.958859</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71.75394982292549</v>
+        <v>305518611.0357469</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7660.91140615807</v>
+        <v>8629150224.095659</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>488.9009423897749</v>
+        <v>931175272.5810832</v>
       </c>
       <c r="C7">
-        <v>1724.696618813127</v>
+        <v>1942675672.083244</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7658,22 +7658,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2057.61837131374</v>
+        <v>3919001134.279647</v>
       </c>
       <c r="C8">
-        <v>8757.315800446537</v>
+        <v>9864125767.223431</v>
       </c>
       <c r="D8">
-        <v>68.3815326085732</v>
+        <v>100631537.9967086</v>
       </c>
       <c r="E8">
-        <v>5.740315985834036</v>
+        <v>24441488.88285974</v>
       </c>
       <c r="F8">
-        <v>306.4364562463231</v>
+        <v>345166008.9638267</v>
       </c>
       <c r="G8">
-        <v>221.3597561202901</v>
+        <v>287385094.4664326</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>836.4802516215387</v>
+        <v>1203372776.507698</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69.49715260522645</v>
+        <v>277008980.7612985</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10220.58092235862</v>
+        <v>10097134171.87577</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>477.6762413643924</v>
+        <v>874648299.5982046</v>
       </c>
       <c r="C7">
-        <v>2300.953558205675</v>
+        <v>2273162061.623416</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7876,22 +7876,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2010.377408902345</v>
+        <v>3681098262.757674</v>
       </c>
       <c r="C8">
-        <v>11683.31678253933</v>
+        <v>11542202739.94014</v>
       </c>
       <c r="D8">
-        <v>66.91842012972306</v>
+        <v>96269822.12061577</v>
       </c>
       <c r="E8">
-        <v>5.559772208418113</v>
+        <v>22160718.46090387</v>
       </c>
       <c r="F8">
-        <v>408.823236894345</v>
+        <v>403885366.8750312</v>
       </c>
       <c r="G8">
-        <v>277.8629799570067</v>
+        <v>314781036.122162</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>803.6452595885274</v>
+        <v>1122819439.09117</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68.45187246027136</v>
+        <v>259146884.9805242</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13579.42972029212</v>
+        <v>12108285312.36654</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>460.7075109736628</v>
+        <v>816820542.1543821</v>
       </c>
       <c r="C7">
-        <v>3057.129273831869</v>
+        <v>2725931371.700335</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8094,22 +8094,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1938.961773622184</v>
+        <v>3437720830.293202</v>
       </c>
       <c r="C8">
-        <v>15522.87295151026</v>
+        <v>13841183204.00719</v>
       </c>
       <c r="D8">
-        <v>64.29162076708216</v>
+        <v>89825555.12729359</v>
       </c>
       <c r="E8">
-        <v>5.476149796821706</v>
+        <v>20731750.79844193</v>
       </c>
       <c r="F8">
-        <v>543.1771888116854</v>
+        <v>484331412.4946619</v>
       </c>
       <c r="G8">
-        <v>351.7836784805531</v>
+        <v>354275191.3854715</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001596485556186843</v>
+        <v>649.2844021757015</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.594158834060048E-05</v>
+        <v>146.1730274260046</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0001824969307847814</v>
+        <v>742.2078461299247</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8324,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.385942224747377E-06</v>
+        <v>25.97137608702808</v>
       </c>
       <c r="G8">
-        <v>3.594158834060047E-06</v>
+        <v>14.61730274260045</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>809.1527976265733</v>
+        <v>1071267315.631924</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71.93899014928303</v>
+        <v>249995723.4627846</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>17879.37397676445</v>
+        <v>14802799860.37272</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>467.0605911995182</v>
+        <v>782226653.6713147</v>
       </c>
       <c r="C7">
-        <v>4025.173273696096</v>
+        <v>3332545896.25331</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8530,22 +8530,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1965.699735147176</v>
+        <v>3292126878.009122</v>
       </c>
       <c r="C8">
-        <v>20438.21105971177</v>
+        <v>16921327794.4824</v>
       </c>
       <c r="D8">
-        <v>64.73222381012583</v>
+        <v>85701385.25055388</v>
       </c>
       <c r="E8">
-        <v>5.755119211942639</v>
+        <v>19999657.87702276</v>
       </c>
       <c r="F8">
-        <v>715.1749590705786</v>
+        <v>592111994.4149095</v>
       </c>
       <c r="G8">
-        <v>449.2233864895613</v>
+        <v>411477254.9924625</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>948.5190602572449</v>
+        <v>1186002388.549986</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>73.33250012398972</v>
+        <v>221977700.4448712</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>23238.29853282524</v>
+        <v>18298277446.66126</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>535.8610457659738</v>
+        <v>807984457.4565692</v>
       </c>
       <c r="C7">
-        <v>5231.624904879727</v>
+        <v>4119480773.135311</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8748,22 +8748,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2255.257531003935</v>
+        <v>3400532744.46986</v>
       </c>
       <c r="C8">
-        <v>26564.08723816079</v>
+        <v>20917066613.74421</v>
       </c>
       <c r="D8">
-        <v>75.88152482057956</v>
+        <v>94880191.0839988</v>
       </c>
       <c r="E8">
-        <v>5.866600009919175</v>
+        <v>17758216.03558968</v>
       </c>
       <c r="F8">
-        <v>929.5319413130104</v>
+        <v>731931097.8664511</v>
       </c>
       <c r="G8">
-        <v>576.7485950645699</v>
+        <v>492746523.0591879</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1251.179854697561</v>
+        <v>1495102602.451726</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70.6657827089355</v>
+        <v>191237051.805559</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>29729.84984140981</v>
+        <v>22670254133.00533</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>679.2462331136441</v>
+        <v>924752927.8304137</v>
       </c>
       <c r="C7">
-        <v>6693.064151359993</v>
+        <v>5103741392.884325</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8966,22 +8966,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2858.717189352507</v>
+        <v>3891971661.844406</v>
       </c>
       <c r="C8">
-        <v>33984.68797743842</v>
+        <v>25914746195.80135</v>
       </c>
       <c r="D8">
-        <v>100.0943883758048</v>
+        <v>119608208.1961381</v>
       </c>
       <c r="E8">
-        <v>5.653262616714837</v>
+        <v>15298964.14444472</v>
       </c>
       <c r="F8">
-        <v>1189.193993656393</v>
+        <v>906810165.3202139</v>
       </c>
       <c r="G8">
-        <v>737.2310384473635</v>
+        <v>602849432.0714737</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1825.984817131284</v>
+        <v>2123962460.502843</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69.78420726124696</v>
+        <v>175198007.9347893</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>37362.24898031948</v>
+        <v>27934802116.97426</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>955.9887469793853</v>
+        <v>1211557977.376348</v>
       </c>
       <c r="C7">
-        <v>8411.341819697009</v>
+        <v>6288946080.179378</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9184,22 +9184,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4023.432638396825</v>
+        <v>5099036913.235922</v>
       </c>
       <c r="C8">
-        <v>42709.41092890876</v>
+        <v>31932738938.17412</v>
       </c>
       <c r="D8">
-        <v>146.0787853705027</v>
+        <v>169916996.8402273</v>
       </c>
       <c r="E8">
-        <v>5.582736580899754</v>
+        <v>14015840.63478314</v>
       </c>
       <c r="F8">
-        <v>1494.489959212781</v>
+        <v>1117392084.678972</v>
       </c>
       <c r="G8">
-        <v>936.7330566676393</v>
+        <v>750050405.7555724</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2732.983696621224</v>
+        <v>3125194597.634034</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>99.3656425327578</v>
+        <v>242208580.3091491</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>46058.12994773172</v>
+        <v>34034944854.15223</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1425.464312008519</v>
+        <v>1766189301.707577</v>
       </c>
       <c r="C7">
-        <v>10369.04054599237</v>
+        <v>7662267738.047824</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9402,22 +9402,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5999.296179925248</v>
+        <v>7433292185.217318</v>
       </c>
       <c r="C8">
-        <v>52649.81772352431</v>
+        <v>38905914001.17336</v>
       </c>
       <c r="D8">
-        <v>218.6386957296978</v>
+        <v>250015567.8107226</v>
       </c>
       <c r="E8">
-        <v>7.949251402620621</v>
+        <v>19376686.42473191</v>
       </c>
       <c r="F8">
-        <v>1842.32519790927</v>
+        <v>1361397794.16609</v>
       </c>
       <c r="G8">
-        <v>1179.450485800089</v>
+        <v>942845703.9755398</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3888.229779646926</v>
+        <v>4396954900.564793</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>148.9127185578235</v>
+        <v>360591805.3146117</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55638.01558294513</v>
+        <v>40832015350.59737</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2036.004405386251</v>
+        <v>2505905471.413624</v>
       </c>
       <c r="C7">
-        <v>12525.75473934381</v>
+        <v>9192488345.171696</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9620,22 +9620,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8568.852512578167</v>
+        <v>10546506843.60009</v>
       </c>
       <c r="C8">
-        <v>63600.74502080237</v>
+        <v>46675758827.65454</v>
       </c>
       <c r="D8">
-        <v>311.0583823717539</v>
+        <v>351756392.0451832</v>
       </c>
       <c r="E8">
-        <v>11.91301748462588</v>
+        <v>28847344.42516892</v>
       </c>
       <c r="F8">
-        <v>2225.520623317807</v>
+        <v>1633280614.023896</v>
       </c>
       <c r="G8">
-        <v>1456.175914473006</v>
+        <v>1169839381.658532</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5276.591640351454</v>
+        <v>5941432803.200967</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>204.6497046969329</v>
+        <v>494099531.419123</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65811.1179347822</v>
+        <v>48103148547.56071</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2765.712248062208</v>
+        <v>3393381016.886357</v>
       </c>
       <c r="C7">
-        <v>14816.01947402664</v>
+        <v>10829434417.8886</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9838,22 +9838,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11639.94551444997</v>
+        <v>14281590636.91488</v>
       </c>
       <c r="C8">
-        <v>75229.78825627043</v>
+        <v>54987512646.10152</v>
       </c>
       <c r="D8">
-        <v>422.1273312281161</v>
+        <v>475314624.2560771</v>
       </c>
       <c r="E8">
-        <v>16.37197637575462</v>
+        <v>39527962.51352982</v>
       </c>
       <c r="F8">
-        <v>2632.44471739129</v>
+        <v>1924125941.90243</v>
       </c>
       <c r="G8">
-        <v>1758.173172208884</v>
+        <v>1422281543.477495</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7548.691426958365</v>
+        <v>8490529993.713022</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>293.891123018101</v>
+        <v>710350890.4986368</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76177.20438716207</v>
+        <v>55546221682.77338</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3957.812843645253</v>
+        <v>4853783872.124913</v>
       </c>
       <c r="C7">
-        <v>17149.73060928046</v>
+        <v>12505089230.91271</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10056,22 +10056,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16657.09290209024</v>
+        <v>20427931304.146</v>
       </c>
       <c r="C8">
-        <v>87079.43484078126</v>
+        <v>63495813880.14037</v>
       </c>
       <c r="D8">
-        <v>603.8953141566689</v>
+        <v>679242399.4970415</v>
       </c>
       <c r="E8">
-        <v>23.51128984144807</v>
+        <v>56828071.23989092</v>
       </c>
       <c r="F8">
-        <v>3047.088175486485</v>
+        <v>2221848867.310937</v>
       </c>
       <c r="G8">
-        <v>2110.754345292571</v>
+        <v>1735887310.303762</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10073.42749130924</v>
+        <v>11323409785.83107</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>393.8284858601959</v>
+        <v>954025232.249514</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>86242.70715612236</v>
+        <v>62793777618.38476</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5283.282561819689</v>
+        <v>6480314221.682336</v>
       </c>
       <c r="C7">
-        <v>19415.77151119267</v>
+        <v>14136727368.21844</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10274,22 +10274,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22235.54572610101</v>
+        <v>27273446292.08911</v>
       </c>
       <c r="C8">
-        <v>98585.4791956604</v>
+        <v>71780616137.28842</v>
       </c>
       <c r="D8">
-        <v>805.8741993047385</v>
+        <v>905872782.8664849</v>
       </c>
       <c r="E8">
-        <v>31.50627886881566</v>
+        <v>76322018.57996108</v>
       </c>
       <c r="F8">
-        <v>3449.708286244897</v>
+        <v>2511751104.735393</v>
       </c>
       <c r="G8">
-        <v>2469.905407301236</v>
+        <v>2061704158.990077</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10954.70868176038</v>
+        <v>12309778684.61412</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>429.4048281023539</v>
+        <v>1041849988.774919</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>95452.8341866712</v>
+        <v>69437122307.84746</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5746.68246213799</v>
+        <v>7049805555.493475</v>
       </c>
       <c r="C7">
-        <v>21489.24216060631</v>
+        <v>15632339772.02673</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,22 +10492,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24185.83885398726</v>
+        <v>29670242307.71134</v>
       </c>
       <c r="C8">
-        <v>109113.7292552958</v>
+        <v>79374734425.88777</v>
       </c>
       <c r="D8">
-        <v>876.37669454083</v>
+        <v>984782294.769129</v>
       </c>
       <c r="E8">
-        <v>34.3523862481883</v>
+        <v>83347999.10199349</v>
       </c>
       <c r="F8">
-        <v>3818.113367466851</v>
+        <v>2777484892.313901</v>
       </c>
       <c r="G8">
-        <v>2723.59246227443</v>
+        <v>2268214532.75202</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.001135064055701332</v>
+        <v>4616.260911231913</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0002555363239719481</v>
+        <v>1039.256188077188</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001297510682804925</v>
+        <v>5276.924960184148</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.540256222805331E-05</v>
+        <v>184.6504364492767</v>
       </c>
       <c r="G8">
-        <v>2.55536323971948E-05</v>
+        <v>103.9256188077187</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10915.874508723</v>
+        <v>12259842146.27758</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>428.6327905634168</v>
+        <v>1041024014.772998</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>103238.7249563059</v>
+        <v>75060292019.42857</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5727.104991776785</v>
+        <v>7024807656.05757</v>
       </c>
       <c r="C7">
-        <v>23242.07531229154</v>
+        <v>16898280764.47582</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10928,22 +10928,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24103.44391630897</v>
+        <v>29565034621.11505</v>
       </c>
       <c r="C8">
-        <v>118013.9110538563</v>
+        <v>85802673655.70811</v>
       </c>
       <c r="D8">
-        <v>873.2699606978392</v>
+        <v>980787371.7022058</v>
       </c>
       <c r="E8">
-        <v>34.29062324507333</v>
+        <v>83281921.18183982</v>
       </c>
       <c r="F8">
-        <v>4129.548998252239</v>
+        <v>3002411680.777145</v>
       </c>
       <c r="G8">
-        <v>2896.918030406832</v>
+        <v>2392308842.053339</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10725.96709174767</v>
+        <v>12035654703.20372</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>421.9244467292482</v>
+        <v>1025689356.965716</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>109074.8459934619</v>
+        <v>79281071551.20689</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5628.261310599078</v>
+        <v>6900269628.758373</v>
       </c>
       <c r="C7">
-        <v>24555.95791530352</v>
+        <v>17848502454.98672</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23687.44436170516</v>
+        <v>29040896271.85062</v>
       </c>
       <c r="C8">
-        <v>124685.2785011971</v>
+        <v>90627517244.70094</v>
       </c>
       <c r="D8">
-        <v>858.0773673398135</v>
+        <v>962852376.2562972</v>
       </c>
       <c r="E8">
-        <v>33.75395573833984</v>
+        <v>82055148.55725722</v>
       </c>
       <c r="F8">
-        <v>4362.99383973848</v>
+        <v>3171242862.048279</v>
       </c>
       <c r="G8">
-        <v>3018.421922590259</v>
+        <v>2474877208.374508</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10352.54400572578</v>
+        <v>11600384824.38221</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>408.2905297516027</v>
+        <v>993971001.2905397</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>112538.4522200292</v>
+        <v>81793530873.83455</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5433.431641354257</v>
+        <v>6656413495.918843</v>
       </c>
       <c r="C7">
-        <v>25335.71761113537</v>
+        <v>18414130990.40592</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11364,22 +11364,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22867.47231428881</v>
+        <v>28014588454.90207</v>
       </c>
       <c r="C8">
-        <v>128644.5846367648</v>
+        <v>93499551465.89557</v>
       </c>
       <c r="D8">
-        <v>828.2035204580621</v>
+        <v>928030785.9505767</v>
       </c>
       <c r="E8">
-        <v>32.6632423801282</v>
+        <v>79517680.10324314</v>
       </c>
       <c r="F8">
-        <v>4501.53808880117</v>
+        <v>3271741234.953385</v>
       </c>
       <c r="G8">
-        <v>3076.914925248962</v>
+        <v>2507054448.632476</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9902.938188870025</v>
+        <v>11080544979.38684</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>392.5138775780981</v>
+        <v>958900615.8032748</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>113360.9537509369</v>
+        <v>82404797711.69742</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5199.530779697058</v>
+        <v>6368153955.129479</v>
       </c>
       <c r="C7">
-        <v>25520.88691203408</v>
+        <v>18551745145.24489</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11582,22 +11582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21883.06285976936</v>
+        <v>26801401742.8139</v>
       </c>
       <c r="C8">
-        <v>129584.7998762623</v>
+        <v>94198300799.19327</v>
       </c>
       <c r="D8">
-        <v>792.2350551096016</v>
+        <v>886443598.3509463</v>
       </c>
       <c r="E8">
-        <v>31.40111020624783</v>
+        <v>76712049.26426195</v>
       </c>
       <c r="F8">
-        <v>4534.43815003748</v>
+        <v>3296191908.4679</v>
       </c>
       <c r="G8">
-        <v>3072.041769173112</v>
+        <v>2491989910.037436</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9592.449029624857</v>
+        <v>10727442027.46794</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>383.4244538054235</v>
+        <v>943007449.1021321</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>111461.5649325257</v>
+        <v>81058966161.92598</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5039.915307917441</v>
+        <v>6180748191.412775</v>
       </c>
       <c r="C7">
-        <v>25093.2785898321</v>
+        <v>18248758855.45214</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11800,22 +11800,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21211.29543491173</v>
+        <v>26012674397.70245</v>
       </c>
       <c r="C8">
-        <v>127413.5767895036</v>
+        <v>92659858273.14093</v>
       </c>
       <c r="D8">
-        <v>767.3959223699882</v>
+        <v>858195362.1974344</v>
       </c>
       <c r="E8">
-        <v>30.67395630443387</v>
+        <v>75440595.92817053</v>
       </c>
       <c r="F8">
-        <v>4458.462597301032</v>
+        <v>3242358646.477042</v>
       </c>
       <c r="G8">
-        <v>3013.319389774953</v>
+        <v>2442950704.686491</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9075.510373450505</v>
+        <v>10146462344.23614</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>366.5529546133528</v>
+        <v>908142033.6841232</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>106956.9927910043</v>
+        <v>77843445035.37328</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4772.328055564454</v>
+        <v>5863170341.883131</v>
       </c>
       <c r="C7">
-        <v>24079.16683082693</v>
+        <v>17524850416.79956</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12018,22 +12018,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20085.11137873146</v>
+        <v>24676096860.50159</v>
       </c>
       <c r="C8">
-        <v>122264.325127686</v>
+        <v>88984142359.54945</v>
       </c>
       <c r="D8">
-        <v>726.04082987604</v>
+        <v>811716987.5388907</v>
       </c>
       <c r="E8">
-        <v>29.32423636906821</v>
+        <v>72651362.69472982</v>
       </c>
       <c r="F8">
-        <v>4278.279711640177</v>
+        <v>3113737801.414934</v>
       </c>
       <c r="G8">
-        <v>2885.149488639138</v>
+        <v>2338802075.868268</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7760.18746115894</v>
+        <v>8667733951.313227</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>316.2062358067988</v>
+        <v>786223193.64685</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>100146.1722014774</v>
+        <v>72977047549.97452</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4083.61152024827</v>
+        <v>5019728443.838263</v>
       </c>
       <c r="C7">
-        <v>22545.85067308391</v>
+        <v>16429281124.33635</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12236,22 +12236,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17186.53689702318</v>
+        <v>21126335765.60633</v>
       </c>
       <c r="C8">
-        <v>114478.7623401139</v>
+        <v>83421282103.01662</v>
       </c>
       <c r="D8">
-        <v>620.8149968927149</v>
+        <v>693418716.1050578</v>
       </c>
       <c r="E8">
-        <v>25.29649886454389</v>
+        <v>62897855.49174797</v>
       </c>
       <c r="F8">
-        <v>4005.846888059099</v>
+        <v>2919081901.998983</v>
       </c>
       <c r="G8">
-        <v>2662.946219333217</v>
+        <v>2144900956.817461</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5182.151265823442</v>
+        <v>5773182228.373838</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>213.270610956669</v>
+        <v>528540680.635287</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>91474.77997117274</v>
+        <v>66783296039.84035</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2729.218788777551</v>
+        <v>3348572459.07741</v>
       </c>
       <c r="C7">
-        <v>20593.66508221712</v>
+        <v>15034885376.76115</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12454,22 +12454,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11486.35691245248</v>
+        <v>14093006603.32907</v>
       </c>
       <c r="C8">
-        <v>104566.3490299593</v>
+        <v>76341101287.95885</v>
       </c>
       <c r="D8">
-        <v>414.5721012658752</v>
+        <v>461854578.2699068</v>
       </c>
       <c r="E8">
-        <v>17.06164887653351</v>
+        <v>42283254.45082293</v>
       </c>
       <c r="F8">
-        <v>3658.991198846913</v>
+        <v>2671331841.593616</v>
       </c>
       <c r="G8">
-        <v>2332.288387099466</v>
+        <v>1838345783.583856</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2286.976317815359</v>
+        <v>2527450337.146132</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>95.48902485810015</v>
+        <v>228786620.4577009</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81487.92983910383</v>
+        <v>59655122594.23347</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1205.902715928114</v>
+        <v>1463219300.392331</v>
       </c>
       <c r="C7">
-        <v>18345.33120362309</v>
+        <v>13430123751.39248</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12672,22 +12672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5075.235834445623</v>
+        <v>6158194130.351642</v>
       </c>
       <c r="C8">
-        <v>93150.21381816754</v>
+        <v>68192767149.36555</v>
       </c>
       <c r="D8">
-        <v>182.9581054252286</v>
+        <v>202196026.9716904</v>
       </c>
       <c r="E8">
-        <v>7.639121988648008</v>
+        <v>18302929.63661606</v>
       </c>
       <c r="F8">
-        <v>3259.517193564156</v>
+        <v>2386204903.769341</v>
       </c>
       <c r="G8">
-        <v>1955.123391955119</v>
+        <v>1489334305.17848</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1226.66157545863</v>
+        <v>1348327829.255591</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>49.5444742854421</v>
+        <v>105128049.6419553</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>70779.63581150249</v>
+        <v>52017319515.34675</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>645.0366390814618</v>
+        <v>762668413.5409038</v>
       </c>
       <c r="C7">
-        <v>15934.5790719883</v>
+        <v>11710629497.1282</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12890,22 +12890,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2714.740602169567</v>
+        <v>3209812873.854852</v>
       </c>
       <c r="C8">
-        <v>80909.38403799795</v>
+        <v>59461866863.83707</v>
       </c>
       <c r="D8">
-        <v>98.13292603669035</v>
+        <v>107866226.3404472</v>
       </c>
       <c r="E8">
-        <v>3.963557942835366</v>
+        <v>8410243.971356422</v>
       </c>
       <c r="F8">
-        <v>2831.185432460102</v>
+        <v>2080692780.613872</v>
       </c>
       <c r="G8">
-        <v>1657.961571106976</v>
+        <v>1247329791.066911</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13004,7 +13004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.68595636313599E-12</v>
+        <v>4.640389488281286E-06</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.428189763941004E-15</v>
+        <v>1.001436651445607E-08</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.004754159906148333</v>
+        <v>19334.98151955688</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13082,10 +13082,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.300099420036224E-12</v>
+        <v>2.25227735973221E-06</v>
       </c>
       <c r="C7">
-        <v>0.001070301310212251</v>
+        <v>4352.87337023487</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13108,22 +13108,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.471677837487476E-12</v>
+        <v>9.479072079563094E-06</v>
       </c>
       <c r="C8">
-        <v>0.005434559604813576</v>
+        <v>22102.14035714481</v>
       </c>
       <c r="D8">
-        <v>2.148765090508791E-13</v>
+        <v>3.712311590625027E-07</v>
       </c>
       <c r="E8">
-        <v>1.942551811152803E-16</v>
+        <v>8.011493211564854E-10</v>
       </c>
       <c r="F8">
-        <v>0.0001901663962459335</v>
+        <v>773.399260782276</v>
       </c>
       <c r="G8">
-        <v>0.0001070301311512351</v>
+        <v>435.2873372487146</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1126.899969295907</v>
+        <v>1267104383.571478</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>44.47813231228593</v>
+        <v>90383750.92083415</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>59944.72129435365</v>
+        <v>44290911341.70489</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>591.4791902152911</v>
+        <v>707818373.8815718</v>
       </c>
       <c r="C7">
-        <v>13495.32094170438</v>
+        <v>9971187628.378929</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13326,22 +13326,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2489.335451242548</v>
+        <v>2978967646.356085</v>
       </c>
       <c r="C8">
-        <v>68523.8122610885</v>
+        <v>50629680614.38589</v>
       </c>
       <c r="D8">
-        <v>90.15199754367249</v>
+        <v>101368350.6857182</v>
       </c>
       <c r="E8">
-        <v>3.558250584982872</v>
+        <v>7230700.073666729</v>
       </c>
       <c r="F8">
-        <v>2397.788851774148</v>
+        <v>1771636453.668197</v>
       </c>
       <c r="G8">
-        <v>1408.680013191967</v>
+        <v>1067900600.22605</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>970.2214154443913</v>
+        <v>1182420683.152193</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37.91926002779197</v>
+        <v>76942228.47744621</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>49534.99845397255</v>
+        <v>36860951663.92534</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>508.8459391498397</v>
+        <v>652676267.7366683</v>
       </c>
       <c r="C7">
-        <v>11151.7859712888</v>
+        <v>8298485040.553199</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13544,22 +13544,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2141.560103045122</v>
+        <v>2746893210.004869</v>
       </c>
       <c r="C8">
-        <v>56624.2841925273</v>
+        <v>42136369592.59321</v>
       </c>
       <c r="D8">
-        <v>77.61771323555126</v>
+        <v>94593654.65217541</v>
       </c>
       <c r="E8">
-        <v>3.033540802223356</v>
+        <v>6155378.278195694</v>
       </c>
       <c r="F8">
-        <v>1981.399938158904</v>
+        <v>1474438066.557015</v>
       </c>
       <c r="G8">
-        <v>1166.063191043864</v>
+        <v>895116130.8289865</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>615.4287936364146</v>
+        <v>988488997.2598597</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.15086873255501</v>
+        <v>51011357.40331433</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>40019.70400531444</v>
+        <v>30048003589.48809</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>321.8149557301912</v>
+        <v>531533829.5194811</v>
       </c>
       <c r="C7">
-        <v>9009.613154955181</v>
+        <v>6764689923.344808</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13762,22 +13762,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1354.410081185821</v>
+        <v>2237045744.375116</v>
       </c>
       <c r="C8">
-        <v>45747.19215956723</v>
+        <v>34348374841.48147</v>
       </c>
       <c r="D8">
-        <v>49.23430349091315</v>
+        <v>79079119.78078873</v>
       </c>
       <c r="E8">
-        <v>1.8520694986044</v>
+        <v>4080908.592265144</v>
       </c>
       <c r="F8">
-        <v>1600.788160212579</v>
+        <v>1201920143.579525</v>
       </c>
       <c r="G8">
-        <v>933.1428110685371</v>
+        <v>729622375.2864287</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>189.9962753793701</v>
+        <v>816470635.5518631</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.97770000133919</v>
+        <v>34313511.56971934</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>31751.5356483879</v>
+        <v>24084556972.57362</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>99.1718278049491</v>
+        <v>430754093.6548193</v>
       </c>
       <c r="C7">
-        <v>7148.205124899358</v>
+        <v>5422142585.126347</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13980,22 +13980,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>417.380612544497</v>
+        <v>1812897991.749285</v>
       </c>
       <c r="C8">
-        <v>36295.71079474398</v>
+        <v>27531459397.00244</v>
       </c>
       <c r="D8">
-        <v>15.1997020303496</v>
+        <v>65317650.84414902</v>
       </c>
       <c r="E8">
-        <v>0.5582160001071349</v>
+        <v>2745080.925577546</v>
       </c>
       <c r="F8">
-        <v>1270.061425935517</v>
+        <v>963382278.9029458</v>
       </c>
       <c r="G8">
-        <v>724.7376952704305</v>
+        <v>585289667.8781165</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>74.67136819483433</v>
+        <v>978384450.1791235</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.918864831591164</v>
+        <v>55686553.07716577</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>24942.78714128404</v>
+        <v>19099858571.80264</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>39.16292841281971</v>
+        <v>531603099.341327</v>
       </c>
       <c r="C7">
-        <v>5615.355453891342</v>
+        <v>4299940275.006651</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,22 +14198,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>164.823492838389</v>
+        <v>2237337277.578777</v>
       </c>
       <c r="C8">
-        <v>28512.51663920292</v>
+        <v>21833367387.94421</v>
       </c>
       <c r="D8">
-        <v>5.973709455586743</v>
+        <v>78270756.01432984</v>
       </c>
       <c r="E8">
-        <v>0.233509186527293</v>
+        <v>4454924.246173259</v>
       </c>
       <c r="F8">
-        <v>997.7114856513625</v>
+        <v>763994342.8721061</v>
       </c>
       <c r="G8">
-        <v>565.451838230416</v>
+        <v>483154337.4347976</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>206.3555200984378</v>
+        <v>1310906299.377977</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.127078675096424</v>
+        <v>101592277.1621237</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>19657.84169510673</v>
+        <v>15117740897.87149</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>108.2917060406454</v>
+        <v>740846844.2509243</v>
       </c>
       <c r="C7">
-        <v>4425.558697554102</v>
+        <v>3403448392.536325</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14416,22 +14416,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>455.7630891872858</v>
+        <v>3117973284.341112</v>
       </c>
       <c r="C8">
-        <v>22471.20721704934</v>
+        <v>17281342155.39513</v>
       </c>
       <c r="D8">
-        <v>16.50844160787501</v>
+        <v>104872503.9502381</v>
       </c>
       <c r="E8">
-        <v>0.6501662940077136</v>
+        <v>8127382.172969888</v>
       </c>
       <c r="F8">
-        <v>786.3136678042698</v>
+        <v>604709635.9148601</v>
       </c>
       <c r="G8">
-        <v>453.3850403594746</v>
+        <v>414429523.6787248</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>553.0058095959687</v>
+        <v>1655648861.765316</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.78849284873181</v>
+        <v>142555138.148344</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15826.09626466087</v>
+        <v>12070170454.79518</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>290.2171252637177</v>
+        <v>950760161.2148403</v>
       </c>
       <c r="C7">
-        <v>3562.920032560478</v>
+        <v>2717350595.537459</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14634,22 +14634,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1221.425521688615</v>
+        <v>4001427292.952962</v>
       </c>
       <c r="C8">
-        <v>18091.07500792874</v>
+        <v>13797613473.62588</v>
       </c>
       <c r="D8">
-        <v>44.24046476767747</v>
+        <v>132451908.9412252</v>
       </c>
       <c r="E8">
-        <v>1.743079427898544</v>
+        <v>11404411.05186751</v>
       </c>
       <c r="F8">
-        <v>633.0438505864353</v>
+        <v>482806818.1918077</v>
       </c>
       <c r="G8">
-        <v>385.3137157824195</v>
+        <v>366811075.6752298</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1199.998900366998</v>
+        <v>1993187005.312728</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47.31924350770289</v>
+        <v>171898675.649192</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13273.45132148826</v>
+        <v>9824575490.198967</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>629.8001745403035</v>
+        <v>1144889484.884692</v>
       </c>
       <c r="C7">
-        <v>2988.244531290313</v>
+        <v>2211801080.952332</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14852,22 +14852,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2650.615486761703</v>
+        <v>4818451823.200938</v>
       </c>
       <c r="C8">
-        <v>15173.10393260651</v>
+        <v>11230636357.94563</v>
       </c>
       <c r="D8">
-        <v>95.99991202935978</v>
+        <v>159454960.4250181</v>
       </c>
       <c r="E8">
-        <v>3.785539480616229</v>
+        <v>13751894.05193535</v>
       </c>
       <c r="F8">
-        <v>530.938052859531</v>
+        <v>392983019.607959</v>
       </c>
       <c r="G8">
-        <v>361.8044705830616</v>
+        <v>335669056.5837024</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1782.17109062587</v>
+        <v>2103236651.709555</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70.42115050183514</v>
+        <v>180594562.936849</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11764.13532359453</v>
+        <v>8218058891.910496</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>935.4977291915718</v>
+        <v>1207260189.089259</v>
       </c>
       <c r="C7">
-        <v>2648.453080863746</v>
+        <v>1850126914.754812</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15070,22 +15070,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3937.19288921363</v>
+        <v>5080948978.914695</v>
       </c>
       <c r="C8">
-        <v>13447.77960297168</v>
+        <v>9394200398.307411</v>
       </c>
       <c r="D8">
-        <v>142.5736872500695</v>
+        <v>168258932.1367643</v>
       </c>
       <c r="E8">
-        <v>5.633692040146808</v>
+        <v>14447565.03494791</v>
       </c>
       <c r="F8">
-        <v>470.5654129437817</v>
+        <v>328722355.6764201</v>
       </c>
       <c r="G8">
-        <v>358.3950810055317</v>
+        <v>305738710.384407</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1534.231675338749</v>
+        <v>1608086728.549165</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60.94614995571408</v>
+        <v>139294973.9271111</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11041.78150917602</v>
+        <v>7089351318.698629</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>805.6904172314423</v>
+        <v>924331724.1731486</v>
       </c>
       <c r="C7">
-        <v>2485.829978302746</v>
+        <v>1596021622.063074</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15288,22 +15288,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3390.877906643856</v>
+        <v>3890198958.402648</v>
       </c>
       <c r="C8">
-        <v>12622.04489111545</v>
+        <v>8103955916.818366</v>
       </c>
       <c r="D8">
-        <v>122.7385340270998</v>
+        <v>128646938.2839331</v>
       </c>
       <c r="E8">
-        <v>4.875691996457124</v>
+        <v>11143597.91416888</v>
       </c>
       <c r="F8">
-        <v>441.671260367041</v>
+        <v>283574052.7479454</v>
       </c>
       <c r="G8">
-        <v>329.1520395534187</v>
+        <v>252035334.6236222</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.413711046150448E-10</v>
+        <v>0.000417004517274724</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.594613062381874E-13</v>
+        <v>1.070073128375095E-06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0155989435260823</v>
+        <v>63440.29034685199</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15480,10 +15480,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.168759741483718E-10</v>
+        <v>0.0002025790847196565</v>
       </c>
       <c r="C7">
-        <v>0.003511781265981651</v>
+        <v>14282.27641032207</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15506,22 +15506,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.91891364327035E-10</v>
+        <v>0.0008525867107672111</v>
       </c>
       <c r="C8">
-        <v>0.01783141291797562</v>
+        <v>72519.65563690264</v>
       </c>
       <c r="D8">
-        <v>1.930968836920357E-11</v>
+        <v>3.33603613819779E-05</v>
       </c>
       <c r="E8">
-        <v>2.075690449905498E-14</v>
+        <v>8.56058502700076E-08</v>
       </c>
       <c r="F8">
-        <v>0.0006239577410432928</v>
+        <v>2537.611613874082</v>
       </c>
       <c r="G8">
-        <v>0.0003511781382857625</v>
+        <v>1428.227661290115</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>782.0437783804095</v>
+        <v>717094834.3694624</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31.46206977546676</v>
+        <v>63625570.67701355</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10861.05241730215</v>
+        <v>6301201747.083921</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>411.1038240661674</v>
+        <v>413786280.1129597</v>
       </c>
       <c r="C7">
-        <v>2445.142540849095</v>
+        <v>1418585958.182371</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15724,22 +15724,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1730.196666795317</v>
+        <v>1741486215.175286</v>
       </c>
       <c r="C8">
-        <v>12415.45044719653</v>
+        <v>7203008975.822735</v>
       </c>
       <c r="D8">
-        <v>62.56350227043274</v>
+        <v>57367586.74955696</v>
       </c>
       <c r="E8">
-        <v>2.51696558203734</v>
+        <v>5090045.654161082</v>
       </c>
       <c r="F8">
-        <v>434.4420966920866</v>
+        <v>252048069.8833571</v>
       </c>
       <c r="G8">
-        <v>285.6246364915262</v>
+        <v>183237223.8295331</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>365.886161340037</v>
+        <v>145835975.2177822</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.06544185360519</v>
+        <v>14014977.50830447</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11006.93492353461</v>
+        <v>5750620511.800351</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>192.704582274045</v>
+        <v>85290696.46957079</v>
       </c>
       <c r="C7">
-        <v>2477.984986336829</v>
+        <v>1294633918.466546</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15942,22 +15942,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>811.028276577337</v>
+        <v>358959635.2588319</v>
       </c>
       <c r="C8">
-        <v>12582.21117697227</v>
+        <v>6573630368.559058</v>
       </c>
       <c r="D8">
-        <v>29.27089290720295</v>
+        <v>11666878.01742257</v>
       </c>
       <c r="E8">
-        <v>1.205235348288415</v>
+        <v>1121198.200664357</v>
       </c>
       <c r="F8">
-        <v>440.2773969413849</v>
+        <v>230024820.4720142</v>
       </c>
       <c r="G8">
-        <v>267.0689568610874</v>
+        <v>137992461.4936116</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>442.8158462018678</v>
+        <v>7225880.505128032</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.28118019046134</v>
+        <v>1036467.779734159</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11304.11761903291</v>
+        <v>5369019237.349581</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>233.2728144007991</v>
+        <v>4588183.597489554</v>
       </c>
       <c r="C7">
-        <v>2544.889557205992</v>
+        <v>1208724241.029082</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16160,22 +16160,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>981.7662164710594</v>
+        <v>19310109.76376535</v>
       </c>
       <c r="C8">
-        <v>12921.92568049917</v>
+        <v>6137415577.257331</v>
       </c>
       <c r="D8">
-        <v>35.4252676961494</v>
+        <v>578070.4404102422</v>
       </c>
       <c r="E8">
-        <v>1.462494415236907</v>
+        <v>82917.42237873272</v>
       </c>
       <c r="F8">
-        <v>452.1647047613167</v>
+        <v>214760769.4939834</v>
       </c>
       <c r="G8">
-        <v>277.816237160679</v>
+        <v>121331242.4626572</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>670.8624692481989</v>
+        <v>536945.2760729836</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27.84963159703971</v>
+        <v>50094.21306773689</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11620.71888310025</v>
+        <v>5116494478.081928</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>353.5692978998921</v>
+        <v>312431.5284886487</v>
       </c>
       <c r="C7">
-        <v>2616.165819350205</v>
+        <v>1151873485.892373</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,22 +16378,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1488.053345397958</v>
+        <v>1314918.416097782</v>
       </c>
       <c r="C8">
-        <v>13283.83787413577</v>
+        <v>5848750306.626351</v>
       </c>
       <c r="D8">
-        <v>53.66899753985588</v>
+        <v>42955.62208583867</v>
       </c>
       <c r="E8">
-        <v>2.227970527763175</v>
+        <v>4007.537045418949</v>
       </c>
       <c r="F8">
-        <v>464.8287553240106</v>
+        <v>204659779.1232773</v>
       </c>
       <c r="G8">
-        <v>296.9735117250097</v>
+        <v>115218591.7420861</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>713.6911842168748</v>
+        <v>1885627.988373741</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.13352985237751</v>
+        <v>112426.3210778843</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11869.09087745653</v>
+        <v>4973971359.271179</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>376.677354334059</v>
+        <v>1029954.790388043</v>
       </c>
       <c r="C7">
-        <v>2672.081664889133</v>
+        <v>1119787337.380328</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16596,22 +16596,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1585.307323293523</v>
+        <v>4334730.647001821</v>
       </c>
       <c r="C8">
-        <v>13567.75604982649</v>
+        <v>5685829748.729412</v>
       </c>
       <c r="D8">
-        <v>57.09529473734996</v>
+        <v>150850.2390698992</v>
       </c>
       <c r="E8">
-        <v>2.4106823881902</v>
+        <v>8994.105686230741</v>
       </c>
       <c r="F8">
-        <v>474.7636350982617</v>
+        <v>198958854.3708473</v>
       </c>
       <c r="G8">
-        <v>304.8759019223191</v>
+        <v>112081729.2170716</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>594.8537223468396</v>
+        <v>7121859.37226689</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.54851754352289</v>
+        <v>433487.1738560512</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12003.9245490205</v>
+        <v>4935171119.752373</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>314.4144461686103</v>
+        <v>3899437.530466003</v>
       </c>
       <c r="C7">
-        <v>2702.436692524828</v>
+        <v>1111052261.570232</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16814,22 +16814,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1323.263844574864</v>
+        <v>16411410.99310947</v>
       </c>
       <c r="C8">
-        <v>13721.88667212689</v>
+        <v>5641476546.794976</v>
       </c>
       <c r="D8">
-        <v>47.58829778774714</v>
+        <v>569748.7497813508</v>
       </c>
       <c r="E8">
-        <v>2.04388140348183</v>
+        <v>34678.97390848408</v>
       </c>
       <c r="F8">
-        <v>480.1569819608205</v>
+        <v>197406844.7900951</v>
       </c>
       <c r="G8">
-        <v>301.6851138693438</v>
+        <v>111495169.9100697</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>355.8026313662803</v>
+        <v>24668537.78425546</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.35531590843689</v>
+        <v>1531093.138519208</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12016.84983162397</v>
+        <v>4999117907.97949</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>188.1403914872712</v>
+        <v>13538117.56840582</v>
       </c>
       <c r="C7">
-        <v>2705.346554031056</v>
+        <v>1125448565.559678</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17032,22 +17032,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>791.8191444223835</v>
+        <v>56977348.59252688</v>
       </c>
       <c r="C8">
-        <v>13736.66177858193</v>
+        <v>5714575188.619629</v>
       </c>
       <c r="D8">
-        <v>28.46421050930241</v>
+        <v>1973483.022740436</v>
       </c>
       <c r="E8">
-        <v>1.228425272674951</v>
+        <v>122487.4510815366</v>
       </c>
       <c r="F8">
-        <v>480.6739932649591</v>
+        <v>199964716.3191798</v>
       </c>
       <c r="G8">
-        <v>289.3486945518326</v>
+        <v>113898668.3128084</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>152.8350263655288</v>
+        <v>78285096.24999644</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.119443038338737</v>
+        <v>4960711.672683984</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11927.56958457977</v>
+        <v>5163682240.021851</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>80.31121366766793</v>
+        <v>43070753.30709077</v>
       </c>
       <c r="C7">
-        <v>2685.246942895995</v>
+        <v>1162496839.844975</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17250,22 +17250,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>338.0026797603342</v>
+        <v>181270203.4031619</v>
       </c>
       <c r="C8">
-        <v>13634.60403679947</v>
+        <v>5902691425.550141</v>
       </c>
       <c r="D8">
-        <v>12.2268021092423</v>
+        <v>6262807.699999712</v>
       </c>
       <c r="E8">
-        <v>0.4895554430670987</v>
+        <v>396856.9338147185</v>
       </c>
       <c r="F8">
-        <v>477.1027833831912</v>
+        <v>206547289.6008742</v>
       </c>
       <c r="G8">
-        <v>276.5558156563662</v>
+        <v>120556759.3152065</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>196.2966090849707</v>
+        <v>223439278.8532384</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.954949831748007</v>
+        <v>14551141.51115721</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11773.06388990257</v>
+        <v>5420952896.13507</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>102.1912944588883</v>
+        <v>123346940.3530633</v>
       </c>
       <c r="C7">
-        <v>2650.463163908167</v>
+        <v>1220416036.033777</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17468,22 +17468,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>430.0885243524504</v>
+        <v>519125467.9837803</v>
       </c>
       <c r="C8">
-        <v>13457.98599626607</v>
+        <v>6196781810.143352</v>
       </c>
       <c r="D8">
-        <v>15.70372872679765</v>
+        <v>17875142.30825906</v>
       </c>
       <c r="E8">
-        <v>0.5563959865398402</v>
+        <v>1164091.320892576</v>
       </c>
       <c r="F8">
-        <v>470.9225555961033</v>
+        <v>216838115.845403</v>
       </c>
       <c r="G8">
-        <v>275.2654458367054</v>
+        <v>134376297.638684</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>468.2609450837841</v>
+        <v>544515678.8190266</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.82016039395037</v>
+        <v>37064388.5352748</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11597.10112749189</v>
+        <v>5755255735.876714</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>244.0177260938311</v>
+        <v>302291357.8484467</v>
       </c>
       <c r="C7">
-        <v>2610.848767490166</v>
+        <v>1295677443.821181</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17686,22 +17686,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1026.987908189747</v>
+        <v>1272241874.515455</v>
       </c>
       <c r="C8">
-        <v>13256.8400231759</v>
+        <v>6578928970.630074</v>
       </c>
       <c r="D8">
-        <v>37.46087560670271</v>
+        <v>43561254.30552211</v>
       </c>
       <c r="E8">
-        <v>1.345612831516029</v>
+        <v>2965151.082821983</v>
       </c>
       <c r="F8">
-        <v>463.8840450996759</v>
+        <v>230210229.4350688</v>
       </c>
       <c r="G8">
-        <v>285.4866493583996</v>
+        <v>159796880.1669627</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.557271735584784E-09</v>
+        <v>0.01651160975924242</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17826,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.23506194558363E-11</v>
+        <v>5.093655847991692E-05</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04429317148182157</v>
+        <v>180138.5878788032</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.629992123870171E-09</v>
+        <v>0.008030343066051786</v>
       </c>
       <c r="C7">
-        <v>0.009971696452435315</v>
+        <v>40554.49762577931</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17904,22 +17904,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.948606768182093E-08</v>
+        <v>0.0337969923721007</v>
       </c>
       <c r="C8">
-        <v>0.05063226421830789</v>
+        <v>205919.4289380639</v>
       </c>
       <c r="D8">
-        <v>7.645817388467823E-10</v>
+        <v>0.001320928780739393</v>
       </c>
       <c r="E8">
-        <v>9.880495564669032E-13</v>
+        <v>4.074924678393352E-06</v>
       </c>
       <c r="F8">
-        <v>0.001771726859272865</v>
+        <v>7205.543515152134</v>
       </c>
       <c r="G8">
-        <v>0.0009971701082427437</v>
+        <v>4055.450565612236</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>881.2342892233421</v>
+        <v>1034570668.906913</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32.61535790960466</v>
+        <v>75546632.57896826</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11441.78539577467</v>
+        <v>6144115802.209359</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>460.2418594148192</v>
+        <v>579775284.9902953</v>
       </c>
       <c r="C7">
-        <v>2575.882625325168</v>
+        <v>1383221288.938129</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18122,22 +18122,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1937.002004026683</v>
+        <v>2440077680.763826</v>
       </c>
       <c r="C8">
-        <v>13079.29601577075</v>
+        <v>7023441408.186814</v>
       </c>
       <c r="D8">
-        <v>70.49874313786734</v>
+        <v>82765653.51255298</v>
       </c>
       <c r="E8">
-        <v>2.609228632768372</v>
+        <v>6043730.606317458</v>
       </c>
       <c r="F8">
-        <v>457.6714158309871</v>
+        <v>245764632.0883746</v>
       </c>
       <c r="G8">
-        <v>303.6124484739987</v>
+        <v>196299657.3928424</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1188.590858329249</v>
+        <v>1427159225.134685</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>45.44665855822446</v>
+        <v>111909776.9206604</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11341.78707782239</v>
+        <v>6561643320.63102</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>622.3063141398827</v>
+        <v>807931344.4991784</v>
       </c>
       <c r="C7">
-        <v>2553.370060994944</v>
+        <v>1477219021.205915</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18340,22 +18340,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2619.076368107943</v>
+        <v>3400309210.032908</v>
       </c>
       <c r="C8">
-        <v>12964.98626809274</v>
+        <v>7500724089.103356</v>
       </c>
       <c r="D8">
-        <v>95.08726866633991</v>
+        <v>114172738.0107747</v>
       </c>
       <c r="E8">
-        <v>3.635732684657955</v>
+        <v>8952782.153652826</v>
       </c>
       <c r="F8">
-        <v>453.6714831128961</v>
+        <v>262465732.825241</v>
       </c>
       <c r="G8">
-        <v>317.5676375134826</v>
+        <v>228515036.5705093</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1190.528846061791</v>
+        <v>1496240586.303199</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>46.20045415891136</v>
+        <v>120989435.0321854</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11321.02531193743</v>
+        <v>6983089345.528337</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>624.0407082183007</v>
+        <v>850917518.8191537</v>
       </c>
       <c r="C7">
-        <v>2548.695976473668</v>
+        <v>1572098924.603357</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18558,22 +18558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2626.37584497417</v>
+        <v>3581223449.144274</v>
       </c>
       <c r="C8">
-        <v>12941.25314669371</v>
+        <v>7982486080.229105</v>
       </c>
       <c r="D8">
-        <v>95.24230768494323</v>
+        <v>119699246.9042558</v>
       </c>
       <c r="E8">
-        <v>3.696036332712907</v>
+        <v>9679154.802574828</v>
       </c>
       <c r="F8">
-        <v>452.8410124774977</v>
+        <v>279323573.8211337</v>
       </c>
       <c r="G8">
-        <v>317.2736684691968</v>
+        <v>242301644.342251</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1110.462334352099</v>
+        <v>1466411861.206614</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43.396659684235</v>
+        <v>121777169.1609126</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11391.29116988835</v>
+        <v>7388990634.100162</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>582.3933489915614</v>
+        <v>837342029.1797783</v>
       </c>
       <c r="C7">
-        <v>2564.514889028711</v>
+        <v>1663479250.370992</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18776,22 +18776,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2451.096224847519</v>
+        <v>3524088814.170942</v>
       </c>
       <c r="C8">
-        <v>13021.57522267684</v>
+        <v>8446478623.593376</v>
       </c>
       <c r="D8">
-        <v>88.83698674816789</v>
+        <v>117312948.896529</v>
       </c>
       <c r="E8">
-        <v>3.471732774738798</v>
+        <v>9742173.532873005</v>
       </c>
       <c r="F8">
-        <v>455.6516467955342</v>
+        <v>295559625.3640067</v>
       </c>
       <c r="G8">
-        <v>314.6908238020272</v>
+        <v>250082127.9550769</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1186.245018895226</v>
+        <v>1557611883.173059</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>46.70231983762854</v>
+        <v>135474121.2173319</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11552.41452049777</v>
+        <v>7767530892.463306</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>622.5027078755712</v>
+        <v>895902505.4439945</v>
       </c>
       <c r="C7">
-        <v>2600.788497125072</v>
+        <v>1748699803.001162</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,22 +18994,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2619.902922780937</v>
+        <v>3770550011.822038</v>
       </c>
       <c r="C8">
-        <v>13205.75801625132</v>
+        <v>8879194316.272448</v>
       </c>
       <c r="D8">
-        <v>94.89960151161803</v>
+        <v>124608950.6538447</v>
       </c>
       <c r="E8">
-        <v>3.736185587010282</v>
+        <v>10837929.69738655</v>
       </c>
       <c r="F8">
-        <v>462.0965808199111</v>
+        <v>310701235.6985325</v>
       </c>
       <c r="G8">
-        <v>322.3291205000643</v>
+        <v>264460230.8445156</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1387.036270695895</v>
+        <v>1702566232.827008</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54.60784860730157</v>
+        <v>153314854.8186406</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11793.69658608924</v>
+        <v>8114440413.104288</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>727.8718356038684</v>
+        <v>984818397.4544203</v>
       </c>
       <c r="C7">
-        <v>2655.108191041823</v>
+        <v>1826799345.674719</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19212,22 +19212,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3063.365870353244</v>
+        <v>4144766866.484061</v>
       </c>
       <c r="C8">
-        <v>13481.57157593693</v>
+        <v>9275752384.284115</v>
       </c>
       <c r="D8">
-        <v>110.9629016556715</v>
+        <v>136205298.6261606</v>
       </c>
       <c r="E8">
-        <v>4.368627888584124</v>
+        <v>12265188.38549124</v>
       </c>
       <c r="F8">
-        <v>471.74786344357</v>
+        <v>324577616.5241718</v>
       </c>
       <c r="G8">
-        <v>338.2980026645691</v>
+        <v>281161774.3129139</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1567.588874176095</v>
+        <v>1745524174.425457</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61.57557103197216</v>
+        <v>158003815.5239681</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12096.28644675941</v>
+        <v>8430715122.421842</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>822.4710617552627</v>
+        <v>1010535599.204314</v>
       </c>
       <c r="C7">
-        <v>2723.230073924515</v>
+        <v>1898002090.734219</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19430,22 +19430,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3461.501952255063</v>
+        <v>4253001852.738547</v>
       </c>
       <c r="C8">
-        <v>13827.46710029605</v>
+        <v>9637291287.731277</v>
       </c>
       <c r="D8">
-        <v>125.4071099340876</v>
+        <v>139641933.9540365</v>
       </c>
       <c r="E8">
-        <v>4.926045682557771</v>
+        <v>12640305.24191744</v>
       </c>
       <c r="F8">
-        <v>483.8514578703767</v>
+        <v>337228604.896874</v>
       </c>
       <c r="G8">
-        <v>354.5701135679777</v>
+        <v>290853768.9938532</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1642.635721663569</v>
+        <v>1636195731.577273</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64.51576302882405</v>
+        <v>144560660.1756873</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12436.04486568615</v>
+        <v>8719246152.879803</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>861.8379595212739</v>
+        <v>943486414.7269993</v>
       </c>
       <c r="C7">
-        <v>2799.719693144654</v>
+        <v>1962958917.18355</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19648,22 +19648,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3627.183882973037</v>
+        <v>3970814559.15764</v>
       </c>
       <c r="C8">
-        <v>14215.85062448225</v>
+        <v>9967115928.428406</v>
       </c>
       <c r="D8">
-        <v>131.4108577330855</v>
+        <v>130895658.5261818</v>
       </c>
       <c r="E8">
-        <v>5.161261042305922</v>
+        <v>11564852.81405498</v>
       </c>
       <c r="F8">
-        <v>497.4417946274466</v>
+        <v>348769846.1151924</v>
       </c>
       <c r="G8">
-        <v>366.1557652665927</v>
+        <v>290644533.1910549</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1546.122722152675</v>
+        <v>1396816947.19099</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60.7805312461128</v>
+        <v>119660824.505971</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12786.44707472619</v>
+        <v>8981771420.996374</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>811.2593547236071</v>
+        <v>801481215.4380746</v>
       </c>
       <c r="C7">
-        <v>2878.60554276696</v>
+        <v>2022061081.177994</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19866,22 +19866,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3414.315677159423</v>
+        <v>3373162802.851531</v>
       </c>
       <c r="C8">
-        <v>14616.40124294666</v>
+        <v>10267212947.77857</v>
       </c>
       <c r="D8">
-        <v>123.6898177722139</v>
+        <v>111745355.7752791</v>
       </c>
       <c r="E8">
-        <v>4.862442499689021</v>
+        <v>9572865.960477673</v>
       </c>
       <c r="F8">
-        <v>511.4578829890479</v>
+        <v>359270856.8398553</v>
       </c>
       <c r="G8">
-        <v>368.9864897490566</v>
+        <v>282354229.6616068</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1243.878209094729</v>
+        <v>1081517517.446924</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>48.93691484958242</v>
+        <v>91344129.65083645</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13121.25242042237</v>
+        <v>9217246893.208416</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>652.7102832629615</v>
+        <v>619182262.7737894</v>
       </c>
       <c r="C7">
-        <v>2953.980079433525</v>
+        <v>2075073540.03649</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20084,22 +20084,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2747.036369826711</v>
+        <v>2605928294.69172</v>
       </c>
       <c r="C8">
-        <v>14999.12282638415</v>
+        <v>10536388893.57564</v>
       </c>
       <c r="D8">
-        <v>99.51025672757825</v>
+        <v>86521401.39575389</v>
       </c>
       <c r="E8">
-        <v>3.914953187966592</v>
+        <v>7307530.372066912</v>
       </c>
       <c r="F8">
-        <v>524.8500968168953</v>
+        <v>368689875.728337</v>
       </c>
       <c r="G8">
-        <v>360.6690362696485</v>
+        <v>269425580.2810279</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.146995728067604E-07</v>
+        <v>0.3709254753594565</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20224,7 +20224,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.411407544642975E-10</v>
+        <v>0.001406936393092605</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.111666525203054</v>
+        <v>454143.369969941</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20276,10 +20276,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.040780164935717E-07</v>
+        <v>0.1806759869454214</v>
       </c>
       <c r="C7">
-        <v>0.02513942117872656</v>
+        <v>102241.0380589898</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20302,22 +20302,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.380290979605738E-07</v>
+        <v>0.7604039954943554</v>
       </c>
       <c r="C8">
-        <v>0.1276478702985133</v>
+        <v>519138.8724726549</v>
       </c>
       <c r="D8">
-        <v>1.717596582454083E-08</v>
+        <v>0.02967403802875651</v>
       </c>
       <c r="E8">
-        <v>2.729126035714379E-11</v>
+        <v>0.0001125549114474083</v>
       </c>
       <c r="F8">
-        <v>0.004466661008122166</v>
+        <v>18165.73479879766</v>
       </c>
       <c r="G8">
-        <v>0.002513952525674305</v>
+        <v>10224.12187349767</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>883.2071906412525</v>
+        <v>801514513.1029612</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34.73903534413743</v>
+        <v>67443033.1108481</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13416.85340112671</v>
+        <v>9421976808.883839</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>463.4436863184519</v>
+        <v>458609933.6345476</v>
       </c>
       <c r="C7">
-        <v>3020.528559752564</v>
+        <v>2121164269.274197</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20520,22 +20520,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1950.477408321217</v>
+        <v>1930133781.499449</v>
       </c>
       <c r="C8">
-        <v>15337.02924530823</v>
+        <v>10770419080.10505</v>
       </c>
       <c r="D8">
-        <v>70.65657525130017</v>
+        <v>64121161.04823686</v>
       </c>
       <c r="E8">
-        <v>2.779122827530993</v>
+        <v>5395442.648867846</v>
       </c>
       <c r="F8">
-        <v>536.6741360450687</v>
+        <v>376879072.3553539</v>
       </c>
       <c r="G8">
-        <v>348.3972246071015</v>
+        <v>257977420.2908744</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>775.2963986412661</v>
+        <v>743561251.0043691</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.46229680126321</v>
+        <v>62149052.46887267</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13654.26902848613</v>
+        <v>9591064097.658108</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>406.7856500794751</v>
+        <v>425008157.3662017</v>
       </c>
       <c r="C7">
-        <v>3073.97780463367</v>
+        <v>2159230794.230855</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20738,22 +20738,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1712.022935973453</v>
+        <v>1788715293.286756</v>
       </c>
       <c r="C8">
-        <v>15608.42301486369</v>
+        <v>10963705584.42976</v>
       </c>
       <c r="D8">
-        <v>62.02371189130126</v>
+        <v>59484900.0803495</v>
       </c>
       <c r="E8">
-        <v>2.436983744101056</v>
+        <v>4971924.197509811</v>
       </c>
       <c r="F8">
-        <v>546.1707611394459</v>
+        <v>383642563.9063246</v>
       </c>
       <c r="G8">
-        <v>348.0763454713144</v>
+        <v>258423895.1597056</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>940.5547525217759</v>
+        <v>907515094.5406382</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37.01513758177205</v>
+        <v>75745651.02074528</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13820.63453365053</v>
+        <v>9720293063.752403</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>493.5572327268557</v>
+        <v>518608188.3207683</v>
       </c>
       <c r="C7">
-        <v>3111.431575997419</v>
+        <v>2188324037.718359</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20956,22 +20956,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2077.215119262141</v>
+        <v>2182646101.246023</v>
       </c>
       <c r="C8">
-        <v>15798.59820287779</v>
+        <v>11111429374.28369</v>
       </c>
       <c r="D8">
-        <v>75.24438020174203</v>
+        <v>72601207.56325102</v>
       </c>
       <c r="E8">
-        <v>2.961211006541763</v>
+        <v>6059652.081659619</v>
       </c>
       <c r="F8">
-        <v>552.8253813460219</v>
+        <v>388811722.5500965</v>
       </c>
       <c r="G8">
-        <v>360.4988808724274</v>
+        <v>270693222.6039127</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1105.573707023327</v>
+        <v>1081807588.189629</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43.64032572725398</v>
+        <v>90670058.44129898</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13909.95324771462</v>
+        <v>9807598031.251747</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>580.2897752084565</v>
+        <v>618608616.3007009</v>
       </c>
       <c r="C7">
-        <v>3131.539847190745</v>
+        <v>2207978955.295225</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21174,22 +21174,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2442.242995724307</v>
+        <v>2603514011.103113</v>
       </c>
       <c r="C8">
-        <v>15900.69991695326</v>
+        <v>11211229141.02227</v>
       </c>
       <c r="D8">
-        <v>88.44589656186608</v>
+        <v>86544607.05517027</v>
       </c>
       <c r="E8">
-        <v>3.491226058180317</v>
+        <v>7253604.675303915</v>
       </c>
       <c r="F8">
-        <v>556.3981299085855</v>
+        <v>392303921.2500702</v>
       </c>
       <c r="G8">
-        <v>371.1829622399201</v>
+        <v>282658757.1595924</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1115.157825543866</v>
+        <v>1165591195.789329</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>44.0447830524007</v>
+        <v>98093862.4850449</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13922.94177060137</v>
+        <v>9853657679.862469</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>585.3479379156687</v>
+        <v>666943749.6500421</v>
       </c>
       <c r="C7">
-        <v>3134.463945945905</v>
+        <v>2218348337.73695</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21392,22 +21392,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2463.531088278557</v>
+        <v>2806940205.933831</v>
       </c>
       <c r="C8">
-        <v>15915.5473144325</v>
+        <v>11263880694.75483</v>
       </c>
       <c r="D8">
-        <v>89.21262604350923</v>
+        <v>93247295.66314627</v>
       </c>
       <c r="E8">
-        <v>3.523582644192055</v>
+        <v>7847508.998803588</v>
       </c>
       <c r="F8">
-        <v>556.9176708240551</v>
+        <v>394146307.1944991</v>
       </c>
       <c r="G8">
-        <v>371.9811883861573</v>
+        <v>288529208.7386992</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1009.826462553021</v>
+        <v>1187917924.29803</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>39.64730195470442</v>
+        <v>100063097.6543759</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13866.0061121725</v>
+        <v>9861613115.426189</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>529.8081146027898</v>
+        <v>679814537.3648937</v>
       </c>
       <c r="C7">
-        <v>3121.646053612203</v>
+        <v>2220139340.411502</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21610,22 +21610,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2229.782795159111</v>
+        <v>2861108989.339947</v>
       </c>
       <c r="C8">
-        <v>15850.46321219799</v>
+        <v>11272974686.03968</v>
       </c>
       <c r="D8">
-        <v>80.78611700424166</v>
+        <v>95033433.94384238</v>
       </c>
       <c r="E8">
-        <v>3.171784156376352</v>
+        <v>8005047.812350065</v>
       </c>
       <c r="F8">
-        <v>554.6402444869004</v>
+        <v>394464524.6170479</v>
       </c>
       <c r="G8">
-        <v>365.1454168214992</v>
+        <v>289995387.7776395</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>910.2065956571928</v>
+        <v>1194537873.011827</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.25661793100027</v>
+        <v>100346842.7051476</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13749.62542788613</v>
+        <v>9836230247.487875</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>477.0345906099246</v>
+        <v>683312950.7516147</v>
       </c>
       <c r="C7">
-        <v>3095.445336485711</v>
+        <v>2214424909.818583</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21828,22 +21828,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2007.676918340992</v>
+        <v>2875832625.624591</v>
       </c>
       <c r="C8">
-        <v>15717.42650790344</v>
+        <v>11243959105.69004</v>
       </c>
       <c r="D8">
-        <v>72.81652765257539</v>
+        <v>95563029.84094615</v>
       </c>
       <c r="E8">
-        <v>2.82052943448002</v>
+        <v>8027747.416411802</v>
       </c>
       <c r="F8">
-        <v>549.9850171154457</v>
+        <v>393449209.8995153</v>
       </c>
       <c r="G8">
-        <v>357.2479927095635</v>
+        <v>289773786.0570198</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>886.8001374320067</v>
+        <v>1206729984.712579</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33.92177794919372</v>
+        <v>100784130.6438725</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13586.5117385044</v>
+        <v>9782899354.46907</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>464.3139690582767</v>
+        <v>689665743.6306536</v>
       </c>
       <c r="C7">
-        <v>3058.723644555862</v>
+        <v>2202418556.267244</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,22 +22046,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1954.140133422436</v>
+        <v>2902569377.804218</v>
       </c>
       <c r="C8">
-        <v>15530.96852483063</v>
+        <v>11182995671.01175</v>
       </c>
       <c r="D8">
-        <v>70.9440109945605</v>
+        <v>96538398.77700624</v>
       </c>
       <c r="E8">
-        <v>2.713742235935496</v>
+        <v>8062730.451509792</v>
       </c>
       <c r="F8">
-        <v>543.4604695401764</v>
+        <v>391315974.1787632</v>
       </c>
       <c r="G8">
-        <v>352.3037613614138</v>
+        <v>289208429.9897897</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>966.3718754082108</v>
+        <v>1246628758.390614</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>36.95941256093787</v>
+        <v>103343398.2214032</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13389.8687083322</v>
+        <v>9706770879.565466</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>505.9699267832826</v>
+        <v>711649996.2932359</v>
       </c>
       <c r="C7">
-        <v>3014.453511242672</v>
+        <v>2185279796.098826</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22264,22 +22264,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2129.455941714144</v>
+        <v>2995093646.497627</v>
       </c>
       <c r="C8">
-        <v>15306.18259220772</v>
+        <v>11095971939.65762</v>
       </c>
       <c r="D8">
-        <v>77.30975003265682</v>
+        <v>99730300.67124905</v>
       </c>
       <c r="E8">
-        <v>2.956753004875028</v>
+        <v>8267471.857712251</v>
       </c>
       <c r="F8">
-        <v>535.5947483332885</v>
+        <v>388270835.182619</v>
       </c>
       <c r="G8">
-        <v>352.0423438025954</v>
+        <v>289692979.2392061</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1117.274313182703</v>
+        <v>1333343719.286995</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43.10253785517894</v>
+        <v>110106548.4095952</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13171.94706480228</v>
+        <v>9612170443.489161</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>585.3726252577211</v>
+        <v>760701638.0426004</v>
       </c>
       <c r="C7">
-        <v>2965.392935831223</v>
+        <v>2163982453.839013</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22482,22 +22482,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2463.63498893438</v>
+        <v>3201535382.349563</v>
       </c>
       <c r="C8">
-        <v>15057.07272120598</v>
+        <v>10987832600.92121</v>
       </c>
       <c r="D8">
-        <v>89.38194505461617</v>
+        <v>106667497.5429595</v>
       </c>
       <c r="E8">
-        <v>3.448203028414314</v>
+        <v>8808523.872767612</v>
       </c>
       <c r="F8">
-        <v>526.8778825920916</v>
+        <v>384486817.7395667</v>
       </c>
       <c r="G8">
-        <v>355.0765561088943</v>
+        <v>292468409.1881613</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SW2/SW2_Min.xlsx
+++ b/Recycling/SW2/SW2_Min.xlsx
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.501794890868645</v>
+        <v>5.50179489086865E-06</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02550631033311414</v>
+        <v>2.550631033311414E-08</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1032856.227977121</v>
+        <v>1.032856227977121</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.684808337712616</v>
+        <v>2.684808337712619E-06</v>
       </c>
       <c r="C7">
-        <v>232526.333965996</v>
+        <v>0.232526333965996</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -900,22 +900,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.29944837522842</v>
+        <v>1.129944837522843E-05</v>
       </c>
       <c r="C8">
-        <v>1180675.20759775</v>
+        <v>1.18067520759775</v>
       </c>
       <c r="D8">
-        <v>0.4401435912694914</v>
+        <v>4.401435912694918E-07</v>
       </c>
       <c r="E8">
-        <v>0.00204050482664913</v>
+        <v>2.040504826649131E-09</v>
       </c>
       <c r="F8">
-        <v>41314.24911908486</v>
+        <v>0.04131424911908486</v>
       </c>
       <c r="G8">
-        <v>23252.90187743337</v>
+        <v>0.02325290187743336</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1412029920.368284</v>
+        <v>1412.029920368283</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>117372767.0411422</v>
+        <v>117.3727670411425</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9502311825.747368</v>
+        <v>9502.31182574736</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>806407455.9945788</v>
+        <v>806.4074559945786</v>
       </c>
       <c r="C7">
-        <v>2139250045.83669</v>
+        <v>2139.250045836688</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3393895679.783669</v>
+        <v>3393.895679783669</v>
       </c>
       <c r="C8">
-        <v>10862251379.84195</v>
+        <v>10862.25137984193</v>
       </c>
       <c r="D8">
-        <v>112962393.6294627</v>
+        <v>112.9623936294626</v>
       </c>
       <c r="E8">
-        <v>9389821.363291375</v>
+        <v>9.389821363291396</v>
       </c>
       <c r="F8">
-        <v>380092473.0298951</v>
+        <v>380.0924730298947</v>
       </c>
       <c r="G8">
-        <v>294565750.1831268</v>
+        <v>294.5657501831266</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1393132721.07297</v>
+        <v>1393.132721072965</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>117983920.7271553</v>
+        <v>117.9839207271556</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9379282671.444843</v>
+        <v>9379.282671444833</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>797925772.3480059</v>
+        <v>797.925772348004</v>
       </c>
       <c r="C7">
-        <v>2111552562.444513</v>
+        <v>2111.55256244451</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3358199147.87364</v>
+        <v>3358.199147873633</v>
       </c>
       <c r="C8">
-        <v>10721614698.41224</v>
+        <v>10721.61469841222</v>
       </c>
       <c r="D8">
-        <v>111450617.6858375</v>
+        <v>111.4506176858372</v>
       </c>
       <c r="E8">
-        <v>9438713.658172417</v>
+        <v>9.438713658172441</v>
       </c>
       <c r="F8">
-        <v>375171306.857794</v>
+        <v>375.1713068577936</v>
       </c>
       <c r="G8">
-        <v>290947833.4792518</v>
+        <v>290.9478334792514</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59.4187894324281</v>
+        <v>5.941878943242812E-05</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.330433168115618</v>
+        <v>3.304331681156179E-07</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2174180.501125189</v>
+        <v>2.17418050112519</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.05384483924471</v>
+        <v>2.905384483924472E-05</v>
       </c>
       <c r="C7">
-        <v>489472.0171239469</v>
+        <v>0.4894720171239469</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>122.2777861836641</v>
+        <v>0.0001222777861836642</v>
       </c>
       <c r="C8">
-        <v>2485342.049540147</v>
+        <v>2.485342049540147</v>
       </c>
       <c r="D8">
-        <v>4.753503154594245</v>
+        <v>4.753503154594248E-06</v>
       </c>
       <c r="E8">
-        <v>0.02643465344924942</v>
+        <v>2.643465344924941E-08</v>
       </c>
       <c r="F8">
-        <v>86967.22004500766</v>
+        <v>0.08696722004500766</v>
       </c>
       <c r="G8">
-        <v>48950.1070968786</v>
+        <v>0.04895010709687861</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>499.5196105098353</v>
+        <v>0.0004995196105098355</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.259053077360215</v>
+        <v>3.259053077360215E-06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4340932.530498859</v>
+        <v>4.34093253049886</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>244.7582748334827</v>
+        <v>0.0002447582748334828</v>
       </c>
       <c r="C7">
-        <v>977271.6666360592</v>
+        <v>0.977271666636059</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1772,22 +1772,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1030.104626852862</v>
+        <v>0.001030104626852862</v>
       </c>
       <c r="C8">
-        <v>4962192.488931865</v>
+        <v>4.962192488931865</v>
       </c>
       <c r="D8">
-        <v>39.9615688407868</v>
+        <v>3.996156884078682E-05</v>
       </c>
       <c r="E8">
-        <v>0.2607242461888171</v>
+        <v>2.607242461888171E-07</v>
       </c>
       <c r="F8">
-        <v>173637.3012199545</v>
+        <v>0.1736373012199545</v>
       </c>
       <c r="G8">
-        <v>97751.64249108925</v>
+        <v>0.09775164249108922</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3428.448104401928</v>
+        <v>0.00342844810440193</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.68472879028916</v>
+        <v>2.568472879028916E-05</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8346484.436353494</v>
+        <v>8.346484436353494</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1683.407668958394</v>
+        <v>0.001683407668958395</v>
       </c>
       <c r="C7">
-        <v>1879039.28438384</v>
+        <v>1.879039284383839</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1990,22 +1990,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7084.892348801647</v>
+        <v>0.007084892348801651</v>
       </c>
       <c r="C8">
-        <v>9541005.783450959</v>
+        <v>9.541005783450959</v>
       </c>
       <c r="D8">
-        <v>274.2758483521541</v>
+        <v>0.0002742758483521542</v>
       </c>
       <c r="E8">
-        <v>2.054778303223132</v>
+        <v>2.054778303223132E-06</v>
       </c>
       <c r="F8">
-        <v>333859.37745414</v>
+        <v>0.3338593774541401</v>
       </c>
       <c r="G8">
-        <v>188072.2692052798</v>
+        <v>0.1880722692052798</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19900.52057609129</v>
+        <v>0.0199005205760913</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>167.9144857006121</v>
+        <v>0.0001679144857006121</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15601188.76149057</v>
+        <v>15.60118876149056</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9791.321409123606</v>
+        <v>0.009791321409123609</v>
       </c>
       <c r="C7">
-        <v>3512286.734549524</v>
+        <v>3.512286734549523</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>41208.35339848514</v>
+        <v>0.04120835339848515</v>
       </c>
       <c r="C8">
-        <v>17833979.48407645</v>
+        <v>17.83397948407644</v>
       </c>
       <c r="D8">
-        <v>1592.041646087303</v>
+        <v>0.001592041646087303</v>
       </c>
       <c r="E8">
-        <v>13.43315885604897</v>
+        <v>1.343315885604896E-05</v>
       </c>
       <c r="F8">
-        <v>624047.5504596232</v>
+        <v>0.6240475504596231</v>
       </c>
       <c r="G8">
-        <v>352207.8055958647</v>
+        <v>0.3522078055958646</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>100341.3860306342</v>
+        <v>0.1003413860306342</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>937.6960690262891</v>
+        <v>0.000937696069026289</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>28389903.24854472</v>
+        <v>28.38990324854473</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>49465.70833310296</v>
+        <v>0.04946570833310297</v>
       </c>
       <c r="C7">
-        <v>6391402.738561652</v>
+        <v>6.391402738561651</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2426,22 +2426,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>208184.4017700722</v>
+        <v>0.2081844017700722</v>
       </c>
       <c r="C8">
-        <v>32452972.64393131</v>
+        <v>32.45297264393131</v>
       </c>
       <c r="D8">
-        <v>8027.310882450731</v>
+        <v>0.008027310882450733</v>
       </c>
       <c r="E8">
-        <v>75.0156855221031</v>
+        <v>7.501568552210309E-05</v>
       </c>
       <c r="F8">
-        <v>1135596.12994179</v>
+        <v>1.13559612994179</v>
       </c>
       <c r="G8">
-        <v>644086.8446894754</v>
+        <v>0.6440868446894753</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>448692.0694067029</v>
+        <v>0.448692069406703</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4578.052947550538</v>
+        <v>0.004578052947550538</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>50014599.06089731</v>
+        <v>50.0145990608973</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>221601.2620740928</v>
+        <v>0.2216012620740929</v>
       </c>
       <c r="C7">
-        <v>11259758.18259501</v>
+        <v>11.25975818259501</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2644,22 +2644,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>932644.6083763994</v>
+        <v>0.9326446083763996</v>
       </c>
       <c r="C8">
-        <v>57172523.65781466</v>
+        <v>57.17252365781466</v>
       </c>
       <c r="D8">
-        <v>35895.36555253621</v>
+        <v>0.03589536555253622</v>
       </c>
       <c r="E8">
-        <v>366.2442358040429</v>
+        <v>0.0003662442358040428</v>
       </c>
       <c r="F8">
-        <v>2000583.962435894</v>
+        <v>2.000583962435894</v>
       </c>
       <c r="G8">
-        <v>1148135.94446691</v>
+        <v>1.14813594446691</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1808239.380711094</v>
+        <v>1.808239380711094</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19905.81701048082</v>
+        <v>0.01990581701048082</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84803436.84946331</v>
+        <v>84.80343684946331</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>894600.1180610134</v>
+        <v>0.8946001180610135</v>
       </c>
       <c r="C7">
-        <v>19091749.4073138</v>
+        <v>19.0917494073138</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2862,22 +2862,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3765068.704723937</v>
+        <v>3.765068704723938</v>
       </c>
       <c r="C8">
-        <v>96940225.26575759</v>
+        <v>96.94022526575759</v>
       </c>
       <c r="D8">
-        <v>144659.1504568874</v>
+        <v>0.1446591504568874</v>
       </c>
       <c r="E8">
-        <v>1592.465360838465</v>
+        <v>0.001592465360838465</v>
       </c>
       <c r="F8">
-        <v>3392137.473978536</v>
+        <v>3.392137473978535</v>
       </c>
       <c r="G8">
-        <v>1998634.952537481</v>
+        <v>1.998634952537481</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6645533.64235332</v>
+        <v>6.645533642353321</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>78211.46898884955</v>
+        <v>0.07821146898884954</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>138043287.6168081</v>
+        <v>138.0432876168081</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3293133.575891518</v>
+        <v>3.293133575891519</v>
       </c>
       <c r="C7">
-        <v>31077606.6684675</v>
+        <v>31.0776066684675</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13859683.13299413</v>
+        <v>13.85968313299414</v>
       </c>
       <c r="C8">
-        <v>157799588.0255863</v>
+        <v>157.7995880255864</v>
       </c>
       <c r="D8">
-        <v>531642.6913882653</v>
+        <v>0.5316426913882655</v>
       </c>
       <c r="E8">
-        <v>6256.917519107961</v>
+        <v>0.00625691751910796</v>
       </c>
       <c r="F8">
-        <v>5521731.504672327</v>
+        <v>5.521731504672328</v>
       </c>
       <c r="G8">
-        <v>3437074.024435902</v>
+        <v>3.437074024435902</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22410641.5427558</v>
+        <v>22.4106415427558</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>280574.8548950874</v>
+        <v>0.2805748548950874</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>215847291.8277043</v>
+        <v>215.8472918277043</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11123203.2665938</v>
+        <v>11.1232032665938</v>
       </c>
       <c r="C7">
-        <v>48593577.7949304</v>
+        <v>48.5935777949304</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3298,22 +3298,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>46813792.7436302</v>
+        <v>46.81379274363021</v>
       </c>
       <c r="C8">
-        <v>246738644.9198349</v>
+        <v>246.738644919835</v>
       </c>
       <c r="D8">
-        <v>1792851.323420463</v>
+        <v>1.792851323420463</v>
       </c>
       <c r="E8">
-        <v>22445.98839160698</v>
+        <v>0.02244598839160698</v>
       </c>
       <c r="F8">
-        <v>8633891.673108181</v>
+        <v>8.633891673108181</v>
       </c>
       <c r="G8">
-        <v>5971678.106152418</v>
+        <v>5.971678106152418</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69041927.0250034</v>
+        <v>69.04192702500342</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>922698.8244855966</v>
+        <v>0.9226988244855964</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>324928333.5715852</v>
+        <v>324.9283335715853</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34329726.91807266</v>
+        <v>34.32972691807267</v>
       </c>
       <c r="C7">
-        <v>73150930.55599472</v>
+        <v>73.15093055599473</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3734,22 +3734,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>144482185.7849777</v>
+        <v>144.4821857849777</v>
       </c>
       <c r="C8">
-        <v>371431005.8868333</v>
+        <v>371.4310058868334</v>
       </c>
       <c r="D8">
-        <v>5523354.16200027</v>
+        <v>5.52335416200027</v>
       </c>
       <c r="E8">
-        <v>73815.9059588477</v>
+        <v>0.07381590595884767</v>
       </c>
       <c r="F8">
-        <v>12997133.34286342</v>
+        <v>12.99713334286342</v>
       </c>
       <c r="G8">
-        <v>10748065.74740674</v>
+        <v>10.74806574740674</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>189071865.0943432</v>
+        <v>189.0718650943433</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2757474.387773727</v>
+        <v>2.757474387773726</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>472253984.5789018</v>
+        <v>472.2539845789019</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>94256471.42174019</v>
+        <v>94.25647142174017</v>
       </c>
       <c r="C7">
-        <v>106318270.4044251</v>
+        <v>106.3182704044251</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3952,22 +3952,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>396693543.4089631</v>
+        <v>396.6935434089631</v>
       </c>
       <c r="C8">
-        <v>539841418.5618007</v>
+        <v>539.8414185618008</v>
       </c>
       <c r="D8">
-        <v>15125749.20754745</v>
+        <v>15.12574920754745</v>
       </c>
       <c r="E8">
-        <v>220597.951021898</v>
+        <v>0.2205979510218979</v>
       </c>
       <c r="F8">
-        <v>18890159.38315609</v>
+        <v>18.89015938315609</v>
       </c>
       <c r="G8">
-        <v>20057474.18261653</v>
+        <v>20.05747418261653</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>428147877.9082971</v>
+        <v>428.1478779082971</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7224902.347285944</v>
+        <v>7.224902347285943</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>664569294.6145569</v>
+        <v>664.5692946145568</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>214479548.1831859</v>
+        <v>214.4795481831859</v>
       </c>
       <c r="C7">
-        <v>149614106.5497007</v>
+        <v>149.6141065497007</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>902671728.2556494</v>
+        <v>902.6717282556494</v>
       </c>
       <c r="C8">
-        <v>759680262.0040096</v>
+        <v>759.6802620040095</v>
       </c>
       <c r="D8">
-        <v>34251830.23266375</v>
+        <v>34.25183023266375</v>
       </c>
       <c r="E8">
-        <v>577992.1877828753</v>
+        <v>0.5779921877828752</v>
       </c>
       <c r="F8">
-        <v>26582771.7845823</v>
+        <v>26.5827717845823</v>
       </c>
       <c r="G8">
-        <v>36409365.47328864</v>
+        <v>36.40936547328864</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>710257369.3655385</v>
+        <v>710.2573693655382</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15222556.13480319</v>
+        <v>15.22255613480319</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>907764586.9470049</v>
+        <v>907.764586947005</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>359229333.6024352</v>
+        <v>359.2293336024351</v>
       </c>
       <c r="C7">
-        <v>204364524.112275</v>
+        <v>204.364524112275</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1511874517.40658</v>
+        <v>1511.874517406579</v>
       </c>
       <c r="C8">
-        <v>1037680863.136822</v>
+        <v>1037.680863136822</v>
       </c>
       <c r="D8">
-        <v>56820589.54924305</v>
+        <v>56.82058954924303</v>
       </c>
       <c r="E8">
-        <v>1217804.490784255</v>
+        <v>1.217804490784255</v>
       </c>
       <c r="F8">
-        <v>36310583.47788023</v>
+        <v>36.31058347788023</v>
       </c>
       <c r="G8">
-        <v>56359385.77147101</v>
+        <v>56.359385771471</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>836872320.2897455</v>
+        <v>836.8723202897453</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22109771.05774884</v>
+        <v>22.10977105774883</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1206056878.920593</v>
+        <v>1206.056878920593</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>427687181.281363</v>
+        <v>427.6871812813629</v>
       </c>
       <c r="C7">
-        <v>271518897.8035468</v>
+        <v>271.5188978035468</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4606,22 +4606,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1799990396.987886</v>
+        <v>1799.990396987886</v>
       </c>
       <c r="C8">
-        <v>1378663764.929932</v>
+        <v>1378.663764929932</v>
       </c>
       <c r="D8">
-        <v>66949785.6231796</v>
+        <v>66.94978562317959</v>
       </c>
       <c r="E8">
-        <v>1768781.684619906</v>
+        <v>1.768781684619906</v>
       </c>
       <c r="F8">
-        <v>48242275.15682375</v>
+        <v>48.24227515682377</v>
       </c>
       <c r="G8">
-        <v>69920607.90849097</v>
+        <v>69.92060790849096</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>875158759.6523921</v>
+        <v>875.1587596523918</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18930121.98974949</v>
+        <v>18.93012198974949</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1561021074.748688</v>
+        <v>1561.021074748688</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>442815615.4305516</v>
+        <v>442.8156154305515</v>
       </c>
       <c r="C7">
-        <v>351431784.9115125</v>
+        <v>351.4317849115124</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,22 +4824,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1863660849.088925</v>
+        <v>1863.660849088924</v>
       </c>
       <c r="C8">
-        <v>1784429266.697704</v>
+        <v>1784.429266697704</v>
       </c>
       <c r="D8">
-        <v>70012700.77219133</v>
+        <v>70.01270077219131</v>
       </c>
       <c r="E8">
-        <v>1514409.759179959</v>
+        <v>1.514409759179958</v>
       </c>
       <c r="F8">
-        <v>62440842.98994759</v>
+        <v>62.44084298994758</v>
       </c>
       <c r="G8">
-        <v>79424740.03420639</v>
+        <v>79.42474003420637</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>954738557.9056116</v>
+        <v>954.7385579056119</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11128153.49150795</v>
+        <v>11.12815349150794</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1970710302.992736</v>
+        <v>1970.710302992736</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>472997419.9149445</v>
+        <v>472.9974199149447</v>
       </c>
       <c r="C7">
-        <v>443664887.3787582</v>
+        <v>443.6648873787582</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5042,22 +5042,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1990685835.138092</v>
+        <v>1990.685835138093</v>
       </c>
       <c r="C8">
-        <v>2252751867.177117</v>
+        <v>2252.751867177118</v>
       </c>
       <c r="D8">
-        <v>76379084.6324489</v>
+        <v>76.37908463244891</v>
       </c>
       <c r="E8">
-        <v>890252.2793206354</v>
+        <v>0.8902522793206351</v>
       </c>
       <c r="F8">
-        <v>78828412.11970951</v>
+        <v>78.82841211970953</v>
       </c>
       <c r="G8">
-        <v>91666230.72937025</v>
+        <v>91.66623072937026</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1044149570.76688</v>
+        <v>1044.149570766881</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12606114.16848731</v>
+        <v>12.60611416848732</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2429181628.352571</v>
+        <v>2429.181628352571</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>517754983.9363004</v>
+        <v>517.7549839363004</v>
       </c>
       <c r="C7">
-        <v>546880275.5681154</v>
+        <v>546.8802755681154</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5260,22 +5260,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2179055253.154413</v>
+        <v>2179.055253154414</v>
       </c>
       <c r="C8">
-        <v>2776838097.752501</v>
+        <v>2776.838097752502</v>
       </c>
       <c r="D8">
-        <v>83531965.66135038</v>
+        <v>83.5319656613504</v>
       </c>
       <c r="E8">
-        <v>1008489.133478985</v>
+        <v>1.008489133478985</v>
       </c>
       <c r="F8">
-        <v>97167265.13410291</v>
+        <v>97.16726513410292</v>
       </c>
       <c r="G8">
-        <v>106463525.9504416</v>
+        <v>106.4635259504416</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1148308345.964386</v>
+        <v>1148.308345964387</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21394741.91216999</v>
+        <v>21.39474191216999</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2926317808.553961</v>
+        <v>2926.317808553962</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>577378136.7453201</v>
+        <v>577.3781367453204</v>
       </c>
       <c r="C7">
-        <v>658800260.4923372</v>
+        <v>658.8002604923374</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2429988896.226996</v>
+        <v>2429.988896226997</v>
       </c>
       <c r="C8">
-        <v>3345122769.776216</v>
+        <v>3345.122769776217</v>
       </c>
       <c r="D8">
-        <v>91864667.67715085</v>
+        <v>91.86466767715089</v>
       </c>
       <c r="E8">
-        <v>1711579.352973599</v>
+        <v>1.711579352973599</v>
       </c>
       <c r="F8">
-        <v>117052712.3421585</v>
+        <v>117.0527123421586</v>
       </c>
       <c r="G8">
-        <v>123617839.7237657</v>
+        <v>123.6178397237658</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1237694113.667708</v>
+        <v>1237.694113667708</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30999622.57688005</v>
+        <v>30.99962257688005</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3448540300.706538</v>
+        <v>3448.540300706537</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>630729094.3882282</v>
+        <v>630.7290943882284</v>
       </c>
       <c r="C7">
-        <v>776367912.5291072</v>
+        <v>776.3679125291071</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5696,22 +5696,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2654524995.577998</v>
+        <v>2654.524995577999</v>
       </c>
       <c r="C8">
-        <v>3942084024.046849</v>
+        <v>3942.084024046849</v>
       </c>
       <c r="D8">
-        <v>99015529.09341657</v>
+        <v>99.01552909341659</v>
       </c>
       <c r="E8">
-        <v>2479969.806150403</v>
+        <v>2.479969806150403</v>
       </c>
       <c r="F8">
-        <v>137941612.0282616</v>
+        <v>137.9416120282616</v>
       </c>
       <c r="G8">
-        <v>140709700.6917335</v>
+        <v>140.7097006917335</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>22.47852815770361</v>
+        <v>2.247852815770361E-05</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.060578233331831</v>
+        <v>5.06057823333183E-06</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>25.69558103073807</v>
+        <v>2.569558103073806E-05</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8991411263081454</v>
+        <v>8.991411263081451E-07</v>
       </c>
       <c r="G8">
-        <v>0.5060578233331829</v>
+        <v>5.060578233331829E-07</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1319004509.341686</v>
+        <v>1319.004509341686</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43890839.0615005</v>
+        <v>43.8908390615005</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3981264292.145545</v>
+        <v>3981.264292145544</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>683658910.4472294</v>
+        <v>683.6589104472293</v>
       </c>
       <c r="C7">
-        <v>896299761.1152872</v>
+        <v>896.299761115287</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6132,22 +6132,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2877288652.732969</v>
+        <v>2877.288652732969</v>
       </c>
       <c r="C8">
-        <v>4551049717.574608</v>
+        <v>4551.049717574608</v>
       </c>
       <c r="D8">
-        <v>105520360.7473349</v>
+        <v>105.5203607473348</v>
       </c>
       <c r="E8">
-        <v>3511267.124920038</v>
+        <v>3.511267124920038</v>
       </c>
       <c r="F8">
-        <v>159250571.685822</v>
+        <v>159.2505716858219</v>
       </c>
       <c r="G8">
-        <v>157995867.1562516</v>
+        <v>157.9958671562516</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1387916115.228109</v>
+        <v>1387.91611522811</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57030374.81463779</v>
+        <v>57.03037481463781</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4512549099.834234</v>
+        <v>4512.549099834236</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>730862080.7717545</v>
+        <v>730.8620807717548</v>
       </c>
       <c r="C7">
-        <v>1015907607.083968</v>
+        <v>1015.907607083968</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6350,22 +6350,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3075950798.829961</v>
+        <v>3075.950798829962</v>
       </c>
       <c r="C8">
-        <v>5158370256.116463</v>
+        <v>5158.370256116465</v>
       </c>
       <c r="D8">
-        <v>111033289.2182487</v>
+        <v>111.0332892182487</v>
       </c>
       <c r="E8">
-        <v>4562429.985171021</v>
+        <v>4.562429985171023</v>
       </c>
       <c r="F8">
-        <v>180501963.9933695</v>
+        <v>180.5019639933696</v>
       </c>
       <c r="G8">
-        <v>174676968.7855722</v>
+        <v>174.6769687855723</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1342821364.068074</v>
+        <v>1342.821364068075</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63723694.94610398</v>
+        <v>63.72369494610398</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5037781021.818923</v>
+        <v>5037.781021818922</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>716165319.9089047</v>
+        <v>716.1653199089053</v>
       </c>
       <c r="C7">
-        <v>1134152770.343727</v>
+        <v>1134.152770343727</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6568,22 +6568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3014097113.291152</v>
+        <v>3014.097113291155</v>
       </c>
       <c r="C8">
-        <v>5758771639.89935</v>
+        <v>5758.771639899349</v>
       </c>
       <c r="D8">
-        <v>107425709.1254459</v>
+        <v>107.425709125446</v>
       </c>
       <c r="E8">
-        <v>5097895.595688315</v>
+        <v>5.097895595688316</v>
       </c>
       <c r="F8">
-        <v>201511240.8727571</v>
+        <v>201.511240872757</v>
       </c>
       <c r="G8">
-        <v>185031809.0252632</v>
+        <v>185.0318090252632</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1323126956.925863</v>
+        <v>1323.126956925864</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79140981.08747768</v>
+        <v>79.1409810874777</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5565305007.772314</v>
+        <v>5565.305007772316</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>722976723.8729494</v>
+        <v>722.9767238729498</v>
       </c>
       <c r="C7">
-        <v>1252913944.658483</v>
+        <v>1252.913944658483</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6786,22 +6786,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3042764004.098009</v>
+        <v>3042.764004098011</v>
       </c>
       <c r="C8">
-        <v>6361793120.292758</v>
+        <v>6361.793120292758</v>
       </c>
       <c r="D8">
-        <v>105850156.554069</v>
+        <v>105.850156554069</v>
       </c>
       <c r="E8">
-        <v>6331278.486998212</v>
+        <v>6.331278486998213</v>
       </c>
       <c r="F8">
-        <v>222612200.3108928</v>
+        <v>222.6122003108929</v>
       </c>
       <c r="G8">
-        <v>197589066.8531432</v>
+        <v>197.5890668531432</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1316179283.20187</v>
+        <v>1316.17928320187</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>127084437.6957174</v>
+        <v>127.0844376957174</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6122467337.904808</v>
+        <v>6122.467337904809</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>770387738.456206</v>
+        <v>770.3877384562059</v>
       </c>
       <c r="C7">
-        <v>1378347582.506993</v>
+        <v>1378.347582506993</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7004,22 +7004,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3242300896.238744</v>
+        <v>3242.300896238745</v>
       </c>
       <c r="C8">
-        <v>6998694687.012457</v>
+        <v>6998.694687012458</v>
       </c>
       <c r="D8">
-        <v>105294342.6561495</v>
+        <v>105.2943426561495</v>
       </c>
       <c r="E8">
-        <v>10166755.01565739</v>
+        <v>10.16675501565739</v>
       </c>
       <c r="F8">
-        <v>244898693.5161925</v>
+        <v>244.8986935161926</v>
       </c>
       <c r="G8">
-        <v>214873532.0963199</v>
+        <v>214.8735320963199</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1293391474.703964</v>
+        <v>1293.391474703964</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>191856856.1979688</v>
+        <v>191.8568561979689</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6761046214.854099</v>
+        <v>6761.046214854098</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>827966896.0660527</v>
+        <v>827.9668960660526</v>
       </c>
       <c r="C7">
-        <v>1522110481.139997</v>
+        <v>1522.110481139997</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7222,22 +7222,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3484632056.25589</v>
+        <v>3484.632056255891</v>
       </c>
       <c r="C8">
-        <v>7728664868.425105</v>
+        <v>7728.664868425105</v>
       </c>
       <c r="D8">
-        <v>103471317.9763171</v>
+        <v>103.4713179763171</v>
       </c>
       <c r="E8">
-        <v>15348548.49583749</v>
+        <v>15.3485484958375</v>
       </c>
       <c r="F8">
-        <v>270441848.5941642</v>
+        <v>270.4418485941642</v>
       </c>
       <c r="G8">
-        <v>235007737.7206049</v>
+        <v>235.0077377206049</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1295614300.797525</v>
+        <v>1295.614300797526</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>256959836.8037045</v>
+        <v>256.9598368037044</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7560733040.325249</v>
+        <v>7560.733040325248</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>897978189.5684539</v>
+        <v>897.9781895684539</v>
       </c>
       <c r="C7">
-        <v>1702143520.406166</v>
+        <v>1702.143520406165</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7440,22 +7440,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3779285862.824196</v>
+        <v>3779.285862824197</v>
       </c>
       <c r="C8">
-        <v>8642800237.028652</v>
+        <v>8642.80023702865</v>
       </c>
       <c r="D8">
-        <v>103649144.063802</v>
+        <v>103.649144063802</v>
       </c>
       <c r="E8">
-        <v>20556786.94429635</v>
+        <v>20.55678694429634</v>
       </c>
       <c r="F8">
-        <v>302429321.6130102</v>
+        <v>302.4293216130102</v>
       </c>
       <c r="G8">
-        <v>260012170.9974619</v>
+        <v>260.0121709974619</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1257894224.958859</v>
+        <v>1257.894224958859</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>305518611.0357469</v>
+        <v>305.5186110357469</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8629150224.095659</v>
+        <v>8629.150224095665</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>931175272.5810832</v>
+        <v>931.1752725810833</v>
       </c>
       <c r="C7">
-        <v>1942675672.083244</v>
+        <v>1942.675672083245</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7658,22 +7658,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3919001134.279647</v>
+        <v>3919.001134279648</v>
       </c>
       <c r="C8">
-        <v>9864125767.223431</v>
+        <v>9864.125767223433</v>
       </c>
       <c r="D8">
-        <v>100631537.9967086</v>
+        <v>100.6315379967087</v>
       </c>
       <c r="E8">
-        <v>24441488.88285974</v>
+        <v>24.44148888285974</v>
       </c>
       <c r="F8">
-        <v>345166008.9638267</v>
+        <v>345.1660089638269</v>
       </c>
       <c r="G8">
-        <v>287385094.4664326</v>
+        <v>287.3850944664327</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1203372776.507698</v>
+        <v>1203.372776507697</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>277008980.7612985</v>
+        <v>277.0089807612983</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10097134171.87577</v>
+        <v>10097.13417187577</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>874648299.5982046</v>
+        <v>874.6482995982041</v>
       </c>
       <c r="C7">
-        <v>2273162061.623416</v>
+        <v>2273.162061623416</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7876,22 +7876,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3681098262.757674</v>
+        <v>3681.098262757672</v>
       </c>
       <c r="C8">
-        <v>11542202739.94014</v>
+        <v>11542.20273994014</v>
       </c>
       <c r="D8">
-        <v>96269822.12061577</v>
+        <v>96.2698221206157</v>
       </c>
       <c r="E8">
-        <v>22160718.46090387</v>
+        <v>22.16071846090385</v>
       </c>
       <c r="F8">
-        <v>403885366.8750312</v>
+        <v>403.8853668750313</v>
       </c>
       <c r="G8">
-        <v>314781036.122162</v>
+        <v>314.781036122162</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1122819439.09117</v>
+        <v>1122.819439091169</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>259146884.9805242</v>
+        <v>259.1468849805242</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12108285312.36654</v>
+        <v>12108.28531236654</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>816820542.1543821</v>
+        <v>816.8205421543814</v>
       </c>
       <c r="C7">
-        <v>2725931371.700335</v>
+        <v>2725.931371700335</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8094,22 +8094,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3437720830.293202</v>
+        <v>3437.720830293199</v>
       </c>
       <c r="C8">
-        <v>13841183204.00719</v>
+        <v>13841.18320400719</v>
       </c>
       <c r="D8">
-        <v>89825555.12729359</v>
+        <v>89.82555512729346</v>
       </c>
       <c r="E8">
-        <v>20731750.79844193</v>
+        <v>20.73175079844193</v>
       </c>
       <c r="F8">
-        <v>484331412.4946619</v>
+        <v>484.3314124946619</v>
       </c>
       <c r="G8">
-        <v>354275191.3854715</v>
+        <v>354.2751913854715</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>649.2844021757015</v>
+        <v>0.0006492844021757012</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>146.1730274260046</v>
+        <v>0.0001461730274260045</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>742.2078461299247</v>
+        <v>0.0007422078461299245</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8324,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.97137608702808</v>
+        <v>2.597137608702807E-05</v>
       </c>
       <c r="G8">
-        <v>14.61730274260045</v>
+        <v>1.461730274260044E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1071267315.631924</v>
+        <v>1071.267315631923</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>249995723.4627846</v>
+        <v>249.9957234627847</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14802799860.37272</v>
+        <v>14802.79986037272</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>782226653.6713147</v>
+        <v>782.2266536713146</v>
       </c>
       <c r="C7">
-        <v>3332545896.25331</v>
+        <v>3332.54589625331</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8530,22 +8530,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3292126878.009122</v>
+        <v>3292.126878009122</v>
       </c>
       <c r="C8">
-        <v>16921327794.4824</v>
+        <v>16921.3277944824</v>
       </c>
       <c r="D8">
-        <v>85701385.25055388</v>
+        <v>85.70138525055383</v>
       </c>
       <c r="E8">
-        <v>19999657.87702276</v>
+        <v>19.99965787702276</v>
       </c>
       <c r="F8">
-        <v>592111994.4149095</v>
+        <v>592.1119944149093</v>
       </c>
       <c r="G8">
-        <v>411477254.9924625</v>
+        <v>411.4772549924623</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1186002388.549986</v>
+        <v>1186.002388549985</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>221977700.4448712</v>
+        <v>221.9777004448714</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18298277446.66126</v>
+        <v>18298.27744666127</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>807984457.4565692</v>
+        <v>807.9844574565693</v>
       </c>
       <c r="C7">
-        <v>4119480773.135311</v>
+        <v>4119.480773135312</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8748,22 +8748,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3400532744.46986</v>
+        <v>3400.53274446986</v>
       </c>
       <c r="C8">
-        <v>20917066613.74421</v>
+        <v>20917.06661374422</v>
       </c>
       <c r="D8">
-        <v>94880191.0839988</v>
+        <v>94.88019108399875</v>
       </c>
       <c r="E8">
-        <v>17758216.03558968</v>
+        <v>17.7582160355897</v>
       </c>
       <c r="F8">
-        <v>731931097.8664511</v>
+        <v>731.9310978664514</v>
       </c>
       <c r="G8">
-        <v>492746523.0591879</v>
+        <v>492.7465230591881</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1495102602.451726</v>
+        <v>1495.102602451726</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>191237051.805559</v>
+        <v>191.2370518055591</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>22670254133.00533</v>
+        <v>22670.25413300534</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>924752927.8304137</v>
+        <v>924.7529278304133</v>
       </c>
       <c r="C7">
-        <v>5103741392.884325</v>
+        <v>5103.741392884327</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8966,22 +8966,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3891971661.844406</v>
+        <v>3891.971661844405</v>
       </c>
       <c r="C8">
-        <v>25914746195.80135</v>
+        <v>25914.74619580136</v>
       </c>
       <c r="D8">
-        <v>119608208.1961381</v>
+        <v>119.608208196138</v>
       </c>
       <c r="E8">
-        <v>15298964.14444472</v>
+        <v>15.29896414444472</v>
       </c>
       <c r="F8">
-        <v>906810165.3202139</v>
+        <v>906.8101653202145</v>
       </c>
       <c r="G8">
-        <v>602849432.0714737</v>
+        <v>602.8494320714739</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2123962460.502843</v>
+        <v>2123.962460502843</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>175198007.9347893</v>
+        <v>175.1980079347892</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>27934802116.97426</v>
+        <v>27934.80211697426</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1211557977.376348</v>
+        <v>1211.557977376348</v>
       </c>
       <c r="C7">
-        <v>6288946080.179378</v>
+        <v>6288.946080179378</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9184,22 +9184,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5099036913.235922</v>
+        <v>5099.036913235921</v>
       </c>
       <c r="C8">
-        <v>31932738938.17412</v>
+        <v>31932.73893817412</v>
       </c>
       <c r="D8">
-        <v>169916996.8402273</v>
+        <v>169.9169968402273</v>
       </c>
       <c r="E8">
-        <v>14015840.63478314</v>
+        <v>14.01584063478313</v>
       </c>
       <c r="F8">
-        <v>1117392084.678972</v>
+        <v>1117.392084678972</v>
       </c>
       <c r="G8">
-        <v>750050405.7555724</v>
+        <v>750.0504057555723</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3125194597.634034</v>
+        <v>3125.194597634034</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>242208580.3091491</v>
+        <v>242.208580309149</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>34034944854.15223</v>
+        <v>34034.94485415224</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1766189301.707577</v>
+        <v>1766.189301707577</v>
       </c>
       <c r="C7">
-        <v>7662267738.047824</v>
+        <v>7662.267738047824</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9402,22 +9402,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7433292185.217318</v>
+        <v>7433.292185217319</v>
       </c>
       <c r="C8">
-        <v>38905914001.17336</v>
+        <v>38905.91400117335</v>
       </c>
       <c r="D8">
-        <v>250015567.8107226</v>
+        <v>250.0155678107226</v>
       </c>
       <c r="E8">
-        <v>19376686.42473191</v>
+        <v>19.37668642473191</v>
       </c>
       <c r="F8">
-        <v>1361397794.16609</v>
+        <v>1361.397794166091</v>
       </c>
       <c r="G8">
-        <v>942845703.9755398</v>
+        <v>942.84570397554</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4396954900.564793</v>
+        <v>4396.954900564794</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>360591805.3146117</v>
+        <v>360.5918053146115</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>40832015350.59737</v>
+        <v>40832.01535059734</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2505905471.413624</v>
+        <v>2505.905471413625</v>
       </c>
       <c r="C7">
-        <v>9192488345.171696</v>
+        <v>9192.488345171689</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9620,22 +9620,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10546506843.60009</v>
+        <v>10546.50684360009</v>
       </c>
       <c r="C8">
-        <v>46675758827.65454</v>
+        <v>46675.75882765451</v>
       </c>
       <c r="D8">
-        <v>351756392.0451832</v>
+        <v>351.7563920451834</v>
       </c>
       <c r="E8">
-        <v>28847344.42516892</v>
+        <v>28.84734442516891</v>
       </c>
       <c r="F8">
-        <v>1633280614.023896</v>
+        <v>1633.280614023895</v>
       </c>
       <c r="G8">
-        <v>1169839381.658532</v>
+        <v>1169.839381658531</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5941432803.200967</v>
+        <v>5941.432803200967</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>494099531.419123</v>
+        <v>494.099531419123</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>48103148547.56071</v>
+        <v>48103.1485475607</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3393381016.886357</v>
+        <v>3393.381016886357</v>
       </c>
       <c r="C7">
-        <v>10829434417.8886</v>
+        <v>10829.43441788859</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9838,22 +9838,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14281590636.91488</v>
+        <v>14281.59063691488</v>
       </c>
       <c r="C8">
-        <v>54987512646.10152</v>
+        <v>54987.51264610151</v>
       </c>
       <c r="D8">
-        <v>475314624.2560771</v>
+        <v>475.3146242560771</v>
       </c>
       <c r="E8">
-        <v>39527962.51352982</v>
+        <v>39.52796251352981</v>
       </c>
       <c r="F8">
-        <v>1924125941.90243</v>
+        <v>1924.12594190243</v>
       </c>
       <c r="G8">
-        <v>1422281543.477495</v>
+        <v>1422.281543477495</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8490529993.713022</v>
+        <v>8490.529993713018</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>710350890.4986368</v>
+        <v>710.3508904986368</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55546221682.77338</v>
+        <v>55546.22168277336</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4853783872.124913</v>
+        <v>4853.783872124912</v>
       </c>
       <c r="C7">
-        <v>12505089230.91271</v>
+        <v>12505.08923091271</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10056,22 +10056,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20427931304.146</v>
+        <v>20427.931304146</v>
       </c>
       <c r="C8">
-        <v>63495813880.14037</v>
+        <v>63495.81388014036</v>
       </c>
       <c r="D8">
-        <v>679242399.4970415</v>
+        <v>679.2423994970411</v>
       </c>
       <c r="E8">
-        <v>56828071.23989092</v>
+        <v>56.82807123989091</v>
       </c>
       <c r="F8">
-        <v>2221848867.310937</v>
+        <v>2221.848867310936</v>
       </c>
       <c r="G8">
-        <v>1735887310.303762</v>
+        <v>1735.887310303762</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11323409785.83107</v>
+        <v>11323.40978583107</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>954025232.249514</v>
+        <v>954.025232249514</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>62793777618.38476</v>
+        <v>62793.77761838477</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6480314221.682336</v>
+        <v>6480.314221682336</v>
       </c>
       <c r="C7">
-        <v>14136727368.21844</v>
+        <v>14136.72736821844</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10274,22 +10274,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27273446292.08911</v>
+        <v>27273.44629208911</v>
       </c>
       <c r="C8">
-        <v>71780616137.28842</v>
+        <v>71780.61613728844</v>
       </c>
       <c r="D8">
-        <v>905872782.8664849</v>
+        <v>905.872782866485</v>
       </c>
       <c r="E8">
-        <v>76322018.57996108</v>
+        <v>76.32201857996108</v>
       </c>
       <c r="F8">
-        <v>2511751104.735393</v>
+        <v>2511.751104735393</v>
       </c>
       <c r="G8">
-        <v>2061704158.990077</v>
+        <v>2061.704158990077</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12309778684.61412</v>
+        <v>12309.77868461412</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1041849988.774919</v>
+        <v>1041.849988774919</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69437122307.84746</v>
+        <v>69437.12230784743</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7049805555.493475</v>
+        <v>7049.805555493475</v>
       </c>
       <c r="C7">
-        <v>15632339772.02673</v>
+        <v>15632.33977202673</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,22 +10492,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29670242307.71134</v>
+        <v>29670.24230771134</v>
       </c>
       <c r="C8">
-        <v>79374734425.88777</v>
+        <v>79374.73442588774</v>
       </c>
       <c r="D8">
-        <v>984782294.769129</v>
+        <v>984.7822947691291</v>
       </c>
       <c r="E8">
-        <v>83347999.10199349</v>
+        <v>83.34799910199349</v>
       </c>
       <c r="F8">
-        <v>2777484892.313901</v>
+        <v>2777.4848923139</v>
       </c>
       <c r="G8">
-        <v>2268214532.75202</v>
+        <v>2268.214532752019</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4616.260911231913</v>
+        <v>0.004616260911231912</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1039.256188077188</v>
+        <v>0.001039256188077187</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5276.924960184148</v>
+        <v>0.005276924960184147</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>184.6504364492767</v>
+        <v>0.0001846504364492766</v>
       </c>
       <c r="G8">
-        <v>103.9256188077187</v>
+        <v>0.0001039256188077187</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12259842146.27758</v>
+        <v>12259.84214627758</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1041024014.772998</v>
+        <v>1041.024014772998</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75060292019.42857</v>
+        <v>75060.29201942858</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7024807656.05757</v>
+        <v>7024.807656057569</v>
       </c>
       <c r="C7">
-        <v>16898280764.47582</v>
+        <v>16898.28076447582</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10928,22 +10928,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29565034621.11505</v>
+        <v>29565.03462111505</v>
       </c>
       <c r="C8">
-        <v>85802673655.70811</v>
+        <v>85802.67365570812</v>
       </c>
       <c r="D8">
-        <v>980787371.7022058</v>
+        <v>980.7873717022057</v>
       </c>
       <c r="E8">
-        <v>83281921.18183982</v>
+        <v>83.28192118183982</v>
       </c>
       <c r="F8">
-        <v>3002411680.777145</v>
+        <v>3002.411680777146</v>
       </c>
       <c r="G8">
-        <v>2392308842.053339</v>
+        <v>2392.308842053339</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12035654703.20372</v>
+        <v>12035.65470320373</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1025689356.965716</v>
+        <v>1025.689356965716</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>79281071551.20689</v>
+        <v>79281.0715512069</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6900269628.758373</v>
+        <v>6900.269628758375</v>
       </c>
       <c r="C7">
-        <v>17848502454.98672</v>
+        <v>17848.50245498672</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29040896271.85062</v>
+        <v>29040.89627185063</v>
       </c>
       <c r="C8">
-        <v>90627517244.70094</v>
+        <v>90627.51724470094</v>
       </c>
       <c r="D8">
-        <v>962852376.2562972</v>
+        <v>962.8523762562977</v>
       </c>
       <c r="E8">
-        <v>82055148.55725722</v>
+        <v>82.05514855725723</v>
       </c>
       <c r="F8">
-        <v>3171242862.048279</v>
+        <v>3171.242862048279</v>
       </c>
       <c r="G8">
-        <v>2474877208.374508</v>
+        <v>2474.877208374509</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11600384824.38221</v>
+        <v>11600.38482438222</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>993971001.2905397</v>
+        <v>993.97100129054</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81793530873.83455</v>
+        <v>81793.53087383458</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6656413495.918843</v>
+        <v>6656.413495918845</v>
       </c>
       <c r="C7">
-        <v>18414130990.40592</v>
+        <v>18414.13099040593</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11364,22 +11364,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28014588454.90207</v>
+        <v>28014.58845490208</v>
       </c>
       <c r="C8">
-        <v>93499551465.89557</v>
+        <v>93499.55146589559</v>
       </c>
       <c r="D8">
-        <v>928030785.9505767</v>
+        <v>928.0307859505768</v>
       </c>
       <c r="E8">
-        <v>79517680.10324314</v>
+        <v>79.51768010324317</v>
       </c>
       <c r="F8">
-        <v>3271741234.953385</v>
+        <v>3271.741234953386</v>
       </c>
       <c r="G8">
-        <v>2507054448.632476</v>
+        <v>2507.054448632477</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11080544979.38684</v>
+        <v>11080.54497938684</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>958900615.8032748</v>
+        <v>958.9006158032749</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>82404797711.69742</v>
+        <v>82404.79771169745</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6368153955.129479</v>
+        <v>6368.15395512948</v>
       </c>
       <c r="C7">
-        <v>18551745145.24489</v>
+        <v>18551.7451452449</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11582,22 +11582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26801401742.8139</v>
+        <v>26801.40174281391</v>
       </c>
       <c r="C8">
-        <v>94198300799.19327</v>
+        <v>94198.3007991933</v>
       </c>
       <c r="D8">
-        <v>886443598.3509463</v>
+        <v>886.4435983509466</v>
       </c>
       <c r="E8">
-        <v>76712049.26426195</v>
+        <v>76.71204926426196</v>
       </c>
       <c r="F8">
-        <v>3296191908.4679</v>
+        <v>3296.191908467901</v>
       </c>
       <c r="G8">
-        <v>2491989910.037436</v>
+        <v>2491.989910037437</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10727442027.46794</v>
+        <v>10727.44202746794</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>943007449.1021321</v>
+        <v>943.0074491021328</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81058966161.92598</v>
+        <v>81058.96616192602</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6180748191.412775</v>
+        <v>6180.748191412777</v>
       </c>
       <c r="C7">
-        <v>18248758855.45214</v>
+        <v>18248.75885545215</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11800,22 +11800,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26012674397.70245</v>
+        <v>26012.67439770246</v>
       </c>
       <c r="C8">
-        <v>92659858273.14093</v>
+        <v>92659.85827314097</v>
       </c>
       <c r="D8">
-        <v>858195362.1974344</v>
+        <v>858.1953621974346</v>
       </c>
       <c r="E8">
-        <v>75440595.92817053</v>
+        <v>75.44059592817058</v>
       </c>
       <c r="F8">
-        <v>3242358646.477042</v>
+        <v>3242.358646477043</v>
       </c>
       <c r="G8">
-        <v>2442950704.686491</v>
+        <v>2442.950704686492</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10146462344.23614</v>
+        <v>10146.46234423614</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>908142033.6841232</v>
+        <v>908.1420336841232</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77843445035.37328</v>
+        <v>77843.44503537325</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5863170341.883131</v>
+        <v>5863.170341883132</v>
       </c>
       <c r="C7">
-        <v>17524850416.79956</v>
+        <v>17524.85041679955</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12018,22 +12018,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24676096860.50159</v>
+        <v>24676.0968605016</v>
       </c>
       <c r="C8">
-        <v>88984142359.54945</v>
+        <v>88984.14235954943</v>
       </c>
       <c r="D8">
-        <v>811716987.5388907</v>
+        <v>811.716987538891</v>
       </c>
       <c r="E8">
-        <v>72651362.69472982</v>
+        <v>72.65136269472983</v>
       </c>
       <c r="F8">
-        <v>3113737801.414934</v>
+        <v>3113.737801414933</v>
       </c>
       <c r="G8">
-        <v>2338802075.868268</v>
+        <v>2338.802075868268</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8667733951.313227</v>
+        <v>8667.733951313228</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>786223193.64685</v>
+        <v>786.2231936468495</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>72977047549.97452</v>
+        <v>72977.04754997452</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5019728443.838263</v>
+        <v>5019.728443838263</v>
       </c>
       <c r="C7">
-        <v>16429281124.33635</v>
+        <v>16429.28112433635</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12236,22 +12236,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21126335765.60633</v>
+        <v>21126.33576560633</v>
       </c>
       <c r="C8">
-        <v>83421282103.01662</v>
+        <v>83421.28210301662</v>
       </c>
       <c r="D8">
-        <v>693418716.1050578</v>
+        <v>693.4187161050579</v>
       </c>
       <c r="E8">
-        <v>62897855.49174797</v>
+        <v>62.89785549174793</v>
       </c>
       <c r="F8">
-        <v>2919081901.998983</v>
+        <v>2919.081901998984</v>
       </c>
       <c r="G8">
-        <v>2144900956.817461</v>
+        <v>2144.900956817461</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5773182228.373838</v>
+        <v>5773.182228373835</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>528540680.635287</v>
+        <v>528.5406806352869</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>66783296039.84035</v>
+        <v>66783.29603984032</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3348572459.07741</v>
+        <v>3348.572459077408</v>
       </c>
       <c r="C7">
-        <v>15034885376.76115</v>
+        <v>15034.88537676115</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12454,22 +12454,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14093006603.32907</v>
+        <v>14093.00660332907</v>
       </c>
       <c r="C8">
-        <v>76341101287.95885</v>
+        <v>76341.10128795882</v>
       </c>
       <c r="D8">
-        <v>461854578.2699068</v>
+        <v>461.8545782699065</v>
       </c>
       <c r="E8">
-        <v>42283254.45082293</v>
+        <v>42.28325445082293</v>
       </c>
       <c r="F8">
-        <v>2671331841.593616</v>
+        <v>2671.331841593615</v>
       </c>
       <c r="G8">
-        <v>1838345783.583856</v>
+        <v>1838.345783583856</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2527450337.146132</v>
+        <v>2527.45033714613</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>228786620.4577009</v>
+        <v>228.7866204577008</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>59655122594.23347</v>
+        <v>59655.12259423349</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1463219300.392331</v>
+        <v>1463.21930039233</v>
       </c>
       <c r="C7">
-        <v>13430123751.39248</v>
+        <v>13430.12375139248</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12672,22 +12672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6158194130.351642</v>
+        <v>6158.194130351639</v>
       </c>
       <c r="C8">
-        <v>68192767149.36555</v>
+        <v>68192.76714936558</v>
       </c>
       <c r="D8">
-        <v>202196026.9716904</v>
+        <v>202.1960269716903</v>
       </c>
       <c r="E8">
-        <v>18302929.63661606</v>
+        <v>18.30292963661605</v>
       </c>
       <c r="F8">
-        <v>2386204903.769341</v>
+        <v>2386.204903769342</v>
       </c>
       <c r="G8">
-        <v>1489334305.17848</v>
+        <v>1489.33430517848</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1348327829.255591</v>
+        <v>1348.327829255591</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>105128049.6419553</v>
+        <v>105.1280496419555</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>52017319515.34675</v>
+        <v>52017.31951534675</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>762668413.5409038</v>
+        <v>762.6684135409041</v>
       </c>
       <c r="C7">
-        <v>11710629497.1282</v>
+        <v>11710.6294971282</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12890,22 +12890,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3209812873.854852</v>
+        <v>3209.812873854853</v>
       </c>
       <c r="C8">
-        <v>59461866863.83707</v>
+        <v>59461.86686383708</v>
       </c>
       <c r="D8">
-        <v>107866226.3404472</v>
+        <v>107.8662263404472</v>
       </c>
       <c r="E8">
-        <v>8410243.971356422</v>
+        <v>8.410243971356438</v>
       </c>
       <c r="F8">
-        <v>2080692780.613872</v>
+        <v>2080.692780613872</v>
       </c>
       <c r="G8">
-        <v>1247329791.066911</v>
+        <v>1247.329791066911</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13004,7 +13004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.640389488281286E-06</v>
+        <v>4.640389488281289E-12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.001436651445607E-08</v>
+        <v>1.001436651445607E-14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>19334.98151955688</v>
+        <v>0.01933498151955688</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13082,10 +13082,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.25227735973221E-06</v>
+        <v>2.252277359732212E-12</v>
       </c>
       <c r="C7">
-        <v>4352.87337023487</v>
+        <v>0.004352873370234871</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13108,22 +13108,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.479072079563094E-06</v>
+        <v>9.479072079563101E-12</v>
       </c>
       <c r="C8">
-        <v>22102.14035714481</v>
+        <v>0.02210214035714481</v>
       </c>
       <c r="D8">
-        <v>3.712311590625027E-07</v>
+        <v>3.71231159062503E-13</v>
       </c>
       <c r="E8">
-        <v>8.011493211564854E-10</v>
+        <v>8.011493211564849E-16</v>
       </c>
       <c r="F8">
-        <v>773.399260782276</v>
+        <v>0.0007733992607822759</v>
       </c>
       <c r="G8">
-        <v>435.2873372487146</v>
+        <v>0.0004352873372487147</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1267104383.571478</v>
+        <v>1267.10438357148</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>90383750.92083415</v>
+        <v>90.38375092083413</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>44290911341.70489</v>
+        <v>44290.91134170489</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>707818373.8815718</v>
+        <v>707.8183738815724</v>
       </c>
       <c r="C7">
-        <v>9971187628.378929</v>
+        <v>9971.18762837893</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13326,22 +13326,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2978967646.356085</v>
+        <v>2978.967646356088</v>
       </c>
       <c r="C8">
-        <v>50629680614.38589</v>
+        <v>50629.68061438588</v>
       </c>
       <c r="D8">
-        <v>101368350.6857182</v>
+        <v>101.3683506857183</v>
       </c>
       <c r="E8">
-        <v>7230700.073666729</v>
+        <v>7.230700073666727</v>
       </c>
       <c r="F8">
-        <v>1771636453.668197</v>
+        <v>1771.636453668197</v>
       </c>
       <c r="G8">
-        <v>1067900600.22605</v>
+        <v>1067.90060022605</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1182420683.152193</v>
+        <v>1182.420683152194</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>76942228.47744621</v>
+        <v>76.94222847744643</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>36860951663.92534</v>
+        <v>36860.95166392533</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>652676267.7366683</v>
+        <v>652.676267736669</v>
       </c>
       <c r="C7">
-        <v>8298485040.553199</v>
+        <v>8298.485040553198</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13544,22 +13544,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2746893210.004869</v>
+        <v>2746.893210004871</v>
       </c>
       <c r="C8">
-        <v>42136369592.59321</v>
+        <v>42136.36959259321</v>
       </c>
       <c r="D8">
-        <v>94593654.65217541</v>
+        <v>94.59365465217549</v>
       </c>
       <c r="E8">
-        <v>6155378.278195694</v>
+        <v>6.155378278195712</v>
       </c>
       <c r="F8">
-        <v>1474438066.557015</v>
+        <v>1474.438066557015</v>
       </c>
       <c r="G8">
-        <v>895116130.8289865</v>
+        <v>895.1161308289866</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>988488997.2598597</v>
+        <v>988.4889972598594</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51011357.40331433</v>
+        <v>51.01135740331462</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30048003589.48809</v>
+        <v>30048.0035894881</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>531533829.5194811</v>
+        <v>531.5338295194813</v>
       </c>
       <c r="C7">
-        <v>6764689923.344808</v>
+        <v>6764.68992334481</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13762,22 +13762,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2237045744.375116</v>
+        <v>2237.045744375117</v>
       </c>
       <c r="C8">
-        <v>34348374841.48147</v>
+        <v>34348.37484148148</v>
       </c>
       <c r="D8">
-        <v>79079119.78078873</v>
+        <v>79.07911978078872</v>
       </c>
       <c r="E8">
-        <v>4080908.592265144</v>
+        <v>4.080908592265168</v>
       </c>
       <c r="F8">
-        <v>1201920143.579525</v>
+        <v>1201.920143579525</v>
       </c>
       <c r="G8">
-        <v>729622375.2864287</v>
+        <v>729.622375286429</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>816470635.5518631</v>
+        <v>816.4706355518693</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34313511.56971934</v>
+        <v>34.31351156971914</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>24084556972.57362</v>
+        <v>24084.55697257362</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>430754093.6548193</v>
+        <v>430.7540936548222</v>
       </c>
       <c r="C7">
-        <v>5422142585.126347</v>
+        <v>5422.142585126346</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13980,22 +13980,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1812897991.749285</v>
+        <v>1812.897991749297</v>
       </c>
       <c r="C8">
-        <v>27531459397.00244</v>
+        <v>27531.45939700243</v>
       </c>
       <c r="D8">
-        <v>65317650.84414902</v>
+        <v>65.31765084414951</v>
       </c>
       <c r="E8">
-        <v>2745080.925577546</v>
+        <v>2.74508092557753</v>
       </c>
       <c r="F8">
-        <v>963382278.9029458</v>
+        <v>963.3822789029455</v>
       </c>
       <c r="G8">
-        <v>585289667.8781165</v>
+        <v>585.2896678781167</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>978384450.1791235</v>
+        <v>978.3844501791261</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55686553.07716577</v>
+        <v>55.68655307716504</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>19099858571.80264</v>
+        <v>19099.85857180263</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>531603099.341327</v>
+        <v>531.6030993413274</v>
       </c>
       <c r="C7">
-        <v>4299940275.006651</v>
+        <v>4299.94027500665</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,22 +14198,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2237337277.578777</v>
+        <v>2237.337277578779</v>
       </c>
       <c r="C8">
-        <v>21833367387.94421</v>
+        <v>21833.36738794421</v>
       </c>
       <c r="D8">
-        <v>78270756.01432984</v>
+        <v>78.27075601433005</v>
       </c>
       <c r="E8">
-        <v>4454924.246173259</v>
+        <v>4.454924246173201</v>
       </c>
       <c r="F8">
-        <v>763994342.8721061</v>
+        <v>763.994342872106</v>
       </c>
       <c r="G8">
-        <v>483154337.4347976</v>
+        <v>483.1543374347977</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1310906299.377977</v>
+        <v>1310.906299377973</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>101592277.1621237</v>
+        <v>101.5922771621226</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15117740897.87149</v>
+        <v>15117.7408978715</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>740846844.2509243</v>
+        <v>740.8468442509214</v>
       </c>
       <c r="C7">
-        <v>3403448392.536325</v>
+        <v>3403.448392536328</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14416,22 +14416,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3117973284.341112</v>
+        <v>3117.9732843411</v>
       </c>
       <c r="C8">
-        <v>17281342155.39513</v>
+        <v>17281.34215539514</v>
       </c>
       <c r="D8">
-        <v>104872503.9502381</v>
+        <v>104.8725039502378</v>
       </c>
       <c r="E8">
-        <v>8127382.172969888</v>
+        <v>8.127382172969803</v>
       </c>
       <c r="F8">
-        <v>604709635.9148601</v>
+        <v>604.7096359148608</v>
       </c>
       <c r="G8">
-        <v>414429523.6787248</v>
+        <v>414.4295236787249</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1655648861.765316</v>
+        <v>1655.648861765316</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>142555138.148344</v>
+        <v>142.5551381483433</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12070170454.79518</v>
+        <v>12070.17045479519</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>950760161.2148403</v>
+        <v>950.7601612148396</v>
       </c>
       <c r="C7">
-        <v>2717350595.537459</v>
+        <v>2717.350595537461</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14634,22 +14634,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4001427292.952962</v>
+        <v>4001.427292952958</v>
       </c>
       <c r="C8">
-        <v>13797613473.62588</v>
+        <v>13797.61347362589</v>
       </c>
       <c r="D8">
-        <v>132451908.9412252</v>
+        <v>132.4519089412252</v>
       </c>
       <c r="E8">
-        <v>11404411.05186751</v>
+        <v>11.40441105186746</v>
       </c>
       <c r="F8">
-        <v>482806818.1918077</v>
+        <v>482.806818191808</v>
       </c>
       <c r="G8">
-        <v>366811075.6752298</v>
+        <v>366.81107567523</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1993187005.312728</v>
+        <v>1993.187005312728</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>171898675.649192</v>
+        <v>171.8986756491919</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9824575490.198967</v>
+        <v>9824.575490198971</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1144889484.884692</v>
+        <v>1144.889484884692</v>
       </c>
       <c r="C7">
-        <v>2211801080.952332</v>
+        <v>2211.801080952333</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14852,22 +14852,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4818451823.200938</v>
+        <v>4818.451823200938</v>
       </c>
       <c r="C8">
-        <v>11230636357.94563</v>
+        <v>11230.63635794563</v>
       </c>
       <c r="D8">
-        <v>159454960.4250181</v>
+        <v>159.4549604250182</v>
       </c>
       <c r="E8">
-        <v>13751894.05193535</v>
+        <v>13.75189405193534</v>
       </c>
       <c r="F8">
-        <v>392983019.607959</v>
+        <v>392.9830196079592</v>
       </c>
       <c r="G8">
-        <v>335669056.5837024</v>
+        <v>335.6690565837025</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2103236651.709555</v>
+        <v>2103.236651709548</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>180594562.936849</v>
+        <v>180.5945629368486</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8218058891.910496</v>
+        <v>8218.058891910507</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1207260189.089259</v>
+        <v>1207.260189089255</v>
       </c>
       <c r="C7">
-        <v>1850126914.754812</v>
+        <v>1850.126914754815</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15070,22 +15070,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5080948978.914695</v>
+        <v>5080.94897891468</v>
       </c>
       <c r="C8">
-        <v>9394200398.307411</v>
+        <v>9394.200398307425</v>
       </c>
       <c r="D8">
-        <v>168258932.1367643</v>
+        <v>168.2589321367638</v>
       </c>
       <c r="E8">
-        <v>14447565.03494791</v>
+        <v>14.44756503494788</v>
       </c>
       <c r="F8">
-        <v>328722355.6764201</v>
+        <v>328.7223556764205</v>
       </c>
       <c r="G8">
-        <v>305738710.384407</v>
+        <v>305.7387103844069</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1608086728.549165</v>
+        <v>1608.086728549163</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>139294973.9271111</v>
+        <v>139.2949739271109</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7089351318.698629</v>
+        <v>7089.351318698637</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>924331724.1731486</v>
+        <v>924.3317241731477</v>
       </c>
       <c r="C7">
-        <v>1596021622.063074</v>
+        <v>1596.021622063075</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15288,22 +15288,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3890198958.402648</v>
+        <v>3890.198958402645</v>
       </c>
       <c r="C8">
-        <v>8103955916.818366</v>
+        <v>8103.955916818375</v>
       </c>
       <c r="D8">
-        <v>128646938.2839331</v>
+        <v>128.646938283933</v>
       </c>
       <c r="E8">
-        <v>11143597.91416888</v>
+        <v>11.14359791416886</v>
       </c>
       <c r="F8">
-        <v>283574052.7479454</v>
+        <v>283.5740527479458</v>
       </c>
       <c r="G8">
-        <v>252035334.6236222</v>
+        <v>252.0353346236223</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.000417004517274724</v>
+        <v>4.170045172747243E-10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.070073128375095E-06</v>
+        <v>1.070073128375095E-12</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>63440.29034685199</v>
+        <v>0.06344029034685197</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15480,10 +15480,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0002025790847196565</v>
+        <v>2.025790847196566E-10</v>
       </c>
       <c r="C7">
-        <v>14282.27641032207</v>
+        <v>0.01428227641032206</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15506,22 +15506,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0008525867107672111</v>
+        <v>8.525867107672114E-10</v>
       </c>
       <c r="C8">
-        <v>72519.65563690264</v>
+        <v>0.07251965563690262</v>
       </c>
       <c r="D8">
-        <v>3.33603613819779E-05</v>
+        <v>3.336036138197792E-11</v>
       </c>
       <c r="E8">
-        <v>8.56058502700076E-08</v>
+        <v>8.560585027000757E-14</v>
       </c>
       <c r="F8">
-        <v>2537.611613874082</v>
+        <v>0.002537611613874081</v>
       </c>
       <c r="G8">
-        <v>1428.227661290115</v>
+        <v>0.001428227661290114</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>717094834.3694624</v>
+        <v>717.0948343694647</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63625570.67701355</v>
+        <v>63.62557067701342</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6301201747.083921</v>
+        <v>6301.201747083934</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>413786280.1129597</v>
+        <v>413.7862801129608</v>
       </c>
       <c r="C7">
-        <v>1418585958.182371</v>
+        <v>1418.585958182374</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15724,22 +15724,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1741486215.175286</v>
+        <v>1741.48621517529</v>
       </c>
       <c r="C8">
-        <v>7203008975.822735</v>
+        <v>7203.008975822749</v>
       </c>
       <c r="D8">
-        <v>57367586.74955696</v>
+        <v>57.36758674955715</v>
       </c>
       <c r="E8">
-        <v>5090045.654161082</v>
+        <v>5.090045654161071</v>
       </c>
       <c r="F8">
-        <v>252048069.8833571</v>
+        <v>252.0480698833576</v>
       </c>
       <c r="G8">
-        <v>183237223.8295331</v>
+        <v>183.2372238295335</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>145835975.2177822</v>
+        <v>145.835975217786</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14014977.50830447</v>
+        <v>14.0149775083042</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5750620511.800351</v>
+        <v>5750.620511800358</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>85290696.46957079</v>
+        <v>85.29069646957231</v>
       </c>
       <c r="C7">
-        <v>1294633918.466546</v>
+        <v>1294.633918466547</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15942,22 +15942,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>358959635.2588319</v>
+        <v>358.9596352588384</v>
       </c>
       <c r="C8">
-        <v>6573630368.559058</v>
+        <v>6573.630368559066</v>
       </c>
       <c r="D8">
-        <v>11666878.01742257</v>
+        <v>11.66687801742287</v>
       </c>
       <c r="E8">
-        <v>1121198.200664357</v>
+        <v>1.121198200664335</v>
       </c>
       <c r="F8">
-        <v>230024820.4720142</v>
+        <v>230.0248204720145</v>
       </c>
       <c r="G8">
-        <v>137992461.4936116</v>
+        <v>137.992461493612</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7225880.505128032</v>
+        <v>7.225880505129617</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1036467.779734159</v>
+        <v>1.036467779734037</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5369019237.349581</v>
+        <v>5369.019237349588</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4588183.597489554</v>
+        <v>4.58818359749019</v>
       </c>
       <c r="C7">
-        <v>1208724241.029082</v>
+        <v>1208.724241029084</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16160,22 +16160,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19310109.76376535</v>
+        <v>19.31010976376803</v>
       </c>
       <c r="C8">
-        <v>6137415577.257331</v>
+        <v>6137.415577257339</v>
       </c>
       <c r="D8">
-        <v>578070.4404102422</v>
+        <v>0.5780704404103691</v>
       </c>
       <c r="E8">
-        <v>82917.42237873272</v>
+        <v>0.08291742237872289</v>
       </c>
       <c r="F8">
-        <v>214760769.4939834</v>
+        <v>214.7607694939837</v>
       </c>
       <c r="G8">
-        <v>121331242.4626572</v>
+        <v>121.3312424626574</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>536945.2760729836</v>
+        <v>0.5369452760730531</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>50094.21306773689</v>
+        <v>0.05009421306773183</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5116494478.081928</v>
+        <v>5116.494478081933</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>312431.5284886487</v>
+        <v>0.3124315284886769</v>
       </c>
       <c r="C7">
-        <v>1151873485.892373</v>
+        <v>1151.873485892374</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,22 +16378,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1314918.416097782</v>
+        <v>1.314918416097901</v>
       </c>
       <c r="C8">
-        <v>5848750306.626351</v>
+        <v>5848.750306626358</v>
       </c>
       <c r="D8">
-        <v>42955.62208583867</v>
+        <v>0.04295562208584423</v>
       </c>
       <c r="E8">
-        <v>4007.537045418949</v>
+        <v>0.004007537045418544</v>
       </c>
       <c r="F8">
-        <v>204659779.1232773</v>
+        <v>204.6597791232775</v>
       </c>
       <c r="G8">
-        <v>115218591.7420861</v>
+        <v>115.2185917420862</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1885627.988373741</v>
+        <v>1.885627988373754</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>112426.3210778843</v>
+        <v>0.1124263210778847</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4973971359.271179</v>
+        <v>4973.971359271181</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1029954.790388043</v>
+        <v>1.029954790388049</v>
       </c>
       <c r="C7">
-        <v>1119787337.380328</v>
+        <v>1119.787337380329</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16596,22 +16596,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4334730.647001821</v>
+        <v>4.334730647001848</v>
       </c>
       <c r="C8">
-        <v>5685829748.729412</v>
+        <v>5685.829748729416</v>
       </c>
       <c r="D8">
-        <v>150850.2390698992</v>
+        <v>0.1508502390699002</v>
       </c>
       <c r="E8">
-        <v>8994.105686230741</v>
+        <v>0.008994105686230776</v>
       </c>
       <c r="F8">
-        <v>198958854.3708473</v>
+        <v>198.9588543708474</v>
       </c>
       <c r="G8">
-        <v>112081729.2170716</v>
+        <v>112.0817292170717</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7121859.37226689</v>
+        <v>7.121859372266933</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>433487.1738560512</v>
+        <v>0.4334871738560532</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4935171119.752373</v>
+        <v>4935.171119752373</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3899437.530466003</v>
+        <v>3.899437530466027</v>
       </c>
       <c r="C7">
-        <v>1111052261.570232</v>
+        <v>1111.052261570232</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16814,22 +16814,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16411410.99310947</v>
+        <v>16.41141099310957</v>
       </c>
       <c r="C8">
-        <v>5641476546.794976</v>
+        <v>5641.476546794976</v>
       </c>
       <c r="D8">
-        <v>569748.7497813508</v>
+        <v>0.5697487497813544</v>
       </c>
       <c r="E8">
-        <v>34678.97390848408</v>
+        <v>0.03467897390848424</v>
       </c>
       <c r="F8">
-        <v>197406844.7900951</v>
+        <v>197.4068447900951</v>
       </c>
       <c r="G8">
-        <v>111495169.9100697</v>
+        <v>111.4951699100697</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24668537.78425546</v>
+        <v>24.66853778425559</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1531093.138519208</v>
+        <v>1.531093138519216</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4999117907.97949</v>
+        <v>4999.117907979485</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13538117.56840582</v>
+        <v>13.53811756840589</v>
       </c>
       <c r="C7">
-        <v>1125448565.559678</v>
+        <v>1125.448565559677</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17032,22 +17032,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>56977348.59252688</v>
+        <v>56.97734859252719</v>
       </c>
       <c r="C8">
-        <v>5714575188.619629</v>
+        <v>5714.575188619623</v>
       </c>
       <c r="D8">
-        <v>1973483.022740436</v>
+        <v>1.973483022740447</v>
       </c>
       <c r="E8">
-        <v>122487.4510815366</v>
+        <v>0.1224874510815372</v>
       </c>
       <c r="F8">
-        <v>199964716.3191798</v>
+        <v>199.9647163191796</v>
       </c>
       <c r="G8">
-        <v>113898668.3128084</v>
+        <v>113.8986683128083</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>78285096.24999644</v>
+        <v>78.28509624999683</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4960711.672683984</v>
+        <v>4.960711672684015</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5163682240.021851</v>
+        <v>5163.682240021843</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>43070753.30709077</v>
+        <v>43.07075330709099</v>
       </c>
       <c r="C7">
-        <v>1162496839.844975</v>
+        <v>1162.496839844973</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17250,22 +17250,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>181270203.4031619</v>
+        <v>181.2702034031628</v>
       </c>
       <c r="C8">
-        <v>5902691425.550141</v>
+        <v>5902.691425550133</v>
       </c>
       <c r="D8">
-        <v>6262807.699999712</v>
+        <v>6.262807699999743</v>
       </c>
       <c r="E8">
-        <v>396856.9338147185</v>
+        <v>0.396856933814721</v>
       </c>
       <c r="F8">
-        <v>206547289.6008742</v>
+        <v>206.5472896008739</v>
       </c>
       <c r="G8">
-        <v>120556759.3152065</v>
+        <v>120.5567593152063</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>223439278.8532384</v>
+        <v>223.4392788532393</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14551141.51115721</v>
+        <v>14.55114151115731</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5420952896.13507</v>
+        <v>5420.952896135059</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>123346940.3530633</v>
+        <v>123.3469403530638</v>
       </c>
       <c r="C7">
-        <v>1220416036.033777</v>
+        <v>1220.416036033774</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17468,22 +17468,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>519125467.9837803</v>
+        <v>519.1254679837826</v>
       </c>
       <c r="C8">
-        <v>6196781810.143352</v>
+        <v>6196.781810143339</v>
       </c>
       <c r="D8">
-        <v>17875142.30825906</v>
+        <v>17.87514230825914</v>
       </c>
       <c r="E8">
-        <v>1164091.320892576</v>
+        <v>1.164091320892584</v>
       </c>
       <c r="F8">
-        <v>216838115.845403</v>
+        <v>216.8381158454025</v>
       </c>
       <c r="G8">
-        <v>134376297.638684</v>
+        <v>134.3762976386838</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>544515678.8190266</v>
+        <v>544.515678819028</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37064388.5352748</v>
+        <v>37.06438853527512</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5755255735.876714</v>
+        <v>5755.255735876704</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>302291357.8484467</v>
+        <v>302.2913578484477</v>
       </c>
       <c r="C7">
-        <v>1295677443.821181</v>
+        <v>1295.677443821179</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17686,22 +17686,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1272241874.515455</v>
+        <v>1272.24187451546</v>
       </c>
       <c r="C8">
-        <v>6578928970.630074</v>
+        <v>6578.928970630062</v>
       </c>
       <c r="D8">
-        <v>43561254.30552211</v>
+        <v>43.56125430552222</v>
       </c>
       <c r="E8">
-        <v>2965151.082821983</v>
+        <v>2.965151082822008</v>
       </c>
       <c r="F8">
-        <v>230210229.4350688</v>
+        <v>230.2102294350684</v>
       </c>
       <c r="G8">
-        <v>159796880.1669627</v>
+        <v>159.7968801669626</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01651160975924242</v>
+        <v>1.651160975924243E-08</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17826,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.093655847991692E-05</v>
+        <v>5.09365584799169E-11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>180138.5878788032</v>
+        <v>0.1801385878788032</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.008030343066051786</v>
+        <v>8.03034306605179E-09</v>
       </c>
       <c r="C7">
-        <v>40554.49762577931</v>
+        <v>0.04055449762577931</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17904,22 +17904,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0337969923721007</v>
+        <v>3.379699237210071E-08</v>
       </c>
       <c r="C8">
-        <v>205919.4289380639</v>
+        <v>0.2059194289380639</v>
       </c>
       <c r="D8">
-        <v>0.001320928780739393</v>
+        <v>1.320928780739393E-09</v>
       </c>
       <c r="E8">
-        <v>4.074924678393352E-06</v>
+        <v>4.07492467839335E-12</v>
       </c>
       <c r="F8">
-        <v>7205.543515152134</v>
+        <v>0.007205543515152134</v>
       </c>
       <c r="G8">
-        <v>4055.450565612236</v>
+        <v>0.004055450565612237</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1034570668.906913</v>
+        <v>1034.570668906913</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75546632.57896826</v>
+        <v>75.54663257896898</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6144115802.209359</v>
+        <v>6144.115802209349</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>579775284.9902953</v>
+        <v>579.7752849902961</v>
       </c>
       <c r="C7">
-        <v>1383221288.938129</v>
+        <v>1383.221288938127</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18122,22 +18122,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2440077680.763826</v>
+        <v>2440.07768076383</v>
       </c>
       <c r="C8">
-        <v>7023441408.186814</v>
+        <v>7023.441408186803</v>
       </c>
       <c r="D8">
-        <v>82765653.51255298</v>
+        <v>82.76565351255299</v>
       </c>
       <c r="E8">
-        <v>6043730.606317458</v>
+        <v>6.043730606317515</v>
       </c>
       <c r="F8">
-        <v>245764632.0883746</v>
+        <v>245.7646320883742</v>
       </c>
       <c r="G8">
-        <v>196299657.3928424</v>
+        <v>196.2996573928422</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1427159225.134685</v>
+        <v>1427.159225134681</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>111909776.9206604</v>
+        <v>111.9097769206611</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6561643320.63102</v>
+        <v>6561.643320631009</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>807931344.4991784</v>
+        <v>807.9313444991776</v>
       </c>
       <c r="C7">
-        <v>1477219021.205915</v>
+        <v>1477.219021205913</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18340,22 +18340,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3400309210.032908</v>
+        <v>3400.309210032905</v>
       </c>
       <c r="C8">
-        <v>7500724089.103356</v>
+        <v>7500.724089103344</v>
       </c>
       <c r="D8">
-        <v>114172738.0107747</v>
+        <v>114.1727380107744</v>
       </c>
       <c r="E8">
-        <v>8952782.153652826</v>
+        <v>8.952782153652883</v>
       </c>
       <c r="F8">
-        <v>262465732.825241</v>
+        <v>262.4657328252406</v>
       </c>
       <c r="G8">
-        <v>228515036.5705093</v>
+        <v>228.515036570509</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1496240586.303199</v>
+        <v>1496.240586303195</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>120989435.0321854</v>
+        <v>120.9894350321853</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6983089345.528337</v>
+        <v>6983.089345528329</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>850917518.8191537</v>
+        <v>850.9175188191518</v>
       </c>
       <c r="C7">
-        <v>1572098924.603357</v>
+        <v>1572.098924603355</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18558,22 +18558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3581223449.144274</v>
+        <v>3581.223449144267</v>
       </c>
       <c r="C8">
-        <v>7982486080.229105</v>
+        <v>7982.486080229094</v>
       </c>
       <c r="D8">
-        <v>119699246.9042558</v>
+        <v>119.6992469042556</v>
       </c>
       <c r="E8">
-        <v>9679154.802574828</v>
+        <v>9.679154802574818</v>
       </c>
       <c r="F8">
-        <v>279323573.8211337</v>
+        <v>279.3235738211334</v>
       </c>
       <c r="G8">
-        <v>242301644.342251</v>
+        <v>242.3016443422506</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1466411861.206614</v>
+        <v>1466.411861206614</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>121777169.1609126</v>
+        <v>121.7771691609123</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7388990634.100162</v>
+        <v>7388.99063410016</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>837342029.1797783</v>
+        <v>837.3420291797779</v>
       </c>
       <c r="C7">
-        <v>1663479250.370992</v>
+        <v>1663.479250370992</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18776,22 +18776,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3524088814.170942</v>
+        <v>3524.08881417094</v>
       </c>
       <c r="C8">
-        <v>8446478623.593376</v>
+        <v>8446.478623593375</v>
       </c>
       <c r="D8">
-        <v>117312948.896529</v>
+        <v>117.312948896529</v>
       </c>
       <c r="E8">
-        <v>9742173.532873005</v>
+        <v>9.742173532872981</v>
       </c>
       <c r="F8">
-        <v>295559625.3640067</v>
+        <v>295.5596253640066</v>
       </c>
       <c r="G8">
-        <v>250082127.9550769</v>
+        <v>250.0821279550769</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1557611883.173059</v>
+        <v>1557.611883173055</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>135474121.2173319</v>
+        <v>135.4741212173314</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7767530892.463306</v>
+        <v>7767.530892463303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>895902505.4439945</v>
+        <v>895.9025054439918</v>
       </c>
       <c r="C7">
-        <v>1748699803.001162</v>
+        <v>1748.699803001161</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,22 +18994,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3770550011.822038</v>
+        <v>3770.550011822027</v>
       </c>
       <c r="C8">
-        <v>8879194316.272448</v>
+        <v>8879.194316272444</v>
       </c>
       <c r="D8">
-        <v>124608950.6538447</v>
+        <v>124.6089506538443</v>
       </c>
       <c r="E8">
-        <v>10837929.69738655</v>
+        <v>10.83792969738651</v>
       </c>
       <c r="F8">
-        <v>310701235.6985325</v>
+        <v>310.7012356985324</v>
       </c>
       <c r="G8">
-        <v>264460230.8445156</v>
+        <v>264.4602308445152</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1702566232.827008</v>
+        <v>1702.566232827005</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>153314854.8186406</v>
+        <v>153.3148548186402</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8114440413.104288</v>
+        <v>8114.440413104292</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>984818397.4544203</v>
+        <v>984.8183974544183</v>
       </c>
       <c r="C7">
-        <v>1826799345.674719</v>
+        <v>1826.79934567472</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19212,22 +19212,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4144766866.484061</v>
+        <v>4144.766866484053</v>
       </c>
       <c r="C8">
-        <v>9275752384.284115</v>
+        <v>9275.752384284122</v>
       </c>
       <c r="D8">
-        <v>136205298.6261606</v>
+        <v>136.2052986261603</v>
       </c>
       <c r="E8">
-        <v>12265188.38549124</v>
+        <v>12.26518838549121</v>
       </c>
       <c r="F8">
-        <v>324577616.5241718</v>
+        <v>324.577616524172</v>
       </c>
       <c r="G8">
-        <v>281161774.3129139</v>
+        <v>281.1617743129138</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1745524174.425457</v>
+        <v>1745.524174425464</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>158003815.5239681</v>
+        <v>158.0038155239685</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8430715122.421842</v>
+        <v>8430.715122421851</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1010535599.204314</v>
+        <v>1010.535599204317</v>
       </c>
       <c r="C7">
-        <v>1898002090.734219</v>
+        <v>1898.002090734221</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19430,22 +19430,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4253001852.738547</v>
+        <v>4253.001852738564</v>
       </c>
       <c r="C8">
-        <v>9637291287.731277</v>
+        <v>9637.29128773129</v>
       </c>
       <c r="D8">
-        <v>139641933.9540365</v>
+        <v>139.6419339540371</v>
       </c>
       <c r="E8">
-        <v>12640305.24191744</v>
+        <v>12.64030524191747</v>
       </c>
       <c r="F8">
-        <v>337228604.896874</v>
+        <v>337.2286048968743</v>
       </c>
       <c r="G8">
-        <v>290853768.9938532</v>
+        <v>290.8537689938538</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1636195731.577273</v>
+        <v>1636.195731577282</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>144560660.1756873</v>
+        <v>144.5606601756882</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8719246152.879803</v>
+        <v>8719.246152879812</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>943486414.7269993</v>
+        <v>943.4864147270043</v>
       </c>
       <c r="C7">
-        <v>1962958917.18355</v>
+        <v>1962.958917183553</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19648,22 +19648,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3970814559.15764</v>
+        <v>3970.81455915766</v>
       </c>
       <c r="C8">
-        <v>9967115928.428406</v>
+        <v>9967.115928428419</v>
       </c>
       <c r="D8">
-        <v>130895658.5261818</v>
+        <v>130.8956585261824</v>
       </c>
       <c r="E8">
-        <v>11564852.81405498</v>
+        <v>11.56485281405505</v>
       </c>
       <c r="F8">
-        <v>348769846.1151924</v>
+        <v>348.7698461151928</v>
       </c>
       <c r="G8">
-        <v>290644533.1910549</v>
+        <v>290.6445331910556</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1396816947.19099</v>
+        <v>1396.816947190987</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>119660824.505971</v>
+        <v>119.6608245059713</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8981771420.996374</v>
+        <v>8981.771420996391</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>801481215.4380746</v>
+        <v>801.4812154380735</v>
       </c>
       <c r="C7">
-        <v>2022061081.177994</v>
+        <v>2022.061081177998</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19866,22 +19866,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3373162802.851531</v>
+        <v>3373.162802851527</v>
       </c>
       <c r="C8">
-        <v>10267212947.77857</v>
+        <v>10267.21294777859</v>
       </c>
       <c r="D8">
-        <v>111745355.7752791</v>
+        <v>111.7453557752789</v>
       </c>
       <c r="E8">
-        <v>9572865.960477673</v>
+        <v>9.572865960477699</v>
       </c>
       <c r="F8">
-        <v>359270856.8398553</v>
+        <v>359.2708568398559</v>
       </c>
       <c r="G8">
-        <v>282354229.6616068</v>
+        <v>282.3542296616071</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1081517517.446924</v>
+        <v>1081.517517446919</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>91344129.65083645</v>
+        <v>91.34412965083594</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9217246893.208416</v>
+        <v>9217.246893208439</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>619182262.7737894</v>
+        <v>619.1822627737866</v>
       </c>
       <c r="C7">
-        <v>2075073540.03649</v>
+        <v>2075.073540036495</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20084,22 +20084,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2605928294.69172</v>
+        <v>2605.928294691708</v>
       </c>
       <c r="C8">
-        <v>10536388893.57564</v>
+        <v>10536.38889357566</v>
       </c>
       <c r="D8">
-        <v>86521401.39575389</v>
+        <v>86.5214013957535</v>
       </c>
       <c r="E8">
-        <v>7307530.372066912</v>
+        <v>7.307530372066871</v>
       </c>
       <c r="F8">
-        <v>368689875.728337</v>
+        <v>368.6898757283379</v>
       </c>
       <c r="G8">
-        <v>269425580.2810279</v>
+        <v>269.4255802810281</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3709254753594565</v>
+        <v>3.709254753594567E-07</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20224,7 +20224,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001406936393092605</v>
+        <v>1.406936393092605E-09</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>454143.369969941</v>
+        <v>0.454143369969941</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20276,10 +20276,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1806759869454214</v>
+        <v>1.806759869454215E-07</v>
       </c>
       <c r="C7">
-        <v>102241.0380589898</v>
+        <v>0.1022410380589898</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20302,22 +20302,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7604039954943554</v>
+        <v>7.604039954943558E-07</v>
       </c>
       <c r="C8">
-        <v>519138.8724726549</v>
+        <v>0.5191388724726549</v>
       </c>
       <c r="D8">
-        <v>0.02967403802875651</v>
+        <v>2.967403802875652E-08</v>
       </c>
       <c r="E8">
-        <v>0.0001125549114474083</v>
+        <v>1.125549114474083E-10</v>
       </c>
       <c r="F8">
-        <v>18165.73479879766</v>
+        <v>0.01816573479879766</v>
       </c>
       <c r="G8">
-        <v>10224.12187349767</v>
+        <v>0.01022412187349767</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>801514513.1029612</v>
+        <v>801.514513102961</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67443033.1108481</v>
+        <v>67.44303311084747</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9421976808.883839</v>
+        <v>9421.97680888385</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>458609933.6345476</v>
+        <v>458.6099336345468</v>
       </c>
       <c r="C7">
-        <v>2121164269.274197</v>
+        <v>2121.1642692742</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20520,22 +20520,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1930133781.499449</v>
+        <v>1930.133781499446</v>
       </c>
       <c r="C8">
-        <v>10770419080.10505</v>
+        <v>10770.41908010506</v>
       </c>
       <c r="D8">
-        <v>64121161.04823686</v>
+        <v>64.12116104823684</v>
       </c>
       <c r="E8">
-        <v>5395442.648867846</v>
+        <v>5.395442648867794</v>
       </c>
       <c r="F8">
-        <v>376879072.3553539</v>
+        <v>376.8790723553543</v>
       </c>
       <c r="G8">
-        <v>257977420.2908744</v>
+        <v>257.9774202908746</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>743561251.0043691</v>
+        <v>743.5612510043752</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62149052.46887267</v>
+        <v>62.14905246887289</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9591064097.658108</v>
+        <v>9591.064097658125</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>425008157.3662017</v>
+        <v>425.0081573662048</v>
       </c>
       <c r="C7">
-        <v>2159230794.230855</v>
+        <v>2159.230794230859</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20738,22 +20738,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1788715293.286756</v>
+        <v>1788.715293286769</v>
       </c>
       <c r="C8">
-        <v>10963705584.42976</v>
+        <v>10963.70558442978</v>
       </c>
       <c r="D8">
-        <v>59484900.0803495</v>
+        <v>59.48490008034999</v>
       </c>
       <c r="E8">
-        <v>4971924.197509811</v>
+        <v>4.971924197509829</v>
       </c>
       <c r="F8">
-        <v>383642563.9063246</v>
+        <v>383.6425639063253</v>
       </c>
       <c r="G8">
-        <v>258423895.1597056</v>
+        <v>258.4238951597063</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>907515094.5406382</v>
+        <v>907.5150945406376</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75745651.02074528</v>
+        <v>75.74565102074585</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9720293063.752403</v>
+        <v>9720.293063752415</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>518608188.3207683</v>
+        <v>518.6081883207686</v>
       </c>
       <c r="C7">
-        <v>2188324037.718359</v>
+        <v>2188.324037718361</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20956,22 +20956,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2182646101.246023</v>
+        <v>2182.646101246025</v>
       </c>
       <c r="C8">
-        <v>11111429374.28369</v>
+        <v>11111.42937428371</v>
       </c>
       <c r="D8">
-        <v>72601207.56325102</v>
+        <v>72.60120756325097</v>
       </c>
       <c r="E8">
-        <v>6059652.081659619</v>
+        <v>6.059652081659666</v>
       </c>
       <c r="F8">
-        <v>388811722.5500965</v>
+        <v>388.8117225500969</v>
       </c>
       <c r="G8">
-        <v>270693222.6039127</v>
+        <v>270.6932226039129</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1081807588.189629</v>
+        <v>1081.807588189622</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>90670058.44129898</v>
+        <v>90.67005844129919</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9807598031.251747</v>
+        <v>9807.598031251762</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>618608616.3007009</v>
+        <v>618.6086163006978</v>
       </c>
       <c r="C7">
-        <v>2207978955.295225</v>
+        <v>2207.978955295228</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21174,22 +21174,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2603514011.103113</v>
+        <v>2603.5140111031</v>
       </c>
       <c r="C8">
-        <v>11211229141.02227</v>
+        <v>11211.22914102229</v>
       </c>
       <c r="D8">
-        <v>86544607.05517027</v>
+        <v>86.54460705516971</v>
       </c>
       <c r="E8">
-        <v>7253604.675303915</v>
+        <v>7.253604675303931</v>
       </c>
       <c r="F8">
-        <v>392303921.2500702</v>
+        <v>392.3039212500709</v>
       </c>
       <c r="G8">
-        <v>282658757.1595924</v>
+        <v>282.6587571595925</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1165591195.789329</v>
+        <v>1165.591195789322</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>98093862.4850449</v>
+        <v>98.09386248504464</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9853657679.862469</v>
+        <v>9853.657679862476</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>666943749.6500421</v>
+        <v>666.9437496500383</v>
       </c>
       <c r="C7">
-        <v>2218348337.73695</v>
+        <v>2218.348337736952</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21392,22 +21392,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2806940205.933831</v>
+        <v>2806.940205933814</v>
       </c>
       <c r="C8">
-        <v>11263880694.75483</v>
+        <v>11263.88069475484</v>
       </c>
       <c r="D8">
-        <v>93247295.66314627</v>
+        <v>93.24729566314569</v>
       </c>
       <c r="E8">
-        <v>7847508.998803588</v>
+        <v>7.847508998803567</v>
       </c>
       <c r="F8">
-        <v>394146307.1944991</v>
+        <v>394.1463071944994</v>
       </c>
       <c r="G8">
-        <v>288529208.7386992</v>
+        <v>288.5292087386989</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1187917924.29803</v>
+        <v>1187.917924298039</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>100063097.6543759</v>
+        <v>100.0630976543756</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9861613115.426189</v>
+        <v>9861.613115426188</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>679814537.3648937</v>
+        <v>679.8145373648974</v>
       </c>
       <c r="C7">
-        <v>2220139340.411502</v>
+        <v>2220.139340411502</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21610,22 +21610,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2861108989.339947</v>
+        <v>2861.108989339962</v>
       </c>
       <c r="C8">
-        <v>11272974686.03968</v>
+        <v>11272.97468603968</v>
       </c>
       <c r="D8">
-        <v>95033433.94384238</v>
+        <v>95.03343394384304</v>
       </c>
       <c r="E8">
-        <v>8005047.812350065</v>
+        <v>8.005047812350044</v>
       </c>
       <c r="F8">
-        <v>394464524.6170479</v>
+        <v>394.4645246170479</v>
       </c>
       <c r="G8">
-        <v>289995387.7776395</v>
+        <v>289.9953877776398</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1194537873.011827</v>
+        <v>1194.537873011841</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>100346842.7051476</v>
+        <v>100.3468427051474</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9836230247.487875</v>
+        <v>9836.230247487867</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>683312950.7516147</v>
+        <v>683.3129507516211</v>
       </c>
       <c r="C7">
-        <v>2214424909.818583</v>
+        <v>2214.424909818581</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21828,22 +21828,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2875832625.624591</v>
+        <v>2875.832625624618</v>
       </c>
       <c r="C8">
-        <v>11243959105.69004</v>
+        <v>11243.95910569003</v>
       </c>
       <c r="D8">
-        <v>95563029.84094615</v>
+        <v>95.56302984094725</v>
       </c>
       <c r="E8">
-        <v>8027747.416411802</v>
+        <v>8.02774741641179</v>
       </c>
       <c r="F8">
-        <v>393449209.8995153</v>
+        <v>393.449209899515</v>
       </c>
       <c r="G8">
-        <v>289773786.0570198</v>
+        <v>289.7737860570202</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1206729984.712579</v>
+        <v>1206.729984712582</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>100784130.6438725</v>
+        <v>100.7841306438726</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9782899354.46907</v>
+        <v>9782.899354469067</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>689665743.6306536</v>
+        <v>689.6657436306556</v>
       </c>
       <c r="C7">
-        <v>2202418556.267244</v>
+        <v>2202.418556267244</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,22 +22046,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2902569377.804218</v>
+        <v>2902.569377804226</v>
       </c>
       <c r="C8">
-        <v>11182995671.01175</v>
+        <v>11182.99567101174</v>
       </c>
       <c r="D8">
-        <v>96538398.77700624</v>
+        <v>96.53839877700653</v>
       </c>
       <c r="E8">
-        <v>8062730.451509792</v>
+        <v>8.062730451509806</v>
       </c>
       <c r="F8">
-        <v>391315974.1787632</v>
+        <v>391.315974178763</v>
       </c>
       <c r="G8">
-        <v>289208429.9897897</v>
+        <v>289.2084299897899</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1246628758.390614</v>
+        <v>1246.628758390607</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>103343398.2214032</v>
+        <v>103.3433982214037</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9706770879.565466</v>
+        <v>9706.770879565462</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>711649996.2932359</v>
+        <v>711.649996293233</v>
       </c>
       <c r="C7">
-        <v>2185279796.098826</v>
+        <v>2185.279796098825</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22264,22 +22264,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2995093646.497627</v>
+        <v>2995.093646497615</v>
       </c>
       <c r="C8">
-        <v>11095971939.65762</v>
+        <v>11095.97193965762</v>
       </c>
       <c r="D8">
-        <v>99730300.67124905</v>
+        <v>99.73030067124849</v>
       </c>
       <c r="E8">
-        <v>8267471.857712251</v>
+        <v>8.267471857712293</v>
       </c>
       <c r="F8">
-        <v>388270835.182619</v>
+        <v>388.2708351826188</v>
       </c>
       <c r="G8">
-        <v>289692979.2392061</v>
+        <v>289.6929792392057</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1333343719.286995</v>
+        <v>1333.343719286991</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>110106548.4095952</v>
+        <v>110.1065484095956</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9612170443.489161</v>
+        <v>9612.170443489147</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>760701638.0426004</v>
+        <v>760.7016380425988</v>
       </c>
       <c r="C7">
-        <v>2163982453.839013</v>
+        <v>2163.98245383901</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22482,22 +22482,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3201535382.349563</v>
+        <v>3201.535382349557</v>
       </c>
       <c r="C8">
-        <v>10987832600.92121</v>
+        <v>10987.8326009212</v>
       </c>
       <c r="D8">
-        <v>106667497.5429595</v>
+        <v>106.6674975429592</v>
       </c>
       <c r="E8">
-        <v>8808523.872767612</v>
+        <v>8.808523872767646</v>
       </c>
       <c r="F8">
-        <v>384486817.7395667</v>
+        <v>384.4868177395662</v>
       </c>
       <c r="G8">
-        <v>292468409.1881613</v>
+        <v>292.4684091881609</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SW2/SW2_Min.xlsx
+++ b/Recycling/SW2/SW2_Min.xlsx
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.032856227977121</v>
+        <v>1.032858777743669</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>2.684808337712619E-06</v>
       </c>
       <c r="C7">
-        <v>0.232526333965996</v>
+        <v>0.232526907993486</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>1.129944837522843E-05</v>
       </c>
       <c r="C8">
-        <v>1.18067520759775</v>
+        <v>1.180678122278484</v>
       </c>
       <c r="D8">
         <v>4.401435912694918E-07</v>
@@ -912,10 +912,10 @@
         <v>2.040504826649131E-09</v>
       </c>
       <c r="F8">
-        <v>0.04131424911908486</v>
+        <v>0.04131435110974681</v>
       </c>
       <c r="G8">
-        <v>0.02325290187743336</v>
+        <v>0.02325295928018236</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1412.029920368283</v>
+        <v>5941.112117553253</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>117.3727670411425</v>
+        <v>636.8358767283595</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9502.31182574736</v>
+        <v>85528.8688671221</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>806.4074559945786</v>
+        <v>3544.369501389458</v>
       </c>
       <c r="C7">
-        <v>2139.250045836688</v>
+        <v>19255.06550401597</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3393.895679783669</v>
+        <v>14917.04999612944</v>
       </c>
       <c r="C8">
-        <v>10862.25137984193</v>
+        <v>97769.47872315778</v>
       </c>
       <c r="D8">
-        <v>112.9623936294626</v>
+        <v>475.2889694042599</v>
       </c>
       <c r="E8">
-        <v>9.389821363291396</v>
+        <v>50.94687013826874</v>
       </c>
       <c r="F8">
-        <v>380.0924730298947</v>
+        <v>3421.154754684887</v>
       </c>
       <c r="G8">
-        <v>294.5657501831266</v>
+        <v>2279.943500540542</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1393.132721072965</v>
+        <v>5561.416395775112</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>117.9839207271556</v>
+        <v>580.8520302586983</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9379.282671444833</v>
+        <v>85452.65300412894</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>797.925772348004</v>
+        <v>3301.665349468957</v>
       </c>
       <c r="C7">
-        <v>2111.55256244451</v>
+        <v>19237.90707021676</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3358.199147873633</v>
+        <v>13895.59047644702</v>
       </c>
       <c r="C8">
-        <v>10721.61469841222</v>
+        <v>97682.35509701871</v>
       </c>
       <c r="D8">
-        <v>111.4506176858372</v>
+        <v>444.9133116620087</v>
       </c>
       <c r="E8">
-        <v>9.438713658172441</v>
+        <v>46.46816242069584</v>
       </c>
       <c r="F8">
-        <v>375.1713068577936</v>
+        <v>3418.106120165161</v>
       </c>
       <c r="G8">
-        <v>290.9478334792514</v>
+        <v>2253.957241968571</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.17418050112519</v>
+        <v>2.174191021971625</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>2.905384483924472E-05</v>
       </c>
       <c r="C7">
-        <v>0.4894720171239469</v>
+        <v>0.4894743856761091</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0.0001222777861836642</v>
       </c>
       <c r="C8">
-        <v>2.485342049540147</v>
+        <v>2.485354076095454</v>
       </c>
       <c r="D8">
         <v>4.753503154594248E-06</v>
@@ -1566,10 +1566,10 @@
         <v>2.643465344924941E-08</v>
       </c>
       <c r="F8">
-        <v>0.08696722004500766</v>
+        <v>0.08696764087886509</v>
       </c>
       <c r="G8">
-        <v>0.04895010709687861</v>
+        <v>0.04895034395209482</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.34093253049886</v>
+        <v>4.34096988209388</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0.0002447582748334828</v>
       </c>
       <c r="C7">
-        <v>0.977271666636059</v>
+        <v>0.9772800755793589</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>0.001030104626852862</v>
       </c>
       <c r="C8">
-        <v>4.962192488931865</v>
+        <v>4.962235186164074</v>
       </c>
       <c r="D8">
         <v>3.996156884078682E-05</v>
@@ -1784,10 +1784,10 @@
         <v>2.607242461888171E-07</v>
       </c>
       <c r="F8">
-        <v>0.1736373012199545</v>
+        <v>0.1736387952837554</v>
       </c>
       <c r="G8">
-        <v>0.09775164249108922</v>
+        <v>0.09775248338541921</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.346484436353494</v>
+        <v>8.346602259659019</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0.001683407668958395</v>
       </c>
       <c r="C7">
-        <v>1.879039284383839</v>
+        <v>1.879065809877463</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0.007084892348801651</v>
       </c>
       <c r="C8">
-        <v>9.541005783450959</v>
+        <v>9.541140469239688</v>
       </c>
       <c r="D8">
         <v>0.0002742758483521542</v>
@@ -2002,10 +2002,10 @@
         <v>2.054778303223132E-06</v>
       </c>
       <c r="F8">
-        <v>0.3338593774541401</v>
+        <v>0.3338640903863611</v>
       </c>
       <c r="G8">
-        <v>0.1880722692052798</v>
+        <v>0.1880749217546421</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15.60118876149056</v>
+        <v>15.60152615686655</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0.009791321409123609</v>
       </c>
       <c r="C7">
-        <v>3.512286734549523</v>
+        <v>3.512362692178232</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0.04120835339848515</v>
       </c>
       <c r="C8">
-        <v>17.83397948407644</v>
+        <v>17.83436516636677</v>
       </c>
       <c r="D8">
         <v>0.001592041646087303</v>
@@ -2220,10 +2220,10 @@
         <v>1.343315885604896E-05</v>
       </c>
       <c r="F8">
-        <v>0.6240475504596231</v>
+        <v>0.6240610462746625</v>
       </c>
       <c r="G8">
-        <v>0.3522078055958646</v>
+        <v>0.3522154013587355</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>28.38990324854473</v>
+        <v>28.39079438950279</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04946570833310297</v>
+        <v>0.04946570833310298</v>
       </c>
       <c r="C7">
-        <v>6.391402738561651</v>
+        <v>6.391603360617667</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2426,22 +2426,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2081844017700722</v>
+        <v>0.2081844017700723</v>
       </c>
       <c r="C8">
-        <v>32.45297264393131</v>
+        <v>32.45399132204658</v>
       </c>
       <c r="D8">
-        <v>0.008027310882450733</v>
+        <v>0.008027310882450735</v>
       </c>
       <c r="E8">
         <v>7.501568552210309E-05</v>
       </c>
       <c r="F8">
-        <v>1.13559612994179</v>
+        <v>1.135631775580112</v>
       </c>
       <c r="G8">
-        <v>0.6440868446894753</v>
+        <v>0.6441069068950769</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>50.0145990608973</v>
+        <v>50.01679792635174</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0.2216012620740929</v>
       </c>
       <c r="C7">
-        <v>11.25975818259501</v>
+        <v>11.2602532119216</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>0.9326446083763996</v>
       </c>
       <c r="C8">
-        <v>57.17252365781466</v>
+        <v>57.17503721764668</v>
       </c>
       <c r="D8">
         <v>0.03589536555253622</v>
@@ -2656,10 +2656,10 @@
         <v>0.0003662442358040428</v>
       </c>
       <c r="F8">
-        <v>2.000583962435894</v>
+        <v>2.000671917054071</v>
       </c>
       <c r="G8">
-        <v>1.14813594446691</v>
+        <v>1.148185447399569</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84.80343684946331</v>
+        <v>84.80855943557029</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8946001180610135</v>
+        <v>0.8946001180610137</v>
       </c>
       <c r="C7">
-        <v>19.0917494073138</v>
+        <v>19.09290265220463</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2865,19 +2865,19 @@
         <v>3.765068704723938</v>
       </c>
       <c r="C8">
-        <v>96.94022526575759</v>
+        <v>96.94608097950695</v>
       </c>
       <c r="D8">
-        <v>0.1446591504568874</v>
+        <v>0.1446591504568875</v>
       </c>
       <c r="E8">
         <v>0.001592465360838465</v>
       </c>
       <c r="F8">
-        <v>3.392137473978535</v>
+        <v>3.392342377422815</v>
       </c>
       <c r="G8">
-        <v>1.998634952537481</v>
+        <v>1.998750277026564</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.645533642353321</v>
+        <v>6.64553364235333</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07821146898884954</v>
+        <v>0.07821146898884958</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>138.0432876168081</v>
+        <v>138.0546536834161</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.293133575891519</v>
+        <v>3.293133575891523</v>
       </c>
       <c r="C7">
-        <v>31.0776066684675</v>
+        <v>31.08016550456531</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.85968313299414</v>
+        <v>13.85968313299415</v>
       </c>
       <c r="C8">
-        <v>157.7995880255864</v>
+        <v>157.8125807661911</v>
       </c>
       <c r="D8">
-        <v>0.5316426913882655</v>
+        <v>0.5316426913882661</v>
       </c>
       <c r="E8">
-        <v>0.00625691751910796</v>
+        <v>0.006256917519107963</v>
       </c>
       <c r="F8">
-        <v>5.521731504672328</v>
+        <v>5.522186147336651</v>
       </c>
       <c r="G8">
-        <v>3.437074024435902</v>
+        <v>3.437329908045683</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.4106415427558</v>
+        <v>22.41064154275592</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2805748548950874</v>
+        <v>0.2805748548950879</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>215.8472918277043</v>
+        <v>215.8714791842925</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.1232032665938</v>
+        <v>11.12320326659386</v>
       </c>
       <c r="C7">
-        <v>48.5935777949304</v>
+        <v>48.5990230807344</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3298,22 +3298,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>46.81379274363021</v>
+        <v>46.81379274363045</v>
       </c>
       <c r="C8">
-        <v>246.738644919835</v>
+        <v>246.7662938911898</v>
       </c>
       <c r="D8">
-        <v>1.792851323420463</v>
+        <v>1.792851323420473</v>
       </c>
       <c r="E8">
-        <v>0.02244598839160698</v>
+        <v>0.02244598839160702</v>
       </c>
       <c r="F8">
-        <v>8.633891673108181</v>
+        <v>8.634859167371708</v>
       </c>
       <c r="G8">
-        <v>5.971678106152418</v>
+        <v>5.972222634732824</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69.04192702500342</v>
+        <v>69.04192702500484</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9226988244855964</v>
+        <v>0.9226988244856038</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>324.9283335715853</v>
+        <v>324.9779590345034</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34.32972691807267</v>
+        <v>34.32972691807337</v>
       </c>
       <c r="C7">
-        <v>73.15093055599473</v>
+        <v>73.16210270817926</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3734,22 +3734,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>144.4821857849777</v>
+        <v>144.4821857849807</v>
       </c>
       <c r="C8">
-        <v>371.4310058868334</v>
+        <v>371.487733582466</v>
       </c>
       <c r="D8">
-        <v>5.52335416200027</v>
+        <v>5.523354162000384</v>
       </c>
       <c r="E8">
-        <v>0.07381590595884767</v>
+        <v>0.07381590595884827</v>
       </c>
       <c r="F8">
-        <v>12.99713334286342</v>
+        <v>12.99911836138015</v>
       </c>
       <c r="G8">
-        <v>10.74806574740674</v>
+        <v>10.74918296262526</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>189.0718650943433</v>
+        <v>189.0718650943582</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.757474387773726</v>
+        <v>2.75747438777381</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>472.2539845789019</v>
+        <v>472.3525137910447</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>94.25647142174017</v>
+        <v>94.25647142174748</v>
       </c>
       <c r="C7">
-        <v>106.3182704044251</v>
+        <v>106.3404522298017</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3952,22 +3952,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>396.6935434089631</v>
+        <v>396.6935434089938</v>
       </c>
       <c r="C8">
-        <v>539.8414185618008</v>
+        <v>539.9540489500873</v>
       </c>
       <c r="D8">
-        <v>15.12574920754745</v>
+        <v>15.12574920754865</v>
       </c>
       <c r="E8">
-        <v>0.2205979510218979</v>
+        <v>0.2205979510219047</v>
       </c>
       <c r="F8">
-        <v>18.89015938315609</v>
+        <v>18.8941005516418</v>
       </c>
       <c r="G8">
-        <v>20.05747418261653</v>
+        <v>20.05969236515492</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>428.1478779082971</v>
+        <v>428.1478779084348</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.224902347285943</v>
+        <v>7.224902347286786</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>664.5692946145568</v>
+        <v>664.7590699269696</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>214.4795481831859</v>
+        <v>214.4795481832533</v>
       </c>
       <c r="C7">
-        <v>149.6141065497007</v>
+        <v>149.6568305576287</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>902.6717282556494</v>
+        <v>902.6717282559331</v>
       </c>
       <c r="C8">
-        <v>759.6802620040095</v>
+        <v>759.8971973337394</v>
       </c>
       <c r="D8">
-        <v>34.25183023266375</v>
+        <v>34.25183023267476</v>
       </c>
       <c r="E8">
-        <v>0.5779921877828752</v>
+        <v>0.5779921877829426</v>
       </c>
       <c r="F8">
-        <v>26.5827717845823</v>
+        <v>26.59036279707881</v>
       </c>
       <c r="G8">
-        <v>36.40936547328864</v>
+        <v>36.41363787408818</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>710.2573693655382</v>
+        <v>710.2573693666703</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.22255613480319</v>
+        <v>15.22255613481067</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>907.764586947005</v>
+        <v>908.1197530553306</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>359.2293336024351</v>
+        <v>359.2293336029899</v>
       </c>
       <c r="C7">
-        <v>204.364524112275</v>
+        <v>204.4444824558285</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1511.874517406579</v>
+        <v>1511.874517408914</v>
       </c>
       <c r="C8">
-        <v>1037.680863136822</v>
+        <v>1038.086859448139</v>
       </c>
       <c r="D8">
-        <v>56.82058954924303</v>
+        <v>56.8205895493336</v>
       </c>
       <c r="E8">
-        <v>1.217804490784255</v>
+        <v>1.217804490784853</v>
       </c>
       <c r="F8">
-        <v>36.31058347788023</v>
+        <v>36.32479012221326</v>
       </c>
       <c r="G8">
-        <v>56.359385771471</v>
+        <v>56.36738160588182</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>836.8723202897453</v>
+        <v>836.872320298139</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.10977105774883</v>
+        <v>22.10977105780831</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1206.056878920593</v>
+        <v>1206.703473224619</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>427.6871812813629</v>
+        <v>427.6871812854807</v>
       </c>
       <c r="C7">
-        <v>271.5188978035468</v>
+        <v>271.6644652107095</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4606,22 +4606,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1799.990396987886</v>
+        <v>1799.990397005216</v>
       </c>
       <c r="C8">
-        <v>1378.663764929932</v>
+        <v>1379.40289767993</v>
       </c>
       <c r="D8">
-        <v>66.94978562317959</v>
+        <v>66.94978562385108</v>
       </c>
       <c r="E8">
-        <v>1.768781684619906</v>
+        <v>1.768781684624664</v>
       </c>
       <c r="F8">
-        <v>48.24227515682377</v>
+        <v>48.2681389289848</v>
       </c>
       <c r="G8">
-        <v>69.92060790849096</v>
+        <v>69.935164649619</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>875.1587596523918</v>
+        <v>875.1587597090321</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.93012198974949</v>
+        <v>18.93012199017769</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1561.021074748688</v>
+        <v>1562.167210737559</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>442.8156154305515</v>
+        <v>442.8156154583666</v>
       </c>
       <c r="C7">
-        <v>351.4317849115124</v>
+        <v>351.6898138534888</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,22 +4824,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1863.660849088924</v>
+        <v>1863.660849205988</v>
       </c>
       <c r="C8">
-        <v>1784.429266697704</v>
+        <v>1785.739433892267</v>
       </c>
       <c r="D8">
-        <v>70.01270077219131</v>
+        <v>70.01270077672254</v>
       </c>
       <c r="E8">
-        <v>1.514409759179958</v>
+        <v>1.514409759214215</v>
       </c>
       <c r="F8">
-        <v>62.44084298994758</v>
+        <v>62.48668842950243</v>
       </c>
       <c r="G8">
-        <v>79.42474003420637</v>
+        <v>79.45054293118552</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>954.7385579056119</v>
+        <v>954.7385582563895</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.12815349150794</v>
+        <v>11.12815349432423</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1970.710302992736</v>
+        <v>1972.69006605455</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>472.9974199149447</v>
+        <v>472.99742008738</v>
       </c>
       <c r="C7">
-        <v>443.6648873787582</v>
+        <v>444.110590308571</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5042,22 +5042,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1990.685835138093</v>
+        <v>1990.685835863815</v>
       </c>
       <c r="C8">
-        <v>2252.751867177118</v>
+        <v>2255.014967404125</v>
       </c>
       <c r="D8">
-        <v>76.37908463244891</v>
+        <v>76.37908466051113</v>
       </c>
       <c r="E8">
-        <v>0.8902522793206351</v>
+        <v>0.8902522795459381</v>
       </c>
       <c r="F8">
-        <v>78.82841211970953</v>
+        <v>78.90760264218207</v>
       </c>
       <c r="G8">
-        <v>91.66623072937026</v>
+        <v>91.71080103959508</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1044.149570766881</v>
+        <v>1044.149572775077</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.60611416848732</v>
+        <v>12.60611418553649</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2429.181628352571</v>
+        <v>2432.516952256162</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>517.7549839363004</v>
+        <v>517.7549849244706</v>
       </c>
       <c r="C7">
-        <v>546.8802755681154</v>
+        <v>547.6311551376856</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5260,22 +5260,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2179.055253154414</v>
+        <v>2179.055257313287</v>
       </c>
       <c r="C8">
-        <v>2776.838097752502</v>
+        <v>2780.650762221777</v>
       </c>
       <c r="D8">
-        <v>83.5319656613504</v>
+        <v>83.53196582200611</v>
       </c>
       <c r="E8">
-        <v>1.008489133478985</v>
+        <v>1.008489134842919</v>
       </c>
       <c r="F8">
-        <v>97.16726513410292</v>
+        <v>97.30067809024658</v>
       </c>
       <c r="G8">
-        <v>106.4635259504416</v>
+        <v>106.5386140062156</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1148.308345964387</v>
+        <v>1148.30835665817</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.39474191216999</v>
+        <v>21.39474200779982</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2926.317808553962</v>
+        <v>2931.803101923699</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>577.3781367453204</v>
+        <v>577.3781420125214</v>
       </c>
       <c r="C7">
-        <v>658.8002604923374</v>
+        <v>660.0351614625247</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2429.988896226997</v>
+        <v>2429.988918394861</v>
       </c>
       <c r="C8">
-        <v>3345.122769776217</v>
+        <v>3351.393100256512</v>
       </c>
       <c r="D8">
-        <v>91.86466767715089</v>
+        <v>91.86466853265357</v>
       </c>
       <c r="E8">
-        <v>1.711579352973599</v>
+        <v>1.711579360623985</v>
       </c>
       <c r="F8">
-        <v>117.0527123421586</v>
+        <v>117.272124076948</v>
       </c>
       <c r="G8">
-        <v>123.6178397237658</v>
+        <v>123.7413303475046</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1237.694113667708</v>
+        <v>1237.694166910694</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.99962257688005</v>
+        <v>30.99962307669868</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3448.540300706537</v>
+        <v>3457.354804673976</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>630.7290943882284</v>
+        <v>630.7291206380366</v>
       </c>
       <c r="C7">
-        <v>776.3679125291071</v>
+        <v>778.3523167837936</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5696,22 +5696,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2654.524995577999</v>
+        <v>2654.525106054546</v>
       </c>
       <c r="C8">
-        <v>3942.084024046849</v>
+        <v>3952.160030774339</v>
       </c>
       <c r="D8">
-        <v>99.01552909341659</v>
+        <v>99.0155333528555</v>
       </c>
       <c r="E8">
-        <v>2.479969806150403</v>
+        <v>2.479969846135893</v>
       </c>
       <c r="F8">
-        <v>137.9416120282616</v>
+        <v>138.2941921869592</v>
       </c>
       <c r="G8">
-        <v>140.7097006917335</v>
+        <v>140.908143742183</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1319.004509341686</v>
+        <v>1319.004758233931</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43.8908390615005</v>
+        <v>43.89084150732983</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3981.264292145544</v>
+        <v>3995.116901263182</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>683.6589104472293</v>
+        <v>683.6590332716495</v>
       </c>
       <c r="C7">
-        <v>896.299761115287</v>
+        <v>899.4183911111547</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6132,22 +6132,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2877.288652732969</v>
+        <v>2877.289169659326</v>
       </c>
       <c r="C8">
-        <v>4551.049717574608</v>
+        <v>4566.884866458561</v>
       </c>
       <c r="D8">
-        <v>105.5203607473348</v>
+        <v>105.5203806587145</v>
       </c>
       <c r="E8">
-        <v>3.511267124920038</v>
+        <v>3.511267320586385</v>
       </c>
       <c r="F8">
-        <v>159.2505716858219</v>
+        <v>159.8046760505274</v>
       </c>
       <c r="G8">
-        <v>157.9958671562516</v>
+        <v>158.3077424382804</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1387.91611522811</v>
+        <v>1387.917210993846</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57.03037481463781</v>
+        <v>57.03038606261149</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4512.549099834236</v>
+        <v>4533.859480399525</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>730.8620807717548</v>
+        <v>730.8626220232729</v>
       </c>
       <c r="C7">
-        <v>1015.907607083968</v>
+        <v>1020.705200915563</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6350,22 +6350,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3075.950798829962</v>
+        <v>3075.953076774165</v>
       </c>
       <c r="C8">
-        <v>5158.370256116465</v>
+        <v>5182.730508120935</v>
       </c>
       <c r="D8">
-        <v>111.0332892182487</v>
+        <v>111.0333768795076</v>
       </c>
       <c r="E8">
-        <v>4.562429985171023</v>
+        <v>4.562430885008917</v>
       </c>
       <c r="F8">
-        <v>180.5019639933696</v>
+        <v>181.3543792159811</v>
       </c>
       <c r="G8">
-        <v>174.6769687855723</v>
+        <v>175.1567822938835</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1342.821364068075</v>
+        <v>1342.825916349795</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63.72369494610398</v>
+        <v>63.72374369165588</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5037.781021818922</v>
+        <v>5069.89913421112</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>716.1653199089053</v>
+        <v>716.1675706357028</v>
       </c>
       <c r="C7">
-        <v>1134.152770343727</v>
+        <v>1141.383502682043</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6568,22 +6568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3014.097113291155</v>
+        <v>3014.106585837443</v>
       </c>
       <c r="C8">
-        <v>5758.771639899349</v>
+        <v>5795.486390693442</v>
       </c>
       <c r="D8">
-        <v>107.425709125446</v>
+        <v>107.4260733079835</v>
       </c>
       <c r="E8">
-        <v>5.097895595688316</v>
+        <v>5.097899495332468</v>
       </c>
       <c r="F8">
-        <v>201.511240872757</v>
+        <v>202.795965368445</v>
       </c>
       <c r="G8">
-        <v>185.0318090252632</v>
+        <v>185.7551073317746</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1323.126956925864</v>
+        <v>1323.144818506033</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79.1409810874777</v>
+        <v>79.14118047829159</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5565.305007772316</v>
+        <v>5612.768451507259</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>722.9767238729498</v>
+        <v>722.9855635560095</v>
       </c>
       <c r="C7">
-        <v>1252.913944658483</v>
+        <v>1263.599362696483</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6786,22 +6786,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3042.764004098011</v>
+        <v>3042.80120732812</v>
       </c>
       <c r="C8">
-        <v>6361.793120292758</v>
+        <v>6416.049375681577</v>
       </c>
       <c r="D8">
-        <v>105.850156554069</v>
+        <v>105.8515854804826</v>
       </c>
       <c r="E8">
-        <v>6.331278486998213</v>
+        <v>6.331294438263324</v>
       </c>
       <c r="F8">
-        <v>222.6122003108929</v>
+        <v>224.5107380602905</v>
       </c>
       <c r="G8">
-        <v>197.5890668531432</v>
+        <v>198.6584926252493</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1316.17928320187</v>
+        <v>1316.245466958739</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>127.0844376957174</v>
+        <v>127.0852079244483</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6122.467337904809</v>
+        <v>6191.29226926221</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>770.3877384562059</v>
+        <v>770.420526011644</v>
       </c>
       <c r="C7">
-        <v>1378.347582506993</v>
+        <v>1393.842100079242</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7004,22 +7004,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3242.300896238745</v>
+        <v>3242.438887947434</v>
       </c>
       <c r="C8">
-        <v>6998.694687012458</v>
+        <v>7077.369615736518</v>
       </c>
       <c r="D8">
-        <v>105.2943426561495</v>
+        <v>105.299637356699</v>
       </c>
       <c r="E8">
-        <v>10.16675501565739</v>
+        <v>10.16681663395586</v>
       </c>
       <c r="F8">
-        <v>244.8986935161926</v>
+        <v>247.6516907704886</v>
       </c>
       <c r="G8">
-        <v>214.8735320963199</v>
+        <v>216.4262626090886</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1293.391474703964</v>
+        <v>1293.622866754204</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>191.8568561979689</v>
+        <v>191.8596649257556</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6761.046214854098</v>
+        <v>6859.043086329706</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>827.9668960660526</v>
+        <v>828.0816507881635</v>
       </c>
       <c r="C7">
-        <v>1522.110481139997</v>
+        <v>1544.172460965581</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7222,22 +7222,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3484.632056255891</v>
+        <v>3485.115019989313</v>
       </c>
       <c r="C8">
-        <v>7728.664868425105</v>
+        <v>7840.686729202379</v>
       </c>
       <c r="D8">
-        <v>103.4713179763171</v>
+        <v>103.4898293403363</v>
       </c>
       <c r="E8">
-        <v>15.3485484958375</v>
+        <v>15.34877319406044</v>
       </c>
       <c r="F8">
-        <v>270.4418485941642</v>
+        <v>274.3617234531885</v>
       </c>
       <c r="G8">
-        <v>235.0077377206049</v>
+        <v>237.2254111753744</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1295.614300797526</v>
+        <v>1296.376455503808</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>256.9598368037044</v>
+        <v>256.9694943786261</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7560.733040325248</v>
+        <v>7697.833453916061</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>897.9781895684539</v>
+        <v>898.3565966441297</v>
       </c>
       <c r="C7">
-        <v>1702.143520406165</v>
+        <v>1733.008858382517</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7440,22 +7440,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3779.285862824197</v>
+        <v>3780.878449958391</v>
       </c>
       <c r="C8">
-        <v>8642.80023702865</v>
+        <v>8799.522010004839</v>
       </c>
       <c r="D8">
-        <v>103.649144063802</v>
+        <v>103.7101164403046</v>
       </c>
       <c r="E8">
-        <v>20.55678694429634</v>
+        <v>20.55755955029007</v>
       </c>
       <c r="F8">
-        <v>302.4293216130102</v>
+        <v>307.9133381566427</v>
       </c>
       <c r="G8">
-        <v>260.0121709974619</v>
+        <v>263.1365455026646</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1257.894224958859</v>
+        <v>1260.253831030491</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>305.5186110357469</v>
+        <v>305.5498628778721</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8629.150224095665</v>
+        <v>8817.726422907359</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>931.1752725810833</v>
+        <v>932.3482404804888</v>
       </c>
       <c r="C7">
-        <v>1942.675672083245</v>
+        <v>1985.129724249639</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7658,22 +7658,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3919.001134279648</v>
+        <v>3923.937758633409</v>
       </c>
       <c r="C8">
-        <v>9864.125767223433</v>
+        <v>10079.69037016537</v>
       </c>
       <c r="D8">
-        <v>100.6315379967087</v>
+        <v>100.8203064824392</v>
       </c>
       <c r="E8">
-        <v>24.44148888285974</v>
+        <v>24.44398903022975</v>
       </c>
       <c r="F8">
-        <v>345.1660089638269</v>
+        <v>352.7090569162947</v>
       </c>
       <c r="G8">
-        <v>287.3850944664327</v>
+        <v>291.7477964730127</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1203.372776507697</v>
+        <v>1210.215957291301</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>277.0089807612983</v>
+        <v>277.1038955570074</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10097.13417187577</v>
+        <v>10352.28904915326</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>874.6482995982041</v>
+        <v>878.0545994302519</v>
       </c>
       <c r="C7">
-        <v>2273.162061623416</v>
+        <v>2330.604933728741</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7876,22 +7876,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3681.098262757672</v>
+        <v>3695.434224309239</v>
       </c>
       <c r="C8">
-        <v>11542.20273994014</v>
+        <v>11833.8745424031</v>
       </c>
       <c r="D8">
-        <v>96.2698221206157</v>
+        <v>96.81727658330404</v>
       </c>
       <c r="E8">
-        <v>22.16071846090385</v>
+        <v>22.16831164456058</v>
       </c>
       <c r="F8">
-        <v>403.8853668750313</v>
+        <v>414.0915619661309</v>
       </c>
       <c r="G8">
-        <v>314.781036122162</v>
+        <v>320.8659533158993</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1122.819439091169</v>
+        <v>1141.313324728274</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>259.1468849805242</v>
+        <v>259.4163249983997</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12108.28531236654</v>
+        <v>12448.08947402406</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>816.8205421543814</v>
+        <v>826.0398535403561</v>
       </c>
       <c r="C7">
-        <v>2725.931371700335</v>
+        <v>2802.431288955383</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8094,22 +8094,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3437.720830293199</v>
+        <v>3476.521787366259</v>
       </c>
       <c r="C8">
-        <v>13841.18320400719</v>
+        <v>14229.61901747305</v>
       </c>
       <c r="D8">
-        <v>89.82555512729346</v>
+        <v>91.30506597826185</v>
       </c>
       <c r="E8">
-        <v>20.73175079844193</v>
+        <v>20.75330599987196</v>
       </c>
       <c r="F8">
-        <v>484.3314124946619</v>
+        <v>497.9235789609627</v>
       </c>
       <c r="G8">
-        <v>354.2751913854715</v>
+        <v>362.8471142495738</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1071.267315631923</v>
+        <v>1117.463405227748</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>249.9957234627847</v>
+        <v>250.7061369818459</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>14802.79986037272</v>
+        <v>15248.45455607396</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>782.2266536713146</v>
+        <v>805.2952552241821</v>
       </c>
       <c r="C7">
-        <v>3332.54589625331</v>
+        <v>3432.875883911996</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8530,22 +8530,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3292.126878009122</v>
+        <v>3389.214803681098</v>
       </c>
       <c r="C8">
-        <v>16921.3277944824</v>
+        <v>17430.76312159903</v>
       </c>
       <c r="D8">
-        <v>85.70138525055383</v>
+        <v>89.39707241821982</v>
       </c>
       <c r="E8">
-        <v>19.99965787702276</v>
+        <v>20.05649095854766</v>
       </c>
       <c r="F8">
-        <v>592.1119944149093</v>
+        <v>609.938182242959</v>
       </c>
       <c r="G8">
-        <v>411.4772549924623</v>
+        <v>423.8171139136178</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1186.002388549985</v>
+        <v>1291.32762075731</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>221.9777004448714</v>
+        <v>223.7001646854455</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18298.27744666127</v>
+        <v>18874.18935939979</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>807.9844574565693</v>
+        <v>860.6887459267609</v>
       </c>
       <c r="C7">
-        <v>4119.480773135312</v>
+        <v>4249.135493830282</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8748,22 +8748,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3400.53274446986</v>
+        <v>3622.34723243791</v>
       </c>
       <c r="C8">
-        <v>20917.06661374422</v>
+        <v>21575.40114154418</v>
       </c>
       <c r="D8">
-        <v>94.88019108399875</v>
+        <v>103.3062096605848</v>
       </c>
       <c r="E8">
-        <v>17.7582160355897</v>
+        <v>17.89601317483563</v>
       </c>
       <c r="F8">
-        <v>731.9310978664514</v>
+        <v>754.9675743759924</v>
       </c>
       <c r="G8">
-        <v>492.7465230591881</v>
+        <v>510.9824239757041</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1495.102602451726</v>
+        <v>1710.301745009084</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>191.2370518055591</v>
+        <v>195.0179906098458</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>22670.25413300534</v>
+        <v>23404.02106328867</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>924.7529278304133</v>
+        <v>1032.714675191699</v>
       </c>
       <c r="C7">
-        <v>5103.741392884327</v>
+        <v>5268.933923715485</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8966,22 +8966,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3891.971661844405</v>
+        <v>4346.346066777765</v>
       </c>
       <c r="C8">
-        <v>25914.74619580136</v>
+        <v>26753.52743105361</v>
       </c>
       <c r="D8">
-        <v>119.608208196138</v>
+        <v>136.8241396007266</v>
       </c>
       <c r="E8">
-        <v>15.29896414444472</v>
+        <v>15.60143924878765</v>
       </c>
       <c r="F8">
-        <v>906.8101653202145</v>
+        <v>936.1608425315475</v>
       </c>
       <c r="G8">
-        <v>602.8494320714739</v>
+        <v>630.1648598907183</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2123.962460502843</v>
+        <v>2508.690218977646</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>175.1980079347892</v>
+        <v>182.5364923047827</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>27934.80211697426</v>
+        <v>28857.12789668933</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1211.557977376348</v>
+        <v>1405.182464178822</v>
       </c>
       <c r="C7">
-        <v>6288.946080179378</v>
+        <v>6496.588757320907</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9184,22 +9184,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5099.036913235921</v>
+        <v>5913.936756205212</v>
       </c>
       <c r="C8">
-        <v>31932.73893817412</v>
+        <v>32987.06494400226</v>
       </c>
       <c r="D8">
-        <v>169.9169968402273</v>
+        <v>200.6952175182115</v>
       </c>
       <c r="E8">
-        <v>14.01584063478313</v>
+        <v>14.60291938438261</v>
       </c>
       <c r="F8">
-        <v>1117.392084678972</v>
+        <v>1154.285115867574</v>
       </c>
       <c r="G8">
-        <v>750.0504057555723</v>
+        <v>790.1771221499728</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3125.194597634034</v>
+        <v>3712.927222125752</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>242.208580309149</v>
+        <v>254.3909275739968</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>34034.94485415224</v>
+        <v>35179.52687968347</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1766.189301707577</v>
+        <v>2063.010270511973</v>
       </c>
       <c r="C7">
-        <v>7662.267738047824</v>
+        <v>7919.946837143161</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9402,22 +9402,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7433.292185217319</v>
+        <v>8682.511046235906</v>
       </c>
       <c r="C8">
-        <v>38905.91400117335</v>
+        <v>40214.30483428423</v>
       </c>
       <c r="D8">
-        <v>250.0155678107226</v>
+        <v>297.03417777006</v>
       </c>
       <c r="E8">
-        <v>19.37668642473191</v>
+        <v>20.35127420591973</v>
       </c>
       <c r="F8">
-        <v>1361.397794166091</v>
+        <v>1407.18107518734</v>
       </c>
       <c r="G8">
-        <v>942.84570397554</v>
+        <v>998.2957107655133</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4396.954900564794</v>
+        <v>5159.42173982437</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>360.5918053146115</v>
+        <v>377.2088861669217</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>40832.01535059734</v>
+        <v>42235.47734603492</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2505.905471413625</v>
+        <v>2891.832747086518</v>
       </c>
       <c r="C7">
-        <v>9192.488345171689</v>
+        <v>9508.448944352904</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9620,22 +9620,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10546.50684360009</v>
+        <v>12170.74395088412</v>
       </c>
       <c r="C8">
-        <v>46675.75882765451</v>
+        <v>48280.07967883838</v>
       </c>
       <c r="D8">
-        <v>351.7563920451834</v>
+        <v>412.7537391859494</v>
       </c>
       <c r="E8">
-        <v>28.84734442516891</v>
+        <v>30.17671089335372</v>
       </c>
       <c r="F8">
-        <v>1633.280614023895</v>
+        <v>1689.419093841398</v>
       </c>
       <c r="G8">
-        <v>1169.839381658531</v>
+        <v>1240.028169143942</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5941.432803200967</v>
+        <v>6813.037934314785</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>494.099531419123</v>
+        <v>512.2132465091308</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>48103.1485475607</v>
+        <v>49805.12176314985</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3393.381016886357</v>
+        <v>3833.615457582117</v>
       </c>
       <c r="C7">
-        <v>10829.43441788859</v>
+        <v>11212.59867793702</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9838,22 +9838,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14281.59063691488</v>
+        <v>16134.38819634042</v>
       </c>
       <c r="C8">
-        <v>54987.51264610151</v>
+        <v>56933.06665953583</v>
       </c>
       <c r="D8">
-        <v>475.3146242560771</v>
+        <v>545.0430347451826</v>
       </c>
       <c r="E8">
-        <v>39.52796251352981</v>
+        <v>40.97705972073044</v>
       </c>
       <c r="F8">
-        <v>1924.12594190243</v>
+        <v>1992.204870525996</v>
       </c>
       <c r="G8">
-        <v>1422.281543477495</v>
+        <v>1504.621413551913</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8490.529993713018</v>
+        <v>9437.633151524105</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>710.3508904986368</v>
+        <v>726.990028819318</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55546.22168277336</v>
+        <v>57589.70569655701</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4853.783872124912</v>
+        <v>5328.928370551686</v>
       </c>
       <c r="C7">
-        <v>12505.08923091271</v>
+        <v>12965.13762232712</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10056,22 +10056,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20427.931304146</v>
+        <v>22427.65346506616</v>
       </c>
       <c r="C8">
-        <v>63495.81388014036</v>
+        <v>65831.75459177454</v>
       </c>
       <c r="D8">
-        <v>679.2423994970411</v>
+        <v>755.010652121928</v>
       </c>
       <c r="E8">
-        <v>56.82807123989091</v>
+        <v>58.15920230554541</v>
       </c>
       <c r="F8">
-        <v>2221.848867310936</v>
+        <v>2303.588227862283</v>
       </c>
       <c r="G8">
-        <v>1735.887310303762</v>
+        <v>1829.40659928788</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11323.40978583107</v>
+        <v>12352.35379562377</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>954.025232249514</v>
+        <v>970.439803697521</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>62793.77761838477</v>
+        <v>65225.9321389786</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6480.314221682336</v>
+        <v>6994.756495876529</v>
       </c>
       <c r="C7">
-        <v>14136.72736821844</v>
+        <v>14684.27692932254</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10274,22 +10274,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27273.44629208911</v>
+        <v>29438.55947266155</v>
       </c>
       <c r="C8">
-        <v>71780.61613728844</v>
+        <v>74560.85259782274</v>
       </c>
       <c r="D8">
-        <v>905.872782866485</v>
+        <v>988.1883036499013</v>
       </c>
       <c r="E8">
-        <v>76.32201857996108</v>
+        <v>77.63518429580165</v>
       </c>
       <c r="F8">
-        <v>2511.751104735393</v>
+        <v>2609.037285559146</v>
       </c>
       <c r="G8">
-        <v>2061.704158990077</v>
+        <v>2167.903342519906</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12309.77868461412</v>
+        <v>13429.11656602706</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1041.849988774919</v>
+        <v>1063.04477635287</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69437.12230784743</v>
+        <v>72310.64793985256</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7049.805555493475</v>
+        <v>7612.976947440447</v>
       </c>
       <c r="C7">
-        <v>15632.33977202673</v>
+        <v>16279.25495989958</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,22 +10492,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29670.24230771134</v>
+        <v>32040.43982994187</v>
       </c>
       <c r="C8">
-        <v>79374.73442588774</v>
+        <v>82659.50957678148</v>
       </c>
       <c r="D8">
-        <v>984.7822947691291</v>
+        <v>1074.329325282165</v>
       </c>
       <c r="E8">
-        <v>83.34799910199349</v>
+        <v>85.0435821082296</v>
       </c>
       <c r="F8">
-        <v>2777.4848923139</v>
+        <v>2892.425917594105</v>
       </c>
       <c r="G8">
-        <v>2268.214532752019</v>
+        <v>2389.223190734002</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.004616260911231912</v>
+        <v>0.00461626091725974</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.001039256188077187</v>
+        <v>0.001039256189434229</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.005276924960184147</v>
+        <v>0.005276924967074658</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0001846504364492766</v>
+        <v>0.0001846504366903898</v>
       </c>
       <c r="G8">
-        <v>0.0001039256188077187</v>
+        <v>0.0001039256189434228</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12259.84214627758</v>
+        <v>13467.34728444974</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1041.024014772998</v>
+        <v>1071.282506278882</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75060.29201942858</v>
+        <v>78435.54455466231</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7024.807656057569</v>
+        <v>7640.168317398338</v>
       </c>
       <c r="C7">
-        <v>16898.28076447582</v>
+        <v>17658.14944413171</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10928,22 +10928,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29565.03462111505</v>
+        <v>32154.87909056809</v>
       </c>
       <c r="C8">
-        <v>85802.67365570812</v>
+        <v>89660.98121080396</v>
       </c>
       <c r="D8">
-        <v>980.7873717022057</v>
+        <v>1077.387782755979</v>
       </c>
       <c r="E8">
-        <v>83.28192118183982</v>
+        <v>85.7026005023105</v>
       </c>
       <c r="F8">
-        <v>3002.411680777146</v>
+        <v>3137.421782186495</v>
       </c>
       <c r="G8">
-        <v>2392.308842053339</v>
+        <v>2529.831776153005</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12035.65470320373</v>
+        <v>13317.64285749732</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1025.689356965716</v>
+        <v>1067.248760333347</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>79281.0715512069</v>
+        <v>83229.01506893107</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6900.269628758375</v>
+        <v>7563.577972482087</v>
       </c>
       <c r="C7">
-        <v>17848.50245498672</v>
+        <v>18737.30072914648</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29040.89627185063</v>
+        <v>31832.53628632924</v>
       </c>
       <c r="C8">
-        <v>90627.51724470094</v>
+        <v>95140.47742842599</v>
       </c>
       <c r="D8">
-        <v>962.8523762562977</v>
+        <v>1065.411428599785</v>
       </c>
       <c r="E8">
-        <v>82.05514855725723</v>
+        <v>85.37990082666772</v>
       </c>
       <c r="F8">
-        <v>3171.242862048279</v>
+        <v>3329.160602757246</v>
       </c>
       <c r="G8">
-        <v>2474.877208374509</v>
+        <v>2630.087870162856</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11600.38482438222</v>
+        <v>12933.0343944571</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>993.97100129054</v>
+        <v>1048.427559572299</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81793.53087383458</v>
+        <v>86399.56526414616</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6656.413495918845</v>
+        <v>7357.852075635825</v>
       </c>
       <c r="C7">
-        <v>18414.13099040593</v>
+        <v>19451.08488765655</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11364,22 +11364,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28014.58845490208</v>
+        <v>30966.70570981875</v>
       </c>
       <c r="C8">
-        <v>93499.55146589559</v>
+        <v>98764.7863191863</v>
       </c>
       <c r="D8">
-        <v>928.0307859505768</v>
+        <v>1034.642751556568</v>
       </c>
       <c r="E8">
-        <v>79.51768010324317</v>
+        <v>83.87420476578386</v>
       </c>
       <c r="F8">
-        <v>3271.741234953386</v>
+        <v>3455.982610565849</v>
       </c>
       <c r="G8">
-        <v>2507.054448632477</v>
+        <v>2680.893696329237</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11080.54497938684</v>
+        <v>12429.0140703867</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>958.9006158032749</v>
+        <v>1028.371078147257</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>82404.79771169745</v>
+        <v>87773.39437505198</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6368.15395512948</v>
+        <v>7093.132818781535</v>
       </c>
       <c r="C7">
-        <v>18551.7451452449</v>
+        <v>19760.37425243131</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11582,22 +11582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26801.40174281391</v>
+        <v>29852.59207468966</v>
       </c>
       <c r="C8">
-        <v>94198.3007991933</v>
+        <v>100335.233325058</v>
       </c>
       <c r="D8">
-        <v>886.4435983509466</v>
+        <v>994.3211256309354</v>
       </c>
       <c r="E8">
-        <v>76.71204926426196</v>
+        <v>82.26968625178053</v>
       </c>
       <c r="F8">
-        <v>3296.191908467901</v>
+        <v>3510.935775002082</v>
       </c>
       <c r="G8">
-        <v>2491.989910037437</v>
+        <v>2685.350707121284</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10727.44202746794</v>
+        <v>12061.023535291</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>943.0074491021328</v>
+        <v>1033.746719583357</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81058.96616192602</v>
+        <v>87318.91387558509</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6180.748191412777</v>
+        <v>6921.056705049658</v>
       </c>
       <c r="C7">
-        <v>18248.75885545215</v>
+        <v>19658.0573166008</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11800,22 +11800,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26012.67439770246</v>
+        <v>29128.38203093666</v>
       </c>
       <c r="C8">
-        <v>92659.85827314097</v>
+        <v>99815.70907422574</v>
       </c>
       <c r="D8">
-        <v>858.1953621974346</v>
+        <v>964.8818828232797</v>
       </c>
       <c r="E8">
-        <v>75.44059592817058</v>
+        <v>82.69973756666852</v>
       </c>
       <c r="F8">
-        <v>3242.358646477043</v>
+        <v>3492.756555023407</v>
       </c>
       <c r="G8">
-        <v>2442.950704686492</v>
+        <v>2657.911402165045</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10146.46234423614</v>
+        <v>11462.21053662897</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>908.1420336841232</v>
+        <v>1033.822195389999</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77843.44503537325</v>
+        <v>85153.35358012511</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5863.170341883132</v>
+        <v>6631.862842854418</v>
       </c>
       <c r="C7">
-        <v>17524.85041679955</v>
+        <v>19170.5259614655</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12018,22 +12018,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24676.0968605016</v>
+        <v>27911.26307670544</v>
       </c>
       <c r="C8">
-        <v>88984.14235954943</v>
+        <v>97340.22092577815</v>
       </c>
       <c r="D8">
-        <v>811.716987538891</v>
+        <v>916.9768429303172</v>
       </c>
       <c r="E8">
-        <v>72.65136269472983</v>
+        <v>82.70577563119984</v>
       </c>
       <c r="F8">
-        <v>3113.737801414933</v>
+        <v>3406.134143205008</v>
       </c>
       <c r="G8">
-        <v>2338.802075868268</v>
+        <v>2580.238880431991</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8667.733951313228</v>
+        <v>9969.561802857774</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>786.2231936468495</v>
+        <v>961.3384783376328</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>72977.04754997452</v>
+        <v>81530.58597840596</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5019.728443838263</v>
+        <v>5834.043136995752</v>
       </c>
       <c r="C7">
-        <v>16429.28112433635</v>
+        <v>18354.93435595387</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12236,22 +12236,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21126.33576560633</v>
+        <v>24553.51032673805</v>
       </c>
       <c r="C8">
-        <v>83421.28210301662</v>
+        <v>93198.97476355535</v>
       </c>
       <c r="D8">
-        <v>693.4187161050579</v>
+        <v>797.5649442286215</v>
       </c>
       <c r="E8">
-        <v>62.89785549174793</v>
+        <v>76.90707826701058</v>
       </c>
       <c r="F8">
-        <v>2919.081901998984</v>
+        <v>3261.223439136241</v>
       </c>
       <c r="G8">
-        <v>2144.900956817461</v>
+        <v>2418.897749294962</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5773.182228373835</v>
+        <v>7059.857673168251</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>528.5406806352869</v>
+        <v>755.8557877412094</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>66783.29603984032</v>
+        <v>76813.4715230702</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3348.572459077408</v>
+        <v>4210.841697667388</v>
       </c>
       <c r="C7">
-        <v>15034.88537676115</v>
+        <v>17292.97306697036</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12454,22 +12454,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14093.00660332907</v>
+        <v>17722.00559373592</v>
       </c>
       <c r="C8">
-        <v>76341.10128795882</v>
+        <v>87806.76243239317</v>
       </c>
       <c r="D8">
-        <v>461.8545782699065</v>
+        <v>564.7886138534599</v>
       </c>
       <c r="E8">
-        <v>42.28325445082293</v>
+        <v>60.46846301929672</v>
       </c>
       <c r="F8">
-        <v>2671.331841593615</v>
+        <v>3072.538860922811</v>
       </c>
       <c r="G8">
-        <v>1838.345783583856</v>
+        <v>2150.381476463775</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2527.45033714613</v>
+        <v>3795.989580793983</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>228.7866204577008</v>
+        <v>494.5447709796341</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>59655.12259423349</v>
+        <v>71436.8080651881</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1463.21930039233</v>
+        <v>2357.434634819601</v>
       </c>
       <c r="C7">
-        <v>13430.12375139248</v>
+        <v>16082.52788692934</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12672,22 +12672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6158.194130351639</v>
+        <v>9921.643411169582</v>
       </c>
       <c r="C8">
-        <v>68192.76714936558</v>
+        <v>81660.60861895187</v>
       </c>
       <c r="D8">
-        <v>202.1960269716903</v>
+        <v>303.6791664635185</v>
       </c>
       <c r="E8">
-        <v>18.30292963661605</v>
+        <v>39.5635816783707</v>
       </c>
       <c r="F8">
-        <v>2386.204903769342</v>
+        <v>2857.472322607527</v>
       </c>
       <c r="G8">
-        <v>1489.33430517848</v>
+        <v>1843.996252174894</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1348.327829255591</v>
+        <v>2595.419473079796</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>105.1280496419555</v>
+        <v>382.5688440998933</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>52017.31951534675</v>
+        <v>65867.2300632234</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>762.6684135409041</v>
+        <v>1658.893612335288</v>
       </c>
       <c r="C7">
-        <v>11710.6294971282</v>
+        <v>14828.65196552356</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12890,22 +12890,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3209.812873854853</v>
+        <v>6981.7209926235</v>
       </c>
       <c r="C8">
-        <v>59461.86686383708</v>
+        <v>75293.93096761935</v>
       </c>
       <c r="D8">
-        <v>107.8662263404472</v>
+        <v>207.6335578463836</v>
       </c>
       <c r="E8">
-        <v>8.410243971356438</v>
+        <v>30.60550752799145</v>
       </c>
       <c r="F8">
-        <v>2080.692780613872</v>
+        <v>2634.689202528938</v>
       </c>
       <c r="G8">
-        <v>1247.329791066911</v>
+        <v>1648.754557785884</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01933498151955688</v>
+        <v>0.01933498186269185</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>2.252277359732212E-12</v>
       </c>
       <c r="C7">
-        <v>0.004352873370234871</v>
+        <v>0.004352873447484651</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13111,7 +13111,7 @@
         <v>9.479072079563101E-12</v>
       </c>
       <c r="C8">
-        <v>0.02210214035714481</v>
+        <v>0.02210214074938813</v>
       </c>
       <c r="D8">
         <v>3.71231159062503E-13</v>
@@ -13120,10 +13120,10 @@
         <v>8.011493211564849E-16</v>
       </c>
       <c r="F8">
-        <v>0.0007733992607822759</v>
+        <v>0.0007733992745076748</v>
       </c>
       <c r="G8">
-        <v>0.0004352873372487147</v>
+        <v>0.0004352873449736928</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1267.10438357148</v>
+        <v>2512.600065014099</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>90.38375092083413</v>
+        <v>354.9208208005633</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>44290.91134170489</v>
+        <v>60564.23326538214</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>707.8183738815724</v>
+        <v>1589.608853754669</v>
       </c>
       <c r="C7">
-        <v>9971.18762837893</v>
+        <v>13634.79131867392</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13326,22 +13326,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2978.967646356088</v>
+        <v>6690.124925308368</v>
       </c>
       <c r="C8">
-        <v>50629.68061438588</v>
+        <v>69231.98674383904</v>
       </c>
       <c r="D8">
-        <v>101.3683506857183</v>
+        <v>201.0080052011278</v>
       </c>
       <c r="E8">
-        <v>7.230700073666727</v>
+        <v>28.39366566404505</v>
       </c>
       <c r="F8">
-        <v>1771.636453668197</v>
+        <v>2422.569330615288</v>
       </c>
       <c r="G8">
-        <v>1067.90060022605</v>
+        <v>1522.440017242859</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1182.420683152194</v>
+        <v>2498.044341683671</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>76.94222847744643</v>
+        <v>322.2343708294619</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>36860.95166392533</v>
+        <v>55943.95150860111</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>652.676267736669</v>
+        <v>1547.965638867484</v>
       </c>
       <c r="C7">
-        <v>8298.485040553198</v>
+        <v>12594.62991992979</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13544,22 +13544,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2746.893210004871</v>
+        <v>6514.862747302328</v>
       </c>
       <c r="C8">
-        <v>42136.36959259321</v>
+        <v>63950.46548794128</v>
       </c>
       <c r="D8">
-        <v>94.59365465217549</v>
+        <v>199.8435473346936</v>
       </c>
       <c r="E8">
-        <v>6.155378278195712</v>
+        <v>25.77874966635693</v>
       </c>
       <c r="F8">
-        <v>1474.438066557015</v>
+        <v>2237.758060344046</v>
       </c>
       <c r="G8">
-        <v>895.1161308289866</v>
+        <v>1414.259555879727</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>988.4889972598594</v>
+        <v>2527.274780418645</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51.01135740331462</v>
+        <v>276.6832098168301</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30048.0035894881</v>
+        <v>52346.19904280597</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>531.5338295194813</v>
+        <v>1513.852152515416</v>
       </c>
       <c r="C7">
-        <v>6764.68992334481</v>
+        <v>11784.66995771228</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13762,22 +13762,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2237.045744375117</v>
+        <v>6371.290644772783</v>
       </c>
       <c r="C8">
-        <v>34348.37484148148</v>
+        <v>59837.81454545977</v>
       </c>
       <c r="D8">
-        <v>79.07911978078872</v>
+        <v>202.1819824334915</v>
       </c>
       <c r="E8">
-        <v>4.080908592265168</v>
+        <v>22.13465678534639</v>
       </c>
       <c r="F8">
-        <v>1201.920143579525</v>
+        <v>2093.84796171224</v>
       </c>
       <c r="G8">
-        <v>729.622375286429</v>
+        <v>1329.85221102277</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>816.4706355518693</v>
+        <v>2816.154808689741</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34.31351156971914</v>
+        <v>246.0397375126656</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>24084.55697257362</v>
+        <v>50006.39714354408</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>430.7540936548222</v>
+        <v>1620.955582568947</v>
       </c>
       <c r="C7">
-        <v>5422.142585126346</v>
+        <v>11257.91168961566</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13980,22 +13980,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1812.897991749297</v>
+        <v>6822.052683053261</v>
       </c>
       <c r="C8">
-        <v>27531.45939700243</v>
+        <v>57163.14790907886</v>
       </c>
       <c r="D8">
-        <v>65.31765084414951</v>
+        <v>225.2923846951791</v>
       </c>
       <c r="E8">
-        <v>2.74508092557753</v>
+        <v>19.68317900101324</v>
       </c>
       <c r="F8">
-        <v>963.3822789029455</v>
+        <v>2000.255885741765</v>
       </c>
       <c r="G8">
-        <v>585.2896678781167</v>
+        <v>1287.88672721846</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>978.3844501791261</v>
+        <v>3731.50204505992</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55.68655307716504</v>
+        <v>279.4787646515996</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>19099.85857180263</v>
+        <v>49036.31761622344</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>531.6030993413274</v>
+        <v>2098.548861603945</v>
       </c>
       <c r="C7">
-        <v>4299.94027500665</v>
+        <v>11039.51823849118</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,22 +14198,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2237.337277578779</v>
+        <v>8832.080931628254</v>
       </c>
       <c r="C8">
-        <v>21833.36738794421</v>
+        <v>56054.23379665799</v>
       </c>
       <c r="D8">
-        <v>78.27075601433005</v>
+        <v>298.5201636047935</v>
       </c>
       <c r="E8">
-        <v>4.454924246173201</v>
+        <v>22.35830117212796</v>
       </c>
       <c r="F8">
-        <v>763.994342872106</v>
+        <v>1961.452704648939</v>
       </c>
       <c r="G8">
-        <v>483.1543374347977</v>
+        <v>1313.806710009512</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1310.906299377973</v>
+        <v>5134.211300589217</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>101.5922771621226</v>
+        <v>377.1164181734899</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15117.7408978715</v>
+        <v>49418.73874199604</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>740.8468442509214</v>
+        <v>2879.556207494657</v>
       </c>
       <c r="C7">
-        <v>3403.448392536328</v>
+        <v>11125.61248858948</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14416,22 +14416,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3117.9732843411</v>
+        <v>12119.07615642887</v>
       </c>
       <c r="C8">
-        <v>17281.34215539514</v>
+        <v>56491.38577370095</v>
       </c>
       <c r="D8">
-        <v>104.8725039502378</v>
+        <v>410.7369040471372</v>
       </c>
       <c r="E8">
-        <v>8.127382172969803</v>
+        <v>30.16931345387918</v>
       </c>
       <c r="F8">
-        <v>604.7096359148608</v>
+        <v>1976.749549679843</v>
       </c>
       <c r="G8">
-        <v>414.4295236787249</v>
+        <v>1400.516869608414</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1655.648861765316</v>
+        <v>6858.278183081429</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>142.5551381483433</v>
+        <v>516.4565852435808</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12070.17045479519</v>
+        <v>51019.24493772142</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>950.7601612148396</v>
+        <v>3859.963324484526</v>
       </c>
       <c r="C7">
-        <v>2717.350595537461</v>
+        <v>11485.93353628338</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14634,22 +14634,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4001.427292952958</v>
+        <v>16245.27743848082</v>
       </c>
       <c r="C8">
-        <v>13797.61347362589</v>
+        <v>58320.95114176824</v>
       </c>
       <c r="D8">
-        <v>132.4519089412252</v>
+        <v>548.662254646514</v>
       </c>
       <c r="E8">
-        <v>11.40441105186746</v>
+        <v>41.31652681948644</v>
       </c>
       <c r="F8">
-        <v>482.806818191808</v>
+        <v>2040.769797508859</v>
       </c>
       <c r="G8">
-        <v>366.81107567523</v>
+        <v>1534.58968607679</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1993.187005312728</v>
+        <v>8884.563304645586</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>171.8986756491919</v>
+        <v>683.7844220042994</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9824.575490198971</v>
+        <v>53613.67870224098</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1144.889484884692</v>
+        <v>5016.001745542113</v>
       </c>
       <c r="C7">
-        <v>2211.801080952333</v>
+        <v>12070.01693108738</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14852,22 +14852,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4818.451823200938</v>
+        <v>21110.65135550678</v>
       </c>
       <c r="C8">
-        <v>11230.63635794563</v>
+        <v>61286.69171683556</v>
       </c>
       <c r="D8">
-        <v>159.4549604250182</v>
+        <v>710.7650643716465</v>
       </c>
       <c r="E8">
-        <v>13.75189405193534</v>
+        <v>54.70275376034392</v>
       </c>
       <c r="F8">
-        <v>392.9830196079592</v>
+        <v>2144.547148089641</v>
       </c>
       <c r="G8">
-        <v>335.6690565837025</v>
+        <v>1708.601867662949</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2103.236651709548</v>
+        <v>10999.5615651346</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>180.5945629368486</v>
+        <v>859.6179430635256</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8218.058891910507</v>
+        <v>56924.67072448721</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1207.260189089255</v>
+        <v>6223.902253485432</v>
       </c>
       <c r="C7">
-        <v>1850.126914754815</v>
+        <v>12815.41867807731</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15070,22 +15070,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5080.94897891468</v>
+        <v>26194.29521946541</v>
       </c>
       <c r="C8">
-        <v>9394.200398307425</v>
+        <v>65071.54200609253</v>
       </c>
       <c r="D8">
-        <v>168.2589321367638</v>
+        <v>879.9649252107675</v>
       </c>
       <c r="E8">
-        <v>14.44756503494788</v>
+        <v>68.76943544508201</v>
       </c>
       <c r="F8">
-        <v>328.7223556764205</v>
+        <v>2276.98682897949</v>
       </c>
       <c r="G8">
-        <v>305.7387103844069</v>
+        <v>1903.932093156274</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1608.086728549163</v>
+        <v>12603.60785734841</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>139.2949739271109</v>
+        <v>995.6262767684481</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7089.351318698637</v>
+        <v>60658.23459946867</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>924.3317241731477</v>
+        <v>7142.801908391312</v>
       </c>
       <c r="C7">
-        <v>1596.021622063075</v>
+        <v>13655.95378544421</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15288,22 +15288,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3890.198958402645</v>
+        <v>30061.63243932457</v>
       </c>
       <c r="C8">
-        <v>8103.955916818375</v>
+        <v>69339.4412390832</v>
       </c>
       <c r="D8">
-        <v>128.646938283933</v>
+        <v>1008.288628587872</v>
       </c>
       <c r="E8">
-        <v>11.14359791416886</v>
+        <v>79.6501021414758</v>
       </c>
       <c r="F8">
-        <v>283.5740527479458</v>
+        <v>2426.329383978749</v>
       </c>
       <c r="G8">
-        <v>252.0353346236223</v>
+        <v>2079.875569383551</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06344029034685197</v>
+        <v>0.06344029754778174</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>2.025790847196566E-10</v>
       </c>
       <c r="C7">
-        <v>0.01428227641032206</v>
+        <v>0.01428227803146328</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15509,7 +15509,7 @@
         <v>8.525867107672114E-10</v>
       </c>
       <c r="C8">
-        <v>0.07251965563690262</v>
+        <v>0.07251966386840573</v>
       </c>
       <c r="D8">
         <v>3.336036138197792E-11</v>
@@ -15518,10 +15518,10 @@
         <v>8.560585027000757E-14</v>
       </c>
       <c r="F8">
-        <v>0.002537611613874081</v>
+        <v>0.002537611901911272</v>
       </c>
       <c r="G8">
-        <v>0.001428227661290114</v>
+        <v>0.001428227823404236</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>717.0948343694647</v>
+        <v>13276.63148386074</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63.62557067701342</v>
+        <v>1057.103010269682</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6301.201747083934</v>
+        <v>64533.01963588775</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>413.7862801129608</v>
+        <v>7533.022926333525</v>
       </c>
       <c r="C7">
-        <v>1418.585958182374</v>
+        <v>14528.28193240174</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15724,22 +15724,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1741.48621517529</v>
+        <v>31703.94045261229</v>
       </c>
       <c r="C8">
-        <v>7203.008975822749</v>
+        <v>73768.77274074897</v>
       </c>
       <c r="D8">
-        <v>57.36758674955715</v>
+        <v>1062.130518708859</v>
       </c>
       <c r="E8">
-        <v>5.090045654161071</v>
+        <v>84.56824082157453</v>
       </c>
       <c r="F8">
-        <v>252.0480698833576</v>
+        <v>2581.320785435512</v>
       </c>
       <c r="G8">
-        <v>183.2372238295335</v>
+        <v>2206.130485873526</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>145.835975217786</v>
+        <v>13283.5450724914</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.0149775083042</v>
+        <v>1066.734105249272</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5750.620511800358</v>
+        <v>68299.27457626062</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>85.29069646957231</v>
+        <v>7546.561092197806</v>
       </c>
       <c r="C7">
-        <v>1294.633918466547</v>
+        <v>15376.17676068913</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15942,22 +15942,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>358.9596352588384</v>
+        <v>31760.91800446578</v>
       </c>
       <c r="C8">
-        <v>6573.630368559066</v>
+        <v>78074.04167667807</v>
       </c>
       <c r="D8">
-        <v>11.66687801742287</v>
+        <v>1062.683605799311</v>
       </c>
       <c r="E8">
-        <v>1.121198200664335</v>
+        <v>85.33872841994176</v>
       </c>
       <c r="F8">
-        <v>230.0248204720145</v>
+        <v>2731.970983050427</v>
       </c>
       <c r="G8">
-        <v>137.992461493612</v>
+        <v>2292.273785288693</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.225880505129617</v>
+        <v>13001.64704458938</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.036467779734037</v>
+        <v>1057.567780922161</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5369.019237349588</v>
+        <v>71748.95131610282</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.58818359749019</v>
+        <v>7400.67595601876</v>
       </c>
       <c r="C7">
-        <v>1208.724241029084</v>
+        <v>16152.80051911318</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16160,22 +16160,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.31010976376803</v>
+        <v>31146.93690875274</v>
       </c>
       <c r="C8">
-        <v>6137.415577257339</v>
+        <v>82017.42478328457</v>
       </c>
       <c r="D8">
-        <v>0.5780704404103691</v>
+        <v>1040.13176356715</v>
       </c>
       <c r="E8">
-        <v>0.08291742237872289</v>
+        <v>84.60542247377285</v>
       </c>
       <c r="F8">
-        <v>214.7607694939837</v>
+        <v>2869.958052644115</v>
       </c>
       <c r="G8">
-        <v>121.3312424626574</v>
+        <v>2355.347647513193</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5369452760730531</v>
+        <v>12560.367583845</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05009421306773183</v>
+        <v>1042.624882614264</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5116.494478081933</v>
+        <v>74720.36538352944</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3124315284886769</v>
+        <v>7171.680240644715</v>
       </c>
       <c r="C7">
-        <v>1151.873485892374</v>
+        <v>16821.75327466456</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,22 +16378,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.314918416097901</v>
+        <v>30183.17155251803</v>
       </c>
       <c r="C8">
-        <v>5848.750306626358</v>
+        <v>85414.09783989079</v>
       </c>
       <c r="D8">
-        <v>0.04295562208584423</v>
+        <v>1004.8294067076</v>
       </c>
       <c r="E8">
-        <v>0.004007537045418544</v>
+        <v>83.40999060914109</v>
       </c>
       <c r="F8">
-        <v>204.6597791232775</v>
+        <v>2988.81461534118</v>
       </c>
       <c r="G8">
-        <v>115.2185917420862</v>
+        <v>2399.343351530927</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.885627988373754</v>
+        <v>11982.45017899966</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1124263210778847</v>
+        <v>1025.757711983386</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4973.971359271181</v>
+        <v>77100.15650107306</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.029954790388049</v>
+        <v>6874.640039352498</v>
       </c>
       <c r="C7">
-        <v>1119.787337380329</v>
+        <v>17357.51429268256</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16596,22 +16596,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.334730647001848</v>
+        <v>28933.03001625909</v>
       </c>
       <c r="C8">
-        <v>5685.829748729416</v>
+        <v>88134.47681969138</v>
       </c>
       <c r="D8">
-        <v>0.1508502390699002</v>
+        <v>958.5960143199724</v>
       </c>
       <c r="E8">
-        <v>0.008994105686230776</v>
+        <v>82.06061695867081</v>
       </c>
       <c r="F8">
-        <v>198.9588543708474</v>
+        <v>3084.006260042925</v>
       </c>
       <c r="G8">
-        <v>112.0817292170717</v>
+        <v>2423.215433203506</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.121859372266933</v>
+        <v>11174.83507065317</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4334871738560532</v>
+        <v>998.4278592181424</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4935.171119752373</v>
+        <v>78823.49942882982</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.899437530466027</v>
+        <v>6455.558852624439</v>
       </c>
       <c r="C7">
-        <v>1111.052261570232</v>
+        <v>17745.4895038524</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16814,22 +16814,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.41141099310957</v>
+        <v>27169.259333657</v>
       </c>
       <c r="C8">
-        <v>5641.476546794976</v>
+        <v>90104.4589080759</v>
       </c>
       <c r="D8">
-        <v>0.5697487497813544</v>
+        <v>893.9868056522536</v>
       </c>
       <c r="E8">
-        <v>0.03467897390848424</v>
+        <v>79.87422873745136</v>
       </c>
       <c r="F8">
-        <v>197.4068447900951</v>
+        <v>3152.939977153196</v>
       </c>
       <c r="G8">
-        <v>111.4951699100697</v>
+        <v>2420.104835647684</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.66853778425559</v>
+        <v>9914.584118670226</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.531093138519216</v>
+        <v>936.0239694338742</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4999.117907979485</v>
+        <v>79872.35017215043</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.53811756840589</v>
+        <v>5780.679077704609</v>
       </c>
       <c r="C7">
-        <v>1125.448565559677</v>
+        <v>17981.61667394219</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17032,22 +17032,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>56.97734859252719</v>
+        <v>24328.91908698995</v>
       </c>
       <c r="C8">
-        <v>5714.575188619623</v>
+        <v>91303.41771334397</v>
       </c>
       <c r="D8">
-        <v>1.973483022740447</v>
+        <v>793.1667294936176</v>
       </c>
       <c r="E8">
-        <v>0.1224874510815372</v>
+        <v>74.8819175547099</v>
       </c>
       <c r="F8">
-        <v>199.9647163191796</v>
+        <v>3194.89400688602</v>
       </c>
       <c r="G8">
-        <v>113.8986683128083</v>
+        <v>2376.22957516468</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>78.28509624999683</v>
+        <v>8150.10830153501</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.960711672684015</v>
+        <v>824.0483068639775</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5163.682240021843</v>
+        <v>80271.50918412725</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>43.07075330709099</v>
+        <v>4809.727518287222</v>
       </c>
       <c r="C7">
-        <v>1162.496839844973</v>
+        <v>18071.47911482251</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17250,22 +17250,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>181.2702034031628</v>
+        <v>20242.51304214302</v>
       </c>
       <c r="C8">
-        <v>5902.691425550133</v>
+        <v>91759.70304770583</v>
       </c>
       <c r="D8">
-        <v>6.262807699999743</v>
+        <v>652.0086641228004</v>
       </c>
       <c r="E8">
-        <v>0.396856933814721</v>
+        <v>65.92386454911816</v>
       </c>
       <c r="F8">
-        <v>206.5472896008739</v>
+        <v>3210.860367365093</v>
       </c>
       <c r="G8">
-        <v>120.5567593152063</v>
+        <v>2288.120663310972</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>223.4392788532393</v>
+        <v>6321.941357348996</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.55114151115731</v>
+        <v>690.1772360403457</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5420.952896135059</v>
+        <v>80082.90773233175</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>123.3469403530638</v>
+        <v>3784.823104160212</v>
       </c>
       <c r="C7">
-        <v>1220.416036033774</v>
+        <v>18029.01937746626</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17468,22 +17468,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>519.1254679837826</v>
+        <v>15929.03771718241</v>
       </c>
       <c r="C8">
-        <v>6196.781810143339</v>
+        <v>91544.10957765624</v>
       </c>
       <c r="D8">
-        <v>17.87514230825914</v>
+        <v>505.7553085879194</v>
       </c>
       <c r="E8">
-        <v>1.164091320892584</v>
+        <v>55.21417888322763</v>
       </c>
       <c r="F8">
-        <v>216.8381158454025</v>
+        <v>3203.316309293273</v>
       </c>
       <c r="G8">
-        <v>134.3762976386838</v>
+        <v>2181.384248162647</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>544.515678819028</v>
+        <v>5052.501228680173</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37.06438853527512</v>
+        <v>583.2575829011912</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5755.255735876704</v>
+        <v>79398.9538408401</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>302.2913578484477</v>
+        <v>3058.366528138361</v>
       </c>
       <c r="C7">
-        <v>1295.677443821179</v>
+        <v>17875.04122766916</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17686,22 +17686,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1272.24187451546</v>
+        <v>12871.62819475908</v>
       </c>
       <c r="C8">
-        <v>6578.928970630062</v>
+        <v>90762.2704591511</v>
       </c>
       <c r="D8">
-        <v>43.56125430552222</v>
+        <v>404.2000982944136</v>
       </c>
       <c r="E8">
-        <v>2.965151082822008</v>
+        <v>46.66060663209527</v>
       </c>
       <c r="F8">
-        <v>230.2102294350684</v>
+        <v>3175.958153633607</v>
       </c>
       <c r="G8">
-        <v>159.7968801669626</v>
+        <v>2093.340775580752</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1801385878788032</v>
+        <v>0.180138662822133</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17881,7 +17881,7 @@
         <v>8.03034306605179E-09</v>
       </c>
       <c r="C7">
-        <v>0.04055449762577931</v>
+        <v>0.04055451449772844</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17907,7 +17907,7 @@
         <v>3.379699237210071E-08</v>
       </c>
       <c r="C8">
-        <v>0.2059194289380639</v>
+        <v>0.2059195146070361</v>
       </c>
       <c r="D8">
         <v>1.320928780739393E-09</v>
@@ -17916,10 +17916,10 @@
         <v>4.07492467839335E-12</v>
       </c>
       <c r="F8">
-        <v>0.007205543515152134</v>
+        <v>0.007205546512885326</v>
       </c>
       <c r="G8">
-        <v>0.004055450565612237</v>
+        <v>0.00405545225280715</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1034.570668906913</v>
+        <v>4420.971633762016</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75.54663257896898</v>
+        <v>513.0090389473991</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6144.115802209349</v>
+        <v>78335.66229142107</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>579.7752849902961</v>
+        <v>2678.901928536949</v>
       </c>
       <c r="C7">
-        <v>1383.221288938127</v>
+        <v>17635.66300713244</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18122,22 +18122,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2440.07768076383</v>
+        <v>11274.59030077075</v>
       </c>
       <c r="C8">
-        <v>7023.441408186803</v>
+        <v>89546.80412720478</v>
       </c>
       <c r="D8">
-        <v>82.76565351255299</v>
+        <v>353.6777307009611</v>
       </c>
       <c r="E8">
-        <v>6.043730606317515</v>
+        <v>41.04072311579191</v>
       </c>
       <c r="F8">
-        <v>245.7646320883742</v>
+        <v>3133.426491656846</v>
       </c>
       <c r="G8">
-        <v>196.2996573928422</v>
+        <v>2031.456493566939</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1427.159225134681</v>
+        <v>4261.004744960817</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>111.9097769206611</v>
+        <v>470.3092314971579</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6561.643320631009</v>
+        <v>77025.81701913598</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>807.9313444991776</v>
+        <v>2556.410545925928</v>
       </c>
       <c r="C7">
-        <v>1477.219021205913</v>
+        <v>17340.77828748113</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18340,22 +18340,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3400.309210032905</v>
+        <v>10759.06558536302</v>
       </c>
       <c r="C8">
-        <v>7500.724089103344</v>
+        <v>88049.49811608164</v>
       </c>
       <c r="D8">
-        <v>114.1727380107744</v>
+        <v>340.8803795968652</v>
       </c>
       <c r="E8">
-        <v>8.952782153652883</v>
+        <v>37.62473851977261</v>
       </c>
       <c r="F8">
-        <v>262.4657328252406</v>
+        <v>3081.032680765442</v>
       </c>
       <c r="G8">
-        <v>228.515036570509</v>
+        <v>1989.718883340705</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1496.240586303195</v>
+        <v>4334.196945720108</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>120.9894350321853</v>
+        <v>437.5643598009228</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6983.089345528329</v>
+        <v>75611.8856955587</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>850.9175188191518</v>
+        <v>2557.094618271842</v>
       </c>
       <c r="C7">
-        <v>1572.098924603355</v>
+        <v>17022.46073442243</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18558,22 +18558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3581.223449144267</v>
+        <v>10761.94461402552</v>
       </c>
       <c r="C8">
-        <v>7982.486080229094</v>
+        <v>86433.20960101587</v>
       </c>
       <c r="D8">
-        <v>119.6992469042556</v>
+        <v>346.7357556576084</v>
       </c>
       <c r="E8">
-        <v>9.679154802574818</v>
+        <v>35.0051487840738</v>
       </c>
       <c r="F8">
-        <v>279.3235738211334</v>
+        <v>3024.47542782235</v>
       </c>
       <c r="G8">
-        <v>242.3016443422506</v>
+        <v>1957.955535269427</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1466.411861206614</v>
+        <v>4638.93395702123</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>121.7771691609123</v>
+        <v>418.7960982071846</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7388.99063410016</v>
+        <v>74238.13199715821</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>837.3420291797779</v>
+        <v>2684.432869545991</v>
       </c>
       <c r="C7">
-        <v>1663.479250370992</v>
+        <v>16713.18834722203</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18776,22 +18776,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3524.08881417094</v>
+        <v>11297.86815696638</v>
       </c>
       <c r="C8">
-        <v>8446.478623593375</v>
+        <v>84862.84880043878</v>
       </c>
       <c r="D8">
-        <v>117.312948896529</v>
+        <v>371.1147165616982</v>
       </c>
       <c r="E8">
-        <v>9.742173532872981</v>
+        <v>33.50368785657475</v>
       </c>
       <c r="F8">
-        <v>295.5596253640066</v>
+        <v>2969.525279886331</v>
       </c>
       <c r="G8">
-        <v>250.0821279550769</v>
+        <v>1939.762121676801</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1557.611883173055</v>
+        <v>5361.184360942375</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>135.4741212173314</v>
+        <v>438.707960364384</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7767.530892463303</v>
+        <v>73041.50909035264</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>895.9025054439918</v>
+        <v>3054.421284624671</v>
       </c>
       <c r="C7">
-        <v>1748.699803001161</v>
+        <v>16443.79331418419</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,22 +18994,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3770.550011822027</v>
+        <v>12855.02400190686</v>
       </c>
       <c r="C8">
-        <v>8879.194316272444</v>
+        <v>83494.96916662378</v>
       </c>
       <c r="D8">
-        <v>124.6089506538443</v>
+        <v>428.8947488753898</v>
       </c>
       <c r="E8">
-        <v>10.83792969738651</v>
+        <v>35.0966368291507</v>
       </c>
       <c r="F8">
-        <v>310.7012356985324</v>
+        <v>2921.660363614109</v>
       </c>
       <c r="G8">
-        <v>264.4602308445152</v>
+        <v>1949.821459880885</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1702.566232827005</v>
+        <v>6548.486353300077</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>153.3148548186402</v>
+        <v>510.0274584315442</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8114.440413104292</v>
+        <v>72141.49162466929</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>984.8183974544183</v>
+        <v>3703.501703996219</v>
       </c>
       <c r="C7">
-        <v>1826.79934567472</v>
+        <v>16241.17289506681</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19212,22 +19212,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4144.766866484053</v>
+        <v>15586.78350482504</v>
       </c>
       <c r="C8">
-        <v>9275.752384284122</v>
+        <v>82466.14416721561</v>
       </c>
       <c r="D8">
-        <v>136.2052986261603</v>
+        <v>523.8789082640059</v>
       </c>
       <c r="E8">
-        <v>12.26518838549121</v>
+        <v>40.80219667452351</v>
       </c>
       <c r="F8">
-        <v>324.577616524172</v>
+        <v>2885.659664986774</v>
       </c>
       <c r="G8">
-        <v>281.1617743129138</v>
+        <v>1994.467459906303</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1745.524174425464</v>
+        <v>8088.396678730863</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>158.0038155239685</v>
+        <v>625.0318012403808</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8430.715122421851</v>
+        <v>71629.85073226664</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1010.535599204317</v>
+        <v>4569.177532729751</v>
       </c>
       <c r="C7">
-        <v>1898.002090734221</v>
+        <v>16125.98747255115</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19430,22 +19430,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4253.001852738564</v>
+        <v>19230.11967860619</v>
       </c>
       <c r="C8">
-        <v>9637.29128773129</v>
+        <v>81881.27891637996</v>
       </c>
       <c r="D8">
-        <v>139.6419339540371</v>
+        <v>647.0717342984686</v>
       </c>
       <c r="E8">
-        <v>12.64030524191747</v>
+        <v>50.00254409923044</v>
       </c>
       <c r="F8">
-        <v>337.2286048968743</v>
+        <v>2865.194029290668</v>
       </c>
       <c r="G8">
-        <v>290.8537689938538</v>
+        <v>2069.516500528089</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1636.195731577282</v>
+        <v>9818.906598687454</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>144.5606601756882</v>
+        <v>765.033306026569</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8719.246152879812</v>
+        <v>71562.0895493061</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>943.4864147270043</v>
+        <v>5553.397433624996</v>
       </c>
       <c r="C7">
-        <v>1962.958917183553</v>
+        <v>16110.73243604924</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19648,22 +19648,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3970.81455915766</v>
+        <v>23372.36767591134</v>
       </c>
       <c r="C8">
-        <v>9967.115928428419</v>
+        <v>81803.8199762178</v>
       </c>
       <c r="D8">
-        <v>130.8956585261824</v>
+        <v>785.512527894996</v>
       </c>
       <c r="E8">
-        <v>11.56485281405505</v>
+        <v>61.20266448212549</v>
       </c>
       <c r="F8">
-        <v>348.7698461151928</v>
+        <v>2862.483581972247</v>
       </c>
       <c r="G8">
-        <v>290.6445331910556</v>
+        <v>2166.412986967423</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1396.816947190987</v>
+        <v>11560.91761247906</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>119.6608245059713</v>
+        <v>909.8885248694955</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8981.771420996391</v>
+        <v>71952.43705151901</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>801.4812154380735</v>
+        <v>6548.312861465274</v>
       </c>
       <c r="C7">
-        <v>2022.061081177998</v>
+        <v>16198.6111467582</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19866,22 +19866,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3373.162802851527</v>
+        <v>27559.62952126802</v>
       </c>
       <c r="C8">
-        <v>10267.21294777859</v>
+        <v>82250.03272657622</v>
       </c>
       <c r="D8">
-        <v>111.7453557752789</v>
+        <v>924.8734089983244</v>
       </c>
       <c r="E8">
-        <v>9.572865960477699</v>
+        <v>72.7910819895596</v>
       </c>
       <c r="F8">
-        <v>359.2708568398559</v>
+        <v>2878.097482060763</v>
       </c>
       <c r="G8">
-        <v>282.3542296616071</v>
+        <v>2274.692400822347</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1081.517517446919</v>
+        <v>13066.75947595142</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>91.34412965083594</v>
+        <v>1037.574721260739</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9217.246893208439</v>
+        <v>72773.7289968409</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>619.1822627737866</v>
+        <v>7410.959747633975</v>
       </c>
       <c r="C7">
-        <v>2075.073540036495</v>
+        <v>16383.50813434332</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20084,22 +20084,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2605.928294691708</v>
+        <v>31190.21790234379</v>
       </c>
       <c r="C8">
-        <v>10536.38889357566</v>
+        <v>83188.86526858489</v>
       </c>
       <c r="D8">
-        <v>86.5214013957535</v>
+        <v>1045.340758076113</v>
       </c>
       <c r="E8">
-        <v>7.307530372066871</v>
+        <v>83.00597770085909</v>
       </c>
       <c r="F8">
-        <v>368.6898757283379</v>
+        <v>2910.949159873639</v>
       </c>
       <c r="G8">
-        <v>269.4255802810281</v>
+        <v>2379.446788197729</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.454143369969941</v>
+        <v>0.4541438748303439</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         <v>1.806759869454215E-07</v>
       </c>
       <c r="C7">
-        <v>0.1022410380589898</v>
+        <v>0.1022411517179245</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20305,7 +20305,7 @@
         <v>7.604039954943558E-07</v>
       </c>
       <c r="C8">
-        <v>0.5191388724726549</v>
+        <v>0.5191394495870149</v>
       </c>
       <c r="D8">
         <v>2.967403802875652E-08</v>
@@ -20314,10 +20314,10 @@
         <v>1.125549114474083E-10</v>
       </c>
       <c r="F8">
-        <v>0.01816573479879766</v>
+        <v>0.01816575499321377</v>
       </c>
       <c r="G8">
-        <v>0.01022412187349767</v>
+        <v>0.01022413323939114</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>801.514513102961</v>
+        <v>14027.63371191361</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67.44303311084747</v>
+        <v>1122.950533082197</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9421.97680888385</v>
+        <v>73962.36271285907</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>458.6099336345468</v>
+        <v>7965.54196821544</v>
       </c>
       <c r="C7">
-        <v>2121.1642692742</v>
+        <v>16651.10456541234</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20520,22 +20520,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1930.133781499446</v>
+        <v>33524.26651328436</v>
       </c>
       <c r="C8">
-        <v>10770.41908010506</v>
+        <v>84547.612324955</v>
       </c>
       <c r="D8">
-        <v>64.12116104823684</v>
+        <v>1122.210696953088</v>
       </c>
       <c r="E8">
-        <v>5.395442648867794</v>
+        <v>89.83604264657572</v>
       </c>
       <c r="F8">
-        <v>376.8790723553543</v>
+        <v>2958.494508514365</v>
       </c>
       <c r="G8">
-        <v>257.9774202908746</v>
+        <v>2461.664653362777</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>743.5612510043752</v>
+        <v>14345.81248629012</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62.14905246887289</v>
+        <v>1158.707558259048</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9591.064097658125</v>
+        <v>75427.30204353422</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>425.0081573662048</v>
+        <v>8157.11043061366</v>
       </c>
       <c r="C7">
-        <v>2159.230794230859</v>
+        <v>16980.90552203884</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20738,22 +20738,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1788.715293286769</v>
+        <v>34330.5132463509</v>
       </c>
       <c r="C8">
-        <v>10963.70558442978</v>
+        <v>86222.20894500008</v>
       </c>
       <c r="D8">
-        <v>59.48490008034999</v>
+        <v>1147.664998903209</v>
       </c>
       <c r="E8">
-        <v>4.971924197509829</v>
+        <v>92.69660466072378</v>
       </c>
       <c r="F8">
-        <v>383.6425639063253</v>
+        <v>3017.092081741371</v>
       </c>
       <c r="G8">
-        <v>258.4238951597063</v>
+        <v>2513.801595265249</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>907.5150945406376</v>
+        <v>14178.87862166807</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75.74565102074585</v>
+        <v>1159.078893398214</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9720.293063752415</v>
+        <v>77061.31062835292</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>518.6081883207686</v>
+        <v>8076.861448770861</v>
       </c>
       <c r="C7">
-        <v>2188.324037718361</v>
+        <v>17348.76894349586</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20956,22 +20956,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2182.646101246025</v>
+        <v>33992.77247925022</v>
       </c>
       <c r="C8">
-        <v>11111.42937428371</v>
+        <v>88090.07145368222</v>
       </c>
       <c r="D8">
-        <v>72.60120756325097</v>
+        <v>1134.310289733445</v>
       </c>
       <c r="E8">
-        <v>6.059652081659666</v>
+        <v>92.7263114718571</v>
       </c>
       <c r="F8">
-        <v>388.8117225500969</v>
+        <v>3082.452425134119</v>
       </c>
       <c r="G8">
-        <v>270.6932226039129</v>
+        <v>2542.563039226672</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1081.807588189622</v>
+        <v>13731.02784943672</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>90.67005844129919</v>
+        <v>1142.428103382623</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9807.598031251762</v>
+        <v>78752.46933179782</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>618.6086163006978</v>
+        <v>7842.882787870549</v>
       </c>
       <c r="C7">
-        <v>2207.978955295228</v>
+        <v>17729.49853858859</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21174,22 +21174,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2603.5140111031</v>
+        <v>33008.03559408373</v>
       </c>
       <c r="C8">
-        <v>11211.22914102229</v>
+        <v>90023.26321763292</v>
       </c>
       <c r="D8">
-        <v>86.54460705516971</v>
+        <v>1098.482227954937</v>
       </c>
       <c r="E8">
-        <v>7.253604675303931</v>
+        <v>91.39424827060981</v>
       </c>
       <c r="F8">
-        <v>392.3039212500709</v>
+        <v>3150.098773271916</v>
       </c>
       <c r="G8">
-        <v>282.6587571595925</v>
+        <v>2557.238132645913</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1165.591195789322</v>
+        <v>13108.83386593005</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>98.09386248504464</v>
+        <v>1118.456609195513</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9853.657679862476</v>
+        <v>80394.45754217295</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>666.9437496500383</v>
+        <v>7516.930753623353</v>
       </c>
       <c r="C7">
-        <v>2218.348337736952</v>
+        <v>18099.15840859943</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21392,22 +21392,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2806.940205933814</v>
+        <v>31636.21395153223</v>
       </c>
       <c r="C8">
-        <v>11263.88069475484</v>
+        <v>91900.24736958467</v>
       </c>
       <c r="D8">
-        <v>93.24729566314569</v>
+        <v>1048.706709274404</v>
       </c>
       <c r="E8">
-        <v>7.847508998803567</v>
+        <v>89.47652873564101</v>
       </c>
       <c r="F8">
-        <v>394.1463071944994</v>
+        <v>3215.778301686921</v>
       </c>
       <c r="G8">
-        <v>288.5292087386989</v>
+        <v>2561.608916222278</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1187.917924298039</v>
+        <v>12268.36572226033</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>100.0630976543756</v>
+        <v>1082.451443726391</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9861.613115426188</v>
+        <v>81894.72096200091</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>679.8145373648974</v>
+        <v>7072.792684854801</v>
       </c>
       <c r="C7">
-        <v>2220.139340411502</v>
+        <v>18436.91185728523</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21610,22 +21610,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2861.108989339962</v>
+        <v>29766.98734454116</v>
       </c>
       <c r="C8">
-        <v>11272.97468603968</v>
+        <v>93615.22354601328</v>
       </c>
       <c r="D8">
-        <v>95.03343394384304</v>
+        <v>981.4692577808258</v>
       </c>
       <c r="E8">
-        <v>8.005047812350044</v>
+        <v>86.59611549811126</v>
       </c>
       <c r="F8">
-        <v>394.4645246170479</v>
+        <v>3275.788838480039</v>
       </c>
       <c r="G8">
-        <v>289.9953877776398</v>
+        <v>2550.970454214003</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1194.537873011841</v>
+        <v>11125.36705935663</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>100.3468427051474</v>
+        <v>1023.412952606958</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9836.230247487867</v>
+        <v>83180.22733917723</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>683.3129507516211</v>
+        <v>6458.118607042465</v>
       </c>
       <c r="C7">
-        <v>2214.424909818581</v>
+        <v>18726.31717535177</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21828,22 +21828,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2875.832625624618</v>
+        <v>27180.03247246675</v>
       </c>
       <c r="C8">
-        <v>11243.95910569003</v>
+        <v>95084.70735956736</v>
       </c>
       <c r="D8">
-        <v>95.56302984094725</v>
+        <v>890.02936474853</v>
       </c>
       <c r="E8">
-        <v>8.02774741641179</v>
+        <v>81.87303620855664</v>
       </c>
       <c r="F8">
-        <v>393.449209899515</v>
+        <v>3327.209093567092</v>
       </c>
       <c r="G8">
-        <v>289.7737860570202</v>
+        <v>2518.443578239423</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1206.729984712582</v>
+        <v>9677.541318836296</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>100.7841306438726</v>
+        <v>934.528176871654</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9782.899354469067</v>
+        <v>84200.85589217384</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>689.6657436306556</v>
+        <v>5664.584865078342</v>
       </c>
       <c r="C7">
-        <v>2202.418556267244</v>
+        <v>18956.09069981812</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,22 +22046,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2902.569377804226</v>
+        <v>23840.31789195981</v>
       </c>
       <c r="C8">
-        <v>11182.99567101174</v>
+        <v>96251.40490763709</v>
       </c>
       <c r="D8">
-        <v>96.53839877700653</v>
+        <v>774.2033055069033</v>
       </c>
       <c r="E8">
-        <v>8.062730451509806</v>
+        <v>74.76225414973229</v>
       </c>
       <c r="F8">
-        <v>391.315974178763</v>
+        <v>3368.034235686957</v>
       </c>
       <c r="G8">
-        <v>289.2084299897899</v>
+        <v>2462.067556489646</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1246.628758390607</v>
+        <v>8118.103099631034</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>103.3433982214037</v>
+        <v>824.9195880846225</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9706.770879565462</v>
+        <v>84930.62782755132</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>711.649996293233</v>
+        <v>4795.189087087422</v>
       </c>
       <c r="C7">
-        <v>2185.279796098825</v>
+        <v>19120.38383972292</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22264,22 +22264,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2995.093646497615</v>
+        <v>20181.3257124959</v>
       </c>
       <c r="C8">
-        <v>11095.97193965762</v>
+        <v>97085.61939747789</v>
       </c>
       <c r="D8">
-        <v>99.73030067124849</v>
+        <v>649.4482479704824</v>
       </c>
       <c r="E8">
-        <v>8.267471857712293</v>
+        <v>65.99356704676977</v>
       </c>
       <c r="F8">
-        <v>388.2708351826188</v>
+        <v>3397.225113102056</v>
       </c>
       <c r="G8">
-        <v>289.6929792392057</v>
+        <v>2391.557292681034</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1333.343719286991</v>
+        <v>6794.840462890481</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>110.1065484095956</v>
+        <v>719.274975762477</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9612.170443489147</v>
+        <v>85367.04787932534</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>760.7016380425988</v>
+        <v>4044.082145457883</v>
       </c>
       <c r="C7">
-        <v>2163.98245383901</v>
+        <v>19218.63483725722</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22482,22 +22482,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3201.535382349557</v>
+        <v>17020.1711555753</v>
       </c>
       <c r="C8">
-        <v>10987.8326009212</v>
+        <v>97584.49844886074</v>
       </c>
       <c r="D8">
-        <v>106.6674975429592</v>
+        <v>543.5872370312381</v>
       </c>
       <c r="E8">
-        <v>8.808523872767646</v>
+        <v>57.54199806099813</v>
       </c>
       <c r="F8">
-        <v>384.4868177395662</v>
+        <v>3414.681915173017</v>
       </c>
       <c r="G8">
-        <v>292.4684091881609</v>
+        <v>2326.27169827151</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SW2/SW2_Min.xlsx
+++ b/Recycling/SW2/SW2_Min.xlsx
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.50179489086865E-06</v>
+        <v>7.2275715071296E-06</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.550631033311414E-08</v>
+        <v>3.248315725521009E-08</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.032858777743669</v>
+        <v>1.133048386912148</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.684808337712619E-06</v>
+        <v>3.52588197768507E-06</v>
       </c>
       <c r="C7">
-        <v>0.232526907993486</v>
+        <v>0.2550825376061957</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -900,22 +900,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.129944837522843E-05</v>
+        <v>1.483924227453188E-05</v>
       </c>
       <c r="C8">
-        <v>1.180678122278484</v>
+        <v>1.295206538141173</v>
       </c>
       <c r="D8">
-        <v>4.401435912694918E-07</v>
+        <v>5.782057205703677E-07</v>
       </c>
       <c r="E8">
-        <v>2.040504826649131E-09</v>
+        <v>2.598652580416806E-09</v>
       </c>
       <c r="F8">
-        <v>0.04131435110974681</v>
+        <v>0.04532193547648598</v>
       </c>
       <c r="G8">
-        <v>0.02325295928018236</v>
+        <v>0.02550860634881733</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5941.112117553253</v>
+        <v>6446.111694800357</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>636.8358767283595</v>
+        <v>683.60395687322</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85528.8688671221</v>
+        <v>92829.4561445499</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3544.369501389458</v>
+        <v>3837.846704895416</v>
       </c>
       <c r="C7">
-        <v>19255.06550401597</v>
+        <v>20898.64255708156</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14917.04999612944</v>
+        <v>16152.19608225462</v>
       </c>
       <c r="C8">
-        <v>97769.47872315778</v>
+        <v>106114.9019930008</v>
       </c>
       <c r="D8">
-        <v>475.2889694042599</v>
+        <v>515.6889355840283</v>
       </c>
       <c r="E8">
-        <v>50.94687013826874</v>
+        <v>54.68831654985757</v>
       </c>
       <c r="F8">
-        <v>3421.154754684887</v>
+        <v>3713.178245781999</v>
       </c>
       <c r="G8">
-        <v>2279.943500540542</v>
+        <v>2473.648926197698</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5561.416395775112</v>
+        <v>6045.093011362232</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>580.8520302586983</v>
+        <v>623.8180671522626</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85452.65300412894</v>
+        <v>92746.17843229344</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3301.665349468957</v>
+        <v>3580.815904609054</v>
       </c>
       <c r="C7">
-        <v>19237.90707021676</v>
+        <v>20879.89429318234</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13895.59047644702</v>
+        <v>15070.44055509703</v>
       </c>
       <c r="C8">
-        <v>97682.35509701871</v>
+        <v>106019.7058490038</v>
       </c>
       <c r="D8">
-        <v>444.9133116620087</v>
+        <v>483.6074409089783</v>
       </c>
       <c r="E8">
-        <v>46.46816242069584</v>
+        <v>49.90544537218098</v>
       </c>
       <c r="F8">
-        <v>3418.106120165161</v>
+        <v>3709.847137291741</v>
       </c>
       <c r="G8">
-        <v>2253.957241968571</v>
+        <v>2446.071019779139</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.941878943242812E-05</v>
+        <v>7.789462119277536E-05</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.304331681156179E-07</v>
+        <v>4.174167622741913E-07</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.174191021971625</v>
+        <v>2.309737755323934</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.905384483924472E-05</v>
+        <v>3.80712318226731E-05</v>
       </c>
       <c r="C7">
-        <v>0.4894743856761091</v>
+        <v>0.5199899445058292</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0001222777861836642</v>
+        <v>0.0001602289118813423</v>
       </c>
       <c r="C8">
-        <v>2.485354076095454</v>
+        <v>2.640299811237479</v>
       </c>
       <c r="D8">
-        <v>4.753503154594248E-06</v>
+        <v>6.231569695422025E-06</v>
       </c>
       <c r="E8">
-        <v>2.643465344924941E-08</v>
+        <v>3.339334098193529E-08</v>
       </c>
       <c r="F8">
-        <v>0.08696764087886509</v>
+        <v>0.09238951021295745</v>
       </c>
       <c r="G8">
-        <v>0.04895034395209482</v>
+        <v>0.05200280157376518</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0004995196105098355</v>
+        <v>0.0006532761935548642</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.259053077360215E-06</v>
+        <v>4.086344483711996E-06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.34096988209388</v>
+        <v>4.467070141072544</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0002447582748334828</v>
+        <v>0.0003199108177770749</v>
       </c>
       <c r="C7">
-        <v>0.9772800755793589</v>
+        <v>1.005668955017012</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1772,22 +1772,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001030104626852862</v>
+        <v>0.001346396209879506</v>
       </c>
       <c r="C8">
-        <v>4.962235186164074</v>
+        <v>5.106382498650495</v>
       </c>
       <c r="D8">
-        <v>3.996156884078682E-05</v>
+        <v>5.226209548438911E-05</v>
       </c>
       <c r="E8">
-        <v>2.607242461888171E-07</v>
+        <v>3.269075586969596E-07</v>
       </c>
       <c r="F8">
-        <v>0.1736387952837554</v>
+        <v>0.1786828056429019</v>
       </c>
       <c r="G8">
-        <v>0.09775248338541921</v>
+        <v>0.1005988865834789</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.00342844810440193</v>
+        <v>0.004471777056763875</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568472879028916E-05</v>
+        <v>3.198516742675701E-05</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.346602259659019</v>
+        <v>8.326607980828474</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.001683407668958395</v>
+        <v>0.002194089154918027</v>
       </c>
       <c r="C7">
-        <v>1.879065809877463</v>
+        <v>1.874564509279348</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1990,22 +1990,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.007084892348801651</v>
+        <v>0.009234177646277313</v>
       </c>
       <c r="C8">
-        <v>9.541140469239688</v>
+        <v>9.518284675113089</v>
       </c>
       <c r="D8">
-        <v>0.0002742758483521542</v>
+        <v>0.0003577421645411099</v>
       </c>
       <c r="E8">
-        <v>2.054778303223132E-06</v>
+        <v>2.55881339414056E-06</v>
       </c>
       <c r="F8">
-        <v>0.3338640903863611</v>
+        <v>0.3330643192331392</v>
       </c>
       <c r="G8">
-        <v>0.1880749217546421</v>
+        <v>0.1876758598434266</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0199005205760913</v>
+        <v>0.02588067180493746</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0001679144857006121</v>
+        <v>0.0002078022807222249</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15.60152615686655</v>
+        <v>15.12486919643017</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.009791321409123609</v>
+        <v>0.01272244203010604</v>
       </c>
       <c r="C7">
-        <v>3.512362692178232</v>
+        <v>3.405053182328328</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04120835339848515</v>
+        <v>0.05354444669540027</v>
       </c>
       <c r="C8">
-        <v>17.83436516636677</v>
+        <v>17.28949063255256</v>
       </c>
       <c r="D8">
-        <v>0.001592041646087303</v>
+        <v>0.002070453744394996</v>
       </c>
       <c r="E8">
-        <v>1.343315885604896E-05</v>
+        <v>1.662418245777799E-05</v>
       </c>
       <c r="F8">
-        <v>0.6240610462746625</v>
+        <v>0.6049947678572073</v>
       </c>
       <c r="G8">
-        <v>0.3522154013587355</v>
+        <v>0.3417775624358434</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1003413860306342</v>
+        <v>0.1300835892814964</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.000937696069026289</v>
+        <v>0.001153857080855096</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>28.39079438950279</v>
+        <v>26.85237391134454</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04946570833310298</v>
+        <v>0.06406242486928368</v>
       </c>
       <c r="C7">
-        <v>6.391603360617667</v>
+        <v>6.045259635136181</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2426,22 +2426,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2081844017700723</v>
+        <v>0.2696170346443194</v>
       </c>
       <c r="C8">
-        <v>32.45399132204658</v>
+        <v>30.69539717484417</v>
       </c>
       <c r="D8">
-        <v>0.008027310882450735</v>
+        <v>0.01040668714251971</v>
       </c>
       <c r="E8">
-        <v>7.501568552210309E-05</v>
+        <v>9.230856646840766E-05</v>
       </c>
       <c r="F8">
-        <v>1.135631775580112</v>
+        <v>1.074094956453783</v>
       </c>
       <c r="G8">
-        <v>0.6441069068950769</v>
+        <v>0.6109322060005463</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.448692069406703</v>
+        <v>0.57974407323157</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004578052947550538</v>
+        <v>0.005604211193694532</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>50.01679792635174</v>
+        <v>46.38132025029971</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2216012620740929</v>
+        <v>0.2859962871542697</v>
       </c>
       <c r="C7">
-        <v>11.2602532119216</v>
+        <v>10.44180019461906</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2644,22 +2644,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9326446083763996</v>
+        <v>1.203661444585616</v>
       </c>
       <c r="C8">
-        <v>57.17503721764668</v>
+        <v>53.01926195713792</v>
       </c>
       <c r="D8">
-        <v>0.03589536555253622</v>
+        <v>0.04637952585852557</v>
       </c>
       <c r="E8">
-        <v>0.0003662442358040428</v>
+        <v>0.0004483368954955623</v>
       </c>
       <c r="F8">
-        <v>2.000671917054071</v>
+        <v>1.85525281001199</v>
       </c>
       <c r="G8">
-        <v>1.148185447399569</v>
+        <v>1.072779648177333</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.808239380711094</v>
+        <v>2.328149480330582</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01990581701048082</v>
+        <v>0.02425188705492839</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84.80855943557029</v>
+        <v>77.473817794928</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8946001180610137</v>
+        <v>1.150359644524353</v>
       </c>
       <c r="C7">
-        <v>19.09290265220463</v>
+        <v>17.44163644681359</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2862,22 +2862,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.765068704723938</v>
+        <v>4.841473871212478</v>
       </c>
       <c r="C8">
-        <v>96.94608097950695</v>
+        <v>88.56161528654023</v>
       </c>
       <c r="D8">
-        <v>0.1446591504568875</v>
+        <v>0.1862519584264465</v>
       </c>
       <c r="E8">
-        <v>0.001592465360838465</v>
+        <v>0.00194015096439427</v>
       </c>
       <c r="F8">
-        <v>3.392342377422815</v>
+        <v>3.098952711797123</v>
       </c>
       <c r="G8">
-        <v>1.998750277026564</v>
+        <v>1.859199609133794</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.64553364235333</v>
+        <v>8.524453681791801</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07821146898884958</v>
+        <v>0.09486767969806699</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>138.0546536834161</v>
+        <v>124.7237535472886</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.293133575891523</v>
+        <v>4.218437006660577</v>
       </c>
       <c r="C7">
-        <v>31.08016550456531</v>
+        <v>28.07898755437611</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.85968313299415</v>
+        <v>17.75397167513433</v>
       </c>
       <c r="C8">
-        <v>157.8125807661911</v>
+        <v>142.5738061339139</v>
       </c>
       <c r="D8">
-        <v>0.5316426913882661</v>
+        <v>0.6819562945433437</v>
       </c>
       <c r="E8">
-        <v>0.006256917519107963</v>
+        <v>0.007589414375845356</v>
       </c>
       <c r="F8">
-        <v>5.522186147336651</v>
+        <v>4.98895014189155</v>
       </c>
       <c r="G8">
-        <v>3.437329908045683</v>
+        <v>3.229742456103668</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.41064154275592</v>
+        <v>28.63092130579345</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2805748548950879</v>
+        <v>0.3388935784290668</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>215.8714791842925</v>
+        <v>193.447808215222</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.12320326659386</v>
+        <v>14.18984135442928</v>
       </c>
       <c r="C7">
-        <v>48.5990230807344</v>
+        <v>43.5507948150157</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3298,22 +3298,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>46.81379274363045</v>
+        <v>59.72023312980995</v>
       </c>
       <c r="C8">
-        <v>246.7662938911898</v>
+        <v>221.1334210291428</v>
       </c>
       <c r="D8">
-        <v>1.792851323420473</v>
+        <v>2.290473704463475</v>
       </c>
       <c r="E8">
-        <v>0.02244598839160702</v>
+        <v>0.02711148627432533</v>
       </c>
       <c r="F8">
-        <v>8.634859167371708</v>
+        <v>7.737912328608886</v>
       </c>
       <c r="G8">
-        <v>5.972222634732824</v>
+        <v>5.774063616944497</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69.04192702500484</v>
+        <v>87.78266293338385</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9226988244856038</v>
+        <v>1.109630059648327</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>324.9779590345034</v>
+        <v>289.4943703197957</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34.32972691807337</v>
+        <v>43.58091791988721</v>
       </c>
       <c r="C7">
-        <v>73.16210270817926</v>
+        <v>65.17370260340599</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3734,22 +3734,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>144.4821857849807</v>
+        <v>183.417313356669</v>
       </c>
       <c r="C8">
-        <v>371.487733582466</v>
+        <v>330.9258505853499</v>
       </c>
       <c r="D8">
-        <v>5.523354162000384</v>
+        <v>7.022613034670704</v>
       </c>
       <c r="E8">
-        <v>0.07381590595884827</v>
+        <v>0.08877040477186614</v>
       </c>
       <c r="F8">
-        <v>12.99911836138015</v>
+        <v>11.57977481279184</v>
       </c>
       <c r="G8">
-        <v>10.74918296262526</v>
+        <v>10.87546205232932</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>189.0718650943582</v>
+        <v>238.7247091904018</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.75747438777381</v>
+        <v>3.298432576827325</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>472.3525137910447</v>
+        <v>418.9494736354189</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>94.25647142174748</v>
+        <v>118.8155212086166</v>
       </c>
       <c r="C7">
-        <v>106.3404522298017</v>
+        <v>94.31785623466813</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3952,22 +3952,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>396.6935434089938</v>
+        <v>500.0542605646244</v>
       </c>
       <c r="C8">
-        <v>539.9540489500873</v>
+        <v>478.9081416745094</v>
       </c>
       <c r="D8">
-        <v>15.12574920754865</v>
+        <v>19.09797673523214</v>
       </c>
       <c r="E8">
-        <v>0.2205979510219047</v>
+        <v>0.2638746061461859</v>
       </c>
       <c r="F8">
-        <v>18.8941005516418</v>
+        <v>16.75797894541677</v>
       </c>
       <c r="G8">
-        <v>20.05969236515492</v>
+        <v>21.31333774432847</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>428.1478779084348</v>
+        <v>533.381504307648</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.224902347286786</v>
+        <v>8.570557741692529</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>664.7590699269696</v>
+        <v>587.7340975734124</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>214.4795481832533</v>
+        <v>266.7405812588119</v>
       </c>
       <c r="C7">
-        <v>149.6568305576287</v>
+        <v>132.3162424292279</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>902.6717282559331</v>
+        <v>1122.620704493279</v>
       </c>
       <c r="C8">
-        <v>759.8971973337394</v>
+        <v>671.8486647689907</v>
       </c>
       <c r="D8">
-        <v>34.25183023267476</v>
+        <v>42.67052034461182</v>
       </c>
       <c r="E8">
-        <v>0.5779921877829426</v>
+        <v>0.685644619335402</v>
       </c>
       <c r="F8">
-        <v>26.59036279707881</v>
+        <v>23.50936390293652</v>
       </c>
       <c r="G8">
-        <v>36.41363787408818</v>
+        <v>39.90568236880398</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>710.2573693666703</v>
+        <v>856.7250146382844</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.22255613481067</v>
+        <v>17.77521931376205</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>908.1197530553306</v>
+        <v>801.0771901012889</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>359.2293336029899</v>
+        <v>432.687741002055</v>
       </c>
       <c r="C7">
-        <v>204.4444824558285</v>
+        <v>180.3460512629646</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1511.874517408914</v>
+        <v>1821.036058094311</v>
       </c>
       <c r="C8">
-        <v>1038.086859448139</v>
+        <v>915.7247176376735</v>
       </c>
       <c r="D8">
-        <v>56.8205895493336</v>
+        <v>68.53800117106272</v>
       </c>
       <c r="E8">
-        <v>1.217804490784853</v>
+        <v>1.422017545100964</v>
       </c>
       <c r="F8">
-        <v>36.32479012221326</v>
+        <v>32.04308760405159</v>
       </c>
       <c r="G8">
-        <v>56.36738160588182</v>
+        <v>61.30337922650194</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>836.872320298139</v>
+        <v>937.4871663029274</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.10977105780831</v>
+        <v>24.9924444148813</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1206.703473224619</v>
+        <v>1062.832347087862</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>427.6871812854807</v>
+        <v>479.3445271788246</v>
       </c>
       <c r="C7">
-        <v>271.6644652107095</v>
+        <v>239.2748405776085</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4606,22 +4606,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1799.990397005216</v>
+        <v>2017.398658490448</v>
       </c>
       <c r="C8">
-        <v>1379.40289767993</v>
+        <v>1214.941410090778</v>
       </c>
       <c r="D8">
-        <v>66.94978562385108</v>
+        <v>74.99897330423416</v>
       </c>
       <c r="E8">
-        <v>1.768781684624664</v>
+        <v>1.999395553190503</v>
       </c>
       <c r="F8">
-        <v>48.2681389289848</v>
+        <v>42.51329388351451</v>
       </c>
       <c r="G8">
-        <v>69.935164649619</v>
+        <v>71.8619367756433</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>875.1587597090321</v>
+        <v>884.0873470107889</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.93012199017769</v>
+        <v>20.1143464326312</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1562.167210737559</v>
+        <v>1374.675285081773</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>442.8156154583666</v>
+        <v>448.3827997915542</v>
       </c>
       <c r="C7">
-        <v>351.6898138534888</v>
+        <v>309.4798634847423</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4824,22 +4824,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1863.660849205988</v>
+        <v>1887.09124126959</v>
       </c>
       <c r="C8">
-        <v>1785.739433892267</v>
+        <v>1571.414281707145</v>
       </c>
       <c r="D8">
-        <v>70.01270077672254</v>
+        <v>70.72698776086308</v>
       </c>
       <c r="E8">
-        <v>1.514409759214215</v>
+        <v>1.609147714610496</v>
       </c>
       <c r="F8">
-        <v>62.48668842950243</v>
+        <v>54.98701140327098</v>
       </c>
       <c r="G8">
-        <v>79.45054293118552</v>
+        <v>75.78626632762963</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>954.7385582563895</v>
+        <v>904.3253423383907</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.12815349432423</v>
+        <v>10.78599977567176</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1972.69006605455</v>
+        <v>1735.432023952203</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>472.99742008738</v>
+        <v>448.2815647898326</v>
       </c>
       <c r="C7">
-        <v>444.110590308571</v>
+        <v>390.6968225065814</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5042,22 +5042,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1990.685835863815</v>
+        <v>1886.665177457268</v>
       </c>
       <c r="C8">
-        <v>2255.014967404125</v>
+        <v>1983.801336188427</v>
       </c>
       <c r="D8">
-        <v>76.37908466051113</v>
+        <v>72.34602738707122</v>
       </c>
       <c r="E8">
-        <v>0.8902522795459381</v>
+        <v>0.8628799820537401</v>
       </c>
       <c r="F8">
-        <v>78.90760264218207</v>
+        <v>69.41728095808817</v>
       </c>
       <c r="G8">
-        <v>91.71080103959508</v>
+        <v>83.89783872964139</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1044.149572775077</v>
+        <v>959.4803646062852</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.60611418553649</v>
+        <v>11.30876403666137</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2432.516952256162</v>
+        <v>2140.843814874436</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>517.7549849244706</v>
+        <v>475.4793339220952</v>
       </c>
       <c r="C7">
-        <v>547.6311551376856</v>
+        <v>481.9669479473354</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5260,22 +5260,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2179.055257313287</v>
+        <v>2001.131370039644</v>
       </c>
       <c r="C8">
-        <v>2780.650762221777</v>
+        <v>2447.234326612614</v>
       </c>
       <c r="D8">
-        <v>83.53196582200611</v>
+        <v>76.75842916850277</v>
       </c>
       <c r="E8">
-        <v>1.008489134842919</v>
+        <v>0.9047011229329089</v>
       </c>
       <c r="F8">
-        <v>97.30067809024658</v>
+        <v>85.63375259497752</v>
       </c>
       <c r="G8">
-        <v>106.5386140062156</v>
+        <v>95.74462818694305</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1148.30835665817</v>
+        <v>1018.853903667925</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.39474200779982</v>
+        <v>18.72660136382626</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2931.803101923699</v>
+        <v>2583.596334414935</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>577.3781420125214</v>
+        <v>512.016165819021</v>
       </c>
       <c r="C7">
-        <v>660.0351614625247</v>
+        <v>581.6435703409419</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2429.988918394861</v>
+        <v>2154.902512662602</v>
       </c>
       <c r="C8">
-        <v>3351.393100256512</v>
+        <v>2953.352127680359</v>
       </c>
       <c r="D8">
-        <v>91.86466853265357</v>
+        <v>81.50831229343397</v>
       </c>
       <c r="E8">
-        <v>1.711579360623985</v>
+        <v>1.4981281091061</v>
       </c>
       <c r="F8">
-        <v>117.272124076948</v>
+        <v>103.3438533765975</v>
       </c>
       <c r="G8">
-        <v>123.7413303475046</v>
+        <v>109.3659736159963</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1237.694166910694</v>
+        <v>1058.222729927346</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.99962307669868</v>
+        <v>26.49719544852096</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3457.354804673976</v>
+        <v>3054.195781048676</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>630.7291206380366</v>
+        <v>539.2626816248235</v>
       </c>
       <c r="C7">
-        <v>778.3523167837936</v>
+        <v>687.5893555607161</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5696,22 +5696,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2654.525106054546</v>
+        <v>2269.573863472994</v>
       </c>
       <c r="C8">
-        <v>3952.160030774339</v>
+        <v>3491.302216278736</v>
       </c>
       <c r="D8">
-        <v>99.0155333528555</v>
+        <v>84.65781839418761</v>
       </c>
       <c r="E8">
-        <v>2.479969846135893</v>
+        <v>2.119775635881676</v>
       </c>
       <c r="F8">
-        <v>138.2941921869592</v>
+        <v>122.1678312419471</v>
       </c>
       <c r="G8">
-        <v>140.908143742183</v>
+        <v>122.6852037185539</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.247852815770361E-05</v>
+        <v>2.967117611532464E-05</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.06057823333183E-06</v>
+        <v>6.679854968845376E-06</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.569558103073806E-05</v>
+        <v>3.391761706103236E-05</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>8.991411263081451E-07</v>
+        <v>1.186847044612987E-06</v>
       </c>
       <c r="G8">
-        <v>5.060578233331829E-07</v>
+        <v>6.679854968845375E-07</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1319.004758233931</v>
+        <v>1116.35806924495</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43.89084150732983</v>
+        <v>37.5610180338388</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3995.116901263182</v>
+        <v>3543.545251262526</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>683.6590332716495</v>
+        <v>579.0620964919672</v>
       </c>
       <c r="C7">
-        <v>899.4183911111547</v>
+        <v>797.7563229031927</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6132,22 +6132,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2877.289169659326</v>
+        <v>2437.076112083684</v>
       </c>
       <c r="C8">
-        <v>4566.884866458561</v>
+        <v>4050.685770042218</v>
       </c>
       <c r="D8">
-        <v>105.5203806587145</v>
+        <v>89.30864553959591</v>
       </c>
       <c r="E8">
-        <v>3.511267320586385</v>
+        <v>3.004881442707102</v>
       </c>
       <c r="F8">
-        <v>159.8046760505274</v>
+        <v>141.7418100505012</v>
       </c>
       <c r="G8">
-        <v>158.3077424382804</v>
+        <v>137.6818419395159</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1387.917210993846</v>
+        <v>1195.775363634161</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57.03038606261149</v>
+        <v>49.82659349969229</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4533.859480399525</v>
+        <v>4046.556400059034</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>730.8626220232729</v>
+        <v>630.4149049411875</v>
       </c>
       <c r="C7">
-        <v>1020.705200915563</v>
+        <v>910.9989361590109</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6350,22 +6350,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3075.953076774165</v>
+        <v>2653.202678678498</v>
       </c>
       <c r="C8">
-        <v>5182.730508120935</v>
+        <v>4625.686216805711</v>
       </c>
       <c r="D8">
-        <v>111.0333768795076</v>
+        <v>95.6620290907328</v>
       </c>
       <c r="E8">
-        <v>4.562430885008917</v>
+        <v>3.986127479975381</v>
       </c>
       <c r="F8">
-        <v>181.3543792159811</v>
+        <v>161.8622560023615</v>
       </c>
       <c r="G8">
-        <v>175.1567822938835</v>
+        <v>154.1413841100198</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1342.825916349795</v>
+        <v>1179.135739723081</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63.72374369165588</v>
+        <v>57.05383086832149</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5069.89913421112</v>
+        <v>4566.585682633826</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>716.1675706357028</v>
+        <v>630.0295734695256</v>
       </c>
       <c r="C7">
-        <v>1141.383502682043</v>
+        <v>1028.072832173473</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6568,22 +6568,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3014.106585837443</v>
+        <v>2651.580949108371</v>
       </c>
       <c r="C8">
-        <v>5795.486390693442</v>
+        <v>5220.140376571402</v>
       </c>
       <c r="D8">
-        <v>107.4260733079835</v>
+        <v>94.33085917784641</v>
       </c>
       <c r="E8">
-        <v>5.097899495332468</v>
+        <v>4.564306469465717</v>
       </c>
       <c r="F8">
-        <v>202.795965368445</v>
+        <v>182.6634273053532</v>
       </c>
       <c r="G8">
-        <v>185.7551073317746</v>
+        <v>165.8102405642999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1323.144818506033</v>
+        <v>1178.584726649412</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79.14118047829159</v>
+        <v>72.70383489054579</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5612.768451507259</v>
+        <v>5120.635003139158</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>722.9855635560095</v>
+        <v>646.3351674436838</v>
       </c>
       <c r="C7">
-        <v>1263.599362696483</v>
+        <v>1152.805639938767</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6786,22 +6786,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3042.80120732812</v>
+        <v>2720.205667957167</v>
       </c>
       <c r="C8">
-        <v>6416.049375681577</v>
+        <v>5853.483409984874</v>
       </c>
       <c r="D8">
-        <v>105.8515854804826</v>
+        <v>94.28677813195287</v>
       </c>
       <c r="E8">
-        <v>6.331294438263324</v>
+        <v>5.816306791243661</v>
       </c>
       <c r="F8">
-        <v>224.5107380602905</v>
+        <v>204.8254001255665</v>
       </c>
       <c r="G8">
-        <v>198.6584926252493</v>
+        <v>179.914080738245</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1316.245466958739</v>
+        <v>1198.644480606175</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>127.0852079244483</v>
+        <v>119.7925734795862</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6191.29226926221</v>
+        <v>5744.847426869636</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>770.420526011644</v>
+        <v>705.8878338919404</v>
       </c>
       <c r="C7">
-        <v>1393.842100079242</v>
+        <v>1293.334227146252</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7004,22 +7004,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3242.438887947434</v>
+        <v>2970.842657826089</v>
       </c>
       <c r="C8">
-        <v>7077.369615736518</v>
+        <v>6567.031058737979</v>
       </c>
       <c r="D8">
-        <v>105.299637356699</v>
+        <v>95.89155844849395</v>
       </c>
       <c r="E8">
-        <v>10.16681663395586</v>
+        <v>9.583405878366889</v>
       </c>
       <c r="F8">
-        <v>247.6516907704886</v>
+        <v>229.7938970747857</v>
       </c>
       <c r="G8">
-        <v>216.4262626090886</v>
+        <v>199.9222061038191</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1293.622866754204</v>
+        <v>1208.595350485643</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>191.8596649257556</v>
+        <v>187.4416853384347</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6859.043086329706</v>
+        <v>6499.389610132443</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>828.0816507881635</v>
+        <v>782.3284767927532</v>
       </c>
       <c r="C7">
-        <v>1544.172460965581</v>
+        <v>1463.203878840588</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7222,22 +7222,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3485.115019989313</v>
+        <v>3292.555417018012</v>
       </c>
       <c r="C8">
-        <v>7840.686729202379</v>
+        <v>7429.560832712299</v>
       </c>
       <c r="D8">
-        <v>103.4898293403363</v>
+        <v>96.68762803885139</v>
       </c>
       <c r="E8">
-        <v>15.34877319406044</v>
+        <v>14.99533482707477</v>
       </c>
       <c r="F8">
-        <v>274.3617234531885</v>
+        <v>259.9755844052979</v>
       </c>
       <c r="G8">
-        <v>237.2254111753744</v>
+        <v>224.553235563334</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1296.376455503808</v>
+        <v>1270.441217393058</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>256.9694943786261</v>
+        <v>263.619532424352</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7697.833453916061</v>
+        <v>7471.531426688874</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>898.3565966441297</v>
+        <v>892.8695563851142</v>
       </c>
       <c r="C7">
-        <v>1733.008858382517</v>
+        <v>1682.061611965394</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7440,22 +7440,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3780.878449958391</v>
+        <v>3757.785357141059</v>
       </c>
       <c r="C8">
-        <v>8799.522010004839</v>
+        <v>8540.83238240822</v>
       </c>
       <c r="D8">
-        <v>103.7101164403046</v>
+        <v>101.6352973914446</v>
       </c>
       <c r="E8">
-        <v>20.55755955029007</v>
+        <v>21.08956259394815</v>
       </c>
       <c r="F8">
-        <v>307.9133381566427</v>
+        <v>298.8612570675552</v>
       </c>
       <c r="G8">
-        <v>263.1365455026646</v>
+        <v>257.4931168350508</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1260.253831030491</v>
+        <v>1306.679591094359</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>305.5498628778721</v>
+        <v>321.536687853101</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8817.726422907359</v>
+        <v>8775.533009715944</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>932.3482404804888</v>
+        <v>971.7039707031574</v>
       </c>
       <c r="C7">
-        <v>1985.129724249639</v>
+        <v>1975.630745184443</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7658,22 +7658,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3923.937758633409</v>
+        <v>4089.572688946287</v>
       </c>
       <c r="C8">
-        <v>10079.69037016537</v>
+        <v>10031.45837472434</v>
       </c>
       <c r="D8">
-        <v>100.8203064824392</v>
+        <v>104.5343672875486</v>
       </c>
       <c r="E8">
-        <v>24.44398903022975</v>
+        <v>25.72293502824807</v>
       </c>
       <c r="F8">
-        <v>352.7090569162947</v>
+        <v>351.0213203886381</v>
       </c>
       <c r="G8">
-        <v>291.7477964730127</v>
+        <v>294.73347158876</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1210.215957291301</v>
+        <v>1275.803844888114</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>277.1038955570074</v>
+        <v>290.6390846689128</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10352.28904915326</v>
+        <v>10548.11029342987</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>878.0545994302519</v>
+        <v>924.0711093858515</v>
       </c>
       <c r="C7">
-        <v>2330.604933728741</v>
+        <v>2374.690058851604</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7876,22 +7876,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3695.434224309239</v>
+        <v>3889.102119088825</v>
       </c>
       <c r="C8">
-        <v>11833.8745424031</v>
+        <v>12057.72107784119</v>
       </c>
       <c r="D8">
-        <v>96.81727658330404</v>
+        <v>102.0643075910491</v>
       </c>
       <c r="E8">
-        <v>22.16831164456058</v>
+        <v>23.25112677351301</v>
       </c>
       <c r="F8">
-        <v>414.0915619661309</v>
+        <v>421.9244117371952</v>
       </c>
       <c r="G8">
-        <v>320.8659533158993</v>
+        <v>329.8761168237455</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1141.313324728274</v>
+        <v>1196.665672903833</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>259.4163249983997</v>
+        <v>268.2529062201207</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12448.08947402406</v>
+        <v>12938.35140722224</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>826.0398535403561</v>
+        <v>862.1364406811579</v>
       </c>
       <c r="C7">
-        <v>2802.431288955383</v>
+        <v>2912.803678569498</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8094,22 +8094,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3476.521787366259</v>
+        <v>3628.440089015648</v>
       </c>
       <c r="C8">
-        <v>14229.61901747305</v>
+        <v>14790.0456229162</v>
       </c>
       <c r="D8">
-        <v>91.30506597826185</v>
+        <v>95.73325383230656</v>
       </c>
       <c r="E8">
-        <v>20.75330599987196</v>
+        <v>21.46023249760964</v>
       </c>
       <c r="F8">
-        <v>497.9235789609627</v>
+        <v>517.5340562888899</v>
       </c>
       <c r="G8">
-        <v>362.8471142495738</v>
+        <v>377.4940119250654</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0006492844021757012</v>
+        <v>0.0008557171301713814</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0001461730274260045</v>
+        <v>0.0001926471098309163</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0007422078461299245</v>
+        <v>0.0009781845458673331</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8324,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.597137608702807E-05</v>
+        <v>3.422868520685528E-05</v>
       </c>
       <c r="G8">
-        <v>1.461730274260044E-05</v>
+        <v>1.926471098309163E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1117.463405227748</v>
+        <v>1179.318358801724</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>250.7061369818459</v>
+        <v>258.2657470536348</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15248.45455607396</v>
+        <v>16091.82658530925</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>805.2952552241821</v>
+        <v>843.180928573825</v>
       </c>
       <c r="C7">
-        <v>3432.875883911996</v>
+        <v>3622.743748204807</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8530,22 +8530,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3389.214803681098</v>
+        <v>3548.662762837755</v>
       </c>
       <c r="C8">
-        <v>17430.76312159903</v>
+        <v>18394.83577636698</v>
       </c>
       <c r="D8">
-        <v>89.39707241821982</v>
+        <v>94.34546870413789</v>
       </c>
       <c r="E8">
-        <v>20.05649095854766</v>
+        <v>20.66125976429077</v>
       </c>
       <c r="F8">
-        <v>609.938182242959</v>
+        <v>643.6730634123707</v>
       </c>
       <c r="G8">
-        <v>423.8171139136178</v>
+        <v>446.5924676778631</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1291.32762075731</v>
+        <v>1389.974576769237</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>223.7001646854455</v>
+        <v>233.094840627579</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18874.18935939979</v>
+        <v>20131.38043191652</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>860.6887459267609</v>
+        <v>918.2910004350239</v>
       </c>
       <c r="C7">
-        <v>4249.135493830282</v>
+        <v>4532.166203496069</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8748,22 +8748,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3622.34723243791</v>
+        <v>3864.775599472636</v>
       </c>
       <c r="C8">
-        <v>21575.40114154418</v>
+        <v>23012.51725734748</v>
       </c>
       <c r="D8">
-        <v>103.3062096605848</v>
+        <v>111.1979661415389</v>
       </c>
       <c r="E8">
-        <v>17.89601317483563</v>
+        <v>18.64758725020631</v>
       </c>
       <c r="F8">
-        <v>754.9675743759924</v>
+        <v>805.2552172766614</v>
       </c>
       <c r="G8">
-        <v>510.9824239757041</v>
+        <v>545.0457203931091</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1710.301745009084</v>
+        <v>1866.487226837999</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>195.0179906098458</v>
+        <v>205.7133766499501</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>23404.02106328867</v>
+        <v>25137.12199208915</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1032.714675191699</v>
+        <v>1119.489884761887</v>
       </c>
       <c r="C7">
-        <v>5268.933923715485</v>
+        <v>5659.105948099082</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8966,22 +8966,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4346.346066777765</v>
+        <v>4711.553514555337</v>
       </c>
       <c r="C8">
-        <v>26753.52743105361</v>
+        <v>28734.66405343421</v>
       </c>
       <c r="D8">
-        <v>136.8241396007266</v>
+        <v>149.3189781470398</v>
       </c>
       <c r="E8">
-        <v>15.60143924878765</v>
+        <v>16.457070131996</v>
       </c>
       <c r="F8">
-        <v>936.1608425315475</v>
+        <v>1005.484879683567</v>
       </c>
       <c r="G8">
-        <v>630.1648598907183</v>
+        <v>677.8595832860966</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2508.690218977646</v>
+        <v>2758.810850177326</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>182.5364923047827</v>
+        <v>197.0874855274652</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>28857.12789668933</v>
+        <v>31127.84018825001</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1405.182464178822</v>
+        <v>1541.418439558427</v>
       </c>
       <c r="C7">
-        <v>6496.588757320907</v>
+        <v>7007.792921410848</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9184,22 +9184,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5913.936756205212</v>
+        <v>6487.307804345746</v>
       </c>
       <c r="C8">
-        <v>32987.06494400226</v>
+        <v>35582.75409570921</v>
       </c>
       <c r="D8">
-        <v>200.6952175182115</v>
+        <v>220.704868014186</v>
       </c>
       <c r="E8">
-        <v>14.60291938438261</v>
+        <v>15.76699884219721</v>
       </c>
       <c r="F8">
-        <v>1154.285115867574</v>
+        <v>1245.113607530001</v>
       </c>
       <c r="G8">
-        <v>790.1771221499728</v>
+        <v>854.9211360969272</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3712.927222125752</v>
+        <v>4077.15451215828</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>254.3909275739968</v>
+        <v>278.7623300821283</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>35179.52687968347</v>
+        <v>38045.72715441372</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2063.010270511973</v>
+        <v>2264.767561680424</v>
       </c>
       <c r="C7">
-        <v>7919.946837143161</v>
+        <v>8565.212871507549</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9402,22 +9402,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8682.511046235906</v>
+        <v>9531.63910646315</v>
       </c>
       <c r="C8">
-        <v>40214.30483428423</v>
+        <v>43490.7062469103</v>
       </c>
       <c r="D8">
-        <v>297.03417777006</v>
+        <v>326.1723609726622</v>
       </c>
       <c r="E8">
-        <v>20.35127420591973</v>
+        <v>22.30098640657025</v>
       </c>
       <c r="F8">
-        <v>1407.18107518734</v>
+        <v>1521.82908617655</v>
       </c>
       <c r="G8">
-        <v>998.2957107655133</v>
+        <v>1082.998043318797</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5159.42173982437</v>
+        <v>5601.49236079437</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>377.2088861669217</v>
+        <v>412.4324281480931</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>42235.47734603492</v>
+        <v>45745.93149574195</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2891.832747086518</v>
+        <v>3142.68581230999</v>
       </c>
       <c r="C7">
-        <v>9508.448944352904</v>
+        <v>10298.75548642197</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9620,22 +9620,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12170.74395088412</v>
+        <v>13226.49948488077</v>
       </c>
       <c r="C8">
-        <v>48280.07967883838</v>
+        <v>52292.93845792058</v>
       </c>
       <c r="D8">
-        <v>412.7537391859494</v>
+        <v>448.1193888635494</v>
       </c>
       <c r="E8">
-        <v>30.17671089335372</v>
+        <v>32.99459425184743</v>
       </c>
       <c r="F8">
-        <v>1689.419093841398</v>
+        <v>1829.83725982968</v>
       </c>
       <c r="G8">
-        <v>1240.028169143942</v>
+        <v>1344.144129873195</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6813.037934314785</v>
+        <v>7335.100144295317</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>512.2132465091308</v>
+        <v>558.6043566808347</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>49805.12176314985</v>
+        <v>53992.72108727994</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3833.615457582117</v>
+        <v>4134.936081715267</v>
       </c>
       <c r="C7">
-        <v>11212.59867793702</v>
+        <v>12155.35052720991</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9838,22 +9838,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16134.38819634042</v>
+        <v>17402.54458164311</v>
       </c>
       <c r="C8">
-        <v>56933.06665953583</v>
+        <v>61719.98139890556</v>
       </c>
       <c r="D8">
-        <v>545.0430347451826</v>
+        <v>586.8080115436251</v>
       </c>
       <c r="E8">
-        <v>40.97705972073044</v>
+        <v>44.68834853446675</v>
       </c>
       <c r="F8">
-        <v>1992.204870525996</v>
+        <v>2159.708843491199</v>
       </c>
       <c r="G8">
-        <v>1504.621413551913</v>
+        <v>1629.028660892517</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9437.633151524105</v>
+        <v>10145.20544815712</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>726.990028819318</v>
+        <v>792.0649385812255</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>57589.70569655701</v>
+        <v>62464.14926691932</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5328.928370551686</v>
+        <v>5739.649219843417</v>
       </c>
       <c r="C7">
-        <v>12965.13762232712</v>
+        <v>14062.5183253126</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10056,22 +10056,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22427.65346506616</v>
+        <v>24156.23832083125</v>
       </c>
       <c r="C8">
-        <v>65831.75459177454</v>
+        <v>71403.81246243545</v>
       </c>
       <c r="D8">
-        <v>755.010652121928</v>
+        <v>811.616435852569</v>
       </c>
       <c r="E8">
-        <v>58.15920230554541</v>
+        <v>63.36519508649801</v>
       </c>
       <c r="F8">
-        <v>2303.588227862283</v>
+        <v>2498.565970676775</v>
       </c>
       <c r="G8">
-        <v>1829.40659928788</v>
+        <v>1980.216754515601</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12352.35379562377</v>
+        <v>13282.39960302885</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>970.439803697521</v>
+        <v>1056.455413868462</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65225.9321389786</v>
+        <v>70767.16375049439</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6994.756495876529</v>
+        <v>7535.123642329071</v>
       </c>
       <c r="C7">
-        <v>14684.27692932254</v>
+        <v>15931.77124400154</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10274,22 +10274,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29438.55947266155</v>
+        <v>31712.7816542762</v>
       </c>
       <c r="C8">
-        <v>74560.85259782274</v>
+        <v>80895.12701671947</v>
       </c>
       <c r="D8">
-        <v>988.1883036499013</v>
+        <v>1062.591968242308</v>
       </c>
       <c r="E8">
-        <v>77.63518429580165</v>
+        <v>84.51643310947694</v>
       </c>
       <c r="F8">
-        <v>2609.037285559146</v>
+        <v>2830.686550019778</v>
       </c>
       <c r="G8">
-        <v>2167.903342519906</v>
+        <v>2346.689488633061</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13429.11656602706</v>
+        <v>14414.90976106413</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1063.04477635287</v>
+        <v>1155.406549434967</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>72310.64793985256</v>
+        <v>78464.46590228382</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7612.976947440447</v>
+        <v>8186.994414226737</v>
       </c>
       <c r="C7">
-        <v>16279.25495989958</v>
+        <v>17664.66049063908</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10492,22 +10492,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32040.43982994187</v>
+        <v>34456.28480528825</v>
       </c>
       <c r="C8">
-        <v>82659.50957678148</v>
+        <v>89694.04168638815</v>
       </c>
       <c r="D8">
-        <v>1074.329325282165</v>
+        <v>1153.192780885129</v>
       </c>
       <c r="E8">
-        <v>85.0435821082296</v>
+        <v>92.4325239547973</v>
       </c>
       <c r="F8">
-        <v>2892.425917594105</v>
+        <v>3138.578636091355</v>
       </c>
       <c r="G8">
-        <v>2389.223190734002</v>
+        <v>2585.165490486581</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.00461626091725974</v>
+        <v>0.006041511631486532</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.001039256189434229</v>
+        <v>0.00136012207045878</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.005276924967074658</v>
+        <v>0.006906152866677189</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0001846504366903898</v>
+        <v>0.0002416604652594615</v>
       </c>
       <c r="G8">
-        <v>0.0001039256189434228</v>
+        <v>0.0001360122070458779</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13467.34728444974</v>
+        <v>14424.5289634586</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1071.282506278882</v>
+        <v>1161.938370991573</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78435.54455466231</v>
+        <v>85112.59926223983</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7640.168317398338</v>
+        <v>8198.557786246427</v>
       </c>
       <c r="C7">
-        <v>17658.14944413171</v>
+        <v>19161.35096510641</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10928,22 +10928,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32154.87909056809</v>
+        <v>34504.95111913446</v>
       </c>
       <c r="C8">
-        <v>89660.98121080396</v>
+        <v>97293.63398422099</v>
       </c>
       <c r="D8">
-        <v>1077.387782755979</v>
+        <v>1153.962317076687</v>
       </c>
       <c r="E8">
-        <v>85.7026005023105</v>
+        <v>92.95506967932577</v>
       </c>
       <c r="F8">
-        <v>3137.421782186495</v>
+        <v>3404.503970489596</v>
       </c>
       <c r="G8">
-        <v>2529.831776153005</v>
+        <v>2735.990875135283</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13317.64285749732</v>
+        <v>14251.70250749547</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1067.248760333347</v>
+        <v>1155.345849044205</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>83229.01506893107</v>
+        <v>90307.92360501109</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7563.577972482087</v>
+        <v>8108.088196599292</v>
       </c>
       <c r="C7">
-        <v>18737.30072914648</v>
+        <v>20330.97137351011</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11146,22 +11146,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31832.53628632924</v>
+        <v>34124.19527768888</v>
       </c>
       <c r="C8">
-        <v>95140.47742842599</v>
+        <v>103232.496025991</v>
       </c>
       <c r="D8">
-        <v>1065.411428599785</v>
+        <v>1140.136200599637</v>
       </c>
       <c r="E8">
-        <v>85.37990082666772</v>
+        <v>92.42766792353633</v>
       </c>
       <c r="F8">
-        <v>3329.160602757246</v>
+        <v>3612.316944200447</v>
       </c>
       <c r="G8">
-        <v>2630.087870162856</v>
+        <v>2843.905957010939</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12933.0343944571</v>
+        <v>13844.45234967304</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1048.427559572299</v>
+        <v>1133.134843503098</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>86399.56526414616</v>
+        <v>93734.19086178712</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7357.852075635825</v>
+        <v>7887.835118536743</v>
       </c>
       <c r="C7">
-        <v>19451.08488765655</v>
+        <v>21102.32496835284</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11364,22 +11364,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30966.70570981875</v>
+        <v>33197.22471889909</v>
       </c>
       <c r="C8">
-        <v>98764.7863191863</v>
+        <v>107149.1193614598</v>
       </c>
       <c r="D8">
-        <v>1034.642751556568</v>
+        <v>1107.556187973842</v>
       </c>
       <c r="E8">
-        <v>83.87420476578386</v>
+        <v>90.65078748024781</v>
       </c>
       <c r="F8">
-        <v>3455.982610565849</v>
+        <v>3749.367634471488</v>
       </c>
       <c r="G8">
-        <v>2680.893696329237</v>
+        <v>2899.016008688958</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12429.0140703867</v>
+        <v>13318.95385099969</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1028.371078147257</v>
+        <v>1109.676249997118</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>87773.39437505198</v>
+        <v>95203.59420461094</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7093.132818781535</v>
+        <v>7609.137720049101</v>
       </c>
       <c r="C7">
-        <v>19760.37425243131</v>
+        <v>21433.13090549027</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11582,22 +11582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29852.59207468966</v>
+        <v>32024.28182301828</v>
       </c>
       <c r="C8">
-        <v>100335.233325058</v>
+        <v>108828.8188683613</v>
       </c>
       <c r="D8">
-        <v>994.3211256309354</v>
+        <v>1065.516308079975</v>
       </c>
       <c r="E8">
-        <v>82.26968625178053</v>
+        <v>88.77409999976936</v>
       </c>
       <c r="F8">
-        <v>3510.935775002082</v>
+        <v>3808.143768184441</v>
       </c>
       <c r="G8">
-        <v>2685.350707121284</v>
+        <v>2904.226862553936</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12061.023535291</v>
+        <v>12946.35174359161</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1033.746719583357</v>
+        <v>1113.444081800163</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>87318.91387558509</v>
+        <v>94683.41689559731</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6921.056705049658</v>
+        <v>7433.131345801587</v>
       </c>
       <c r="C7">
-        <v>19658.0573166008</v>
+        <v>21316.023684368</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11800,22 +11800,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29128.38203093666</v>
+        <v>31283.53064477392</v>
       </c>
       <c r="C8">
-        <v>99815.70907422574</v>
+        <v>108234.1954971007</v>
       </c>
       <c r="D8">
-        <v>964.8818828232797</v>
+        <v>1035.708139487328</v>
       </c>
       <c r="E8">
-        <v>82.69973756666852</v>
+        <v>89.07552654401296</v>
       </c>
       <c r="F8">
-        <v>3492.756555023407</v>
+        <v>3787.336675823896</v>
       </c>
       <c r="G8">
-        <v>2657.911402165045</v>
+        <v>2874.915503016958</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11462.21053662897</v>
+        <v>12327.97376579424</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1033.822195389999</v>
+        <v>1111.69066159527</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85153.35358012511</v>
+        <v>92303.05474951136</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6631.862842854418</v>
+        <v>7132.549443110458</v>
       </c>
       <c r="C7">
-        <v>19170.5259614655</v>
+        <v>20780.13411101969</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12018,22 +12018,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27911.26307670544</v>
+        <v>30018.48328765792</v>
       </c>
       <c r="C8">
-        <v>97340.22092577815</v>
+        <v>105513.1637650346</v>
       </c>
       <c r="D8">
-        <v>916.9768429303172</v>
+        <v>986.237901263539</v>
       </c>
       <c r="E8">
-        <v>82.70577563119984</v>
+        <v>88.93525292762156</v>
       </c>
       <c r="F8">
-        <v>3406.134143205008</v>
+        <v>3692.122189980458</v>
       </c>
       <c r="G8">
-        <v>2580.238880431991</v>
+        <v>2791.268355413014</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9969.561802857774</v>
+        <v>10741.71604489519</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>961.3384783376328</v>
+        <v>1032.927145801103</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81530.58597840596</v>
+        <v>88340.53880215503</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5834.043136995752</v>
+        <v>6282.859558976593</v>
       </c>
       <c r="C7">
-        <v>18354.93435595387</v>
+        <v>19888.05515408187</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12236,22 +12236,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24553.51032673805</v>
+        <v>26442.42653684187</v>
       </c>
       <c r="C8">
-        <v>93198.97476355535</v>
+        <v>100983.5455935711</v>
       </c>
       <c r="D8">
-        <v>797.5649442286215</v>
+        <v>859.3372835916144</v>
       </c>
       <c r="E8">
-        <v>76.90707826701058</v>
+        <v>82.6341716640882</v>
       </c>
       <c r="F8">
-        <v>3261.223439136241</v>
+        <v>3533.621552086204</v>
       </c>
       <c r="G8">
-        <v>2418.897749294962</v>
+        <v>2617.091471305846</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7059.857673168251</v>
+        <v>7610.949281985982</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>755.8557877412094</v>
+        <v>810.8524529673997</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>76813.4715230702</v>
+        <v>83192.21805860419</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4210.841697667388</v>
+        <v>4535.298220316514</v>
       </c>
       <c r="C7">
-        <v>17292.97306697036</v>
+        <v>18729.01663918269</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12454,22 +12454,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17722.00559373592</v>
+        <v>19087.53313482045</v>
       </c>
       <c r="C8">
-        <v>87806.76243239317</v>
+        <v>95098.41415124388</v>
       </c>
       <c r="D8">
-        <v>564.7886138534599</v>
+        <v>608.8759425588783</v>
       </c>
       <c r="E8">
-        <v>60.46846301929672</v>
+        <v>64.86819623739194</v>
       </c>
       <c r="F8">
-        <v>3072.538860922811</v>
+        <v>3327.688722344171</v>
       </c>
       <c r="G8">
-        <v>2150.381476463775</v>
+        <v>2326.43148594992</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3795.989580793983</v>
+        <v>4082.772849685999</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>494.5447709796341</v>
+        <v>527.043781497166</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>71436.8080651881</v>
+        <v>77332.26849020453</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2357.434634819601</v>
+        <v>2530.386689273837</v>
       </c>
       <c r="C7">
-        <v>16082.52788692934</v>
+        <v>17409.76953251203</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12672,22 +12672,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9921.643411169582</v>
+        <v>10649.53999255472</v>
       </c>
       <c r="C8">
-        <v>81660.60861895187</v>
+        <v>88399.80791179358</v>
       </c>
       <c r="D8">
-        <v>303.6791664635185</v>
+        <v>326.6218279748797</v>
       </c>
       <c r="E8">
-        <v>39.5635816783707</v>
+        <v>42.16350251977326</v>
       </c>
       <c r="F8">
-        <v>2857.472322607527</v>
+        <v>3093.290739608184</v>
       </c>
       <c r="G8">
-        <v>1843.996252174894</v>
+        <v>1994.015622178586</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2595.419473079796</v>
+        <v>2789.427350678681</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>382.5688440998933</v>
+        <v>404.6848837890077</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65867.2300632234</v>
+        <v>71268.95720680599</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1658.893612335288</v>
+        <v>1776.033335264262</v>
       </c>
       <c r="C7">
-        <v>14828.65196552356</v>
+        <v>16044.73971884221</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12890,22 +12890,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6981.7209926235</v>
+        <v>7474.722386180024</v>
       </c>
       <c r="C8">
-        <v>75293.93096761935</v>
+        <v>81468.73549886243</v>
       </c>
       <c r="D8">
-        <v>207.6335578463836</v>
+        <v>223.1541880542944</v>
       </c>
       <c r="E8">
-        <v>30.60550752799145</v>
+        <v>32.3747907031206</v>
       </c>
       <c r="F8">
-        <v>2634.689202528938</v>
+        <v>2850.758288272242</v>
       </c>
       <c r="G8">
-        <v>1648.754557785884</v>
+        <v>1782.077305410647</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13004,7 +13004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.640389488281289E-12</v>
+        <v>6.1252148176485E-12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.001436651445607E-14</v>
+        <v>1.321874948614034E-14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01933498186269185</v>
+        <v>0.02481263083715092</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13082,10 +13082,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.252277359732212E-12</v>
+        <v>2.972957914874434E-12</v>
       </c>
       <c r="C7">
-        <v>0.004352873447484651</v>
+        <v>0.00558605343931966</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13108,22 +13108,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.479072079563101E-12</v>
+        <v>1.251217228767642E-11</v>
       </c>
       <c r="C8">
-        <v>0.02210214074938813</v>
+        <v>0.02836373279374604</v>
       </c>
       <c r="D8">
-        <v>3.71231159062503E-13</v>
+        <v>4.900171854118797E-13</v>
       </c>
       <c r="E8">
-        <v>8.011493211564849E-16</v>
+        <v>1.057499958891227E-15</v>
       </c>
       <c r="F8">
-        <v>0.0007733992745076748</v>
+        <v>0.0009925052334860377</v>
       </c>
       <c r="G8">
-        <v>0.0004352873449736928</v>
+        <v>0.0005586053442292616</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2512.600065014099</v>
+        <v>2707.961462708167</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>354.9208208005633</v>
+        <v>374.3708829067367</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>60564.23326538214</v>
+        <v>65502.20763343209</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1589.608853754669</v>
+        <v>1704.57943185128</v>
       </c>
       <c r="C7">
-        <v>13634.79131867392</v>
+        <v>14746.47467393577</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13326,22 +13326,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6690.124925308368</v>
+        <v>7173.997123418279</v>
       </c>
       <c r="C8">
-        <v>69231.98674383904</v>
+        <v>74876.66773058996</v>
       </c>
       <c r="D8">
-        <v>201.0080052011278</v>
+        <v>216.6369170166533</v>
       </c>
       <c r="E8">
-        <v>28.39366566404505</v>
+        <v>29.94967063253892</v>
       </c>
       <c r="F8">
-        <v>2422.569330615288</v>
+        <v>2620.088305337286</v>
       </c>
       <c r="G8">
-        <v>1522.440017242859</v>
+        <v>1645.105410578705</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2498.044341683671</v>
+        <v>2704.280775213036</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>322.2343708294619</v>
+        <v>340.3830064261952</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55943.95150860111</v>
+        <v>60484.22235408412</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1547.965638867484</v>
+        <v>1666.811635266995</v>
       </c>
       <c r="C7">
-        <v>12594.62991992979</v>
+        <v>13616.77850781268</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13544,22 +13544,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6514.862747302328</v>
+        <v>7015.04526761697</v>
       </c>
       <c r="C8">
-        <v>63950.46548794128</v>
+        <v>69140.52493458812</v>
       </c>
       <c r="D8">
-        <v>199.8435473346936</v>
+        <v>216.3424620170428</v>
       </c>
       <c r="E8">
-        <v>25.77874966635693</v>
+        <v>27.2306405140956</v>
       </c>
       <c r="F8">
-        <v>2237.758060344046</v>
+        <v>2419.368894163367</v>
       </c>
       <c r="G8">
-        <v>1414.259555879727</v>
+        <v>1528.359014307967</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2527.274780418645</v>
+        <v>2750.984393814917</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>276.6832098168301</v>
+        <v>294.0868966138431</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>52346.19904280597</v>
+        <v>56583.70243091345</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1513.852152515416</v>
+        <v>1640.350243620342</v>
       </c>
       <c r="C7">
-        <v>11784.66995771228</v>
+        <v>12738.65668046741</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13762,22 +13762,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6371.290644772783</v>
+        <v>6903.678238303137</v>
       </c>
       <c r="C8">
-        <v>59837.81454545977</v>
+        <v>64681.77545398691</v>
       </c>
       <c r="D8">
-        <v>202.1819824334915</v>
+        <v>220.0787515051932</v>
       </c>
       <c r="E8">
-        <v>22.13465678534639</v>
+        <v>23.52695172910744</v>
       </c>
       <c r="F8">
-        <v>2093.84796171224</v>
+        <v>2263.34809723654</v>
       </c>
       <c r="G8">
-        <v>1329.85221102277</v>
+        <v>1437.900692408775</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2816.154808689741</v>
+        <v>3076.166677422252</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>246.0397375126656</v>
+        <v>264.3338072713051</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>50006.39714354408</v>
+        <v>54055.40829046536</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1620.955582568947</v>
+        <v>1765.933344486898</v>
       </c>
       <c r="C7">
-        <v>11257.91168961566</v>
+        <v>12169.46326153677</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13980,22 +13980,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6822.052683053261</v>
+        <v>7432.214948022878</v>
       </c>
       <c r="C8">
-        <v>57163.14790907886</v>
+        <v>61791.64018802824</v>
       </c>
       <c r="D8">
-        <v>225.2923846951791</v>
+        <v>246.09333419378</v>
       </c>
       <c r="E8">
-        <v>19.68317900101324</v>
+        <v>21.1467045817044</v>
       </c>
       <c r="F8">
-        <v>2000.255885741765</v>
+        <v>2162.216331618616</v>
       </c>
       <c r="G8">
-        <v>1287.88672721846</v>
+        <v>1393.539660602367</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3731.50204505992</v>
+        <v>4071.459438228876</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>279.4787646515996</v>
+        <v>303.7790197783522</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>49036.31761622344</v>
+        <v>53019.33497350472</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2098.548861603945</v>
+        <v>2288.506545511872</v>
       </c>
       <c r="C7">
-        <v>11039.51823849118</v>
+        <v>11936.21266616138</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14198,22 +14198,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8832.080931628254</v>
+        <v>9631.548443943961</v>
       </c>
       <c r="C8">
-        <v>56054.23379665799</v>
+        <v>60607.28747227343</v>
       </c>
       <c r="D8">
-        <v>298.5201636047935</v>
+        <v>325.7167550583099</v>
       </c>
       <c r="E8">
-        <v>22.35830117212796</v>
+        <v>24.30232158226816</v>
       </c>
       <c r="F8">
-        <v>1961.452704648939</v>
+        <v>2120.773398940191</v>
       </c>
       <c r="G8">
-        <v>1313.806710009512</v>
+        <v>1422.471921167325</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5134.211300589217</v>
+        <v>5574.702414838108</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>377.1164181734899</v>
+        <v>411.6522686996675</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>49418.73874199604</v>
+        <v>53455.04725238129</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2879.556207494657</v>
+        <v>3128.918050794381</v>
       </c>
       <c r="C7">
-        <v>11125.61248858948</v>
+        <v>12034.30432318664</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14416,22 +14416,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12119.07615642887</v>
+        <v>13168.55564274394</v>
       </c>
       <c r="C8">
-        <v>56491.38577370095</v>
+        <v>61105.35745663419</v>
       </c>
       <c r="D8">
-        <v>410.7369040471372</v>
+        <v>445.9761931870484</v>
       </c>
       <c r="E8">
-        <v>30.16931345387918</v>
+        <v>32.93218149597338</v>
       </c>
       <c r="F8">
-        <v>1976.749549679843</v>
+        <v>2138.201890095253</v>
       </c>
       <c r="G8">
-        <v>1400.516869608414</v>
+        <v>1516.322237398102</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6858.278183081429</v>
+        <v>7405.451506626131</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>516.4565852435808</v>
+        <v>563.380378851658</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>51019.24493772142</v>
+        <v>55214.68796314856</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3859.963324484526</v>
+        <v>4173.978649874477</v>
       </c>
       <c r="C7">
-        <v>11485.93353628338</v>
+        <v>12430.45123355905</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14634,22 +14634,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16245.27743848082</v>
+        <v>17566.86151896579</v>
       </c>
       <c r="C8">
-        <v>58320.95114176824</v>
+        <v>63116.83214711609</v>
       </c>
       <c r="D8">
-        <v>548.662254646514</v>
+        <v>592.4361205300902</v>
       </c>
       <c r="E8">
-        <v>41.31652681948644</v>
+        <v>45.07043030813261</v>
       </c>
       <c r="F8">
-        <v>2040.769797508859</v>
+        <v>2208.587518525944</v>
       </c>
       <c r="G8">
-        <v>1534.58968607679</v>
+        <v>1660.442988343352</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8884.563304645586</v>
+        <v>9560.439971966074</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>683.7844220042994</v>
+        <v>744.9032059273114</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>53613.67870224098</v>
+        <v>58053.019609323</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5016.001745542113</v>
+        <v>5407.221974107073</v>
       </c>
       <c r="C7">
-        <v>12070.01693108738</v>
+        <v>13069.44321945936</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14852,22 +14852,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21110.65135550678</v>
+        <v>22757.16470765952</v>
       </c>
       <c r="C8">
-        <v>61286.69171683556</v>
+        <v>66361.37646490714</v>
       </c>
       <c r="D8">
-        <v>710.7650643716465</v>
+        <v>764.8351977572855</v>
       </c>
       <c r="E8">
-        <v>54.70275376034392</v>
+        <v>59.59225647418489</v>
       </c>
       <c r="F8">
-        <v>2144.547148089641</v>
+        <v>2322.120784372922</v>
       </c>
       <c r="G8">
-        <v>1708.601867662949</v>
+        <v>1847.666519356643</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10999.5615651346</v>
+        <v>11820.13404155764</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>859.6179430635256</v>
+        <v>935.4269989274582</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>56924.67072448721</v>
+        <v>61667.31408316152</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6223.902253485432</v>
+        <v>6700.577457326028</v>
       </c>
       <c r="C7">
-        <v>12815.41867807731</v>
+        <v>13883.12727452017</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15070,22 +15070,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26194.29521946541</v>
+        <v>28200.45960069538</v>
       </c>
       <c r="C8">
-        <v>65071.54200609253</v>
+        <v>70492.93685310982</v>
       </c>
       <c r="D8">
-        <v>879.9649252107675</v>
+        <v>945.6107233246108</v>
       </c>
       <c r="E8">
-        <v>68.76943544508201</v>
+        <v>74.83415991419662</v>
       </c>
       <c r="F8">
-        <v>2276.98682897949</v>
+        <v>2466.692563326463</v>
       </c>
       <c r="G8">
-        <v>1903.932093156274</v>
+        <v>2058.370473184619</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12603.60785734841</v>
+        <v>13531.47967580483</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>995.6262767684481</v>
+        <v>1082.120129376935</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>60658.23459946867</v>
+        <v>65737.24902064721</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7142.801908391312</v>
+        <v>7682.625257697971</v>
       </c>
       <c r="C7">
-        <v>13655.95378544421</v>
+        <v>14799.38940748631</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15288,22 +15288,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30061.63243932457</v>
+        <v>32333.56596305248</v>
       </c>
       <c r="C8">
-        <v>69339.4412390832</v>
+        <v>75145.34746657585</v>
       </c>
       <c r="D8">
-        <v>1008.288628587872</v>
+        <v>1082.518374064386</v>
       </c>
       <c r="E8">
-        <v>79.6501021414758</v>
+        <v>86.56961035015473</v>
       </c>
       <c r="F8">
-        <v>2426.329383978749</v>
+        <v>2629.489960825891</v>
       </c>
       <c r="G8">
-        <v>2079.875569383551</v>
+        <v>2248.201466518427</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.170045172747243E-10</v>
+        <v>5.500378435629598E-10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.070073128375095E-12</v>
+        <v>1.399737007547363E-12</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06344029754778174</v>
+        <v>0.07852523677760179</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15480,10 +15480,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.025790847196566E-10</v>
+        <v>2.671937270853777E-10</v>
       </c>
       <c r="C7">
-        <v>0.01428227803146328</v>
+        <v>0.01767834180316528</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15506,22 +15506,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.525867107672114E-10</v>
+        <v>1.124527841699986E-09</v>
       </c>
       <c r="C8">
-        <v>0.07251966386840573</v>
+        <v>0.08976350988911418</v>
       </c>
       <c r="D8">
-        <v>3.336036138197792E-11</v>
+        <v>4.400302748503676E-11</v>
       </c>
       <c r="E8">
-        <v>8.560585027000757E-14</v>
+        <v>1.11978960603789E-13</v>
       </c>
       <c r="F8">
-        <v>0.002537611901911272</v>
+        <v>0.003141009471104074</v>
       </c>
       <c r="G8">
-        <v>0.001428227823404236</v>
+        <v>0.001767834207035901</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13276.63148386074</v>
+        <v>14236.6915206248</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1057.103010269682</v>
+        <v>1147.127684732556</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>64533.01963588775</v>
+        <v>69956.73378462592</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7533.022926333525</v>
+        <v>8092.134501554601</v>
       </c>
       <c r="C7">
-        <v>14528.28193240174</v>
+        <v>15749.31960766038</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15724,22 +15724,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31703.94045261229</v>
+        <v>34057.05158217085</v>
       </c>
       <c r="C8">
-        <v>73768.77274074897</v>
+        <v>79968.71098486843</v>
       </c>
       <c r="D8">
-        <v>1062.130518708859</v>
+        <v>1138.935321649983</v>
       </c>
       <c r="E8">
-        <v>84.56824082157453</v>
+        <v>91.77021477860441</v>
       </c>
       <c r="F8">
-        <v>2581.320785435512</v>
+        <v>2798.269351385039</v>
       </c>
       <c r="G8">
-        <v>2206.130485873526</v>
+        <v>2384.145410921497</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13283.5450724914</v>
+        <v>14229.64731871726</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1066.734105249272</v>
+        <v>1155.499874068903</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>68299.27457626062</v>
+        <v>74054.46655000591</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7546.561092197806</v>
+        <v>8097.596902441257</v>
       </c>
       <c r="C7">
-        <v>15376.17676068913</v>
+        <v>16671.839849778</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15942,22 +15942,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31760.91800446578</v>
+        <v>34080.04097622055</v>
       </c>
       <c r="C8">
-        <v>78074.04167667807</v>
+        <v>84652.89775975059</v>
       </c>
       <c r="D8">
-        <v>1062.683605799311</v>
+        <v>1138.37178549738</v>
       </c>
       <c r="E8">
-        <v>85.33872841994176</v>
+        <v>92.43998992551221</v>
       </c>
       <c r="F8">
-        <v>2731.970983050427</v>
+        <v>2962.178662000239</v>
       </c>
       <c r="G8">
-        <v>2292.273785288693</v>
+        <v>2476.943675221926</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13001.64704458938</v>
+        <v>13925.09430492731</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1057.567780922161</v>
+        <v>1143.562810346138</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>71748.95131610282</v>
+        <v>77804.80715895641</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7400.67595601876</v>
+        <v>7937.833692232452</v>
       </c>
       <c r="C7">
-        <v>16152.80051911318</v>
+        <v>17516.15189370207</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16160,22 +16160,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31146.93690875274</v>
+        <v>33407.65177038503</v>
       </c>
       <c r="C8">
-        <v>82017.42478328457</v>
+        <v>88939.97475758904</v>
       </c>
       <c r="D8">
-        <v>1040.13176356715</v>
+        <v>1114.007544394184</v>
       </c>
       <c r="E8">
-        <v>84.60542247377285</v>
+        <v>91.48502482769099</v>
       </c>
       <c r="F8">
-        <v>2869.958052644115</v>
+        <v>3112.192286358259</v>
       </c>
       <c r="G8">
-        <v>2355.347647513193</v>
+        <v>2545.398558593451</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12560.367583845</v>
+        <v>13461.50353159636</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1042.624882614264</v>
+        <v>1125.544779335594</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>74720.36538352944</v>
+        <v>81032.7187186751</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7171.680240644715</v>
+        <v>7694.803602240763</v>
       </c>
       <c r="C7">
-        <v>16821.75327466456</v>
+        <v>18242.84978351183</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16378,22 +16378,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30183.17155251803</v>
+        <v>32384.82048782584</v>
       </c>
       <c r="C8">
-        <v>85414.09783989079</v>
+        <v>92629.85438230916</v>
       </c>
       <c r="D8">
-        <v>1004.8294067076</v>
+        <v>1076.920282527708</v>
       </c>
       <c r="E8">
-        <v>83.40999060914109</v>
+        <v>90.04358234684749</v>
       </c>
       <c r="F8">
-        <v>2988.81461534118</v>
+        <v>3241.308748747007</v>
       </c>
       <c r="G8">
-        <v>2399.343351530927</v>
+        <v>2593.765338575259</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11982.45017899966</v>
+        <v>12858.24428679157</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1025.757711983386</v>
+        <v>1105.567421808281</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77100.15650107306</v>
+        <v>83615.78806914068</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6874.640039352498</v>
+        <v>7382.22792435844</v>
       </c>
       <c r="C7">
-        <v>17357.51429268256</v>
+        <v>18824.37471425659</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16596,22 +16596,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28933.03001625909</v>
+        <v>31069.29539578427</v>
       </c>
       <c r="C8">
-        <v>88134.47681969138</v>
+        <v>95582.60410583396</v>
       </c>
       <c r="D8">
-        <v>958.5960143199724</v>
+        <v>1028.659542943326</v>
       </c>
       <c r="E8">
-        <v>82.06061695867081</v>
+        <v>88.44539374466241</v>
       </c>
       <c r="F8">
-        <v>3084.006260042925</v>
+        <v>3344.63152276563</v>
       </c>
       <c r="G8">
-        <v>2423.215433203506</v>
+        <v>2620.660263861503</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11174.83507065317</v>
+        <v>12010.16471276746</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>998.4278592181424</v>
+        <v>1074.509897507934</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78823.49942882982</v>
+        <v>85484.36830295481</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6455.558852624439</v>
+        <v>6939.651989224236</v>
       </c>
       <c r="C7">
-        <v>17745.4895038524</v>
+        <v>19245.04711736646</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16814,22 +16814,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27169.259333657</v>
+        <v>29206.64327983175</v>
       </c>
       <c r="C8">
-        <v>90104.4589080759</v>
+        <v>97718.60938489632</v>
       </c>
       <c r="D8">
-        <v>893.9868056522536</v>
+        <v>960.8131770213961</v>
       </c>
       <c r="E8">
-        <v>79.87422873745136</v>
+        <v>85.96079180063468</v>
       </c>
       <c r="F8">
-        <v>3152.939977153196</v>
+        <v>3419.374732118195</v>
       </c>
       <c r="G8">
-        <v>2420.104835647684</v>
+        <v>2618.469910659069</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9914.584118670226</v>
+        <v>10672.40801758999</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>936.0239694338742</v>
+        <v>1006.067047061486</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>79872.35017215043</v>
+        <v>86619.60761906448</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5780.679077704609</v>
+        <v>6220.936192845136</v>
       </c>
       <c r="C7">
-        <v>17981.61667394219</v>
+        <v>19500.62289761425</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17032,22 +17032,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24328.91908698995</v>
+        <v>26181.81207546885</v>
       </c>
       <c r="C8">
-        <v>91303.41771334397</v>
+        <v>99016.32041080167</v>
       </c>
       <c r="D8">
-        <v>793.1667294936176</v>
+        <v>853.7926414071985</v>
       </c>
       <c r="E8">
-        <v>74.8819175547099</v>
+        <v>80.48536376491883</v>
       </c>
       <c r="F8">
-        <v>3194.89400688602</v>
+        <v>3464.784304762582</v>
       </c>
       <c r="G8">
-        <v>2376.22957516468</v>
+        <v>2572.155909045938</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8150.10830153501</v>
+        <v>8785.73621498068</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>824.0483068639775</v>
+        <v>884.655711645587</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80271.50918412725</v>
+        <v>87049.1220498155</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4809.727518287222</v>
+        <v>5180.962933636572</v>
       </c>
       <c r="C7">
-        <v>18071.47911482251</v>
+        <v>19597.31923662324</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17250,22 +17250,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20242.51304214302</v>
+        <v>21804.91708859733</v>
       </c>
       <c r="C8">
-        <v>91759.70304770583</v>
+        <v>99507.30553143786</v>
       </c>
       <c r="D8">
-        <v>652.0086641228004</v>
+        <v>702.858897198454</v>
       </c>
       <c r="E8">
-        <v>65.92386454911816</v>
+        <v>70.77245693164693</v>
       </c>
       <c r="F8">
-        <v>3210.860367365093</v>
+        <v>3481.964881992623</v>
       </c>
       <c r="G8">
-        <v>2288.120663310972</v>
+        <v>2477.828217025981</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6321.941357348996</v>
+        <v>6825.365142154439</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>690.1772360403457</v>
+        <v>739.8387888330925</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80082.90773233175</v>
+        <v>86840.75144579509</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3784.823104160212</v>
+        <v>4080.602971811062</v>
       </c>
       <c r="C7">
-        <v>18029.01937746626</v>
+        <v>19550.4088812933</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17468,22 +17468,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15929.03771718241</v>
+        <v>17173.87493628912</v>
       </c>
       <c r="C8">
-        <v>91544.10957765624</v>
+        <v>99269.11361324524</v>
       </c>
       <c r="D8">
-        <v>505.7553085879194</v>
+        <v>546.0292113723549</v>
       </c>
       <c r="E8">
-        <v>55.21417888322763</v>
+        <v>59.18710310664737</v>
       </c>
       <c r="F8">
-        <v>3203.316309293273</v>
+        <v>3473.630057831807</v>
       </c>
       <c r="G8">
-        <v>2181.384248162647</v>
+        <v>2363.101185310436</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5052.501228680173</v>
+        <v>5465.393538502153</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>583.2575829011912</v>
+        <v>624.09505846297</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>79398.9538408401</v>
+        <v>86095.30885507658</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3058.366528138361</v>
+        <v>3301.068763529998</v>
       </c>
       <c r="C7">
-        <v>17875.04122766916</v>
+        <v>19382.58781568249</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17686,22 +17686,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12871.62819475908</v>
+        <v>13893.07964842106</v>
       </c>
       <c r="C8">
-        <v>90762.2704591511</v>
+        <v>98416.98573551289</v>
       </c>
       <c r="D8">
-        <v>404.2000982944136</v>
+        <v>437.231483080172</v>
       </c>
       <c r="E8">
-        <v>46.66060663209527</v>
+        <v>49.92760467703757</v>
       </c>
       <c r="F8">
-        <v>3175.958153633607</v>
+        <v>3443.812354203066</v>
       </c>
       <c r="G8">
-        <v>2093.340775580752</v>
+        <v>2268.365657921248</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.651160975924243E-08</v>
+        <v>2.175834217722863E-08</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17826,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.09365584799169E-11</v>
+        <v>6.604224413594777E-11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.180138662822133</v>
+        <v>0.2133165000860991</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.03034306605179E-09</v>
+        <v>1.058092295201097E-08</v>
       </c>
       <c r="C7">
-        <v>0.04055451449772844</v>
+        <v>0.04802382209247468</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17904,22 +17904,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.379699237210071E-08</v>
+        <v>4.453151868575395E-08</v>
       </c>
       <c r="C8">
-        <v>0.2059195146070361</v>
+        <v>0.2438456546042723</v>
       </c>
       <c r="D8">
-        <v>1.320928780739393E-09</v>
+        <v>1.74066737417829E-09</v>
       </c>
       <c r="E8">
-        <v>4.07492467839335E-12</v>
+        <v>5.283379530875819E-12</v>
       </c>
       <c r="F8">
-        <v>0.007205546512885326</v>
+        <v>0.008532660003443973</v>
       </c>
       <c r="G8">
-        <v>0.00405545225280715</v>
+        <v>0.004802383267339763</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4420.971633762016</v>
+        <v>4791.978154119257</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>513.0090389473991</v>
+        <v>548.0992054814587</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78335.66229142107</v>
+        <v>84939.11188843763</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2678.901928536949</v>
+        <v>2895.284211814434</v>
       </c>
       <c r="C7">
-        <v>17635.66300713244</v>
+        <v>19122.29385151508</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18122,22 +18122,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11274.59030077075</v>
+        <v>12185.2699961754</v>
       </c>
       <c r="C8">
-        <v>89546.80412720478</v>
+        <v>97095.31766919943</v>
       </c>
       <c r="D8">
-        <v>353.6777307009611</v>
+        <v>383.3582523295404</v>
       </c>
       <c r="E8">
-        <v>41.04072311579191</v>
+        <v>43.84793643851668</v>
       </c>
       <c r="F8">
-        <v>3133.426491656846</v>
+        <v>3397.564475537508</v>
       </c>
       <c r="G8">
-        <v>2031.456493566939</v>
+        <v>2201.757806332951</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4261.004744960817</v>
+        <v>4628.668202811773</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>470.3092314971579</v>
+        <v>502.7508483810207</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77025.81701913598</v>
+        <v>83516.56463723704</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2556.410545925928</v>
+        <v>2768.373319945811</v>
       </c>
       <c r="C7">
-        <v>17340.77828748113</v>
+        <v>18802.03659958088</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18340,22 +18340,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10759.06558536302</v>
+        <v>11651.14506413446</v>
       </c>
       <c r="C8">
-        <v>88049.49811608164</v>
+        <v>95469.18014334228</v>
       </c>
       <c r="D8">
-        <v>340.8803795968652</v>
+        <v>370.2934562249417</v>
       </c>
       <c r="E8">
-        <v>37.62473851977261</v>
+        <v>40.22006787048164</v>
       </c>
       <c r="F8">
-        <v>3081.032680765442</v>
+        <v>3340.662585489485</v>
       </c>
       <c r="G8">
-        <v>1989.718883340705</v>
+        <v>2157.040991952669</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4334.196945720108</v>
+        <v>4718.383797387757</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>437.5643598009228</v>
+        <v>469.3355946711923</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75611.8856955587</v>
+        <v>81982.48075978161</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2557.094618271842</v>
+        <v>2776.329624330454</v>
       </c>
       <c r="C7">
-        <v>17022.46073442243</v>
+        <v>18456.66917054413</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18558,22 +18558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10761.94461402552</v>
+        <v>11684.63045278923</v>
       </c>
       <c r="C8">
-        <v>86433.20960101587</v>
+        <v>93715.5432368442</v>
       </c>
       <c r="D8">
-        <v>346.7357556576084</v>
+        <v>377.4707037910204</v>
       </c>
       <c r="E8">
-        <v>35.0051487840738</v>
+        <v>37.54684757369537</v>
       </c>
       <c r="F8">
-        <v>3024.47542782235</v>
+        <v>3279.299230391267</v>
       </c>
       <c r="G8">
-        <v>1957.955535269427</v>
+        <v>2123.299879487458</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4638.93395702123</v>
+        <v>5056.543435594983</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>418.7960982071846</v>
+        <v>451.8021040945205</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>74238.13199715821</v>
+        <v>80493.53775772848</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2684.432869545991</v>
+        <v>2921.12113159644</v>
       </c>
       <c r="C7">
-        <v>16713.18834722203</v>
+        <v>18121.46428106032</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18776,22 +18776,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11297.86815696638</v>
+        <v>12294.00883505297</v>
       </c>
       <c r="C8">
-        <v>84862.84880043878</v>
+        <v>92013.5076190765</v>
       </c>
       <c r="D8">
-        <v>371.1147165616982</v>
+        <v>404.5234748475984</v>
       </c>
       <c r="E8">
-        <v>33.50368785657475</v>
+        <v>36.14416832756162</v>
       </c>
       <c r="F8">
-        <v>2969.525279886331</v>
+        <v>3219.741510309142</v>
       </c>
       <c r="G8">
-        <v>1939.762121676801</v>
+        <v>2104.258541265675</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5361.184360942375</v>
+        <v>5839.969319899275</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>438.707960364384</v>
+        <v>476.2084851800881</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>73041.50909035264</v>
+        <v>79198.4023815909</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3054.421284624671</v>
+        <v>3325.421358484366</v>
       </c>
       <c r="C7">
-        <v>16443.79331418419</v>
+        <v>17829.89119194533</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18994,22 +18994,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12855.02400190686</v>
+        <v>13995.57146715705</v>
       </c>
       <c r="C8">
-        <v>83494.96916662378</v>
+        <v>90533.01673596172</v>
       </c>
       <c r="D8">
-        <v>428.8947488753898</v>
+        <v>467.1975455919418</v>
       </c>
       <c r="E8">
-        <v>35.0966368291507</v>
+        <v>38.09667881440703</v>
       </c>
       <c r="F8">
-        <v>2921.660363614109</v>
+        <v>3167.936095263639</v>
       </c>
       <c r="G8">
-        <v>1949.821459880885</v>
+        <v>2115.531255042969</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6548.486353300077</v>
+        <v>7115.045271624449</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>510.0274584315442</v>
+        <v>555.7193891508109</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>72141.49162466929</v>
+        <v>78226.69354310456</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3703.501703996219</v>
+        <v>4025.577377996806</v>
       </c>
       <c r="C7">
-        <v>16241.17289506681</v>
+        <v>17611.13093492668</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19212,22 +19212,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15586.78350482504</v>
+        <v>16942.29086084997</v>
       </c>
       <c r="C8">
-        <v>82466.14416721561</v>
+        <v>89422.24013073042</v>
       </c>
       <c r="D8">
-        <v>523.8789082640059</v>
+        <v>569.2036217299557</v>
       </c>
       <c r="E8">
-        <v>40.80219667452351</v>
+        <v>44.45755113206485</v>
       </c>
       <c r="F8">
-        <v>2885.659664986774</v>
+        <v>3129.067741724185</v>
       </c>
       <c r="G8">
-        <v>1994.467459906303</v>
+        <v>2163.670831292348</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8088.396678730863</v>
+        <v>8758.217047912842</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>625.0318012403808</v>
+        <v>681.6323388925792</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>71629.85073226664</v>
+        <v>77677.87502156118</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4569.177532729751</v>
+        <v>4952.687725549166</v>
       </c>
       <c r="C7">
-        <v>16125.98747255115</v>
+        <v>17487.57573395059</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19430,22 +19430,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19230.11967860619</v>
+        <v>20844.18410334233</v>
       </c>
       <c r="C8">
-        <v>81881.27891637996</v>
+        <v>88794.8765109885</v>
       </c>
       <c r="D8">
-        <v>647.0717342984686</v>
+        <v>700.657363833027</v>
       </c>
       <c r="E8">
-        <v>50.00254409923044</v>
+        <v>54.53058711140631</v>
       </c>
       <c r="F8">
-        <v>2865.194029290668</v>
+        <v>3107.11500086245</v>
       </c>
       <c r="G8">
-        <v>2069.516500528089</v>
+        <v>2244.026345949975</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9818.906598687454</v>
+        <v>10599.07566632793</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>765.033306026569</v>
+        <v>833.7715025332906</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>71562.0895493061</v>
+        <v>77611.95016739808</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5553.397433624996</v>
+        <v>6003.067285454991</v>
       </c>
       <c r="C7">
-        <v>16110.73243604924</v>
+        <v>17472.73410910431</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19648,22 +19648,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23372.36767591134</v>
+        <v>25264.87568301123</v>
       </c>
       <c r="C8">
-        <v>81803.8199762178</v>
+        <v>88719.51670894974</v>
       </c>
       <c r="D8">
-        <v>785.512527894996</v>
+        <v>847.9260533062338</v>
       </c>
       <c r="E8">
-        <v>61.20266448212549</v>
+        <v>66.70172020266321</v>
       </c>
       <c r="F8">
-        <v>2862.483581972247</v>
+        <v>3104.478006695926</v>
       </c>
       <c r="G8">
-        <v>2166.412986967423</v>
+        <v>2347.580139455929</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11560.91761247906</v>
+        <v>12452.52070264627</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>909.8885248694955</v>
+        <v>990.5888889539552</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>71952.43705151901</v>
+        <v>78044.02900599089</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6548.312861465274</v>
+        <v>7064.480841635486</v>
       </c>
       <c r="C7">
-        <v>16198.6111467582</v>
+        <v>17570.00777178923</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19866,22 +19866,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27559.62952126802</v>
+        <v>29732.00561342821</v>
       </c>
       <c r="C8">
-        <v>82250.03272657622</v>
+        <v>89213.43324702713</v>
       </c>
       <c r="D8">
-        <v>924.8734089983244</v>
+        <v>996.2016562117009</v>
       </c>
       <c r="E8">
-        <v>72.7910819895596</v>
+        <v>79.24711111631638</v>
       </c>
       <c r="F8">
-        <v>2878.097482060763</v>
+        <v>3121.761160239638</v>
       </c>
       <c r="G8">
-        <v>2274.692400822347</v>
+        <v>2463.448861342471</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13066.75947595142</v>
+        <v>14055.80112274065</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1037.574721260739</v>
+        <v>1128.323211039762</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>72773.7289968409</v>
+        <v>78944.21773957922</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7410.959747633975</v>
+        <v>7984.83816776511</v>
       </c>
       <c r="C7">
-        <v>16383.50813434332</v>
+        <v>17772.66674835245</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20084,22 +20084,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31190.21790234379</v>
+        <v>33605.47767744342</v>
       </c>
       <c r="C8">
-        <v>83188.86526858489</v>
+        <v>90242.45402563846</v>
       </c>
       <c r="D8">
-        <v>1045.340758076113</v>
+        <v>1124.464089819252</v>
       </c>
       <c r="E8">
-        <v>83.00597770085909</v>
+        <v>90.26585688318094</v>
       </c>
       <c r="F8">
-        <v>2910.949159873639</v>
+        <v>3157.768709583172</v>
       </c>
       <c r="G8">
-        <v>2379.446788197729</v>
+        <v>2575.750491611755</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.709254753594567E-07</v>
+        <v>4.881244191241091E-07</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20224,7 +20224,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.406936393092605E-09</v>
+        <v>1.807522078220731E-09</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4541438748303439</v>
+        <v>0.5160116990045844</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20276,10 +20276,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.806759869454215E-07</v>
+        <v>2.377164759972088E-07</v>
       </c>
       <c r="C7">
-        <v>0.1022411517179245</v>
+        <v>0.116169419714976</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20302,22 +20302,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.604039954943558E-07</v>
+        <v>1.000468082112759E-06</v>
       </c>
       <c r="C8">
-        <v>0.5191394495870149</v>
+        <v>0.5898615928746678</v>
       </c>
       <c r="D8">
-        <v>2.967403802875652E-08</v>
+        <v>3.90499535299287E-08</v>
       </c>
       <c r="E8">
-        <v>1.125549114474083E-10</v>
+        <v>1.446017662576584E-10</v>
       </c>
       <c r="F8">
-        <v>0.01816575499321377</v>
+        <v>0.0206404679601834</v>
       </c>
       <c r="G8">
-        <v>0.01022413323939114</v>
+        <v>0.01161696574314519</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14027.63371191361</v>
+        <v>15075.03793201138</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1122.950533082197</v>
+        <v>1219.631751113936</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>73962.36271285907</v>
+        <v>80243.0340466186</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7965.54196821544</v>
+        <v>8573.896263457153</v>
       </c>
       <c r="C7">
-        <v>16651.10456541234</v>
+        <v>18065.06852334355</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20520,22 +20520,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33524.26651328436</v>
+        <v>36084.62356237962</v>
       </c>
       <c r="C8">
-        <v>84547.612324955</v>
+        <v>91727.15264235536</v>
       </c>
       <c r="D8">
-        <v>1122.210696953088</v>
+        <v>1206.003034560909</v>
       </c>
       <c r="E8">
-        <v>89.83604264657572</v>
+        <v>97.57054008911483</v>
       </c>
       <c r="F8">
-        <v>2958.494508514365</v>
+        <v>3209.721361864747</v>
       </c>
       <c r="G8">
-        <v>2461.664653362777</v>
+        <v>2663.896478680069</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14345.81248629012</v>
+        <v>15405.55004379577</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1158.707558259048</v>
+        <v>1256.661702792903</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>75427.30204353422</v>
+        <v>81841.23027332878</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8157.11043061366</v>
+        <v>8772.770598860992</v>
       </c>
       <c r="C7">
-        <v>16980.90552203884</v>
+        <v>18424.86952902953</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20738,22 +20738,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>34330.5132463509</v>
+        <v>36921.61823886668</v>
       </c>
       <c r="C8">
-        <v>86222.20894500008</v>
+        <v>93554.07744625436</v>
       </c>
       <c r="D8">
-        <v>1147.664998903209</v>
+        <v>1232.444003503661</v>
       </c>
       <c r="E8">
-        <v>92.69660466072378</v>
+        <v>100.5329362234322</v>
       </c>
       <c r="F8">
-        <v>3017.092081741371</v>
+        <v>3273.649210933154</v>
       </c>
       <c r="G8">
-        <v>2513.801595265249</v>
+        <v>2719.764012789052</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14178.87862166807</v>
+        <v>15221.02705061319</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1159.078893398214</v>
+        <v>1255.127554147067</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77061.31062835292</v>
+        <v>83622.03582969127</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8076.861448770861</v>
+        <v>8682.00696904699</v>
       </c>
       <c r="C7">
-        <v>17348.76894349586</v>
+        <v>18825.78126902867</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20956,22 +20956,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33992.77247925022</v>
+        <v>36539.62488201297</v>
       </c>
       <c r="C8">
-        <v>88090.07145368222</v>
+        <v>95589.74602528538</v>
       </c>
       <c r="D8">
-        <v>1134.310289733445</v>
+        <v>1217.682164049055</v>
       </c>
       <c r="E8">
-        <v>92.7263114718571</v>
+        <v>100.4102043317653</v>
       </c>
       <c r="F8">
-        <v>3082.452425134119</v>
+        <v>3344.881433187654</v>
       </c>
       <c r="G8">
-        <v>2542.563039226672</v>
+        <v>2750.778823807565</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13731.02784943672</v>
+        <v>14743.97645732988</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1142.428103382623</v>
+        <v>1235.210471005243</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78752.46933179782</v>
+        <v>85463.69772153326</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7842.882787870549</v>
+        <v>8430.463822443304</v>
       </c>
       <c r="C7">
-        <v>17729.49853858859</v>
+        <v>19240.39356115146</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21174,22 +21174,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33008.03559408373</v>
+        <v>35480.965029365</v>
       </c>
       <c r="C8">
-        <v>90023.26321763292</v>
+        <v>97694.98049798061</v>
       </c>
       <c r="D8">
-        <v>1098.482227954937</v>
+        <v>1179.518116586389</v>
       </c>
       <c r="E8">
-        <v>91.39424827060981</v>
+        <v>98.81683768041937</v>
       </c>
       <c r="F8">
-        <v>3150.098773271916</v>
+        <v>3418.547908861333</v>
       </c>
       <c r="G8">
-        <v>2557.238132645913</v>
+        <v>2767.085738359476</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13108.83386593005</v>
+        <v>14087.84894902507</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1118.456609195513</v>
+        <v>1207.580481664509</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80394.45754217295</v>
+        <v>87250.66242797299</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7516.930753623353</v>
+        <v>8084.245248800178</v>
       </c>
       <c r="C7">
-        <v>18099.15840859943</v>
+        <v>19642.6919070973</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21392,22 +21392,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31636.21395153223</v>
+        <v>34023.84839110296</v>
       </c>
       <c r="C8">
-        <v>91900.24736958467</v>
+        <v>99737.68970435073</v>
       </c>
       <c r="D8">
-        <v>1048.706709274404</v>
+        <v>1127.027915922005</v>
       </c>
       <c r="E8">
-        <v>89.47652873564101</v>
+        <v>96.60643853316066</v>
       </c>
       <c r="F8">
-        <v>3215.778301686921</v>
+        <v>3490.026497118923</v>
       </c>
       <c r="G8">
-        <v>2561.608916222278</v>
+        <v>2772.693715589747</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12268.36572226033</v>
+        <v>13200.89514887332</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1082.451443726391</v>
+        <v>1167.207625901674</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81894.72096200091</v>
+        <v>88882.44543898436</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7072.792684854801</v>
+        <v>7613.02600746797</v>
       </c>
       <c r="C7">
-        <v>18436.91185728523</v>
+        <v>20010.05428639146</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21610,22 +21610,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29766.98734454116</v>
+        <v>32040.64630697062</v>
       </c>
       <c r="C8">
-        <v>93615.22354601328</v>
+        <v>101603.0081224365</v>
       </c>
       <c r="D8">
-        <v>981.4692577808258</v>
+        <v>1056.071611909865</v>
       </c>
       <c r="E8">
-        <v>86.59611549811126</v>
+        <v>93.3766100721339</v>
       </c>
       <c r="F8">
-        <v>3275.788838480039</v>
+        <v>3555.297817559378</v>
       </c>
       <c r="G8">
-        <v>2550.970454214003</v>
+        <v>2762.308029385942</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11125.36705935663</v>
+        <v>11987.90969319096</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1023.412952606958</v>
+        <v>1102.289370974484</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>83180.22733917723</v>
+        <v>90279.86724841302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6458.118607042465</v>
+        <v>6958.316726139744</v>
       </c>
       <c r="C7">
-        <v>18726.31717535177</v>
+        <v>20324.65506193887</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21828,22 +21828,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27180.03247246675</v>
+        <v>29285.19683177494</v>
       </c>
       <c r="C8">
-        <v>95084.70735956736</v>
+        <v>103200.424336095</v>
       </c>
       <c r="D8">
-        <v>890.02936474853</v>
+        <v>959.0327754552767</v>
       </c>
       <c r="E8">
-        <v>81.87303620855664</v>
+        <v>88.18314967795864</v>
       </c>
       <c r="F8">
-        <v>3327.209093567092</v>
+        <v>3611.194689936524</v>
       </c>
       <c r="G8">
-        <v>2518.443578239423</v>
+        <v>2728.297178807861</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9677.541318836296</v>
+        <v>10443.38942044475</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>934.528176871654</v>
+        <v>1005.528954877607</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84200.85589217384</v>
+        <v>91388.71020667427</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5664.584865078342</v>
+        <v>6109.73240949256</v>
       </c>
       <c r="C7">
-        <v>18956.09069981812</v>
+        <v>20574.28824518788</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22046,22 +22046,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23840.31789195981</v>
+        <v>25713.79303981841</v>
       </c>
       <c r="C8">
-        <v>96251.40490763709</v>
+        <v>104467.9612444046</v>
       </c>
       <c r="D8">
-        <v>774.2033055069033</v>
+        <v>835.4711536355793</v>
       </c>
       <c r="E8">
-        <v>74.76225414973229</v>
+        <v>80.44231639020853</v>
       </c>
       <c r="F8">
-        <v>3368.034235686957</v>
+        <v>3655.548408266974</v>
       </c>
       <c r="G8">
-        <v>2462.067556489646</v>
+        <v>2668.402065468044</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8118.103099631034</v>
+        <v>8774.678532211654</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>824.9195880846225</v>
+        <v>886.7355570898757</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84930.62782755132</v>
+        <v>92181.02622265785</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4795.189087087422</v>
+        <v>5177.823549679048</v>
       </c>
       <c r="C7">
-        <v>19120.38383972292</v>
+        <v>20752.66189831484</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22264,22 +22264,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20181.3257124959</v>
+        <v>21791.7044855002</v>
       </c>
       <c r="C8">
-        <v>97085.61939747789</v>
+        <v>105373.6709175568</v>
       </c>
       <c r="D8">
-        <v>649.4482479704824</v>
+        <v>701.974282576932</v>
       </c>
       <c r="E8">
-        <v>65.99356704676977</v>
+        <v>70.93884456719002</v>
       </c>
       <c r="F8">
-        <v>3397.225113102056</v>
+        <v>3687.241048906317</v>
       </c>
       <c r="G8">
-        <v>2391.557292681034</v>
+        <v>2593.048544799388</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6794.840462890481</v>
+        <v>7357.912009440308</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>719.274975762477</v>
+        <v>772.4912538829191</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85367.04787932534</v>
+        <v>92654.3923701685</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4044.082145457883</v>
+        <v>4372.44066995319</v>
       </c>
       <c r="C7">
-        <v>19218.63483725722</v>
+        <v>20859.23054932625</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22482,22 +22482,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17020.1711555753</v>
+        <v>18402.12089998869</v>
       </c>
       <c r="C8">
-        <v>97584.49844886074</v>
+        <v>105914.7836681441</v>
       </c>
       <c r="D8">
-        <v>543.5872370312381</v>
+        <v>588.6329607552243</v>
       </c>
       <c r="E8">
-        <v>57.54199806099813</v>
+        <v>61.79930031063349</v>
       </c>
       <c r="F8">
-        <v>3414.681915173017</v>
+        <v>3706.175694806743</v>
       </c>
       <c r="G8">
-        <v>2326.27169827151</v>
+        <v>2523.167121927944</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/Recycling/SW2/SW2_Min.xlsx
+++ b/Recycling/SW2/SW2_Min.xlsx
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.2275715071296E-06</v>
+        <v>8.030635007921777E-06</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.248315725521009E-08</v>
+        <v>3.609239695023344E-08</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.133048386912148</v>
+        <v>1.332998102249586</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.52588197768507E-06</v>
+        <v>3.9176466418723E-06</v>
       </c>
       <c r="C7">
-        <v>0.2550825376061957</v>
+        <v>0.3000971030661126</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>1.295206538141173</v>
       </c>
       <c r="D8">
-        <v>5.782057205703677E-07</v>
+        <v>6.424508006337418E-07</v>
       </c>
       <c r="E8">
-        <v>2.598652580416806E-09</v>
+        <v>2.887391756018674E-09</v>
       </c>
       <c r="F8">
-        <v>0.04532193547648598</v>
+        <v>0.0533199240899835</v>
       </c>
       <c r="G8">
-        <v>0.02550860634881733</v>
+        <v>0.03001010207127544</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6446.111694800357</v>
+        <v>7162.346327555952</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>683.60395687322</v>
+        <v>759.5599520813555</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>92829.4561445499</v>
+        <v>109211.1248759411</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3837.846704895416</v>
+        <v>4264.274116550462</v>
       </c>
       <c r="C7">
-        <v>20898.64255708156</v>
+        <v>24586.6383024489</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1124,16 +1124,16 @@
         <v>106114.9019930008</v>
       </c>
       <c r="D8">
-        <v>515.6889355840283</v>
+        <v>572.9877062044759</v>
       </c>
       <c r="E8">
-        <v>54.68831654985757</v>
+        <v>60.76479616650841</v>
       </c>
       <c r="F8">
-        <v>3713.178245781999</v>
+        <v>4368.444995037647</v>
       </c>
       <c r="G8">
-        <v>2473.648926197698</v>
+        <v>2885.091241899936</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6045.093011362232</v>
+        <v>6716.770012624702</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>623.8180671522626</v>
+        <v>693.1311857247362</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>92746.17843229344</v>
+        <v>109113.1510968158</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3580.815904609054</v>
+        <v>3978.684338454505</v>
       </c>
       <c r="C7">
-        <v>20879.89429318234</v>
+        <v>24564.58152139099</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>106019.7058490038</v>
       </c>
       <c r="D8">
-        <v>483.6074409089783</v>
+        <v>537.3416010099759</v>
       </c>
       <c r="E8">
-        <v>49.90544537218098</v>
+        <v>55.45049485797887</v>
       </c>
       <c r="F8">
-        <v>3709.847137291741</v>
+        <v>4364.526043872635</v>
       </c>
       <c r="G8">
-        <v>2446.071019779139</v>
+        <v>2854.326585984548</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.789462119277536E-05</v>
+        <v>8.654957910308372E-05</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.174167622741913E-07</v>
+        <v>4.637964025268792E-07</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.309737755323934</v>
+        <v>2.717338535675216</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.80712318226731E-05</v>
+        <v>4.2301368691859E-05</v>
       </c>
       <c r="C7">
-        <v>0.5199899445058292</v>
+        <v>0.6117528758892109</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1560,16 +1560,16 @@
         <v>2.640299811237479</v>
       </c>
       <c r="D8">
-        <v>6.231569695422025E-06</v>
+        <v>6.923966328246695E-06</v>
       </c>
       <c r="E8">
-        <v>3.339334098193529E-08</v>
+        <v>3.710371220215032E-08</v>
       </c>
       <c r="F8">
-        <v>0.09238951021295745</v>
+        <v>0.1086935414270088</v>
       </c>
       <c r="G8">
-        <v>0.05200280157376518</v>
+        <v>0.06117951772579025</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0006532761935548642</v>
+        <v>0.0007258624372831825</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.086344483711996E-06</v>
+        <v>4.540382759679995E-06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.467070141072544</v>
+        <v>5.255376636555934</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0003199108177770749</v>
+        <v>0.0003554564641967499</v>
       </c>
       <c r="C7">
-        <v>1.005668955017012</v>
+        <v>1.183139947078837</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1778,16 +1778,16 @@
         <v>5.106382498650495</v>
       </c>
       <c r="D8">
-        <v>5.226209548438911E-05</v>
+        <v>5.806899498265457E-05</v>
       </c>
       <c r="E8">
-        <v>3.269075586969596E-07</v>
+        <v>3.632306207743994E-07</v>
       </c>
       <c r="F8">
-        <v>0.1786828056429019</v>
+        <v>0.2102150654622376</v>
       </c>
       <c r="G8">
-        <v>0.1005988865834789</v>
+        <v>0.1183495403543034</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.004471777056763875</v>
+        <v>0.004968641174182083</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.198516742675701E-05</v>
+        <v>3.55390749186189E-05</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.326607980828474</v>
+        <v>9.796009389209969</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.002194089154918027</v>
+        <v>0.002437876838797808</v>
       </c>
       <c r="C7">
-        <v>1.874564509279348</v>
+        <v>2.20537001091688</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1996,16 +1996,16 @@
         <v>9.518284675113089</v>
       </c>
       <c r="D8">
-        <v>0.0003577421645411099</v>
+        <v>0.0003974912939345664</v>
       </c>
       <c r="E8">
-        <v>2.55881339414056E-06</v>
+        <v>2.843125993489511E-06</v>
       </c>
       <c r="F8">
-        <v>0.3330643192331392</v>
+        <v>0.3918403755683991</v>
       </c>
       <c r="G8">
-        <v>0.1876758598434266</v>
+        <v>0.2207807887755677</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02588067180493746</v>
+        <v>0.02875630200548607</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002078022807222249</v>
+        <v>0.0002308914230246944</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15.12486919643017</v>
+        <v>17.79396376050608</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01272244203010604</v>
+        <v>0.01413604670011782</v>
       </c>
       <c r="C7">
-        <v>3.405053182328328</v>
+        <v>4.005944920386269</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>17.28949063255256</v>
       </c>
       <c r="D8">
-        <v>0.002070453744394996</v>
+        <v>0.002300504160438884</v>
       </c>
       <c r="E8">
-        <v>1.662418245777799E-05</v>
+        <v>1.847131384197554E-05</v>
       </c>
       <c r="F8">
-        <v>0.6049947678572073</v>
+        <v>0.7117585504202441</v>
       </c>
       <c r="G8">
-        <v>0.3417775624358434</v>
+        <v>0.4020080967086385</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1300835892814964</v>
+        <v>0.1445373214238849</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001153857080855096</v>
+        <v>0.001282063423172329</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>26.85237391134454</v>
+        <v>31.59102813099358</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06406242486928368</v>
+        <v>0.07118047207698187</v>
       </c>
       <c r="C7">
-        <v>6.045259635136181</v>
+        <v>7.112070158983742</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2432,16 +2432,16 @@
         <v>30.69539717484417</v>
       </c>
       <c r="D8">
-        <v>0.01040668714251971</v>
+        <v>0.01156298571391078</v>
       </c>
       <c r="E8">
-        <v>9.230856646840766E-05</v>
+        <v>0.0001025650738537863</v>
       </c>
       <c r="F8">
-        <v>1.074094956453783</v>
+        <v>1.263641125239744</v>
       </c>
       <c r="G8">
-        <v>0.6109322060005463</v>
+        <v>0.7183250631060722</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.57974407323157</v>
+        <v>0.644160081368411</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005604211193694532</v>
+        <v>0.006226901326327258</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>46.38132025029971</v>
+        <v>54.56625911799966</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2859962871542697</v>
+        <v>0.317773652393633</v>
       </c>
       <c r="C7">
-        <v>10.44180019461906</v>
+        <v>12.28447081719889</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2650,16 +2650,16 @@
         <v>53.01926195713792</v>
       </c>
       <c r="D8">
-        <v>0.04637952585852557</v>
+        <v>0.05153280650947285</v>
       </c>
       <c r="E8">
-        <v>0.0004483368954955623</v>
+        <v>0.0004981521061061803</v>
       </c>
       <c r="F8">
-        <v>1.85525281001199</v>
+        <v>2.182650364719988</v>
       </c>
       <c r="G8">
-        <v>1.072779648177333</v>
+        <v>1.260224446959252</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.328149480330582</v>
+        <v>2.586832755922869</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02425188705492839</v>
+        <v>0.02694654117214266</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77.473817794928</v>
+        <v>91.14566799403293</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.150359644524353</v>
+        <v>1.278177382804837</v>
       </c>
       <c r="C7">
-        <v>17.44163644681359</v>
+        <v>20.51957229036893</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2868,16 +2868,16 @@
         <v>88.56161528654023</v>
       </c>
       <c r="D8">
-        <v>0.1862519584264465</v>
+        <v>0.2069466204738294</v>
       </c>
       <c r="E8">
-        <v>0.00194015096439427</v>
+        <v>0.002155723293771411</v>
       </c>
       <c r="F8">
-        <v>3.098952711797123</v>
+        <v>3.645826719761321</v>
       </c>
       <c r="G8">
-        <v>1.859199609133794</v>
+        <v>2.179774967317376</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.524453681791801</v>
+        <v>9.47161520199089</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09486767969806699</v>
+        <v>0.1054085329978522</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>124.7237535472886</v>
+        <v>146.7338277026925</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3054,10 +3054,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.218437006660577</v>
+        <v>4.687152229622862</v>
       </c>
       <c r="C7">
-        <v>28.07898755437611</v>
+        <v>33.03410300514836</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>142.5738061339139</v>
       </c>
       <c r="D8">
-        <v>0.6819562945433437</v>
+        <v>0.7577292161592708</v>
       </c>
       <c r="E8">
-        <v>0.007589414375845356</v>
+        <v>0.008432682639828172</v>
       </c>
       <c r="F8">
-        <v>4.98895014189155</v>
+        <v>5.869353108107705</v>
       </c>
       <c r="G8">
-        <v>3.229742456103668</v>
+        <v>3.772125523477122</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.63092130579345</v>
+        <v>31.81213478421495</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3388935784290668</v>
+        <v>0.3765484204767409</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>193.447808215222</v>
+        <v>227.5856567237906</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.18984135442928</v>
+        <v>15.76649039381032</v>
       </c>
       <c r="C7">
-        <v>43.5507948150157</v>
+        <v>51.23622919413612</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3304,16 +3304,16 @@
         <v>221.1334210291428</v>
       </c>
       <c r="D8">
-        <v>2.290473704463475</v>
+        <v>2.544970782737195</v>
       </c>
       <c r="E8">
-        <v>0.02711148627432533</v>
+        <v>0.03012387363813926</v>
       </c>
       <c r="F8">
-        <v>7.737912328608886</v>
+        <v>9.103426268951633</v>
       </c>
       <c r="G8">
-        <v>5.774063616944497</v>
+        <v>6.700271958794642</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>87.78266293338385</v>
+        <v>97.53629214820427</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.109630059648327</v>
+        <v>1.232922288498141</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>289.4943703197957</v>
+        <v>340.5816121409362</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>43.58091791988721</v>
+        <v>48.42324213320801</v>
       </c>
       <c r="C7">
-        <v>65.17370260340599</v>
+        <v>76.67494423930117</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>330.9258505853499</v>
       </c>
       <c r="D8">
-        <v>7.022613034670704</v>
+        <v>7.802903371856337</v>
       </c>
       <c r="E8">
-        <v>0.08877040477186614</v>
+        <v>0.09863378307985125</v>
       </c>
       <c r="F8">
-        <v>11.57977481279184</v>
+        <v>13.62326448563746</v>
       </c>
       <c r="G8">
-        <v>10.87546205232932</v>
+        <v>12.50981863725091</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>238.7247091904018</v>
+        <v>265.2496768782242</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.298432576827325</v>
+        <v>3.664925085363695</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>418.9494736354189</v>
+        <v>492.8817336887281</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>118.8155212086166</v>
+        <v>132.0172457873518</v>
       </c>
       <c r="C7">
-        <v>94.31785623466813</v>
+        <v>110.9621838054919</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3958,16 +3958,16 @@
         <v>478.9081416745094</v>
       </c>
       <c r="D8">
-        <v>19.09797673523214</v>
+        <v>21.21997415025793</v>
       </c>
       <c r="E8">
-        <v>0.2638746061461859</v>
+        <v>0.2931940068290955</v>
       </c>
       <c r="F8">
-        <v>16.75797894541677</v>
+        <v>19.71526934754914</v>
       </c>
       <c r="G8">
-        <v>21.31333774432847</v>
+        <v>24.29794295928436</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>533.381504307648</v>
+        <v>592.6461158973867</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.570557741692529</v>
+        <v>9.52284193521392</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>587.7340975734124</v>
+        <v>691.4518794981323</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>266.7405812588119</v>
+        <v>296.3784236209021</v>
       </c>
       <c r="C7">
-        <v>132.3162424292279</v>
+        <v>155.6661675637976</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4176,16 +4176,16 @@
         <v>671.8486647689907</v>
       </c>
       <c r="D8">
-        <v>42.67052034461182</v>
+        <v>47.41168927179091</v>
       </c>
       <c r="E8">
-        <v>0.685644619335402</v>
+        <v>0.7618273548171133</v>
       </c>
       <c r="F8">
-        <v>23.50936390293652</v>
+        <v>27.65807517992532</v>
       </c>
       <c r="G8">
-        <v>39.90568236880398</v>
+        <v>45.20445911846996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>856.7250146382844</v>
+        <v>951.9166829314271</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.77521931376205</v>
+        <v>19.75024368195784</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>801.0771901012889</v>
+        <v>942.4437530603399</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>432.687741002055</v>
+        <v>480.76415666895</v>
       </c>
       <c r="C7">
-        <v>180.3460512629646</v>
+        <v>212.1718250152524</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4394,16 +4394,16 @@
         <v>915.7247176376735</v>
       </c>
       <c r="D8">
-        <v>68.53800117106272</v>
+        <v>76.15333463451412</v>
       </c>
       <c r="E8">
-        <v>1.422017545100964</v>
+        <v>1.580019494556626</v>
       </c>
       <c r="F8">
-        <v>32.04308760405159</v>
+        <v>37.69775012241363</v>
       </c>
       <c r="G8">
-        <v>61.30337922650194</v>
+        <v>69.29359816842022</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>937.4871663029274</v>
+        <v>1041.652407003253</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.9924444148813</v>
+        <v>27.76938268320144</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1062.832347087862</v>
+        <v>1250.390996573955</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>479.3445271788246</v>
+        <v>532.6050301986941</v>
       </c>
       <c r="C7">
-        <v>239.2748405776085</v>
+        <v>281.4998124442453</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4612,16 +4612,16 @@
         <v>1214.941410090778</v>
       </c>
       <c r="D8">
-        <v>74.99897330423416</v>
+        <v>83.33219256026017</v>
       </c>
       <c r="E8">
-        <v>1.999395553190503</v>
+        <v>2.221550614656114</v>
       </c>
       <c r="F8">
-        <v>42.51329388351451</v>
+        <v>50.01563986295825</v>
       </c>
       <c r="G8">
-        <v>71.8619367756433</v>
+        <v>81.41048426429391</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>884.0873470107889</v>
+        <v>982.319274456432</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.1143464326312</v>
+        <v>22.34927381403467</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1374.675285081773</v>
+        <v>1617.265041272675</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4798,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>448.3827997915542</v>
+        <v>498.2031108795047</v>
       </c>
       <c r="C7">
-        <v>309.4798634847423</v>
+        <v>364.0939570408734</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4830,16 +4830,16 @@
         <v>1571.414281707145</v>
       </c>
       <c r="D8">
-        <v>70.72698776086308</v>
+        <v>78.58554195651452</v>
       </c>
       <c r="E8">
-        <v>1.609147714610496</v>
+        <v>1.787941905122773</v>
       </c>
       <c r="F8">
-        <v>54.98701140327098</v>
+        <v>64.69060165090704</v>
       </c>
       <c r="G8">
-        <v>75.78626632762963</v>
+        <v>86.22970679203779</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>904.3253423383907</v>
+        <v>1004.805935931545</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.78599977567176</v>
+        <v>11.98444419519084</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1735.432023952203</v>
+        <v>2041.684734061415</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5016,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>448.2815647898326</v>
+        <v>498.0906275442584</v>
       </c>
       <c r="C7">
-        <v>390.6968225065814</v>
+        <v>459.6433205959781</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5048,16 +5048,16 @@
         <v>1983.801336188427</v>
       </c>
       <c r="D8">
-        <v>72.34602738707122</v>
+        <v>80.38447487452358</v>
       </c>
       <c r="E8">
-        <v>0.8628799820537401</v>
+        <v>0.9587555356152667</v>
       </c>
       <c r="F8">
-        <v>69.41728095808817</v>
+        <v>81.66738936245667</v>
       </c>
       <c r="G8">
-        <v>83.89783872964139</v>
+        <v>95.77339481402363</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>959.4803646062852</v>
+        <v>1066.089294006983</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.30876403666137</v>
+        <v>12.56529337406819</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2140.843814874436</v>
+        <v>2518.639782205219</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5234,10 +5234,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>475.4793339220952</v>
+        <v>528.3103710245501</v>
       </c>
       <c r="C7">
-        <v>481.9669479473354</v>
+        <v>567.0199387615711</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5266,16 +5266,16 @@
         <v>2447.234326612614</v>
       </c>
       <c r="D8">
-        <v>76.75842916850277</v>
+        <v>85.28714352055863</v>
       </c>
       <c r="E8">
-        <v>0.9047011229329089</v>
+        <v>1.005223469925455</v>
       </c>
       <c r="F8">
-        <v>85.63375259497752</v>
+        <v>100.7455912882089</v>
       </c>
       <c r="G8">
-        <v>95.74462818694305</v>
+        <v>109.5330309786121</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1018.853903667925</v>
+        <v>1132.059892964361</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.72660136382626</v>
+        <v>20.80733484869584</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2583.596334414935</v>
+        <v>3039.525099311688</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5452,10 +5452,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>512.016165819021</v>
+        <v>568.9068509100233</v>
       </c>
       <c r="C7">
-        <v>581.6435703409419</v>
+        <v>684.2865533422846</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5484,16 +5484,16 @@
         <v>2953.352127680359</v>
       </c>
       <c r="D8">
-        <v>81.50831229343397</v>
+        <v>90.56479143714886</v>
       </c>
       <c r="E8">
-        <v>1.4981281091061</v>
+        <v>1.664586787895666</v>
       </c>
       <c r="F8">
-        <v>103.3438533765975</v>
+        <v>121.5810039724676</v>
       </c>
       <c r="G8">
-        <v>109.3659736159963</v>
+        <v>125.3193404252308</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1058.222729927346</v>
+        <v>1175.803033252606</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.49719544852096</v>
+        <v>29.44132827613439</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3054.195781048676</v>
+        <v>3593.171507116089</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5670,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>539.2626816248235</v>
+        <v>599.180757360915</v>
       </c>
       <c r="C7">
-        <v>687.5893555607161</v>
+        <v>808.9286536008424</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5702,16 +5702,16 @@
         <v>3491.302216278736</v>
       </c>
       <c r="D8">
-        <v>84.65781839418761</v>
+        <v>94.06424266020845</v>
       </c>
       <c r="E8">
-        <v>2.119775635881676</v>
+        <v>2.35530626209075</v>
       </c>
       <c r="F8">
-        <v>122.1678312419471</v>
+        <v>143.7268602846437</v>
       </c>
       <c r="G8">
-        <v>122.6852037185539</v>
+        <v>140.8109410961757</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.967117611532464E-05</v>
+        <v>3.490726601802899E-05</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.679854968845376E-06</v>
+        <v>7.858652904523972E-06</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.186847044612987E-06</v>
+        <v>1.396290640721161E-06</v>
       </c>
       <c r="G8">
-        <v>6.679854968845375E-07</v>
+        <v>7.858652904523971E-07</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1116.35806924495</v>
+        <v>1240.397854716611</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37.5610180338388</v>
+        <v>41.73446448204312</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3543.545251262526</v>
+        <v>4168.876766191207</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>579.0620964919672</v>
+        <v>643.4023294355192</v>
       </c>
       <c r="C7">
-        <v>797.7563229031927</v>
+        <v>938.5368504743443</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6138,16 +6138,16 @@
         <v>4050.685770042218</v>
       </c>
       <c r="D8">
-        <v>89.30864553959591</v>
+        <v>99.23182837732881</v>
       </c>
       <c r="E8">
-        <v>3.004881442707102</v>
+        <v>3.338757158563447</v>
       </c>
       <c r="F8">
-        <v>141.7418100505012</v>
+        <v>166.7550706476484</v>
       </c>
       <c r="G8">
-        <v>137.6818419395159</v>
+        <v>158.1939179909863</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1195.775363634161</v>
+        <v>1328.639292926845</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>49.82659349969229</v>
+        <v>55.36288166632476</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4046.556400059034</v>
+        <v>4760.654588304747</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>630.4149049411875</v>
+        <v>700.4610054902084</v>
       </c>
       <c r="C7">
-        <v>910.9989361590109</v>
+        <v>1071.763454304719</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6356,16 +6356,16 @@
         <v>4625.686216805711</v>
       </c>
       <c r="D8">
-        <v>95.6620290907328</v>
+        <v>106.2911434341476</v>
       </c>
       <c r="E8">
-        <v>3.986127479975381</v>
+        <v>4.429030533305979</v>
       </c>
       <c r="F8">
-        <v>161.8622560023615</v>
+        <v>190.42618353219</v>
       </c>
       <c r="G8">
-        <v>154.1413841100198</v>
+        <v>177.2224459794927</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1179.135739723081</v>
+        <v>1310.150821914534</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6490,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57.05383086832149</v>
+        <v>63.3931454092461</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4566.585682633826</v>
+        <v>5372.45374427509</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6542,10 +6542,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>630.0295734695256</v>
+        <v>700.032859410584</v>
       </c>
       <c r="C7">
-        <v>1028.072832173473</v>
+        <v>1209.497449615851</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6574,16 +6574,16 @@
         <v>5220.140376571402</v>
       </c>
       <c r="D8">
-        <v>94.33085917784641</v>
+        <v>104.8120657531627</v>
       </c>
       <c r="E8">
-        <v>4.564306469465717</v>
+        <v>5.071451632739685</v>
       </c>
       <c r="F8">
-        <v>182.6634273053532</v>
+        <v>214.8981497710038</v>
       </c>
       <c r="G8">
-        <v>165.8102405642999</v>
+        <v>190.9530309026435</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1178.584726649412</v>
+        <v>1309.538585166013</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72.70383489054579</v>
+        <v>80.78203876727309</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5120.635003139158</v>
+        <v>6024.276474281363</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>646.3351674436838</v>
+        <v>718.1501860485376</v>
       </c>
       <c r="C7">
-        <v>1152.805639938767</v>
+        <v>1356.241929339725</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6792,16 +6792,16 @@
         <v>5853.483409984874</v>
       </c>
       <c r="D8">
-        <v>94.28677813195287</v>
+        <v>104.763086813281</v>
       </c>
       <c r="E8">
-        <v>5.816306791243661</v>
+        <v>6.462563101381845</v>
       </c>
       <c r="F8">
-        <v>204.8254001255665</v>
+        <v>240.9710589712547</v>
       </c>
       <c r="G8">
-        <v>179.914080738245</v>
+        <v>207.4392115388262</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1198.644480606175</v>
+        <v>1331.827200673528</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>119.7925734795862</v>
+        <v>133.1028594217624</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5744.847426869636</v>
+        <v>6758.644031611337</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>705.8878338919404</v>
+        <v>784.3198154354893</v>
       </c>
       <c r="C7">
-        <v>1293.334227146252</v>
+        <v>1521.56967899559</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7010,16 +7010,16 @@
         <v>6567.031058737979</v>
       </c>
       <c r="D8">
-        <v>95.89155844849395</v>
+        <v>106.5461760538821</v>
       </c>
       <c r="E8">
-        <v>9.583405878366889</v>
+        <v>10.64822875374099</v>
       </c>
       <c r="F8">
-        <v>229.7938970747857</v>
+        <v>270.3457612644537</v>
       </c>
       <c r="G8">
-        <v>199.9222061038191</v>
+        <v>230.5889494431079</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1208.595350485643</v>
+        <v>1342.883722761825</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>187.4416853384347</v>
+        <v>208.2685392649275</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6499.389610132443</v>
+        <v>7646.340717802875</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>782.3284767927532</v>
+        <v>869.2538631030591</v>
       </c>
       <c r="C7">
-        <v>1463.203878840588</v>
+        <v>1721.41632804775</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>7429.560832712299</v>
       </c>
       <c r="D8">
-        <v>96.68762803885139</v>
+        <v>107.430697820946</v>
       </c>
       <c r="E8">
-        <v>14.99533482707477</v>
+        <v>16.66148314119419</v>
       </c>
       <c r="F8">
-        <v>259.9755844052979</v>
+        <v>305.8536287121153</v>
       </c>
       <c r="G8">
-        <v>224.553235563334</v>
+        <v>259.0670191150809</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1270.441217393058</v>
+        <v>1411.601352658953</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>263.619532424352</v>
+        <v>292.9105915826134</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7471.531426688874</v>
+        <v>8790.036972575146</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>892.8695563851142</v>
+        <v>992.0772848723491</v>
       </c>
       <c r="C7">
-        <v>1682.061611965394</v>
+        <v>1978.896014076934</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7446,16 +7446,16 @@
         <v>8540.83238240822</v>
       </c>
       <c r="D8">
-        <v>101.6352973914446</v>
+        <v>112.9281082127162</v>
       </c>
       <c r="E8">
-        <v>21.08956259394815</v>
+        <v>23.43284732660906</v>
       </c>
       <c r="F8">
-        <v>298.8612570675552</v>
+        <v>351.6014789030062</v>
       </c>
       <c r="G8">
-        <v>257.4931168350508</v>
+        <v>297.0973298949282</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1306.679591094359</v>
+        <v>1451.866212327065</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>321.536687853101</v>
+        <v>357.2629865034456</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8775.533009715944</v>
+        <v>10324.15648201876</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>971.7039707031574</v>
+        <v>1079.671078559064</v>
       </c>
       <c r="C7">
-        <v>1975.630745184443</v>
+        <v>2324.271464922874</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7664,16 +7664,16 @@
         <v>10031.45837472434</v>
       </c>
       <c r="D8">
-        <v>104.5343672875486</v>
+        <v>116.1492969861652</v>
       </c>
       <c r="E8">
-        <v>25.72293502824807</v>
+        <v>28.58103892027563</v>
       </c>
       <c r="F8">
-        <v>351.0213203886381</v>
+        <v>412.9662592807506</v>
       </c>
       <c r="G8">
-        <v>294.73347158876</v>
+        <v>340.3942543481937</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1275.803844888114</v>
+        <v>1417.55982765346</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>290.6390846689128</v>
+        <v>322.932316298792</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10548.11029342987</v>
+        <v>12409.5415216822</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>924.0711093858515</v>
+        <v>1026.745677095391</v>
       </c>
       <c r="C7">
-        <v>2374.690058851604</v>
+        <v>2793.753010413652</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7882,16 +7882,16 @@
         <v>12057.72107784119</v>
       </c>
       <c r="D8">
-        <v>102.0643075910491</v>
+        <v>113.4047862122768</v>
       </c>
       <c r="E8">
-        <v>23.25112677351301</v>
+        <v>25.83458530390335</v>
       </c>
       <c r="F8">
-        <v>421.9244117371952</v>
+        <v>496.3816608672885</v>
       </c>
       <c r="G8">
-        <v>329.8761168237455</v>
+        <v>382.0498687509041</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1196.665672903833</v>
+        <v>1329.628525448703</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>268.2529062201207</v>
+        <v>298.058784689023</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12938.35140722224</v>
+        <v>15221.58989084969</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8068,10 +8068,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>862.1364406811579</v>
+        <v>957.9293785346197</v>
       </c>
       <c r="C7">
-        <v>2912.803678569498</v>
+        <v>3426.827857140585</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8100,16 +8100,16 @@
         <v>14790.0456229162</v>
       </c>
       <c r="D8">
-        <v>95.73325383230656</v>
+        <v>106.3702820358962</v>
       </c>
       <c r="E8">
-        <v>21.46023249760964</v>
+        <v>23.84470277512183</v>
       </c>
       <c r="F8">
-        <v>517.5340562888899</v>
+        <v>608.8635956339882</v>
       </c>
       <c r="G8">
-        <v>377.4940119250654</v>
+        <v>438.4757235675204</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0008557171301713814</v>
+        <v>0.001006726035495743</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0001926471098309163</v>
+        <v>0.0002266436586246075</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8324,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.422868520685528E-05</v>
+        <v>4.026904141982975E-05</v>
       </c>
       <c r="G8">
-        <v>1.926471098309163E-05</v>
+        <v>2.266436586246074E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1179.318358801724</v>
+        <v>1310.353732001915</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>258.2657470536348</v>
+        <v>286.9619411707052</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>16091.82658530925</v>
+        <v>18931.56068859912</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>843.180928573825</v>
+        <v>936.8676984153609</v>
       </c>
       <c r="C7">
-        <v>3622.743748204807</v>
+        <v>4262.051468476243</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8536,16 +8536,16 @@
         <v>18394.83577636698</v>
       </c>
       <c r="D8">
-        <v>94.34546870413789</v>
+        <v>104.8282985601532</v>
       </c>
       <c r="E8">
-        <v>20.66125976429077</v>
+        <v>22.95695529365641</v>
       </c>
       <c r="F8">
-        <v>643.6730634123707</v>
+        <v>757.2624275439654</v>
       </c>
       <c r="G8">
-        <v>446.5924676778631</v>
+        <v>519.8919166891602</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1389.974576769237</v>
+        <v>1544.416196410263</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>233.094840627579</v>
+        <v>258.9942673639767</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>20131.38043191652</v>
+        <v>23683.97697872531</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>918.2910004350239</v>
+        <v>1020.323333816693</v>
       </c>
       <c r="C7">
-        <v>4532.166203496069</v>
+        <v>5331.960239407141</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8754,16 +8754,16 @@
         <v>23012.51725734748</v>
       </c>
       <c r="D8">
-        <v>111.1979661415389</v>
+        <v>123.553295712821</v>
       </c>
       <c r="E8">
-        <v>18.64758725020631</v>
+        <v>20.71954138911812</v>
       </c>
       <c r="F8">
-        <v>805.2552172766614</v>
+        <v>947.3590791490134</v>
       </c>
       <c r="G8">
-        <v>545.0457203931091</v>
+        <v>635.2283573223832</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1866.487226837999</v>
+        <v>2073.874696486665</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>205.7133766499501</v>
+        <v>228.5704184999446</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>25137.12199208915</v>
+        <v>29573.08469657547</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1119.489884761887</v>
+        <v>1243.87764973543</v>
       </c>
       <c r="C7">
-        <v>5659.105948099082</v>
+        <v>6657.771703645979</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8972,16 +8972,16 @@
         <v>28734.66405343421</v>
       </c>
       <c r="D8">
-        <v>149.3189781470398</v>
+        <v>165.9099757189332</v>
       </c>
       <c r="E8">
-        <v>16.457070131996</v>
+        <v>18.28563347999556</v>
       </c>
       <c r="F8">
-        <v>1005.484879683567</v>
+        <v>1182.92338786302</v>
       </c>
       <c r="G8">
-        <v>677.8595832860966</v>
+        <v>790.1649353381406</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2758.810850177326</v>
+        <v>3065.345389085918</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>197.0874855274652</v>
+        <v>218.9860950305169</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>31127.84018825001</v>
+        <v>36620.98845676472</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9158,10 +9158,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1541.418439558427</v>
+        <v>1712.687155064918</v>
       </c>
       <c r="C7">
-        <v>7007.792921410848</v>
+        <v>8244.462260483351</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9190,16 +9190,16 @@
         <v>35582.75409570921</v>
       </c>
       <c r="D8">
-        <v>220.704868014186</v>
+        <v>245.2276311268733</v>
       </c>
       <c r="E8">
-        <v>15.76699884219721</v>
+        <v>17.51888760244134</v>
       </c>
       <c r="F8">
-        <v>1245.113607530001</v>
+        <v>1464.83953827059</v>
       </c>
       <c r="G8">
-        <v>854.9211360969272</v>
+        <v>995.7149415548269</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4077.15451215828</v>
+        <v>4530.171680175867</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>278.7623300821283</v>
+        <v>309.7359223134759</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>38045.72715441372</v>
+        <v>44759.67900519261</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2264.767561680424</v>
+        <v>2516.408401867138</v>
       </c>
       <c r="C7">
-        <v>8565.212871507549</v>
+        <v>10076.721025303</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9408,16 +9408,16 @@
         <v>43490.7062469103</v>
       </c>
       <c r="D8">
-        <v>326.1723609726622</v>
+        <v>362.4137344140692</v>
       </c>
       <c r="E8">
-        <v>22.30098640657025</v>
+        <v>24.77887378507806</v>
       </c>
       <c r="F8">
-        <v>1521.82908617655</v>
+        <v>1790.387160207706</v>
       </c>
       <c r="G8">
-        <v>1082.998043318797</v>
+        <v>1259.312942717013</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5601.49236079437</v>
+        <v>6223.880400882633</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>412.4324281480931</v>
+        <v>458.2582534978812</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>45745.93149574195</v>
+        <v>53818.74293616699</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9594,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3142.68581230999</v>
+        <v>3491.873124788878</v>
       </c>
       <c r="C7">
-        <v>10298.75548642197</v>
+        <v>12116.18292520231</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9626,16 +9626,16 @@
         <v>52292.93845792058</v>
       </c>
       <c r="D8">
-        <v>448.1193888635494</v>
+        <v>497.9104320706104</v>
       </c>
       <c r="E8">
-        <v>32.99459425184743</v>
+        <v>36.66066027983047</v>
       </c>
       <c r="F8">
-        <v>1829.83725982968</v>
+        <v>2152.749717446682</v>
       </c>
       <c r="G8">
-        <v>1344.144129873195</v>
+        <v>1560.805604999119</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7335.100144295317</v>
+        <v>8150.111271439241</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>558.6043566808347</v>
+        <v>620.6715074231496</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>53992.72108727994</v>
+        <v>63520.8483379764</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4134.936081715267</v>
+        <v>4594.373424128074</v>
       </c>
       <c r="C7">
-        <v>12155.35052720991</v>
+        <v>14300.41238495284</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9844,16 +9844,16 @@
         <v>61719.98139890556</v>
       </c>
       <c r="D8">
-        <v>586.8080115436251</v>
+        <v>652.008901715139</v>
       </c>
       <c r="E8">
-        <v>44.68834853446675</v>
+        <v>49.65372059385194</v>
       </c>
       <c r="F8">
-        <v>2159.708843491199</v>
+        <v>2540.833933519058</v>
       </c>
       <c r="G8">
-        <v>1629.028660892517</v>
+        <v>1889.478580908091</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10145.20544815712</v>
+        <v>11272.45049795235</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>792.0649385812255</v>
+        <v>880.0721539791394</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>62464.14926691932</v>
+        <v>73487.2344316698</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5739.649219843417</v>
+        <v>6377.388022048241</v>
       </c>
       <c r="C7">
-        <v>14062.5183253126</v>
+        <v>16544.13920625012</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10062,16 +10062,16 @@
         <v>71403.81246243545</v>
       </c>
       <c r="D8">
-        <v>811.616435852569</v>
+        <v>901.7960398361878</v>
       </c>
       <c r="E8">
-        <v>63.36519508649801</v>
+        <v>70.40577231833112</v>
       </c>
       <c r="F8">
-        <v>2498.565970676775</v>
+        <v>2939.489377266795</v>
       </c>
       <c r="G8">
-        <v>1980.216754515601</v>
+        <v>2292.152722829836</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13282.39960302885</v>
+        <v>14758.22178114317</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1056.455413868462</v>
+        <v>1173.839348742736</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>70767.16375049439</v>
+        <v>83255.48676528754</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7535.123642329071</v>
+        <v>8372.359602587858</v>
       </c>
       <c r="C7">
-        <v>15931.77124400154</v>
+        <v>18743.26028706064</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10280,16 +10280,16 @@
         <v>80895.12701671947</v>
       </c>
       <c r="D8">
-        <v>1062.591968242308</v>
+        <v>1180.657742491453</v>
       </c>
       <c r="E8">
-        <v>84.51643310947694</v>
+        <v>93.90714789941882</v>
       </c>
       <c r="F8">
-        <v>2830.686550019778</v>
+        <v>3330.219470611505</v>
       </c>
       <c r="G8">
-        <v>2346.689488633061</v>
+        <v>2711.561988964848</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14414.90976106413</v>
+        <v>16016.56640118236</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1155.406549434967</v>
+        <v>1283.785054927741</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78464.46590228382</v>
+        <v>92311.13635562801</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10466,10 +10466,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8186.994414226737</v>
+        <v>9096.660460251929</v>
       </c>
       <c r="C7">
-        <v>17664.66049063908</v>
+        <v>20781.95351839892</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10498,16 +10498,16 @@
         <v>89694.04168638815</v>
       </c>
       <c r="D8">
-        <v>1153.192780885129</v>
+        <v>1281.325312094588</v>
       </c>
       <c r="E8">
-        <v>92.4325239547973</v>
+        <v>102.7028043942192</v>
       </c>
       <c r="F8">
-        <v>3138.578636091355</v>
+        <v>3692.445454225124</v>
       </c>
       <c r="G8">
-        <v>2585.165490486581</v>
+        <v>2987.861397865084</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.006041511631486532</v>
+        <v>0.007107660742925331</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.00136012207045878</v>
+        <v>0.001600143612304447</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0002416604652594615</v>
+        <v>0.0002843064297170135</v>
       </c>
       <c r="G8">
-        <v>0.0001360122070458779</v>
+        <v>0.0001600143612304446</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14424.5289634586</v>
+        <v>16027.25440384288</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1161.938370991573</v>
+        <v>1291.042634435081</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85112.59926223983</v>
+        <v>100132.4697202821</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8198.557786246427</v>
+        <v>9109.508651384918</v>
       </c>
       <c r="C7">
-        <v>19161.35096510641</v>
+        <v>22542.76584130165</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10934,16 +10934,16 @@
         <v>97293.63398422099</v>
       </c>
       <c r="D8">
-        <v>1153.962317076687</v>
+        <v>1282.18035230743</v>
       </c>
       <c r="E8">
-        <v>92.95506967932577</v>
+        <v>103.2834107548064</v>
       </c>
       <c r="F8">
-        <v>3404.503970489596</v>
+        <v>4005.298788811289</v>
       </c>
       <c r="G8">
-        <v>2735.990875135283</v>
+        <v>3165.227449268657</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14251.70250749547</v>
+        <v>15835.2250083283</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1155.345849044205</v>
+        <v>1283.717610049116</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>90307.92360501109</v>
+        <v>106244.6160058954</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11120,10 +11120,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8108.088196599292</v>
+        <v>9008.986885110326</v>
       </c>
       <c r="C7">
-        <v>20330.97137351011</v>
+        <v>23918.78985118836</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11152,16 +11152,16 @@
         <v>103232.496025991</v>
       </c>
       <c r="D8">
-        <v>1140.136200599637</v>
+        <v>1266.818000666264</v>
       </c>
       <c r="E8">
-        <v>92.42766792353633</v>
+        <v>102.6974088039292</v>
       </c>
       <c r="F8">
-        <v>3612.316944200447</v>
+        <v>4249.78464023582</v>
       </c>
       <c r="G8">
-        <v>2843.905957010939</v>
+        <v>3292.777673629868</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13844.45234967304</v>
+        <v>15382.72483297004</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1133.134843503098</v>
+        <v>1259.038715003442</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>93734.19086178712</v>
+        <v>110275.518660926</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7887.835118536743</v>
+        <v>8764.261242818602</v>
       </c>
       <c r="C7">
-        <v>21102.32496835284</v>
+        <v>24826.2646686504</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11370,16 +11370,16 @@
         <v>107149.1193614598</v>
       </c>
       <c r="D8">
-        <v>1107.556187973842</v>
+        <v>1230.617986637603</v>
       </c>
       <c r="E8">
-        <v>90.65078748024781</v>
+        <v>100.7230972002753</v>
       </c>
       <c r="F8">
-        <v>3749.367634471488</v>
+        <v>4411.020746437046</v>
       </c>
       <c r="G8">
-        <v>2899.016008688958</v>
+        <v>3359.0525911469</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13318.95385099969</v>
+        <v>14798.83761222188</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1109.676249997118</v>
+        <v>1232.973611107908</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>95203.59420461094</v>
+        <v>112004.2284760129</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11556,10 +11556,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7609.137720049101</v>
+        <v>8454.597466721223</v>
       </c>
       <c r="C7">
-        <v>21433.13090549027</v>
+        <v>25215.4481241062</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11588,16 +11588,16 @@
         <v>108828.8188683613</v>
       </c>
       <c r="D8">
-        <v>1065.516308079975</v>
+        <v>1183.90700897775</v>
       </c>
       <c r="E8">
-        <v>88.77409999976936</v>
+        <v>98.63788888863263</v>
       </c>
       <c r="F8">
-        <v>3808.143768184441</v>
+        <v>4480.169139040519</v>
       </c>
       <c r="G8">
-        <v>2904.226862553936</v>
+        <v>3367.004559082742</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12946.35174359161</v>
+        <v>14384.83527065734</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1113.444081800163</v>
+        <v>1237.16009088907</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>94683.41689559731</v>
+        <v>111392.255171291</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7433.131345801587</v>
+        <v>8259.034828668431</v>
       </c>
       <c r="C7">
-        <v>21316.023684368</v>
+        <v>25077.67492278587</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11806,16 +11806,16 @@
         <v>108234.1954971007</v>
       </c>
       <c r="D8">
-        <v>1035.708139487328</v>
+        <v>1150.786821652587</v>
       </c>
       <c r="E8">
-        <v>89.07552654401296</v>
+        <v>98.97280727112552</v>
       </c>
       <c r="F8">
-        <v>3787.336675823896</v>
+        <v>4455.690206851643</v>
       </c>
       <c r="G8">
-        <v>2874.915503016958</v>
+        <v>3333.67097514543</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12327.97376579424</v>
+        <v>13697.74862866027</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1111.69066159527</v>
+        <v>1235.211846216967</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>92303.05474951136</v>
+        <v>108591.8291170722</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11992,10 +11992,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7132.549443110458</v>
+        <v>7925.054936789398</v>
       </c>
       <c r="C7">
-        <v>20780.13411101969</v>
+        <v>24447.21660119964</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12024,16 +12024,16 @@
         <v>105513.1637650346</v>
       </c>
       <c r="D8">
-        <v>986.237901263539</v>
+        <v>1095.819890292821</v>
       </c>
       <c r="E8">
-        <v>88.93525292762156</v>
+        <v>98.81694769735729</v>
       </c>
       <c r="F8">
-        <v>3692.122189980458</v>
+        <v>4343.673164682891</v>
       </c>
       <c r="G8">
-        <v>2791.268355413014</v>
+        <v>3237.227153798903</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10741.71604489519</v>
+        <v>11935.24004988354</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1032.927145801103</v>
+        <v>1147.696828667892</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>88340.53880215503</v>
+        <v>103930.0456495942</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12210,10 +12210,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6282.859558976593</v>
+        <v>6980.955065529548</v>
       </c>
       <c r="C7">
-        <v>19888.05515408187</v>
+        <v>23397.71194597867</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12242,16 +12242,16 @@
         <v>100983.5455935711</v>
       </c>
       <c r="D8">
-        <v>859.3372835916144</v>
+        <v>954.8192039906826</v>
       </c>
       <c r="E8">
-        <v>82.6341716640882</v>
+        <v>91.81574629343133</v>
       </c>
       <c r="F8">
-        <v>3533.621552086204</v>
+        <v>4157.201825983771</v>
       </c>
       <c r="G8">
-        <v>2617.091471305846</v>
+        <v>3037.866701150821</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12350,7 +12350,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7610.949281985982</v>
+        <v>8456.610313317757</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>810.8524529673997</v>
+        <v>900.9471699637775</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>83192.21805860419</v>
+        <v>97873.19771600494</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4535.298220316514</v>
+        <v>5039.220244796127</v>
       </c>
       <c r="C7">
-        <v>18729.01663918269</v>
+        <v>22034.13722256788</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12460,16 +12460,16 @@
         <v>95098.41415124388</v>
       </c>
       <c r="D8">
-        <v>608.8759425588783</v>
+        <v>676.5288250654202</v>
       </c>
       <c r="E8">
-        <v>64.86819623739194</v>
+        <v>72.07577359710216</v>
       </c>
       <c r="F8">
-        <v>3327.688722344171</v>
+        <v>3914.927908640201</v>
       </c>
       <c r="G8">
-        <v>2326.43148594992</v>
+        <v>2707.3357467364</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4082.772849685999</v>
+        <v>4536.414277428888</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>527.043781497166</v>
+        <v>585.6042016635178</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77332.26849020453</v>
+        <v>90979.13940024062</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12646,10 +12646,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2530.386689273837</v>
+        <v>2811.540765859819</v>
       </c>
       <c r="C7">
-        <v>17409.76953251203</v>
+        <v>20482.08180295532</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12678,16 +12678,16 @@
         <v>88399.80791179358</v>
       </c>
       <c r="D8">
-        <v>326.6218279748797</v>
+        <v>362.9131421943108</v>
       </c>
       <c r="E8">
-        <v>42.16350251977326</v>
+        <v>46.8483361330814</v>
       </c>
       <c r="F8">
-        <v>3093.290739608184</v>
+        <v>3639.165576009628</v>
       </c>
       <c r="G8">
-        <v>1994.015622178586</v>
+        <v>2329.362256881514</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12786,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2789.427350678681</v>
+        <v>3099.363722976312</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>404.6848837890077</v>
+        <v>449.6498708766752</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>71268.95720680599</v>
+        <v>83845.83200800704</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -12864,10 +12864,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1776.033335264262</v>
+        <v>1973.370372515847</v>
       </c>
       <c r="C7">
-        <v>16044.73971884221</v>
+        <v>18876.16437510848</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -12896,16 +12896,16 @@
         <v>81468.73549886243</v>
       </c>
       <c r="D8">
-        <v>223.1541880542944</v>
+        <v>247.9490978381048</v>
       </c>
       <c r="E8">
-        <v>32.3747907031206</v>
+        <v>35.97198967013399</v>
       </c>
       <c r="F8">
-        <v>2850.758288272242</v>
+        <v>3353.833280320285</v>
       </c>
       <c r="G8">
-        <v>1782.077305410647</v>
+        <v>2084.953474762432</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13004,7 +13004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.1252148176485E-12</v>
+        <v>6.805794241831667E-12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.321874948614034E-14</v>
+        <v>1.468749942904483E-14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02481263083715092</v>
+        <v>0.02919133039664814</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13082,10 +13082,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.972957914874434E-12</v>
+        <v>3.303286572082705E-12</v>
       </c>
       <c r="C7">
-        <v>0.00558605343931966</v>
+        <v>0.006571827575670189</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13114,16 +13114,16 @@
         <v>0.02836373279374604</v>
       </c>
       <c r="D8">
-        <v>4.900171854118797E-13</v>
+        <v>5.444635393465331E-13</v>
       </c>
       <c r="E8">
-        <v>1.057499958891227E-15</v>
+        <v>1.174999954323586E-15</v>
       </c>
       <c r="F8">
-        <v>0.0009925052334860377</v>
+        <v>0.001167653215865927</v>
       </c>
       <c r="G8">
-        <v>0.0005586053442292616</v>
+        <v>0.0006571827578973474</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2707.961462708167</v>
+        <v>3008.846069675741</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13248,7 +13248,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>374.3708829067367</v>
+        <v>415.9676476741518</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65502.20763343209</v>
+        <v>77061.42074521423</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1704.57943185128</v>
+        <v>1893.977146501422</v>
       </c>
       <c r="C7">
-        <v>14746.47467393577</v>
+        <v>17348.79373404209</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13332,16 +13332,16 @@
         <v>74876.66773058996</v>
       </c>
       <c r="D8">
-        <v>216.6369170166533</v>
+        <v>240.7076855740591</v>
       </c>
       <c r="E8">
-        <v>29.94967063253892</v>
+        <v>33.27741181393213</v>
       </c>
       <c r="F8">
-        <v>2620.088305337286</v>
+        <v>3082.456829808572</v>
       </c>
       <c r="G8">
-        <v>1645.105410578705</v>
+        <v>1924.27708805435</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13440,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2704.280775213036</v>
+        <v>3004.756416903373</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>340.3830064261952</v>
+        <v>378.2033404735503</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>60484.22235408412</v>
+        <v>71157.90865186368</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13518,10 +13518,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1666.811635266995</v>
+        <v>1852.012928074439</v>
       </c>
       <c r="C7">
-        <v>13616.77850781268</v>
+        <v>16019.73942095609</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13550,16 +13550,16 @@
         <v>69140.52493458812</v>
       </c>
       <c r="D8">
-        <v>216.3424620170428</v>
+        <v>240.3805133522697</v>
       </c>
       <c r="E8">
-        <v>27.2306405140956</v>
+        <v>30.25626723788401</v>
       </c>
       <c r="F8">
-        <v>2419.368894163367</v>
+        <v>2846.31634607455</v>
       </c>
       <c r="G8">
-        <v>1528.359014307967</v>
+        <v>1787.175234903053</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2750.984393814917</v>
+        <v>3056.649326461018</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>294.0868966138431</v>
+        <v>326.7632184598257</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>56583.70243091345</v>
+        <v>66569.06168342759</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13736,10 +13736,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1640.350243620342</v>
+        <v>1822.61138180038</v>
       </c>
       <c r="C7">
-        <v>12738.65668046741</v>
+        <v>14986.65491819696</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13768,16 +13768,16 @@
         <v>64681.77545398691</v>
       </c>
       <c r="D8">
-        <v>220.0787515051932</v>
+        <v>244.5319461168813</v>
       </c>
       <c r="E8">
-        <v>23.52695172910744</v>
+        <v>26.14105747678604</v>
       </c>
       <c r="F8">
-        <v>2263.34809723654</v>
+        <v>2662.762467337106</v>
       </c>
       <c r="G8">
-        <v>1437.900692408775</v>
+        <v>1680.926629999734</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -13876,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3076.166677422252</v>
+        <v>3417.962974913613</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>264.3338072713051</v>
+        <v>293.7042303014501</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>54055.40829046536</v>
+        <v>63594.59798878277</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -13954,10 +13954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1765.933344486898</v>
+        <v>1962.148160540998</v>
       </c>
       <c r="C7">
-        <v>12169.46326153677</v>
+        <v>14317.01560180797</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -13986,16 +13986,16 @@
         <v>61791.64018802824</v>
       </c>
       <c r="D8">
-        <v>246.09333419378</v>
+        <v>273.4370379930889</v>
       </c>
       <c r="E8">
-        <v>21.1467045817044</v>
+        <v>23.496338424116</v>
       </c>
       <c r="F8">
-        <v>2162.216331618616</v>
+        <v>2543.783919551313</v>
       </c>
       <c r="G8">
-        <v>1393.539660602367</v>
+        <v>1627.916376234896</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14094,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4071.459438228876</v>
+        <v>4523.843820254307</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14120,7 +14120,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>303.7790197783522</v>
+        <v>337.5322441981691</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>53019.33497350472</v>
+        <v>62375.68820412322</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2288.506545511872</v>
+        <v>2542.785050568747</v>
       </c>
       <c r="C7">
-        <v>11936.21266616138</v>
+        <v>14042.60313666045</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14204,16 +14204,16 @@
         <v>60607.28747227343</v>
       </c>
       <c r="D8">
-        <v>325.7167550583099</v>
+        <v>361.9075056203444</v>
       </c>
       <c r="E8">
-        <v>24.30232158226816</v>
+        <v>27.00257953585351</v>
       </c>
       <c r="F8">
-        <v>2120.773398940191</v>
+        <v>2495.027528164931</v>
       </c>
       <c r="G8">
-        <v>1422.471921167325</v>
+        <v>1658.538818722919</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5574.702414838108</v>
+        <v>6194.113794264565</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>411.6522686996675</v>
+        <v>457.3914096662972</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>53455.04725238129</v>
+        <v>62888.29088515446</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14390,10 +14390,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3128.918050794381</v>
+        <v>3476.575611993757</v>
       </c>
       <c r="C7">
-        <v>12034.30432318664</v>
+        <v>14158.00508610193</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14422,16 +14422,16 @@
         <v>61105.35745663419</v>
       </c>
       <c r="D8">
-        <v>445.9761931870484</v>
+        <v>495.5291035411649</v>
       </c>
       <c r="E8">
-        <v>32.93218149597338</v>
+        <v>36.59131277330376</v>
       </c>
       <c r="F8">
-        <v>2138.201890095253</v>
+        <v>2515.531635406181</v>
       </c>
       <c r="G8">
-        <v>1516.322237398102</v>
+        <v>1763.458069809568</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7405.451506626131</v>
+        <v>8228.279451806811</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14556,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>563.380378851658</v>
+        <v>625.9781987240643</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55214.68796314856</v>
+        <v>64958.45642723359</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14608,10 +14608,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4173.978649874477</v>
+        <v>4637.754055416085</v>
       </c>
       <c r="C7">
-        <v>12430.45123355905</v>
+        <v>14624.06027477535</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14640,16 +14640,16 @@
         <v>63116.83214711609</v>
       </c>
       <c r="D8">
-        <v>592.4361205300902</v>
+        <v>658.2623561445446</v>
       </c>
       <c r="E8">
-        <v>45.07043030813261</v>
+        <v>50.07825589792512</v>
       </c>
       <c r="F8">
-        <v>2208.587518525944</v>
+        <v>2598.338257089346</v>
       </c>
       <c r="G8">
-        <v>1660.442988343352</v>
+        <v>1926.181433019143</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9560.439971966074</v>
+        <v>10622.7110799623</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14774,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>744.9032059273114</v>
+        <v>827.6702288081239</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>58053.019609323</v>
+        <v>68297.67012861528</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -14826,10 +14826,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5407.221974107073</v>
+        <v>6008.024415674527</v>
       </c>
       <c r="C7">
-        <v>13069.44321945936</v>
+        <v>15375.81555230514</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14858,16 +14858,16 @@
         <v>66361.37646490714</v>
       </c>
       <c r="D8">
-        <v>764.8351977572855</v>
+        <v>849.8168863969839</v>
       </c>
       <c r="E8">
-        <v>59.59225647418489</v>
+        <v>66.21361830464987</v>
       </c>
       <c r="F8">
-        <v>2322.120784372922</v>
+        <v>2731.906805144614</v>
       </c>
       <c r="G8">
-        <v>1847.666519356643</v>
+        <v>2138.383996797966</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14966,7 +14966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11820.13404155764</v>
+        <v>13133.48226839738</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>935.4269989274582</v>
+        <v>1039.36333214162</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>61667.31408316152</v>
+        <v>72549.78127430766</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15044,10 +15044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6700.577457326028</v>
+        <v>7445.086063695587</v>
       </c>
       <c r="C7">
-        <v>13883.12727452017</v>
+        <v>16333.0909112002</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15076,16 +15076,16 @@
         <v>70492.93685310982</v>
       </c>
       <c r="D8">
-        <v>945.6107233246108</v>
+        <v>1050.67858147179</v>
       </c>
       <c r="E8">
-        <v>74.83415991419662</v>
+        <v>83.14906657132956</v>
       </c>
       <c r="F8">
-        <v>2466.692563326463</v>
+        <v>2901.991250972309</v>
       </c>
       <c r="G8">
-        <v>2058.370473184619</v>
+        <v>2377.817697489578</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15184,7 +15184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13531.47967580483</v>
+        <v>15034.97741756092</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1082.120129376935</v>
+        <v>1202.355699307705</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>65737.24902064721</v>
+        <v>77337.94002429085</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15262,10 +15262,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7682.625257697971</v>
+        <v>8536.25028633108</v>
       </c>
       <c r="C7">
-        <v>14799.38940748631</v>
+        <v>17411.04636174859</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15294,16 +15294,16 @@
         <v>75145.34746657585</v>
       </c>
       <c r="D8">
-        <v>1082.518374064386</v>
+        <v>1202.798193404873</v>
       </c>
       <c r="E8">
-        <v>86.56961035015473</v>
+        <v>96.18845594461639</v>
       </c>
       <c r="F8">
-        <v>2629.489960825891</v>
+        <v>3093.517600971637</v>
       </c>
       <c r="G8">
-        <v>2248.201466518427</v>
+        <v>2594.729664807967</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.500378435629598E-10</v>
+        <v>6.111531595143997E-10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.399737007547363E-12</v>
+        <v>1.555263341719293E-12</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07852523677760179</v>
+        <v>0.09238263150306092</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15480,10 +15480,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.671937270853777E-10</v>
+        <v>2.968819189837531E-10</v>
       </c>
       <c r="C7">
-        <v>0.01767834180316528</v>
+        <v>0.02079804918019446</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15512,16 +15512,16 @@
         <v>0.08976350988911418</v>
       </c>
       <c r="D8">
-        <v>4.400302748503676E-11</v>
+        <v>4.889225276115195E-11</v>
       </c>
       <c r="E8">
-        <v>1.11978960603789E-13</v>
+        <v>1.244210673375434E-13</v>
       </c>
       <c r="F8">
-        <v>0.003141009471104074</v>
+        <v>0.00369530526012244</v>
       </c>
       <c r="G8">
-        <v>0.001767834207035901</v>
+        <v>0.002079804947707637</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15620,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14236.6915206248</v>
+        <v>15818.54613402755</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15646,7 +15646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1147.127684732556</v>
+        <v>1274.586316369506</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>69956.73378462592</v>
+        <v>82302.03974661874</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15698,10 +15698,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8092.134501554601</v>
+        <v>8991.260557282889</v>
       </c>
       <c r="C7">
-        <v>15749.31960766038</v>
+        <v>18528.61130312986</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15730,16 +15730,16 @@
         <v>79968.71098486843</v>
       </c>
       <c r="D8">
-        <v>1138.935321649983</v>
+        <v>1265.483690722204</v>
       </c>
       <c r="E8">
-        <v>91.77021477860441</v>
+        <v>101.9669053095605</v>
       </c>
       <c r="F8">
-        <v>2798.269351385039</v>
+        <v>3292.081589864752</v>
       </c>
       <c r="G8">
-        <v>2384.145410921497</v>
+        <v>2751.987186041275</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14229.64731871726</v>
+        <v>15810.71924301918</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1155.499874068903</v>
+        <v>1283.888748965448</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>74054.46655000591</v>
+        <v>87122.90182353636</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8097.596902441257</v>
+        <v>8997.329891601397</v>
       </c>
       <c r="C7">
-        <v>16671.839849778</v>
+        <v>19613.92923503295</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -15948,16 +15948,16 @@
         <v>84652.89775975059</v>
       </c>
       <c r="D8">
-        <v>1138.37178549738</v>
+        <v>1264.857539441534</v>
       </c>
       <c r="E8">
-        <v>92.43998992551221</v>
+        <v>102.7110999172358</v>
       </c>
       <c r="F8">
-        <v>2962.178662000239</v>
+        <v>3484.916072941458</v>
       </c>
       <c r="G8">
-        <v>2476.943675221926</v>
+        <v>2861.125912663434</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13925.09430492731</v>
+        <v>15472.32700547478</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1143.562810346138</v>
+        <v>1270.625344829042</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77804.80715895641</v>
+        <v>91535.06724583106</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16134,10 +16134,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7937.833692232452</v>
+        <v>8819.815213591613</v>
       </c>
       <c r="C7">
-        <v>17516.15189370207</v>
+        <v>20607.23752200243</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16166,16 +16166,16 @@
         <v>88939.97475758904</v>
       </c>
       <c r="D8">
-        <v>1114.007544394184</v>
+        <v>1237.786160437982</v>
       </c>
       <c r="E8">
-        <v>91.48502482769099</v>
+        <v>101.6500275863233</v>
       </c>
       <c r="F8">
-        <v>3112.192286358259</v>
+        <v>3661.402689833245</v>
       </c>
       <c r="G8">
-        <v>2545.398558593451</v>
+        <v>2942.705273559404</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16274,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13461.50353159636</v>
+        <v>14957.22614621818</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1125.544779335594</v>
+        <v>1250.605310372882</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81032.7187186751</v>
+        <v>95332.61025726484</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16352,10 +16352,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7694.803602240763</v>
+        <v>8549.781780267514</v>
       </c>
       <c r="C7">
-        <v>18242.84978351183</v>
+        <v>21462.17621589628</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16384,16 +16384,16 @@
         <v>92629.85438230916</v>
       </c>
       <c r="D8">
-        <v>1076.920282527708</v>
+        <v>1196.578091697454</v>
       </c>
       <c r="E8">
-        <v>90.04358234684749</v>
+        <v>100.0484248298305</v>
       </c>
       <c r="F8">
-        <v>3241.308748747007</v>
+        <v>3813.304410290597</v>
       </c>
       <c r="G8">
-        <v>2593.765338575259</v>
+        <v>3001.195799616379</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12858.24428679157</v>
+        <v>14286.93809643508</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16518,7 +16518,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1105.567421808281</v>
+        <v>1228.408246453645</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>83615.78806914068</v>
+        <v>98371.51537545962</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16570,10 +16570,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7382.22792435844</v>
+        <v>8202.475471509377</v>
       </c>
       <c r="C7">
-        <v>18824.37471425659</v>
+        <v>22146.32319324305</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16602,16 +16602,16 @@
         <v>95582.60410583396</v>
       </c>
       <c r="D8">
-        <v>1028.659542943326</v>
+        <v>1142.955047714806</v>
       </c>
       <c r="E8">
-        <v>88.44539374466241</v>
+        <v>98.27265971629156</v>
       </c>
       <c r="F8">
-        <v>3344.63152276563</v>
+        <v>3934.860615018389</v>
       </c>
       <c r="G8">
-        <v>2620.660263861503</v>
+        <v>3034.879866475242</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12010.16471276746</v>
+        <v>13344.62745863051</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1074.509897507934</v>
+        <v>1193.899886119927</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85484.36830295481</v>
+        <v>100569.8450622998</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16788,10 +16788,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6939.651989224236</v>
+        <v>7710.724432471373</v>
       </c>
       <c r="C7">
-        <v>19245.04711736646</v>
+        <v>22641.23190278407</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16820,16 +16820,16 @@
         <v>97718.60938489632</v>
       </c>
       <c r="D8">
-        <v>960.8131770213961</v>
+        <v>1067.57019669044</v>
       </c>
       <c r="E8">
-        <v>85.96079180063468</v>
+        <v>95.5119908895941</v>
       </c>
       <c r="F8">
-        <v>3419.374732118195</v>
+        <v>4022.793802491994</v>
       </c>
       <c r="G8">
-        <v>2618.469910659069</v>
+        <v>3035.195633525543</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10672.40801758999</v>
+        <v>11858.23113065554</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1006.067047061486</v>
+        <v>1117.852274512762</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>86619.60761906448</v>
+        <v>101905.4207283112</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17006,10 +17006,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6220.936192845136</v>
+        <v>6912.151325383485</v>
       </c>
       <c r="C7">
-        <v>19500.62289761425</v>
+        <v>22941.90929131088</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17038,16 +17038,16 @@
         <v>99016.32041080167</v>
       </c>
       <c r="D8">
-        <v>853.7926414071985</v>
+        <v>948.6584904524427</v>
       </c>
       <c r="E8">
-        <v>80.48536376491883</v>
+        <v>89.42818196102094</v>
       </c>
       <c r="F8">
-        <v>3464.784304762582</v>
+        <v>4076.21682913245</v>
       </c>
       <c r="G8">
-        <v>2572.155909045938</v>
+        <v>2985.406061669436</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8785.73621498068</v>
+        <v>9761.92912775631</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>884.655711645587</v>
+        <v>982.9507907173189</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>87049.1220498155</v>
+        <v>102410.7318233124</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17224,10 +17224,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5180.962933636572</v>
+        <v>5756.625481818412</v>
       </c>
       <c r="C7">
-        <v>19597.31923662324</v>
+        <v>23055.66969014499</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17256,16 +17256,16 @@
         <v>99507.30553143786</v>
       </c>
       <c r="D8">
-        <v>702.858897198454</v>
+        <v>780.9543302205044</v>
       </c>
       <c r="E8">
-        <v>70.77245693164693</v>
+        <v>78.63606325738547</v>
       </c>
       <c r="F8">
-        <v>3481.964881992623</v>
+        <v>4096.429272932498</v>
       </c>
       <c r="G8">
-        <v>2477.828217025981</v>
+        <v>2881.229517196339</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6825.365142154439</v>
+        <v>7583.739046838265</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>739.8387888330925</v>
+        <v>822.0430987034362</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17419,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>86840.75144579509</v>
+        <v>102165.5899362295</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17442,10 +17442,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4080.602971811062</v>
+        <v>4534.003302012292</v>
       </c>
       <c r="C7">
-        <v>19550.4088812933</v>
+        <v>23000.48103681565</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17474,16 +17474,16 @@
         <v>99269.11361324524</v>
       </c>
       <c r="D8">
-        <v>546.0292113723549</v>
+        <v>606.699123747061</v>
       </c>
       <c r="E8">
-        <v>59.18710310664737</v>
+        <v>65.76344789627485</v>
       </c>
       <c r="F8">
-        <v>3473.630057831807</v>
+        <v>4086.623597449184</v>
       </c>
       <c r="G8">
-        <v>2363.101185310436</v>
+        <v>2753.448433882794</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17582,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5465.393538502153</v>
+        <v>6072.659487224614</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>624.09505846297</v>
+        <v>693.4389538477444</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>86095.30885507658</v>
+        <v>101288.5986530313</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17660,10 +17660,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3301.068763529998</v>
+        <v>3667.854181699998</v>
       </c>
       <c r="C7">
-        <v>19382.58781568249</v>
+        <v>22803.04448903822</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17692,16 +17692,16 @@
         <v>98416.98573551289</v>
       </c>
       <c r="D8">
-        <v>437.231483080172</v>
+        <v>485.8127589779689</v>
       </c>
       <c r="E8">
-        <v>49.92760467703757</v>
+        <v>55.47511630781953</v>
       </c>
       <c r="F8">
-        <v>3443.812354203066</v>
+        <v>4051.543946121255</v>
       </c>
       <c r="G8">
-        <v>2268.365657921248</v>
+        <v>2647.089867073822</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.175834217722863E-08</v>
+        <v>2.417593575247626E-08</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -17826,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.604224413594777E-11</v>
+        <v>7.338027126216418E-11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2133165000860991</v>
+        <v>0.2509605883365872</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.058092295201097E-08</v>
+        <v>1.175658105778996E-08</v>
       </c>
       <c r="C7">
-        <v>0.04802382209247468</v>
+        <v>0.0564986142264408</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -17910,16 +17910,16 @@
         <v>0.2438456546042723</v>
       </c>
       <c r="D8">
-        <v>1.74066737417829E-09</v>
+        <v>1.9340748601981E-09</v>
       </c>
       <c r="E8">
-        <v>5.283379530875819E-12</v>
+        <v>5.870421700973132E-12</v>
       </c>
       <c r="F8">
-        <v>0.008532660003443973</v>
+        <v>0.0100384235334635</v>
       </c>
       <c r="G8">
-        <v>0.004802383267339763</v>
+        <v>0.005649862598302184</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4791.978154119257</v>
+        <v>5324.420171243619</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>548.0992054814587</v>
+        <v>608.9991172016208</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>84939.11188843763</v>
+        <v>99928.36692757369</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18096,10 +18096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2895.284211814434</v>
+        <v>3216.982457571593</v>
       </c>
       <c r="C7">
-        <v>19122.29385151508</v>
+        <v>22496.81629590009</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18128,16 +18128,16 @@
         <v>97095.31766919943</v>
       </c>
       <c r="D8">
-        <v>383.3582523295404</v>
+        <v>425.9536136994893</v>
       </c>
       <c r="E8">
-        <v>43.84793643851668</v>
+        <v>48.71992937612964</v>
       </c>
       <c r="F8">
-        <v>3397.564475537508</v>
+        <v>3997.134677102951</v>
       </c>
       <c r="G8">
-        <v>2201.757806332951</v>
+        <v>2571.379875347168</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18236,7 +18236,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4628.668202811773</v>
+        <v>5142.964669790859</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>502.7508483810207</v>
+        <v>558.6120537566896</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>83516.56463723704</v>
+        <v>98254.78192616123</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18314,10 +18314,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2768.373319945811</v>
+        <v>3075.970355495345</v>
       </c>
       <c r="C7">
-        <v>18802.03659958088</v>
+        <v>22120.04305833045</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18346,16 +18346,16 @@
         <v>95469.18014334228</v>
       </c>
       <c r="D8">
-        <v>370.2934562249417</v>
+        <v>411.4371735832685</v>
       </c>
       <c r="E8">
-        <v>40.22006787048164</v>
+        <v>44.68896430053515</v>
       </c>
       <c r="F8">
-        <v>3340.662585489485</v>
+        <v>3930.191277046453</v>
       </c>
       <c r="G8">
-        <v>2157.040991952669</v>
+        <v>2519.601341382579</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18454,7 +18454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4718.383797387757</v>
+        <v>5242.648663764175</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18480,7 +18480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>469.3355946711923</v>
+        <v>521.4839940791026</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81982.48075978161</v>
+        <v>96449.97736444895</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18532,10 +18532,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2776.329624330454</v>
+        <v>3084.810693700504</v>
       </c>
       <c r="C7">
-        <v>18456.66917054413</v>
+        <v>21713.72843593427</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18564,16 +18564,16 @@
         <v>93715.5432368442</v>
       </c>
       <c r="D8">
-        <v>377.4707037910204</v>
+        <v>419.4118931011338</v>
       </c>
       <c r="E8">
-        <v>37.54684757369537</v>
+        <v>41.71871952632819</v>
       </c>
       <c r="F8">
-        <v>3279.299230391267</v>
+        <v>3857.999094577961</v>
       </c>
       <c r="G8">
-        <v>2123.299879487458</v>
+        <v>2479.853912963477</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5056.543435594983</v>
+        <v>5618.381595105537</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18698,7 +18698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>451.8021040945205</v>
+        <v>502.0023378828005</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80493.53775772848</v>
+        <v>94698.27971497469</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2921.12113159644</v>
+        <v>3245.690146218267</v>
       </c>
       <c r="C7">
-        <v>18121.46428106032</v>
+        <v>21319.3697424239</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -18782,16 +18782,16 @@
         <v>92013.5076190765</v>
       </c>
       <c r="D8">
-        <v>404.5234748475984</v>
+        <v>449.4705276084427</v>
       </c>
       <c r="E8">
-        <v>36.14416832756162</v>
+        <v>40.16018703062402</v>
       </c>
       <c r="F8">
-        <v>3219.741510309142</v>
+        <v>3787.931188598991</v>
       </c>
       <c r="G8">
-        <v>2104.258541265675</v>
+        <v>2456.505988864216</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -18890,7 +18890,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5839.969319899275</v>
+        <v>6488.854799888083</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18916,7 +18916,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>476.2084851800881</v>
+        <v>529.1205390889868</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>79198.4023815909</v>
+        <v>93174.59103716578</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -18968,10 +18968,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3325.421358484366</v>
+        <v>3694.912620538184</v>
       </c>
       <c r="C7">
-        <v>17829.89119194533</v>
+        <v>20976.34257875921</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19000,16 +19000,16 @@
         <v>90533.01673596172</v>
       </c>
       <c r="D8">
-        <v>467.1975455919418</v>
+        <v>519.1083839910464</v>
       </c>
       <c r="E8">
-        <v>38.09667881440703</v>
+        <v>42.32964312711892</v>
       </c>
       <c r="F8">
-        <v>3167.936095263639</v>
+        <v>3726.983641486634</v>
       </c>
       <c r="G8">
-        <v>2115.531255042969</v>
+        <v>2467.125519929739</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19108,7 +19108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7115.045271624449</v>
+        <v>7905.605857360498</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>555.7193891508109</v>
+        <v>617.4659879453454</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78226.69354310456</v>
+        <v>92031.40416835831</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19186,10 +19186,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4025.577377996806</v>
+        <v>4472.863753329783</v>
       </c>
       <c r="C7">
-        <v>17611.13093492668</v>
+        <v>20718.97757050198</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19218,16 +19218,16 @@
         <v>89422.24013073042</v>
       </c>
       <c r="D8">
-        <v>569.2036217299557</v>
+        <v>632.4484685888395</v>
       </c>
       <c r="E8">
-        <v>44.45755113206485</v>
+        <v>49.39727903562761</v>
       </c>
       <c r="F8">
-        <v>3129.067741724185</v>
+        <v>3681.256166734336</v>
       </c>
       <c r="G8">
-        <v>2163.670831292348</v>
+        <v>2519.184132383176</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8758.217047912842</v>
+        <v>9731.352275458712</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>681.6323388925792</v>
+        <v>757.3692654361992</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77677.87502156118</v>
+        <v>91385.73531948373</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19404,10 +19404,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4952.687725549166</v>
+        <v>5502.986361721296</v>
       </c>
       <c r="C7">
-        <v>17487.57573395059</v>
+        <v>20573.61851053011</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19436,16 +19436,16 @@
         <v>88794.8765109885</v>
       </c>
       <c r="D8">
-        <v>700.657363833027</v>
+        <v>778.5081820366966</v>
       </c>
       <c r="E8">
-        <v>54.53058711140631</v>
+        <v>60.5895412348959</v>
       </c>
       <c r="F8">
-        <v>3107.11500086245</v>
+        <v>3655.429412779353</v>
       </c>
       <c r="G8">
-        <v>2244.026345949975</v>
+        <v>2607.66048722514</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10599.07566632793</v>
+        <v>11776.75074036436</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19570,7 +19570,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>833.7715025332906</v>
+        <v>926.412780592545</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>77611.95016739808</v>
+        <v>91308.17666752716</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19622,10 +19622,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6003.067285454991</v>
+        <v>6670.074761616657</v>
       </c>
       <c r="C7">
-        <v>17472.73410910431</v>
+        <v>20556.15777541683</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19654,16 +19654,16 @@
         <v>88719.51670894974</v>
       </c>
       <c r="D8">
-        <v>847.9260533062338</v>
+        <v>942.1400592291486</v>
       </c>
       <c r="E8">
-        <v>66.70172020266321</v>
+        <v>74.11302244740357</v>
       </c>
       <c r="F8">
-        <v>3104.478006695926</v>
+        <v>3652.32706670109</v>
       </c>
       <c r="G8">
-        <v>2347.580139455929</v>
+        <v>2722.623253703348</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19762,7 +19762,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12452.52070264627</v>
+        <v>13836.13411405141</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19788,7 +19788,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>990.5888889539552</v>
+        <v>1100.65432105995</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78044.02900599089</v>
+        <v>91816.50471293046</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -19840,10 +19840,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7064.480841635486</v>
+        <v>7849.423157372762</v>
       </c>
       <c r="C7">
-        <v>17570.00777178923</v>
+        <v>20670.59737857557</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -19872,16 +19872,16 @@
         <v>89213.43324702713</v>
       </c>
       <c r="D8">
-        <v>996.2016562117009</v>
+        <v>1106.890729124112</v>
       </c>
       <c r="E8">
-        <v>79.24711111631638</v>
+        <v>88.05234568479598</v>
       </c>
       <c r="F8">
-        <v>3121.761160239638</v>
+        <v>3672.660188517222</v>
       </c>
       <c r="G8">
-        <v>2463.448861342471</v>
+        <v>2852.002053594832</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -19980,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14055.80112274065</v>
+        <v>15617.55680304517</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20006,7 +20006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1128.323211039762</v>
+        <v>1253.692456710847</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>78944.21773957922</v>
+        <v>92875.55028185791</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20058,10 +20058,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7984.83816776511</v>
+        <v>8872.0424086279</v>
       </c>
       <c r="C7">
-        <v>17772.66674835245</v>
+        <v>20909.01970394406</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20090,16 +20090,16 @@
         <v>90242.45402563846</v>
       </c>
       <c r="D8">
-        <v>1124.464089819252</v>
+        <v>1249.404544243613</v>
       </c>
       <c r="E8">
-        <v>90.26585688318094</v>
+        <v>100.2953965368677</v>
       </c>
       <c r="F8">
-        <v>3157.768709583172</v>
+        <v>3715.02201127432</v>
       </c>
       <c r="G8">
-        <v>2575.750491611755</v>
+        <v>2978.106211257195</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20198,7 +20198,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.881244191241091E-07</v>
+        <v>5.423604656934545E-07</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20224,7 +20224,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.807522078220731E-09</v>
+        <v>2.008357864689701E-09</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.5160116990045844</v>
+        <v>0.6070725870642171</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20276,10 +20276,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.377164759972088E-07</v>
+        <v>2.641294177746764E-07</v>
       </c>
       <c r="C7">
-        <v>0.116169419714976</v>
+        <v>0.1366699055470306</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20308,16 +20308,16 @@
         <v>0.5898615928746678</v>
       </c>
       <c r="D8">
-        <v>3.90499535299287E-08</v>
+        <v>4.338883725547634E-08</v>
       </c>
       <c r="E8">
-        <v>1.446017662576584E-10</v>
+        <v>1.60668629175176E-10</v>
       </c>
       <c r="F8">
-        <v>0.0206404679601834</v>
+        <v>0.02428290348256871</v>
       </c>
       <c r="G8">
-        <v>0.01161696574314519</v>
+        <v>0.01366701696764483</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15075.03793201138</v>
+        <v>16750.04214667931</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1219.631751113936</v>
+        <v>1355.146390126595</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20471,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>80243.0340466186</v>
+        <v>94403.56946661013</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20494,10 +20494,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8573.896263457153</v>
+        <v>9526.55140384128</v>
       </c>
       <c r="C7">
-        <v>18065.06852334355</v>
+        <v>21253.02179216888</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20526,16 +20526,16 @@
         <v>91727.15264235536</v>
       </c>
       <c r="D8">
-        <v>1206.003034560909</v>
+        <v>1340.003371734344</v>
       </c>
       <c r="E8">
-        <v>97.57054008911483</v>
+        <v>108.4117112101276</v>
       </c>
       <c r="F8">
-        <v>3209.721361864747</v>
+        <v>3776.142778664409</v>
       </c>
       <c r="G8">
-        <v>2663.896478680069</v>
+        <v>3077.957319601016</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15405.55004379577</v>
+        <v>17117.27782643975</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20660,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1256.661702792903</v>
+        <v>1396.290780881003</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>81841.23027332878</v>
+        <v>96283.80032156326</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20712,10 +20712,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8772.770598860992</v>
+        <v>9747.522887623325</v>
       </c>
       <c r="C7">
-        <v>18424.86952902953</v>
+        <v>21676.31709297592</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20744,16 +20744,16 @@
         <v>93554.07744625436</v>
       </c>
       <c r="D8">
-        <v>1232.444003503661</v>
+        <v>1369.382226115179</v>
       </c>
       <c r="E8">
-        <v>100.5329362234322</v>
+        <v>111.7032624704802</v>
       </c>
       <c r="F8">
-        <v>3273.649210933154</v>
+        <v>3851.352012862534</v>
       </c>
       <c r="G8">
-        <v>2719.764012789052</v>
+        <v>3142.383998059924</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15221.02705061319</v>
+        <v>16912.2522784591</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1255.127554147067</v>
+        <v>1394.586171274519</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>83622.03582969127</v>
+        <v>98378.86568198974</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -20930,10 +20930,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8682.00696904699</v>
+        <v>9646.67441005221</v>
       </c>
       <c r="C7">
-        <v>18825.78126902867</v>
+        <v>22147.97796356314</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -20962,16 +20962,16 @@
         <v>95589.74602528538</v>
       </c>
       <c r="D8">
-        <v>1217.682164049055</v>
+        <v>1352.980182276727</v>
       </c>
       <c r="E8">
-        <v>100.4102043317653</v>
+        <v>111.5668937019614</v>
       </c>
       <c r="F8">
-        <v>3344.881433187654</v>
+        <v>3935.154627279593</v>
       </c>
       <c r="G8">
-        <v>2750.778823807565</v>
+        <v>3179.465237361534</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21070,7 +21070,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14743.97645732988</v>
+        <v>16382.19606369986</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1235.210471005243</v>
+        <v>1372.456078894714</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>85463.69772153326</v>
+        <v>100545.5267312156</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21148,10 +21148,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8430.463822443304</v>
+        <v>9367.182024937005</v>
       </c>
       <c r="C7">
-        <v>19240.39356115146</v>
+        <v>22635.75713076643</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21180,16 +21180,16 @@
         <v>97694.98049798061</v>
       </c>
       <c r="D8">
-        <v>1179.518116586389</v>
+        <v>1310.575685095988</v>
       </c>
       <c r="E8">
-        <v>98.81683768041937</v>
+        <v>109.796486311577</v>
       </c>
       <c r="F8">
-        <v>3418.547908861333</v>
+        <v>4021.821069248628</v>
       </c>
       <c r="G8">
-        <v>2767.085738359476</v>
+        <v>3200.293915570342</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21288,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14087.84894902507</v>
+        <v>15653.16549891675</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1207.580481664509</v>
+        <v>1341.756090738343</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>87250.66242797299</v>
+        <v>102647.8381505565</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21366,10 +21366,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8084.245248800178</v>
+        <v>8982.494720889086</v>
       </c>
       <c r="C7">
-        <v>19642.6919070973</v>
+        <v>23109.04930246741</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21398,16 +21398,16 @@
         <v>99737.68970435073</v>
       </c>
       <c r="D8">
-        <v>1127.027915922005</v>
+        <v>1252.253239913339</v>
       </c>
       <c r="E8">
-        <v>96.60643853316066</v>
+        <v>107.3404872590674</v>
       </c>
       <c r="F8">
-        <v>3490.026497118923</v>
+        <v>4105.913526022262</v>
       </c>
       <c r="G8">
-        <v>2772.693715589747</v>
+        <v>3209.154402335649</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13200.89514887332</v>
+        <v>14667.66127652592</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21532,7 +21532,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1167.207625901674</v>
+        <v>1296.897362112971</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>88882.44543898436</v>
+        <v>104567.5828693934</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21584,10 +21584,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7613.02600746797</v>
+        <v>8458.917786075523</v>
       </c>
       <c r="C7">
-        <v>20010.05428639146</v>
+        <v>23541.24033693113</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21616,16 +21616,16 @@
         <v>101603.0081224365</v>
       </c>
       <c r="D8">
-        <v>1056.071611909865</v>
+        <v>1173.412902122073</v>
       </c>
       <c r="E8">
-        <v>93.3766100721339</v>
+        <v>103.7517889690377</v>
       </c>
       <c r="F8">
-        <v>3555.297817559378</v>
+        <v>4182.703314775738</v>
       </c>
       <c r="G8">
-        <v>2762.308029385942</v>
+        <v>3200.015812300665</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21724,7 +21724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11987.90969319096</v>
+        <v>13319.89965910107</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1102.289370974484</v>
+        <v>1224.765967749426</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>90279.86724841302</v>
+        <v>106211.6085275447</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -21802,10 +21802,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6958.316726139744</v>
+        <v>7731.463029044159</v>
       </c>
       <c r="C7">
-        <v>20324.65506193887</v>
+        <v>23911.35889639867</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -21834,16 +21834,16 @@
         <v>103200.424336095</v>
       </c>
       <c r="D8">
-        <v>959.0327754552767</v>
+        <v>1065.591972728085</v>
       </c>
       <c r="E8">
-        <v>88.18314967795864</v>
+        <v>97.98127741995404</v>
       </c>
       <c r="F8">
-        <v>3611.194689936524</v>
+        <v>4248.464341101793</v>
       </c>
       <c r="G8">
-        <v>2728.297178807861</v>
+        <v>3164.282192544282</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10443.38942044475</v>
+        <v>11603.76602271638</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1005.528954877607</v>
+        <v>1117.254394308452</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>91388.71020667427</v>
+        <v>107516.1296549109</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22020,10 +22020,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6109.73240949256</v>
+        <v>6788.591566102844</v>
       </c>
       <c r="C7">
-        <v>20574.28824518788</v>
+        <v>24205.04499433869</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22052,16 +22052,16 @@
         <v>104467.9612444046</v>
       </c>
       <c r="D8">
-        <v>835.4711536355793</v>
+        <v>928.3012818173102</v>
       </c>
       <c r="E8">
-        <v>80.44231639020853</v>
+        <v>89.38035154467615</v>
       </c>
       <c r="F8">
-        <v>3655.548408266974</v>
+        <v>4300.645186196441</v>
       </c>
       <c r="G8">
-        <v>2668.402065468044</v>
+        <v>3099.363656044153</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22160,7 +22160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8774.678532211654</v>
+        <v>9749.642813568504</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>886.7355570898757</v>
+        <v>985.2617300998618</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>92181.02622265785</v>
+        <v>108448.2661443033</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22238,10 +22238,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5177.823549679048</v>
+        <v>5753.137277421165</v>
       </c>
       <c r="C7">
-        <v>20752.66189831484</v>
+        <v>24414.89635095863</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22270,16 +22270,16 @@
         <v>105373.6709175568</v>
       </c>
       <c r="D8">
-        <v>701.974282576932</v>
+        <v>779.97142508548</v>
       </c>
       <c r="E8">
-        <v>70.93884456719002</v>
+        <v>78.8209384079889</v>
       </c>
       <c r="F8">
-        <v>3687.241048906317</v>
+        <v>4337.930645772138</v>
       </c>
       <c r="G8">
-        <v>2593.048544799388</v>
+        <v>3016.803362837979</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -22378,7 +22378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7357.912009440308</v>
+        <v>8175.457788267009</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>772.4912538829191</v>
+        <v>858.3236154254657</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22433,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>92654.3923701685</v>
+        <v>109005.1674943159</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -22456,10 +22456,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4372.44066995319</v>
+        <v>4858.267411059101</v>
       </c>
       <c r="C7">
-        <v>20859.23054932625</v>
+        <v>24540.27123450147</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -22488,16 +22488,16 @@
         <v>105914.7836681441</v>
       </c>
       <c r="D8">
-        <v>588.6329607552243</v>
+        <v>654.0366230613604</v>
       </c>
       <c r="E8">
-        <v>61.79930031063349</v>
+        <v>68.66588923403722</v>
       </c>
       <c r="F8">
-        <v>3706.175694806743</v>
+        <v>4360.20669977264</v>
       </c>
       <c r="G8">
-        <v>2523.167121927944</v>
+        <v>2939.853864556057</v>
       </c>
       <c r="H8">
         <v>0</v>
